--- a/python/Pi1.xlsx
+++ b/python/Pi1.xlsx
@@ -354,13 +354,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:ALM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:1001">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -406,52 +406,5968 @@
       <c r="O1" s="1">
         <v>15.972</v>
       </c>
+      <c r="P1" s="1">
+        <v>16.97</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>17.968</v>
+      </c>
+      <c r="R1" s="1">
+        <v>18.966</v>
+      </c>
+      <c r="S1" s="1">
+        <v>19.964</v>
+      </c>
+      <c r="T1" s="1">
+        <v>20.962</v>
+      </c>
+      <c r="U1" s="1">
+        <v>21.96</v>
+      </c>
+      <c r="V1" s="1">
+        <v>22.958</v>
+      </c>
+      <c r="W1" s="1">
+        <v>23.956</v>
+      </c>
+      <c r="X1" s="1">
+        <v>24.954</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>25.952</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>26.95</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>27.948</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>28.946</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>29.944</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>30.942</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>31.94</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>32.938</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>33.936</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>34.934</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>35.932</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>36.93</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>37.928</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>38.926</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>39.924</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>40.922</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>41.92</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>42.918</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>43.916</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>44.914</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>45.912</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>46.91</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>47.908</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>48.906</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>49.904</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>50.902</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>52.898</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>53.896</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>54.894</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>55.892</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>56.89</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>57.888</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>58.886</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>59.884</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>60.882</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>61.88</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>62.878</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>63.876</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>64.874</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>65.872</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>66.87</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>67.86799999999999</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>68.866</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>69.864</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>70.86199999999999</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>71.86</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>72.858</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>73.85599999999999</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>74.854</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>75.852</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>76.84999999999999</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>77.848</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>78.846</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>79.84399999999999</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>80.842</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>81.84</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>82.83799999999999</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>83.836</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>84.834</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>85.83199999999999</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>86.83</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>87.828</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>88.82599999999999</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>89.824</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>90.822</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>91.81999999999999</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>92.818</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>93.816</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>94.81399999999999</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>95.812</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>96.81</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>97.80800000000001</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>98.806</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>99.804</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>100.802</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>101.8</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>102.798</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>103.796</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>104.794</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>105.792</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>106.79</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>107.788</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>108.786</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>109.784</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>110.782</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>111.78</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>112.778</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>113.776</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>114.774</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>115.772</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>116.77</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>117.768</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>118.766</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>119.764</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>120.762</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>121.76</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>122.758</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>123.756</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>124.754</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>125.752</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>126.75</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>127.748</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>128.746</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>129.744</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>130.742</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>131.74</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>132.738</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>133.736</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>134.734</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>135.732</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>136.73</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>137.728</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>138.726</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>139.724</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>140.722</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>141.72</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>142.718</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>143.716</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>144.714</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>145.712</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>146.71</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>147.708</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>148.706</v>
+      </c>
+      <c r="ES1" s="1">
+        <v>149.704</v>
+      </c>
+      <c r="ET1" s="1">
+        <v>150.702</v>
+      </c>
+      <c r="EU1" s="1">
+        <v>151.7</v>
+      </c>
+      <c r="EV1" s="1">
+        <v>152.698</v>
+      </c>
+      <c r="EW1" s="1">
+        <v>153.696</v>
+      </c>
+      <c r="EX1" s="1">
+        <v>154.694</v>
+      </c>
+      <c r="EY1" s="1">
+        <v>155.692</v>
+      </c>
+      <c r="EZ1" s="1">
+        <v>156.69</v>
+      </c>
+      <c r="FA1" s="1">
+        <v>157.688</v>
+      </c>
+      <c r="FB1" s="1">
+        <v>158.686</v>
+      </c>
+      <c r="FC1" s="1">
+        <v>159.684</v>
+      </c>
+      <c r="FD1" s="1">
+        <v>160.682</v>
+      </c>
+      <c r="FE1" s="1">
+        <v>161.68</v>
+      </c>
+      <c r="FF1" s="1">
+        <v>162.678</v>
+      </c>
+      <c r="FG1" s="1">
+        <v>163.676</v>
+      </c>
+      <c r="FH1" s="1">
+        <v>164.674</v>
+      </c>
+      <c r="FI1" s="1">
+        <v>165.672</v>
+      </c>
+      <c r="FJ1" s="1">
+        <v>166.67</v>
+      </c>
+      <c r="FK1" s="1">
+        <v>167.668</v>
+      </c>
+      <c r="FL1" s="1">
+        <v>168.666</v>
+      </c>
+      <c r="FM1" s="1">
+        <v>169.664</v>
+      </c>
+      <c r="FN1" s="1">
+        <v>170.662</v>
+      </c>
+      <c r="FO1" s="1">
+        <v>171.66</v>
+      </c>
+      <c r="FP1" s="1">
+        <v>172.658</v>
+      </c>
+      <c r="FQ1" s="1">
+        <v>173.656</v>
+      </c>
+      <c r="FR1" s="1">
+        <v>174.654</v>
+      </c>
+      <c r="FS1" s="1">
+        <v>175.652</v>
+      </c>
+      <c r="FT1" s="1">
+        <v>176.65</v>
+      </c>
+      <c r="FU1" s="1">
+        <v>177.648</v>
+      </c>
+      <c r="FV1" s="1">
+        <v>178.646</v>
+      </c>
+      <c r="FW1" s="1">
+        <v>179.644</v>
+      </c>
+      <c r="FX1" s="1">
+        <v>180.642</v>
+      </c>
+      <c r="FY1" s="1">
+        <v>181.64</v>
+      </c>
+      <c r="FZ1" s="1">
+        <v>182.638</v>
+      </c>
+      <c r="GA1" s="1">
+        <v>183.636</v>
+      </c>
+      <c r="GB1" s="1">
+        <v>184.634</v>
+      </c>
+      <c r="GC1" s="1">
+        <v>185.632</v>
+      </c>
+      <c r="GD1" s="1">
+        <v>186.63</v>
+      </c>
+      <c r="GE1" s="1">
+        <v>187.628</v>
+      </c>
+      <c r="GF1" s="1">
+        <v>188.626</v>
+      </c>
+      <c r="GG1" s="1">
+        <v>189.624</v>
+      </c>
+      <c r="GH1" s="1">
+        <v>190.622</v>
+      </c>
+      <c r="GI1" s="1">
+        <v>191.62</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>192.618</v>
+      </c>
+      <c r="GK1" s="1">
+        <v>193.616</v>
+      </c>
+      <c r="GL1" s="1">
+        <v>194.614</v>
+      </c>
+      <c r="GM1" s="1">
+        <v>195.612</v>
+      </c>
+      <c r="GN1" s="1">
+        <v>196.61</v>
+      </c>
+      <c r="GO1" s="1">
+        <v>197.608</v>
+      </c>
+      <c r="GP1" s="1">
+        <v>198.606</v>
+      </c>
+      <c r="GQ1" s="1">
+        <v>199.604</v>
+      </c>
+      <c r="GR1" s="1">
+        <v>200.602</v>
+      </c>
+      <c r="GS1" s="1">
+        <v>201.6</v>
+      </c>
+      <c r="GT1" s="1">
+        <v>202.598</v>
+      </c>
+      <c r="GU1" s="1">
+        <v>203.596</v>
+      </c>
+      <c r="GV1" s="1">
+        <v>204.594</v>
+      </c>
+      <c r="GW1" s="1">
+        <v>205.592</v>
+      </c>
+      <c r="GX1" s="1">
+        <v>206.59</v>
+      </c>
+      <c r="GY1" s="1">
+        <v>207.588</v>
+      </c>
+      <c r="GZ1" s="1">
+        <v>208.586</v>
+      </c>
+      <c r="HA1" s="1">
+        <v>209.584</v>
+      </c>
+      <c r="HB1" s="1">
+        <v>210.582</v>
+      </c>
+      <c r="HC1" s="1">
+        <v>211.58</v>
+      </c>
+      <c r="HD1" s="1">
+        <v>212.578</v>
+      </c>
+      <c r="HE1" s="1">
+        <v>213.576</v>
+      </c>
+      <c r="HF1" s="1">
+        <v>214.574</v>
+      </c>
+      <c r="HG1" s="1">
+        <v>215.572</v>
+      </c>
+      <c r="HH1" s="1">
+        <v>216.57</v>
+      </c>
+      <c r="HI1" s="1">
+        <v>217.568</v>
+      </c>
+      <c r="HJ1" s="1">
+        <v>218.566</v>
+      </c>
+      <c r="HK1" s="1">
+        <v>219.564</v>
+      </c>
+      <c r="HL1" s="1">
+        <v>220.562</v>
+      </c>
+      <c r="HM1" s="1">
+        <v>221.56</v>
+      </c>
+      <c r="HN1" s="1">
+        <v>222.558</v>
+      </c>
+      <c r="HO1" s="1">
+        <v>223.556</v>
+      </c>
+      <c r="HP1" s="1">
+        <v>224.554</v>
+      </c>
+      <c r="HQ1" s="1">
+        <v>225.552</v>
+      </c>
+      <c r="HR1" s="1">
+        <v>226.55</v>
+      </c>
+      <c r="HS1" s="1">
+        <v>227.548</v>
+      </c>
+      <c r="HT1" s="1">
+        <v>228.546</v>
+      </c>
+      <c r="HU1" s="1">
+        <v>229.544</v>
+      </c>
+      <c r="HV1" s="1">
+        <v>230.542</v>
+      </c>
+      <c r="HW1" s="1">
+        <v>231.54</v>
+      </c>
+      <c r="HX1" s="1">
+        <v>232.538</v>
+      </c>
+      <c r="HY1" s="1">
+        <v>233.536</v>
+      </c>
+      <c r="HZ1" s="1">
+        <v>234.534</v>
+      </c>
+      <c r="IA1" s="1">
+        <v>235.532</v>
+      </c>
+      <c r="IB1" s="1">
+        <v>236.53</v>
+      </c>
+      <c r="IC1" s="1">
+        <v>237.528</v>
+      </c>
+      <c r="ID1" s="1">
+        <v>238.526</v>
+      </c>
+      <c r="IE1" s="1">
+        <v>239.524</v>
+      </c>
+      <c r="IF1" s="1">
+        <v>240.522</v>
+      </c>
+      <c r="IG1" s="1">
+        <v>241.52</v>
+      </c>
+      <c r="IH1" s="1">
+        <v>242.518</v>
+      </c>
+      <c r="II1" s="1">
+        <v>243.516</v>
+      </c>
+      <c r="IJ1" s="1">
+        <v>244.514</v>
+      </c>
+      <c r="IK1" s="1">
+        <v>245.512</v>
+      </c>
+      <c r="IL1" s="1">
+        <v>246.51</v>
+      </c>
+      <c r="IM1" s="1">
+        <v>247.508</v>
+      </c>
+      <c r="IN1" s="1">
+        <v>248.506</v>
+      </c>
+      <c r="IO1" s="1">
+        <v>249.504</v>
+      </c>
+      <c r="IP1" s="1">
+        <v>250.502</v>
+      </c>
+      <c r="IQ1" s="1">
+        <v>251.5</v>
+      </c>
+      <c r="IR1" s="1">
+        <v>252.498</v>
+      </c>
+      <c r="IS1" s="1">
+        <v>253.496</v>
+      </c>
+      <c r="IT1" s="1">
+        <v>254.494</v>
+      </c>
+      <c r="IU1" s="1">
+        <v>255.492</v>
+      </c>
+      <c r="IV1" s="1">
+        <v>256.49</v>
+      </c>
+      <c r="IW1" s="1">
+        <v>257.488</v>
+      </c>
+      <c r="IX1" s="1">
+        <v>258.486</v>
+      </c>
+      <c r="IY1" s="1">
+        <v>259.484</v>
+      </c>
+      <c r="IZ1" s="1">
+        <v>260.482</v>
+      </c>
+      <c r="JA1" s="1">
+        <v>261.48</v>
+      </c>
+      <c r="JB1" s="1">
+        <v>262.478</v>
+      </c>
+      <c r="JC1" s="1">
+        <v>263.476</v>
+      </c>
+      <c r="JD1" s="1">
+        <v>264.474</v>
+      </c>
+      <c r="JE1" s="1">
+        <v>265.472</v>
+      </c>
+      <c r="JF1" s="1">
+        <v>266.47</v>
+      </c>
+      <c r="JG1" s="1">
+        <v>267.468</v>
+      </c>
+      <c r="JH1" s="1">
+        <v>268.466</v>
+      </c>
+      <c r="JI1" s="1">
+        <v>269.464</v>
+      </c>
+      <c r="JJ1" s="1">
+        <v>270.462</v>
+      </c>
+      <c r="JK1" s="1">
+        <v>271.46</v>
+      </c>
+      <c r="JL1" s="1">
+        <v>272.458</v>
+      </c>
+      <c r="JM1" s="1">
+        <v>273.456</v>
+      </c>
+      <c r="JN1" s="1">
+        <v>274.454</v>
+      </c>
+      <c r="JO1" s="1">
+        <v>275.452</v>
+      </c>
+      <c r="JP1" s="1">
+        <v>276.45</v>
+      </c>
+      <c r="JQ1" s="1">
+        <v>277.448</v>
+      </c>
+      <c r="JR1" s="1">
+        <v>278.446</v>
+      </c>
+      <c r="JS1" s="1">
+        <v>279.444</v>
+      </c>
+      <c r="JT1" s="1">
+        <v>280.442</v>
+      </c>
+      <c r="JU1" s="1">
+        <v>281.44</v>
+      </c>
+      <c r="JV1" s="1">
+        <v>282.438</v>
+      </c>
+      <c r="JW1" s="1">
+        <v>283.436</v>
+      </c>
+      <c r="JX1" s="1">
+        <v>284.434</v>
+      </c>
+      <c r="JY1" s="1">
+        <v>285.432</v>
+      </c>
+      <c r="JZ1" s="1">
+        <v>286.43</v>
+      </c>
+      <c r="KA1" s="1">
+        <v>287.428</v>
+      </c>
+      <c r="KB1" s="1">
+        <v>288.426</v>
+      </c>
+      <c r="KC1" s="1">
+        <v>289.424</v>
+      </c>
+      <c r="KD1" s="1">
+        <v>290.422</v>
+      </c>
+      <c r="KE1" s="1">
+        <v>291.42</v>
+      </c>
+      <c r="KF1" s="1">
+        <v>292.418</v>
+      </c>
+      <c r="KG1" s="1">
+        <v>293.416</v>
+      </c>
+      <c r="KH1" s="1">
+        <v>294.414</v>
+      </c>
+      <c r="KI1" s="1">
+        <v>295.412</v>
+      </c>
+      <c r="KJ1" s="1">
+        <v>296.41</v>
+      </c>
+      <c r="KK1" s="1">
+        <v>297.408</v>
+      </c>
+      <c r="KL1" s="1">
+        <v>298.406</v>
+      </c>
+      <c r="KM1" s="1">
+        <v>299.404</v>
+      </c>
+      <c r="KN1" s="1">
+        <v>300.402</v>
+      </c>
+      <c r="KO1" s="1">
+        <v>301.4</v>
+      </c>
+      <c r="KP1" s="1">
+        <v>302.398</v>
+      </c>
+      <c r="KQ1" s="1">
+        <v>303.396</v>
+      </c>
+      <c r="KR1" s="1">
+        <v>304.394</v>
+      </c>
+      <c r="KS1" s="1">
+        <v>305.392</v>
+      </c>
+      <c r="KT1" s="1">
+        <v>306.39</v>
+      </c>
+      <c r="KU1" s="1">
+        <v>307.388</v>
+      </c>
+      <c r="KV1" s="1">
+        <v>308.386</v>
+      </c>
+      <c r="KW1" s="1">
+        <v>309.384</v>
+      </c>
+      <c r="KX1" s="1">
+        <v>310.382</v>
+      </c>
+      <c r="KY1" s="1">
+        <v>311.38</v>
+      </c>
+      <c r="KZ1" s="1">
+        <v>312.378</v>
+      </c>
+      <c r="LA1" s="1">
+        <v>313.376</v>
+      </c>
+      <c r="LB1" s="1">
+        <v>314.374</v>
+      </c>
+      <c r="LC1" s="1">
+        <v>315.372</v>
+      </c>
+      <c r="LD1" s="1">
+        <v>316.37</v>
+      </c>
+      <c r="LE1" s="1">
+        <v>317.368</v>
+      </c>
+      <c r="LF1" s="1">
+        <v>318.366</v>
+      </c>
+      <c r="LG1" s="1">
+        <v>319.364</v>
+      </c>
+      <c r="LH1" s="1">
+        <v>320.362</v>
+      </c>
+      <c r="LI1" s="1">
+        <v>321.36</v>
+      </c>
+      <c r="LJ1" s="1">
+        <v>322.358</v>
+      </c>
+      <c r="LK1" s="1">
+        <v>323.356</v>
+      </c>
+      <c r="LL1" s="1">
+        <v>324.354</v>
+      </c>
+      <c r="LM1" s="1">
+        <v>325.352</v>
+      </c>
+      <c r="LN1" s="1">
+        <v>326.35</v>
+      </c>
+      <c r="LO1" s="1">
+        <v>327.348</v>
+      </c>
+      <c r="LP1" s="1">
+        <v>328.346</v>
+      </c>
+      <c r="LQ1" s="1">
+        <v>329.344</v>
+      </c>
+      <c r="LR1" s="1">
+        <v>330.342</v>
+      </c>
+      <c r="LS1" s="1">
+        <v>331.34</v>
+      </c>
+      <c r="LT1" s="1">
+        <v>332.338</v>
+      </c>
+      <c r="LU1" s="1">
+        <v>333.336</v>
+      </c>
+      <c r="LV1" s="1">
+        <v>334.334</v>
+      </c>
+      <c r="LW1" s="1">
+        <v>335.332</v>
+      </c>
+      <c r="LX1" s="1">
+        <v>336.33</v>
+      </c>
+      <c r="LY1" s="1">
+        <v>337.328</v>
+      </c>
+      <c r="LZ1" s="1">
+        <v>338.326</v>
+      </c>
+      <c r="MA1" s="1">
+        <v>339.324</v>
+      </c>
+      <c r="MB1" s="1">
+        <v>340.322</v>
+      </c>
+      <c r="MC1" s="1">
+        <v>341.32</v>
+      </c>
+      <c r="MD1" s="1">
+        <v>342.318</v>
+      </c>
+      <c r="ME1" s="1">
+        <v>343.316</v>
+      </c>
+      <c r="MF1" s="1">
+        <v>344.314</v>
+      </c>
+      <c r="MG1" s="1">
+        <v>345.312</v>
+      </c>
+      <c r="MH1" s="1">
+        <v>346.31</v>
+      </c>
+      <c r="MI1" s="1">
+        <v>347.308</v>
+      </c>
+      <c r="MJ1" s="1">
+        <v>348.306</v>
+      </c>
+      <c r="MK1" s="1">
+        <v>349.304</v>
+      </c>
+      <c r="ML1" s="1">
+        <v>350.302</v>
+      </c>
+      <c r="MM1" s="1">
+        <v>351.3</v>
+      </c>
+      <c r="MN1" s="1">
+        <v>352.298</v>
+      </c>
+      <c r="MO1" s="1">
+        <v>353.296</v>
+      </c>
+      <c r="MP1" s="1">
+        <v>354.294</v>
+      </c>
+      <c r="MQ1" s="1">
+        <v>355.292</v>
+      </c>
+      <c r="MR1" s="1">
+        <v>356.29</v>
+      </c>
+      <c r="MS1" s="1">
+        <v>357.288</v>
+      </c>
+      <c r="MT1" s="1">
+        <v>358.286</v>
+      </c>
+      <c r="MU1" s="1">
+        <v>359.284</v>
+      </c>
+      <c r="MV1" s="1">
+        <v>360.282</v>
+      </c>
+      <c r="MW1" s="1">
+        <v>361.28</v>
+      </c>
+      <c r="MX1" s="1">
+        <v>362.278</v>
+      </c>
+      <c r="MY1" s="1">
+        <v>363.276</v>
+      </c>
+      <c r="MZ1" s="1">
+        <v>364.274</v>
+      </c>
+      <c r="NA1" s="1">
+        <v>365.272</v>
+      </c>
+      <c r="NB1" s="1">
+        <v>366.27</v>
+      </c>
+      <c r="NC1" s="1">
+        <v>367.268</v>
+      </c>
+      <c r="ND1" s="1">
+        <v>368.266</v>
+      </c>
+      <c r="NE1" s="1">
+        <v>369.264</v>
+      </c>
+      <c r="NF1" s="1">
+        <v>370.262</v>
+      </c>
+      <c r="NG1" s="1">
+        <v>371.26</v>
+      </c>
+      <c r="NH1" s="1">
+        <v>372.258</v>
+      </c>
+      <c r="NI1" s="1">
+        <v>373.256</v>
+      </c>
+      <c r="NJ1" s="1">
+        <v>374.254</v>
+      </c>
+      <c r="NK1" s="1">
+        <v>375.252</v>
+      </c>
+      <c r="NL1" s="1">
+        <v>376.25</v>
+      </c>
+      <c r="NM1" s="1">
+        <v>377.248</v>
+      </c>
+      <c r="NN1" s="1">
+        <v>378.246</v>
+      </c>
+      <c r="NO1" s="1">
+        <v>379.244</v>
+      </c>
+      <c r="NP1" s="1">
+        <v>380.242</v>
+      </c>
+      <c r="NQ1" s="1">
+        <v>381.24</v>
+      </c>
+      <c r="NR1" s="1">
+        <v>382.238</v>
+      </c>
+      <c r="NS1" s="1">
+        <v>383.236</v>
+      </c>
+      <c r="NT1" s="1">
+        <v>384.234</v>
+      </c>
+      <c r="NU1" s="1">
+        <v>385.232</v>
+      </c>
+      <c r="NV1" s="1">
+        <v>386.23</v>
+      </c>
+      <c r="NW1" s="1">
+        <v>387.228</v>
+      </c>
+      <c r="NX1" s="1">
+        <v>388.226</v>
+      </c>
+      <c r="NY1" s="1">
+        <v>389.224</v>
+      </c>
+      <c r="NZ1" s="1">
+        <v>390.222</v>
+      </c>
+      <c r="OA1" s="1">
+        <v>391.22</v>
+      </c>
+      <c r="OB1" s="1">
+        <v>392.218</v>
+      </c>
+      <c r="OC1" s="1">
+        <v>393.216</v>
+      </c>
+      <c r="OD1" s="1">
+        <v>394.214</v>
+      </c>
+      <c r="OE1" s="1">
+        <v>395.212</v>
+      </c>
+      <c r="OF1" s="1">
+        <v>396.21</v>
+      </c>
+      <c r="OG1" s="1">
+        <v>397.208</v>
+      </c>
+      <c r="OH1" s="1">
+        <v>398.206</v>
+      </c>
+      <c r="OI1" s="1">
+        <v>399.204</v>
+      </c>
+      <c r="OJ1" s="1">
+        <v>400.202</v>
+      </c>
+      <c r="OK1" s="1">
+        <v>401.2</v>
+      </c>
+      <c r="OL1" s="1">
+        <v>402.198</v>
+      </c>
+      <c r="OM1" s="1">
+        <v>403.196</v>
+      </c>
+      <c r="ON1" s="1">
+        <v>404.194</v>
+      </c>
+      <c r="OO1" s="1">
+        <v>405.192</v>
+      </c>
+      <c r="OP1" s="1">
+        <v>406.19</v>
+      </c>
+      <c r="OQ1" s="1">
+        <v>407.188</v>
+      </c>
+      <c r="OR1" s="1">
+        <v>408.186</v>
+      </c>
+      <c r="OS1" s="1">
+        <v>409.184</v>
+      </c>
+      <c r="OT1" s="1">
+        <v>410.182</v>
+      </c>
+      <c r="OU1" s="1">
+        <v>411.18</v>
+      </c>
+      <c r="OV1" s="1">
+        <v>412.178</v>
+      </c>
+      <c r="OW1" s="1">
+        <v>413.176</v>
+      </c>
+      <c r="OX1" s="1">
+        <v>414.174</v>
+      </c>
+      <c r="OY1" s="1">
+        <v>415.172</v>
+      </c>
+      <c r="OZ1" s="1">
+        <v>416.17</v>
+      </c>
+      <c r="PA1" s="1">
+        <v>417.168</v>
+      </c>
+      <c r="PB1" s="1">
+        <v>418.166</v>
+      </c>
+      <c r="PC1" s="1">
+        <v>419.164</v>
+      </c>
+      <c r="PD1" s="1">
+        <v>420.162</v>
+      </c>
+      <c r="PE1" s="1">
+        <v>421.16</v>
+      </c>
+      <c r="PF1" s="1">
+        <v>422.158</v>
+      </c>
+      <c r="PG1" s="1">
+        <v>423.156</v>
+      </c>
+      <c r="PH1" s="1">
+        <v>424.154</v>
+      </c>
+      <c r="PI1" s="1">
+        <v>425.152</v>
+      </c>
+      <c r="PJ1" s="1">
+        <v>426.15</v>
+      </c>
+      <c r="PK1" s="1">
+        <v>427.148</v>
+      </c>
+      <c r="PL1" s="1">
+        <v>428.146</v>
+      </c>
+      <c r="PM1" s="1">
+        <v>429.144</v>
+      </c>
+      <c r="PN1" s="1">
+        <v>430.142</v>
+      </c>
+      <c r="PO1" s="1">
+        <v>431.14</v>
+      </c>
+      <c r="PP1" s="1">
+        <v>432.138</v>
+      </c>
+      <c r="PQ1" s="1">
+        <v>433.136</v>
+      </c>
+      <c r="PR1" s="1">
+        <v>434.134</v>
+      </c>
+      <c r="PS1" s="1">
+        <v>435.132</v>
+      </c>
+      <c r="PT1" s="1">
+        <v>436.13</v>
+      </c>
+      <c r="PU1" s="1">
+        <v>437.128</v>
+      </c>
+      <c r="PV1" s="1">
+        <v>438.126</v>
+      </c>
+      <c r="PW1" s="1">
+        <v>439.124</v>
+      </c>
+      <c r="PX1" s="1">
+        <v>440.122</v>
+      </c>
+      <c r="PY1" s="1">
+        <v>441.12</v>
+      </c>
+      <c r="PZ1" s="1">
+        <v>442.118</v>
+      </c>
+      <c r="QA1" s="1">
+        <v>443.116</v>
+      </c>
+      <c r="QB1" s="1">
+        <v>444.114</v>
+      </c>
+      <c r="QC1" s="1">
+        <v>445.112</v>
+      </c>
+      <c r="QD1" s="1">
+        <v>446.11</v>
+      </c>
+      <c r="QE1" s="1">
+        <v>447.108</v>
+      </c>
+      <c r="QF1" s="1">
+        <v>448.106</v>
+      </c>
+      <c r="QG1" s="1">
+        <v>449.104</v>
+      </c>
+      <c r="QH1" s="1">
+        <v>450.102</v>
+      </c>
+      <c r="QI1" s="1">
+        <v>451.1</v>
+      </c>
+      <c r="QJ1" s="1">
+        <v>452.098</v>
+      </c>
+      <c r="QK1" s="1">
+        <v>453.096</v>
+      </c>
+      <c r="QL1" s="1">
+        <v>454.094</v>
+      </c>
+      <c r="QM1" s="1">
+        <v>455.092</v>
+      </c>
+      <c r="QN1" s="1">
+        <v>456.09</v>
+      </c>
+      <c r="QO1" s="1">
+        <v>457.088</v>
+      </c>
+      <c r="QP1" s="1">
+        <v>458.086</v>
+      </c>
+      <c r="QQ1" s="1">
+        <v>459.084</v>
+      </c>
+      <c r="QR1" s="1">
+        <v>460.082</v>
+      </c>
+      <c r="QS1" s="1">
+        <v>461.08</v>
+      </c>
+      <c r="QT1" s="1">
+        <v>462.078</v>
+      </c>
+      <c r="QU1" s="1">
+        <v>463.076</v>
+      </c>
+      <c r="QV1" s="1">
+        <v>464.074</v>
+      </c>
+      <c r="QW1" s="1">
+        <v>465.072</v>
+      </c>
+      <c r="QX1" s="1">
+        <v>466.07</v>
+      </c>
+      <c r="QY1" s="1">
+        <v>467.068</v>
+      </c>
+      <c r="QZ1" s="1">
+        <v>468.066</v>
+      </c>
+      <c r="RA1" s="1">
+        <v>469.064</v>
+      </c>
+      <c r="RB1" s="1">
+        <v>470.062</v>
+      </c>
+      <c r="RC1" s="1">
+        <v>471.06</v>
+      </c>
+      <c r="RD1" s="1">
+        <v>472.058</v>
+      </c>
+      <c r="RE1" s="1">
+        <v>473.056</v>
+      </c>
+      <c r="RF1" s="1">
+        <v>474.054</v>
+      </c>
+      <c r="RG1" s="1">
+        <v>475.052</v>
+      </c>
+      <c r="RH1" s="1">
+        <v>476.05</v>
+      </c>
+      <c r="RI1" s="1">
+        <v>477.048</v>
+      </c>
+      <c r="RJ1" s="1">
+        <v>478.046</v>
+      </c>
+      <c r="RK1" s="1">
+        <v>479.044</v>
+      </c>
+      <c r="RL1" s="1">
+        <v>480.042</v>
+      </c>
+      <c r="RM1" s="1">
+        <v>481.04</v>
+      </c>
+      <c r="RN1" s="1">
+        <v>482.038</v>
+      </c>
+      <c r="RO1" s="1">
+        <v>483.036</v>
+      </c>
+      <c r="RP1" s="1">
+        <v>484.034</v>
+      </c>
+      <c r="RQ1" s="1">
+        <v>485.032</v>
+      </c>
+      <c r="RR1" s="1">
+        <v>486.03</v>
+      </c>
+      <c r="RS1" s="1">
+        <v>487.028</v>
+      </c>
+      <c r="RT1" s="1">
+        <v>488.026</v>
+      </c>
+      <c r="RU1" s="1">
+        <v>489.024</v>
+      </c>
+      <c r="RV1" s="1">
+        <v>490.022</v>
+      </c>
+      <c r="RW1" s="1">
+        <v>491.02</v>
+      </c>
+      <c r="RX1" s="1">
+        <v>492.018</v>
+      </c>
+      <c r="RY1" s="1">
+        <v>493.016</v>
+      </c>
+      <c r="RZ1" s="1">
+        <v>494.014</v>
+      </c>
+      <c r="SA1" s="1">
+        <v>495.012</v>
+      </c>
+      <c r="SB1" s="1">
+        <v>496.01</v>
+      </c>
+      <c r="SC1" s="1">
+        <v>497.008</v>
+      </c>
+      <c r="SD1" s="1">
+        <v>498.006</v>
+      </c>
+      <c r="SE1" s="1">
+        <v>499.004</v>
+      </c>
+      <c r="SF1" s="1">
+        <v>500.002</v>
+      </c>
+      <c r="SG1" s="1">
+        <v>501</v>
+      </c>
+      <c r="SH1" s="1">
+        <v>501.998</v>
+      </c>
+      <c r="SI1" s="1">
+        <v>502.996</v>
+      </c>
+      <c r="SJ1" s="1">
+        <v>503.994</v>
+      </c>
+      <c r="SK1" s="1">
+        <v>504.992</v>
+      </c>
+      <c r="SL1" s="1">
+        <v>505.99</v>
+      </c>
+      <c r="SM1" s="1">
+        <v>506.988</v>
+      </c>
+      <c r="SN1" s="1">
+        <v>507.986</v>
+      </c>
+      <c r="SO1" s="1">
+        <v>508.984</v>
+      </c>
+      <c r="SP1" s="1">
+        <v>509.982</v>
+      </c>
+      <c r="SQ1" s="1">
+        <v>510.98</v>
+      </c>
+      <c r="SR1" s="1">
+        <v>511.978</v>
+      </c>
+      <c r="SS1" s="1">
+        <v>512.976</v>
+      </c>
+      <c r="ST1" s="1">
+        <v>513.974</v>
+      </c>
+      <c r="SU1" s="1">
+        <v>514.972</v>
+      </c>
+      <c r="SV1" s="1">
+        <v>515.97</v>
+      </c>
+      <c r="SW1" s="1">
+        <v>516.968</v>
+      </c>
+      <c r="SX1" s="1">
+        <v>517.966</v>
+      </c>
+      <c r="SY1" s="1">
+        <v>518.9640000000001</v>
+      </c>
+      <c r="SZ1" s="1">
+        <v>519.962</v>
+      </c>
+      <c r="TA1" s="1">
+        <v>520.96</v>
+      </c>
+      <c r="TB1" s="1">
+        <v>521.958</v>
+      </c>
+      <c r="TC1" s="1">
+        <v>522.956</v>
+      </c>
+      <c r="TD1" s="1">
+        <v>523.954</v>
+      </c>
+      <c r="TE1" s="1">
+        <v>524.952</v>
+      </c>
+      <c r="TF1" s="1">
+        <v>525.95</v>
+      </c>
+      <c r="TG1" s="1">
+        <v>526.948</v>
+      </c>
+      <c r="TH1" s="1">
+        <v>527.946</v>
+      </c>
+      <c r="TI1" s="1">
+        <v>528.944</v>
+      </c>
+      <c r="TJ1" s="1">
+        <v>529.942</v>
+      </c>
+      <c r="TK1" s="1">
+        <v>530.9400000000001</v>
+      </c>
+      <c r="TL1" s="1">
+        <v>531.938</v>
+      </c>
+      <c r="TM1" s="1">
+        <v>532.936</v>
+      </c>
+      <c r="TN1" s="1">
+        <v>533.934</v>
+      </c>
+      <c r="TO1" s="1">
+        <v>534.932</v>
+      </c>
+      <c r="TP1" s="1">
+        <v>535.9299999999999</v>
+      </c>
+      <c r="TQ1" s="1">
+        <v>536.928</v>
+      </c>
+      <c r="TR1" s="1">
+        <v>537.926</v>
+      </c>
+      <c r="TS1" s="1">
+        <v>538.924</v>
+      </c>
+      <c r="TT1" s="1">
+        <v>539.922</v>
+      </c>
+      <c r="TU1" s="1">
+        <v>540.92</v>
+      </c>
+      <c r="TV1" s="1">
+        <v>541.918</v>
+      </c>
+      <c r="TW1" s="1">
+        <v>542.9160000000001</v>
+      </c>
+      <c r="TX1" s="1">
+        <v>543.914</v>
+      </c>
+      <c r="TY1" s="1">
+        <v>544.912</v>
+      </c>
+      <c r="TZ1" s="1">
+        <v>545.91</v>
+      </c>
+      <c r="UA1" s="1">
+        <v>546.908</v>
+      </c>
+      <c r="UB1" s="1">
+        <v>547.9059999999999</v>
+      </c>
+      <c r="UC1" s="1">
+        <v>548.904</v>
+      </c>
+      <c r="UD1" s="1">
+        <v>549.902</v>
+      </c>
+      <c r="UE1" s="1">
+        <v>550.9</v>
+      </c>
+      <c r="UF1" s="1">
+        <v>551.898</v>
+      </c>
+      <c r="UG1" s="1">
+        <v>552.896</v>
+      </c>
+      <c r="UH1" s="1">
+        <v>553.894</v>
+      </c>
+      <c r="UI1" s="1">
+        <v>554.8920000000001</v>
+      </c>
+      <c r="UJ1" s="1">
+        <v>555.89</v>
+      </c>
+      <c r="UK1" s="1">
+        <v>556.888</v>
+      </c>
+      <c r="UL1" s="1">
+        <v>557.886</v>
+      </c>
+      <c r="UM1" s="1">
+        <v>558.884</v>
+      </c>
+      <c r="UN1" s="1">
+        <v>559.8819999999999</v>
+      </c>
+      <c r="UO1" s="1">
+        <v>560.88</v>
+      </c>
+      <c r="UP1" s="1">
+        <v>561.878</v>
+      </c>
+      <c r="UQ1" s="1">
+        <v>562.876</v>
+      </c>
+      <c r="UR1" s="1">
+        <v>563.874</v>
+      </c>
+      <c r="US1" s="1">
+        <v>564.872</v>
+      </c>
+      <c r="UT1" s="1">
+        <v>565.87</v>
+      </c>
+      <c r="UU1" s="1">
+        <v>566.8680000000001</v>
+      </c>
+      <c r="UV1" s="1">
+        <v>567.866</v>
+      </c>
+      <c r="UW1" s="1">
+        <v>568.864</v>
+      </c>
+      <c r="UX1" s="1">
+        <v>569.862</v>
+      </c>
+      <c r="UY1" s="1">
+        <v>570.86</v>
+      </c>
+      <c r="UZ1" s="1">
+        <v>571.8579999999999</v>
+      </c>
+      <c r="VA1" s="1">
+        <v>572.856</v>
+      </c>
+      <c r="VB1" s="1">
+        <v>573.854</v>
+      </c>
+      <c r="VC1" s="1">
+        <v>574.852</v>
+      </c>
+      <c r="VD1" s="1">
+        <v>575.85</v>
+      </c>
+      <c r="VE1" s="1">
+        <v>576.848</v>
+      </c>
+      <c r="VF1" s="1">
+        <v>577.846</v>
+      </c>
+      <c r="VG1" s="1">
+        <v>578.8440000000001</v>
+      </c>
+      <c r="VH1" s="1">
+        <v>579.842</v>
+      </c>
+      <c r="VI1" s="1">
+        <v>580.84</v>
+      </c>
+      <c r="VJ1" s="1">
+        <v>581.838</v>
+      </c>
+      <c r="VK1" s="1">
+        <v>582.836</v>
+      </c>
+      <c r="VL1" s="1">
+        <v>583.8339999999999</v>
+      </c>
+      <c r="VM1" s="1">
+        <v>584.832</v>
+      </c>
+      <c r="VN1" s="1">
+        <v>585.83</v>
+      </c>
+      <c r="VO1" s="1">
+        <v>586.828</v>
+      </c>
+      <c r="VP1" s="1">
+        <v>587.826</v>
+      </c>
+      <c r="VQ1" s="1">
+        <v>588.824</v>
+      </c>
+      <c r="VR1" s="1">
+        <v>589.822</v>
+      </c>
+      <c r="VS1" s="1">
+        <v>590.8200000000001</v>
+      </c>
+      <c r="VT1" s="1">
+        <v>591.818</v>
+      </c>
+      <c r="VU1" s="1">
+        <v>592.816</v>
+      </c>
+      <c r="VV1" s="1">
+        <v>593.814</v>
+      </c>
+      <c r="VW1" s="1">
+        <v>594.812</v>
+      </c>
+      <c r="VX1" s="1">
+        <v>595.8099999999999</v>
+      </c>
+      <c r="VY1" s="1">
+        <v>596.808</v>
+      </c>
+      <c r="VZ1" s="1">
+        <v>597.806</v>
+      </c>
+      <c r="WA1" s="1">
+        <v>598.804</v>
+      </c>
+      <c r="WB1" s="1">
+        <v>599.802</v>
+      </c>
+      <c r="WC1" s="1">
+        <v>600.8</v>
+      </c>
+      <c r="WD1" s="1">
+        <v>601.798</v>
+      </c>
+      <c r="WE1" s="1">
+        <v>602.796</v>
+      </c>
+      <c r="WF1" s="1">
+        <v>603.794</v>
+      </c>
+      <c r="WG1" s="1">
+        <v>604.792</v>
+      </c>
+      <c r="WH1" s="1">
+        <v>605.79</v>
+      </c>
+      <c r="WI1" s="1">
+        <v>606.788</v>
+      </c>
+      <c r="WJ1" s="1">
+        <v>607.7859999999999</v>
+      </c>
+      <c r="WK1" s="1">
+        <v>608.784</v>
+      </c>
+      <c r="WL1" s="1">
+        <v>609.782</v>
+      </c>
+      <c r="WM1" s="1">
+        <v>610.78</v>
+      </c>
+      <c r="WN1" s="1">
+        <v>611.778</v>
+      </c>
+      <c r="WO1" s="1">
+        <v>612.776</v>
+      </c>
+      <c r="WP1" s="1">
+        <v>613.774</v>
+      </c>
+      <c r="WQ1" s="1">
+        <v>614.772</v>
+      </c>
+      <c r="WR1" s="1">
+        <v>615.77</v>
+      </c>
+      <c r="WS1" s="1">
+        <v>616.768</v>
+      </c>
+      <c r="WT1" s="1">
+        <v>617.766</v>
+      </c>
+      <c r="WU1" s="1">
+        <v>618.764</v>
+      </c>
+      <c r="WV1" s="1">
+        <v>619.7619999999999</v>
+      </c>
+      <c r="WW1" s="1">
+        <v>620.76</v>
+      </c>
+      <c r="WX1" s="1">
+        <v>621.758</v>
+      </c>
+      <c r="WY1" s="1">
+        <v>622.756</v>
+      </c>
+      <c r="WZ1" s="1">
+        <v>623.754</v>
+      </c>
+      <c r="XA1" s="1">
+        <v>624.752</v>
+      </c>
+      <c r="XB1" s="1">
+        <v>625.75</v>
+      </c>
+      <c r="XC1" s="1">
+        <v>626.748</v>
+      </c>
+      <c r="XD1" s="1">
+        <v>627.746</v>
+      </c>
+      <c r="XE1" s="1">
+        <v>628.744</v>
+      </c>
+      <c r="XF1" s="1">
+        <v>629.742</v>
+      </c>
+      <c r="XG1" s="1">
+        <v>630.74</v>
+      </c>
+      <c r="XH1" s="1">
+        <v>631.7380000000001</v>
+      </c>
+      <c r="XI1" s="1">
+        <v>632.736</v>
+      </c>
+      <c r="XJ1" s="1">
+        <v>633.734</v>
+      </c>
+      <c r="XK1" s="1">
+        <v>634.732</v>
+      </c>
+      <c r="XL1" s="1">
+        <v>635.73</v>
+      </c>
+      <c r="XM1" s="1">
+        <v>636.728</v>
+      </c>
+      <c r="XN1" s="1">
+        <v>637.726</v>
+      </c>
+      <c r="XO1" s="1">
+        <v>638.724</v>
+      </c>
+      <c r="XP1" s="1">
+        <v>639.722</v>
+      </c>
+      <c r="XQ1" s="1">
+        <v>640.72</v>
+      </c>
+      <c r="XR1" s="1">
+        <v>641.718</v>
+      </c>
+      <c r="XS1" s="1">
+        <v>642.716</v>
+      </c>
+      <c r="XT1" s="1">
+        <v>643.7140000000001</v>
+      </c>
+      <c r="XU1" s="1">
+        <v>644.712</v>
+      </c>
+      <c r="XV1" s="1">
+        <v>645.71</v>
+      </c>
+      <c r="XW1" s="1">
+        <v>646.708</v>
+      </c>
+      <c r="XX1" s="1">
+        <v>647.706</v>
+      </c>
+      <c r="XY1" s="1">
+        <v>648.704</v>
+      </c>
+      <c r="XZ1" s="1">
+        <v>649.702</v>
+      </c>
+      <c r="YA1" s="1">
+        <v>650.7</v>
+      </c>
+      <c r="YB1" s="1">
+        <v>651.698</v>
+      </c>
+      <c r="YC1" s="1">
+        <v>652.696</v>
+      </c>
+      <c r="YD1" s="1">
+        <v>653.694</v>
+      </c>
+      <c r="YE1" s="1">
+        <v>654.692</v>
+      </c>
+      <c r="YF1" s="1">
+        <v>655.6900000000001</v>
+      </c>
+      <c r="YG1" s="1">
+        <v>656.688</v>
+      </c>
+      <c r="YH1" s="1">
+        <v>657.686</v>
+      </c>
+      <c r="YI1" s="1">
+        <v>658.684</v>
+      </c>
+      <c r="YJ1" s="1">
+        <v>659.682</v>
+      </c>
+      <c r="YK1" s="1">
+        <v>660.6799999999999</v>
+      </c>
+      <c r="YL1" s="1">
+        <v>661.678</v>
+      </c>
+      <c r="YM1" s="1">
+        <v>662.676</v>
+      </c>
+      <c r="YN1" s="1">
+        <v>663.674</v>
+      </c>
+      <c r="YO1" s="1">
+        <v>664.672</v>
+      </c>
+      <c r="YP1" s="1">
+        <v>665.67</v>
+      </c>
+      <c r="YQ1" s="1">
+        <v>666.668</v>
+      </c>
+      <c r="YR1" s="1">
+        <v>667.6660000000001</v>
+      </c>
+      <c r="YS1" s="1">
+        <v>668.664</v>
+      </c>
+      <c r="YT1" s="1">
+        <v>669.662</v>
+      </c>
+      <c r="YU1" s="1">
+        <v>670.66</v>
+      </c>
+      <c r="YV1" s="1">
+        <v>671.658</v>
+      </c>
+      <c r="YW1" s="1">
+        <v>672.6559999999999</v>
+      </c>
+      <c r="YX1" s="1">
+        <v>673.654</v>
+      </c>
+      <c r="YY1" s="1">
+        <v>674.652</v>
+      </c>
+      <c r="YZ1" s="1">
+        <v>675.65</v>
+      </c>
+      <c r="ZA1" s="1">
+        <v>676.648</v>
+      </c>
+      <c r="ZB1" s="1">
+        <v>677.646</v>
+      </c>
+      <c r="ZC1" s="1">
+        <v>678.644</v>
+      </c>
+      <c r="ZD1" s="1">
+        <v>679.6420000000001</v>
+      </c>
+      <c r="ZE1" s="1">
+        <v>680.64</v>
+      </c>
+      <c r="ZF1" s="1">
+        <v>681.638</v>
+      </c>
+      <c r="ZG1" s="1">
+        <v>682.636</v>
+      </c>
+      <c r="ZH1" s="1">
+        <v>683.634</v>
+      </c>
+      <c r="ZI1" s="1">
+        <v>684.6319999999999</v>
+      </c>
+      <c r="ZJ1" s="1">
+        <v>685.63</v>
+      </c>
+      <c r="ZK1" s="1">
+        <v>686.628</v>
+      </c>
+      <c r="ZL1" s="1">
+        <v>687.626</v>
+      </c>
+      <c r="ZM1" s="1">
+        <v>688.624</v>
+      </c>
+      <c r="ZN1" s="1">
+        <v>689.622</v>
+      </c>
+      <c r="ZO1" s="1">
+        <v>690.62</v>
+      </c>
+      <c r="ZP1" s="1">
+        <v>691.6180000000001</v>
+      </c>
+      <c r="ZQ1" s="1">
+        <v>692.616</v>
+      </c>
+      <c r="ZR1" s="1">
+        <v>693.614</v>
+      </c>
+      <c r="ZS1" s="1">
+        <v>694.612</v>
+      </c>
+      <c r="ZT1" s="1">
+        <v>695.61</v>
+      </c>
+      <c r="ZU1" s="1">
+        <v>696.6079999999999</v>
+      </c>
+      <c r="ZV1" s="1">
+        <v>697.606</v>
+      </c>
+      <c r="ZW1" s="1">
+        <v>698.604</v>
+      </c>
+      <c r="ZX1" s="1">
+        <v>699.602</v>
+      </c>
+      <c r="ZY1" s="1">
+        <v>700.6</v>
+      </c>
+      <c r="ZZ1" s="1">
+        <v>701.598</v>
+      </c>
+      <c r="AAA1" s="1">
+        <v>702.596</v>
+      </c>
+      <c r="AAB1" s="1">
+        <v>703.5940000000001</v>
+      </c>
+      <c r="AAC1" s="1">
+        <v>704.592</v>
+      </c>
+      <c r="AAD1" s="1">
+        <v>705.59</v>
+      </c>
+      <c r="AAE1" s="1">
+        <v>706.588</v>
+      </c>
+      <c r="AAF1" s="1">
+        <v>707.586</v>
+      </c>
+      <c r="AAG1" s="1">
+        <v>708.5839999999999</v>
+      </c>
+      <c r="AAH1" s="1">
+        <v>709.582</v>
+      </c>
+      <c r="AAI1" s="1">
+        <v>710.58</v>
+      </c>
+      <c r="AAJ1" s="1">
+        <v>711.578</v>
+      </c>
+      <c r="AAK1" s="1">
+        <v>712.576</v>
+      </c>
+      <c r="AAL1" s="1">
+        <v>713.574</v>
+      </c>
+      <c r="AAM1" s="1">
+        <v>714.572</v>
+      </c>
+      <c r="AAN1" s="1">
+        <v>715.5700000000001</v>
+      </c>
+      <c r="AAO1" s="1">
+        <v>716.568</v>
+      </c>
+      <c r="AAP1" s="1">
+        <v>717.566</v>
+      </c>
+      <c r="AAQ1" s="1">
+        <v>718.564</v>
+      </c>
+      <c r="AAR1" s="1">
+        <v>719.562</v>
+      </c>
+      <c r="AAS1" s="1">
+        <v>720.5599999999999</v>
+      </c>
+      <c r="AAT1" s="1">
+        <v>721.558</v>
+      </c>
+      <c r="AAU1" s="1">
+        <v>722.556</v>
+      </c>
+      <c r="AAV1" s="1">
+        <v>723.554</v>
+      </c>
+      <c r="AAW1" s="1">
+        <v>724.552</v>
+      </c>
+      <c r="AAX1" s="1">
+        <v>725.55</v>
+      </c>
+      <c r="AAY1" s="1">
+        <v>726.548</v>
+      </c>
+      <c r="AAZ1" s="1">
+        <v>727.546</v>
+      </c>
+      <c r="ABA1" s="1">
+        <v>728.544</v>
+      </c>
+      <c r="ABB1" s="1">
+        <v>729.542</v>
+      </c>
+      <c r="ABC1" s="1">
+        <v>730.54</v>
+      </c>
+      <c r="ABD1" s="1">
+        <v>731.538</v>
+      </c>
+      <c r="ABE1" s="1">
+        <v>732.5359999999999</v>
+      </c>
+      <c r="ABF1" s="1">
+        <v>733.534</v>
+      </c>
+      <c r="ABG1" s="1">
+        <v>734.532</v>
+      </c>
+      <c r="ABH1" s="1">
+        <v>735.53</v>
+      </c>
+      <c r="ABI1" s="1">
+        <v>736.528</v>
+      </c>
+      <c r="ABJ1" s="1">
+        <v>737.526</v>
+      </c>
+      <c r="ABK1" s="1">
+        <v>738.524</v>
+      </c>
+      <c r="ABL1" s="1">
+        <v>739.522</v>
+      </c>
+      <c r="ABM1" s="1">
+        <v>740.52</v>
+      </c>
+      <c r="ABN1" s="1">
+        <v>741.518</v>
+      </c>
+      <c r="ABO1" s="1">
+        <v>742.516</v>
+      </c>
+      <c r="ABP1" s="1">
+        <v>743.514</v>
+      </c>
+      <c r="ABQ1" s="1">
+        <v>744.5119999999999</v>
+      </c>
+      <c r="ABR1" s="1">
+        <v>745.51</v>
+      </c>
+      <c r="ABS1" s="1">
+        <v>746.508</v>
+      </c>
+      <c r="ABT1" s="1">
+        <v>747.506</v>
+      </c>
+      <c r="ABU1" s="1">
+        <v>748.504</v>
+      </c>
+      <c r="ABV1" s="1">
+        <v>749.502</v>
+      </c>
+      <c r="ABW1" s="1">
+        <v>750.5</v>
+      </c>
+      <c r="ABX1" s="1">
+        <v>751.498</v>
+      </c>
+      <c r="ABY1" s="1">
+        <v>752.496</v>
+      </c>
+      <c r="ABZ1" s="1">
+        <v>753.494</v>
+      </c>
+      <c r="ACA1" s="1">
+        <v>754.492</v>
+      </c>
+      <c r="ACB1" s="1">
+        <v>755.49</v>
+      </c>
+      <c r="ACC1" s="1">
+        <v>756.4880000000001</v>
+      </c>
+      <c r="ACD1" s="1">
+        <v>757.486</v>
+      </c>
+      <c r="ACE1" s="1">
+        <v>758.484</v>
+      </c>
+      <c r="ACF1" s="1">
+        <v>759.482</v>
+      </c>
+      <c r="ACG1" s="1">
+        <v>760.48</v>
+      </c>
+      <c r="ACH1" s="1">
+        <v>761.478</v>
+      </c>
+      <c r="ACI1" s="1">
+        <v>762.476</v>
+      </c>
+      <c r="ACJ1" s="1">
+        <v>763.474</v>
+      </c>
+      <c r="ACK1" s="1">
+        <v>764.472</v>
+      </c>
+      <c r="ACL1" s="1">
+        <v>765.47</v>
+      </c>
+      <c r="ACM1" s="1">
+        <v>766.468</v>
+      </c>
+      <c r="ACN1" s="1">
+        <v>767.466</v>
+      </c>
+      <c r="ACO1" s="1">
+        <v>768.4640000000001</v>
+      </c>
+      <c r="ACP1" s="1">
+        <v>769.462</v>
+      </c>
+      <c r="ACQ1" s="1">
+        <v>770.46</v>
+      </c>
+      <c r="ACR1" s="1">
+        <v>771.458</v>
+      </c>
+      <c r="ACS1" s="1">
+        <v>772.456</v>
+      </c>
+      <c r="ACT1" s="1">
+        <v>773.454</v>
+      </c>
+      <c r="ACU1" s="1">
+        <v>774.452</v>
+      </c>
+      <c r="ACV1" s="1">
+        <v>775.45</v>
+      </c>
+      <c r="ACW1" s="1">
+        <v>776.448</v>
+      </c>
+      <c r="ACX1" s="1">
+        <v>777.446</v>
+      </c>
+      <c r="ACY1" s="1">
+        <v>778.444</v>
+      </c>
+      <c r="ACZ1" s="1">
+        <v>779.442</v>
+      </c>
+      <c r="ADA1" s="1">
+        <v>780.4400000000001</v>
+      </c>
+      <c r="ADB1" s="1">
+        <v>781.438</v>
+      </c>
+      <c r="ADC1" s="1">
+        <v>782.436</v>
+      </c>
+      <c r="ADD1" s="1">
+        <v>783.434</v>
+      </c>
+      <c r="ADE1" s="1">
+        <v>784.432</v>
+      </c>
+      <c r="ADF1" s="1">
+        <v>785.4299999999999</v>
+      </c>
+      <c r="ADG1" s="1">
+        <v>786.428</v>
+      </c>
+      <c r="ADH1" s="1">
+        <v>787.426</v>
+      </c>
+      <c r="ADI1" s="1">
+        <v>788.424</v>
+      </c>
+      <c r="ADJ1" s="1">
+        <v>789.422</v>
+      </c>
+      <c r="ADK1" s="1">
+        <v>790.42</v>
+      </c>
+      <c r="ADL1" s="1">
+        <v>791.418</v>
+      </c>
+      <c r="ADM1" s="1">
+        <v>792.4160000000001</v>
+      </c>
+      <c r="ADN1" s="1">
+        <v>793.414</v>
+      </c>
+      <c r="ADO1" s="1">
+        <v>794.412</v>
+      </c>
+      <c r="ADP1" s="1">
+        <v>795.41</v>
+      </c>
+      <c r="ADQ1" s="1">
+        <v>796.408</v>
+      </c>
+      <c r="ADR1" s="1">
+        <v>797.4059999999999</v>
+      </c>
+      <c r="ADS1" s="1">
+        <v>798.404</v>
+      </c>
+      <c r="ADT1" s="1">
+        <v>799.402</v>
+      </c>
+      <c r="ADU1" s="1">
+        <v>800.4</v>
+      </c>
+      <c r="ADV1" s="1">
+        <v>801.398</v>
+      </c>
+      <c r="ADW1" s="1">
+        <v>802.396</v>
+      </c>
+      <c r="ADX1" s="1">
+        <v>803.394</v>
+      </c>
+      <c r="ADY1" s="1">
+        <v>804.3920000000001</v>
+      </c>
+      <c r="ADZ1" s="1">
+        <v>805.39</v>
+      </c>
+      <c r="AEA1" s="1">
+        <v>806.388</v>
+      </c>
+      <c r="AEB1" s="1">
+        <v>807.386</v>
+      </c>
+      <c r="AEC1" s="1">
+        <v>808.384</v>
+      </c>
+      <c r="AED1" s="1">
+        <v>809.3819999999999</v>
+      </c>
+      <c r="AEE1" s="1">
+        <v>810.38</v>
+      </c>
+      <c r="AEF1" s="1">
+        <v>811.378</v>
+      </c>
+      <c r="AEG1" s="1">
+        <v>812.376</v>
+      </c>
+      <c r="AEH1" s="1">
+        <v>813.374</v>
+      </c>
+      <c r="AEI1" s="1">
+        <v>814.372</v>
+      </c>
+      <c r="AEJ1" s="1">
+        <v>815.37</v>
+      </c>
+      <c r="AEK1" s="1">
+        <v>816.3680000000001</v>
+      </c>
+      <c r="AEL1" s="1">
+        <v>817.366</v>
+      </c>
+      <c r="AEM1" s="1">
+        <v>818.364</v>
+      </c>
+      <c r="AEN1" s="1">
+        <v>819.362</v>
+      </c>
+      <c r="AEO1" s="1">
+        <v>820.36</v>
+      </c>
+      <c r="AEP1" s="1">
+        <v>821.3579999999999</v>
+      </c>
+      <c r="AEQ1" s="1">
+        <v>822.356</v>
+      </c>
+      <c r="AER1" s="1">
+        <v>823.354</v>
+      </c>
+      <c r="AES1" s="1">
+        <v>824.352</v>
+      </c>
+      <c r="AET1" s="1">
+        <v>825.35</v>
+      </c>
+      <c r="AEU1" s="1">
+        <v>826.348</v>
+      </c>
+      <c r="AEV1" s="1">
+        <v>827.346</v>
+      </c>
+      <c r="AEW1" s="1">
+        <v>828.3440000000001</v>
+      </c>
+      <c r="AEX1" s="1">
+        <v>829.342</v>
+      </c>
+      <c r="AEY1" s="1">
+        <v>830.34</v>
+      </c>
+      <c r="AEZ1" s="1">
+        <v>831.338</v>
+      </c>
+      <c r="AFA1" s="1">
+        <v>832.336</v>
+      </c>
+      <c r="AFB1" s="1">
+        <v>833.3339999999999</v>
+      </c>
+      <c r="AFC1" s="1">
+        <v>834.332</v>
+      </c>
+      <c r="AFD1" s="1">
+        <v>835.33</v>
+      </c>
+      <c r="AFE1" s="1">
+        <v>836.328</v>
+      </c>
+      <c r="AFF1" s="1">
+        <v>837.326</v>
+      </c>
+      <c r="AFG1" s="1">
+        <v>838.324</v>
+      </c>
+      <c r="AFH1" s="1">
+        <v>839.322</v>
+      </c>
+      <c r="AFI1" s="1">
+        <v>840.3200000000001</v>
+      </c>
+      <c r="AFJ1" s="1">
+        <v>841.318</v>
+      </c>
+      <c r="AFK1" s="1">
+        <v>842.316</v>
+      </c>
+      <c r="AFL1" s="1">
+        <v>843.314</v>
+      </c>
+      <c r="AFM1" s="1">
+        <v>844.312</v>
+      </c>
+      <c r="AFN1" s="1">
+        <v>845.3099999999999</v>
+      </c>
+      <c r="AFO1" s="1">
+        <v>846.308</v>
+      </c>
+      <c r="AFP1" s="1">
+        <v>847.306</v>
+      </c>
+      <c r="AFQ1" s="1">
+        <v>848.304</v>
+      </c>
+      <c r="AFR1" s="1">
+        <v>849.302</v>
+      </c>
+      <c r="AFS1" s="1">
+        <v>850.3</v>
+      </c>
+      <c r="AFT1" s="1">
+        <v>851.298</v>
+      </c>
+      <c r="AFU1" s="1">
+        <v>852.296</v>
+      </c>
+      <c r="AFV1" s="1">
+        <v>853.294</v>
+      </c>
+      <c r="AFW1" s="1">
+        <v>854.292</v>
+      </c>
+      <c r="AFX1" s="1">
+        <v>855.29</v>
+      </c>
+      <c r="AFY1" s="1">
+        <v>856.288</v>
+      </c>
+      <c r="AFZ1" s="1">
+        <v>857.2859999999999</v>
+      </c>
+      <c r="AGA1" s="1">
+        <v>858.284</v>
+      </c>
+      <c r="AGB1" s="1">
+        <v>859.282</v>
+      </c>
+      <c r="AGC1" s="1">
+        <v>860.28</v>
+      </c>
+      <c r="AGD1" s="1">
+        <v>861.278</v>
+      </c>
+      <c r="AGE1" s="1">
+        <v>862.276</v>
+      </c>
+      <c r="AGF1" s="1">
+        <v>863.274</v>
+      </c>
+      <c r="AGG1" s="1">
+        <v>864.272</v>
+      </c>
+      <c r="AGH1" s="1">
+        <v>865.27</v>
+      </c>
+      <c r="AGI1" s="1">
+        <v>866.268</v>
+      </c>
+      <c r="AGJ1" s="1">
+        <v>867.266</v>
+      </c>
+      <c r="AGK1" s="1">
+        <v>868.264</v>
+      </c>
+      <c r="AGL1" s="1">
+        <v>869.2619999999999</v>
+      </c>
+      <c r="AGM1" s="1">
+        <v>870.26</v>
+      </c>
+      <c r="AGN1" s="1">
+        <v>871.258</v>
+      </c>
+      <c r="AGO1" s="1">
+        <v>872.256</v>
+      </c>
+      <c r="AGP1" s="1">
+        <v>873.254</v>
+      </c>
+      <c r="AGQ1" s="1">
+        <v>874.252</v>
+      </c>
+      <c r="AGR1" s="1">
+        <v>875.25</v>
+      </c>
+      <c r="AGS1" s="1">
+        <v>876.248</v>
+      </c>
+      <c r="AGT1" s="1">
+        <v>877.246</v>
+      </c>
+      <c r="AGU1" s="1">
+        <v>878.244</v>
+      </c>
+      <c r="AGV1" s="1">
+        <v>879.242</v>
+      </c>
+      <c r="AGW1" s="1">
+        <v>880.24</v>
+      </c>
+      <c r="AGX1" s="1">
+        <v>881.2380000000001</v>
+      </c>
+      <c r="AGY1" s="1">
+        <v>882.236</v>
+      </c>
+      <c r="AGZ1" s="1">
+        <v>883.234</v>
+      </c>
+      <c r="AHA1" s="1">
+        <v>884.232</v>
+      </c>
+      <c r="AHB1" s="1">
+        <v>885.23</v>
+      </c>
+      <c r="AHC1" s="1">
+        <v>886.228</v>
+      </c>
+      <c r="AHD1" s="1">
+        <v>887.226</v>
+      </c>
+      <c r="AHE1" s="1">
+        <v>888.224</v>
+      </c>
+      <c r="AHF1" s="1">
+        <v>889.222</v>
+      </c>
+      <c r="AHG1" s="1">
+        <v>890.22</v>
+      </c>
+      <c r="AHH1" s="1">
+        <v>891.218</v>
+      </c>
+      <c r="AHI1" s="1">
+        <v>892.216</v>
+      </c>
+      <c r="AHJ1" s="1">
+        <v>893.2140000000001</v>
+      </c>
+      <c r="AHK1" s="1">
+        <v>894.212</v>
+      </c>
+      <c r="AHL1" s="1">
+        <v>895.21</v>
+      </c>
+      <c r="AHM1" s="1">
+        <v>896.208</v>
+      </c>
+      <c r="AHN1" s="1">
+        <v>897.206</v>
+      </c>
+      <c r="AHO1" s="1">
+        <v>898.204</v>
+      </c>
+      <c r="AHP1" s="1">
+        <v>899.202</v>
+      </c>
+      <c r="AHQ1" s="1">
+        <v>900.2</v>
+      </c>
+      <c r="AHR1" s="1">
+        <v>901.198</v>
+      </c>
+      <c r="AHS1" s="1">
+        <v>902.196</v>
+      </c>
+      <c r="AHT1" s="1">
+        <v>903.194</v>
+      </c>
+      <c r="AHU1" s="1">
+        <v>904.192</v>
+      </c>
+      <c r="AHV1" s="1">
+        <v>905.1900000000001</v>
+      </c>
+      <c r="AHW1" s="1">
+        <v>906.188</v>
+      </c>
+      <c r="AHX1" s="1">
+        <v>907.186</v>
+      </c>
+      <c r="AHY1" s="1">
+        <v>908.184</v>
+      </c>
+      <c r="AHZ1" s="1">
+        <v>909.182</v>
+      </c>
+      <c r="AIA1" s="1">
+        <v>910.1799999999999</v>
+      </c>
+      <c r="AIB1" s="1">
+        <v>911.178</v>
+      </c>
+      <c r="AIC1" s="1">
+        <v>912.176</v>
+      </c>
+      <c r="AID1" s="1">
+        <v>913.174</v>
+      </c>
+      <c r="AIE1" s="1">
+        <v>914.172</v>
+      </c>
+      <c r="AIF1" s="1">
+        <v>915.17</v>
+      </c>
+      <c r="AIG1" s="1">
+        <v>916.168</v>
+      </c>
+      <c r="AIH1" s="1">
+        <v>917.1660000000001</v>
+      </c>
+      <c r="AII1" s="1">
+        <v>918.164</v>
+      </c>
+      <c r="AIJ1" s="1">
+        <v>919.162</v>
+      </c>
+      <c r="AIK1" s="1">
+        <v>920.16</v>
+      </c>
+      <c r="AIL1" s="1">
+        <v>921.158</v>
+      </c>
+      <c r="AIM1" s="1">
+        <v>922.1559999999999</v>
+      </c>
+      <c r="AIN1" s="1">
+        <v>923.154</v>
+      </c>
+      <c r="AIO1" s="1">
+        <v>924.152</v>
+      </c>
+      <c r="AIP1" s="1">
+        <v>925.15</v>
+      </c>
+      <c r="AIQ1" s="1">
+        <v>926.148</v>
+      </c>
+      <c r="AIR1" s="1">
+        <v>927.146</v>
+      </c>
+      <c r="AIS1" s="1">
+        <v>928.144</v>
+      </c>
+      <c r="AIT1" s="1">
+        <v>929.1420000000001</v>
+      </c>
+      <c r="AIU1" s="1">
+        <v>930.14</v>
+      </c>
+      <c r="AIV1" s="1">
+        <v>931.138</v>
+      </c>
+      <c r="AIW1" s="1">
+        <v>932.136</v>
+      </c>
+      <c r="AIX1" s="1">
+        <v>933.134</v>
+      </c>
+      <c r="AIY1" s="1">
+        <v>934.1319999999999</v>
+      </c>
+      <c r="AIZ1" s="1">
+        <v>935.13</v>
+      </c>
+      <c r="AJA1" s="1">
+        <v>936.128</v>
+      </c>
+      <c r="AJB1" s="1">
+        <v>937.126</v>
+      </c>
+      <c r="AJC1" s="1">
+        <v>938.124</v>
+      </c>
+      <c r="AJD1" s="1">
+        <v>939.122</v>
+      </c>
+      <c r="AJE1" s="1">
+        <v>940.12</v>
+      </c>
+      <c r="AJF1" s="1">
+        <v>941.1180000000001</v>
+      </c>
+      <c r="AJG1" s="1">
+        <v>942.116</v>
+      </c>
+      <c r="AJH1" s="1">
+        <v>943.114</v>
+      </c>
+      <c r="AJI1" s="1">
+        <v>944.112</v>
+      </c>
+      <c r="AJJ1" s="1">
+        <v>945.11</v>
+      </c>
+      <c r="AJK1" s="1">
+        <v>946.1079999999999</v>
+      </c>
+      <c r="AJL1" s="1">
+        <v>947.106</v>
+      </c>
+      <c r="AJM1" s="1">
+        <v>948.104</v>
+      </c>
+      <c r="AJN1" s="1">
+        <v>949.102</v>
+      </c>
+      <c r="AJO1" s="1">
+        <v>950.1</v>
+      </c>
+      <c r="AJP1" s="1">
+        <v>951.098</v>
+      </c>
+      <c r="AJQ1" s="1">
+        <v>952.096</v>
+      </c>
+      <c r="AJR1" s="1">
+        <v>953.0940000000001</v>
+      </c>
+      <c r="AJS1" s="1">
+        <v>954.092</v>
+      </c>
+      <c r="AJT1" s="1">
+        <v>955.09</v>
+      </c>
+      <c r="AJU1" s="1">
+        <v>956.088</v>
+      </c>
+      <c r="AJV1" s="1">
+        <v>957.086</v>
+      </c>
+      <c r="AJW1" s="1">
+        <v>958.0839999999999</v>
+      </c>
+      <c r="AJX1" s="1">
+        <v>959.082</v>
+      </c>
+      <c r="AJY1" s="1">
+        <v>960.08</v>
+      </c>
+      <c r="AJZ1" s="1">
+        <v>961.078</v>
+      </c>
+      <c r="AKA1" s="1">
+        <v>962.076</v>
+      </c>
+      <c r="AKB1" s="1">
+        <v>963.074</v>
+      </c>
+      <c r="AKC1" s="1">
+        <v>964.072</v>
+      </c>
+      <c r="AKD1" s="1">
+        <v>965.0700000000001</v>
+      </c>
+      <c r="AKE1" s="1">
+        <v>966.068</v>
+      </c>
+      <c r="AKF1" s="1">
+        <v>967.066</v>
+      </c>
+      <c r="AKG1" s="1">
+        <v>968.064</v>
+      </c>
+      <c r="AKH1" s="1">
+        <v>969.062</v>
+      </c>
+      <c r="AKI1" s="1">
+        <v>970.0599999999999</v>
+      </c>
+      <c r="AKJ1" s="1">
+        <v>971.058</v>
+      </c>
+      <c r="AKK1" s="1">
+        <v>972.056</v>
+      </c>
+      <c r="AKL1" s="1">
+        <v>973.054</v>
+      </c>
+      <c r="AKM1" s="1">
+        <v>974.052</v>
+      </c>
+      <c r="AKN1" s="1">
+        <v>975.05</v>
+      </c>
+      <c r="AKO1" s="1">
+        <v>976.048</v>
+      </c>
+      <c r="AKP1" s="1">
+        <v>977.046</v>
+      </c>
+      <c r="AKQ1" s="1">
+        <v>978.044</v>
+      </c>
+      <c r="AKR1" s="1">
+        <v>979.042</v>
+      </c>
+      <c r="AKS1" s="1">
+        <v>980.04</v>
+      </c>
+      <c r="AKT1" s="1">
+        <v>981.038</v>
+      </c>
+      <c r="AKU1" s="1">
+        <v>982.0359999999999</v>
+      </c>
+      <c r="AKV1" s="1">
+        <v>983.034</v>
+      </c>
+      <c r="AKW1" s="1">
+        <v>984.032</v>
+      </c>
+      <c r="AKX1" s="1">
+        <v>985.03</v>
+      </c>
+      <c r="AKY1" s="1">
+        <v>986.028</v>
+      </c>
+      <c r="AKZ1" s="1">
+        <v>987.026</v>
+      </c>
+      <c r="ALA1" s="1">
+        <v>988.024</v>
+      </c>
+      <c r="ALB1" s="1">
+        <v>989.022</v>
+      </c>
+      <c r="ALC1" s="1">
+        <v>990.02</v>
+      </c>
+      <c r="ALD1" s="1">
+        <v>991.018</v>
+      </c>
+      <c r="ALE1" s="1">
+        <v>992.016</v>
+      </c>
+      <c r="ALF1" s="1">
+        <v>993.014</v>
+      </c>
+      <c r="ALG1" s="1">
+        <v>994.0119999999999</v>
+      </c>
+      <c r="ALH1" s="1">
+        <v>995.01</v>
+      </c>
+      <c r="ALI1" s="1">
+        <v>996.008</v>
+      </c>
+      <c r="ALJ1" s="1">
+        <v>997.006</v>
+      </c>
+      <c r="ALK1" s="1">
+        <v>998.004</v>
+      </c>
+      <c r="ALL1" s="1">
+        <v>999.002</v>
+      </c>
+      <c r="ALM1" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:1001">
       <c r="A2" s="2">
-        <v>-2.17641368640834</v>
+        <v>-4.25870610400166</v>
       </c>
       <c r="B2" s="2">
-        <v>-2.80897410561851</v>
+        <v>-8.8473822294978</v>
       </c>
       <c r="C2" s="2">
-        <v>-2.81539781902261</v>
+        <v>-16.395252817155</v>
       </c>
       <c r="D2" s="2">
-        <v>-2.81257927991902</v>
+        <v>-10.5871534797569</v>
       </c>
       <c r="E2" s="2">
-        <v>-2.82915217241298</v>
+        <v>-6.12618235117053</v>
       </c>
       <c r="F2" s="2">
-        <v>-2.82789038372421</v>
+        <v>-4.24789120311057</v>
       </c>
       <c r="G2" s="2">
-        <v>-2.83093765861587</v>
+        <v>-3.46616827371524</v>
       </c>
       <c r="H2" s="2">
-        <v>-2.82588086048765</v>
+        <v>-3.30170745463589</v>
       </c>
       <c r="I2" s="2">
-        <v>-2.82332191661965</v>
+        <v>-3.49344185626174</v>
       </c>
       <c r="J2" s="2">
-        <v>-2.8540236899681</v>
+        <v>-3.95976690110791</v>
       </c>
       <c r="K2" s="2">
-        <v>-2.9249786700427</v>
+        <v>-4.62048849035393</v>
       </c>
       <c r="L2" s="2">
-        <v>-2.97746217478478</v>
+        <v>-5.37153516396848</v>
       </c>
       <c r="M2" s="2">
-        <v>-3.05662932409349</v>
+        <v>-5.96476274827937</v>
       </c>
       <c r="N2" s="2">
-        <v>-3.21596528408126</v>
+        <v>-6.23322238281038</v>
       </c>
       <c r="O2" s="2">
-        <v>-3.48111062568795</v>
+        <v>-6.12249031752937</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-5.78712179191541</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-5.38698340173945</v>
+      </c>
+      <c r="R2" s="2">
+        <v>-5.10045392355772</v>
+      </c>
+      <c r="S2" s="2">
+        <v>-4.96372047924638</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-4.96714715193974</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-5.13170247737787</v>
+      </c>
+      <c r="V2" s="2">
+        <v>-5.40375998508566</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-5.73966674100461</v>
+      </c>
+      <c r="X2" s="2">
+        <v>-6.09795435996189</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>-6.46949234163979</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>-6.80913366248306</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>-7.11911864099664</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>-7.36267913322451</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>-7.61794951587845</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>-7.88054947896403</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>-8.184405180041599</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>-8.5989675638652</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>-9.10371561462234</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>-9.6343732027794</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>-10.1980892527988</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>-10.6782288758437</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>-11.0047013855494</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>-11.0876435504258</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>-10.9126831781421</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>-10.4402181954766</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>-9.80514142199767</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>-9.158156009827399</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>-8.527009923883909</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>-7.97658970817508</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>-7.40267933534968</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>-6.96586252587868</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>-6.5761171867894</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>-6.24382749794265</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>-5.94232084627845</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>-5.71676675996279</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>-5.45428491284103</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>-5.28027110240697</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>-5.11540246559768</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>-4.99050652243977</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>-4.8666842270909</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>-4.76639624193944</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>-4.69701959993628</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>-4.61594598585503</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>-4.55741342782595</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>-4.50237276668128</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>-4.44354286022357</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>-4.40858992619292</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>-4.39433516478802</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>-4.38295323851086</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>-4.34448625808658</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>-4.33213851428607</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>-4.31631677638561</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>-4.31252677291097</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>-4.28212645516272</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>-4.28050183145749</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>-4.24802956117635</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>-4.23351186456823</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>-4.22058073313148</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>-4.18272755845617</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>-4.1681564334974</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>-4.16424834489392</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>-4.14731139646799</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>-4.12069648396176</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>-4.11389795717066</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>-4.07762235781439</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>-4.06638500407079</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>-4.03993700416949</v>
+      </c>
+      <c r="CE2" s="2">
+        <v>-3.99582373087572</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>-3.98211662176919</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>-3.95319173853375</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>-3.93656075486465</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>-3.94397645429043</v>
+      </c>
+      <c r="CJ2" s="2">
+        <v>-3.92621518338678</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>-3.89113164016483</v>
+      </c>
+      <c r="CL2" s="2">
+        <v>-3.88322697130087</v>
+      </c>
+      <c r="CM2" s="2">
+        <v>-3.86415603468542</v>
+      </c>
+      <c r="CN2" s="2">
+        <v>-3.84058279924052</v>
+      </c>
+      <c r="CO2" s="2">
+        <v>-3.83196255127461</v>
+      </c>
+      <c r="CP2" s="2">
+        <v>-3.79093701013892</v>
+      </c>
+      <c r="CQ2" s="2">
+        <v>-3.7830098861617</v>
+      </c>
+      <c r="CR2" s="2">
+        <v>-3.77924753146796</v>
+      </c>
+      <c r="CS2" s="2">
+        <v>-3.73931601198476</v>
+      </c>
+      <c r="CT2" s="2">
+        <v>-3.74312203503678</v>
+      </c>
+      <c r="CU2" s="2">
+        <v>-3.74854531555901</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>-3.73041346281714</v>
+      </c>
+      <c r="CW2" s="2">
+        <v>-3.71326422406376</v>
+      </c>
+      <c r="CX2" s="2">
+        <v>-3.7154797225429</v>
+      </c>
+      <c r="CY2" s="2">
+        <v>-3.72642514499427</v>
+      </c>
+      <c r="CZ2" s="2">
+        <v>-3.69544833403387</v>
+      </c>
+      <c r="DA2" s="2">
+        <v>-3.71657300970748</v>
+      </c>
+      <c r="DB2" s="2">
+        <v>-3.71044495662843</v>
+      </c>
+      <c r="DC2" s="2">
+        <v>-3.70142506076099</v>
+      </c>
+      <c r="DD2" s="2">
+        <v>-3.69946417861959</v>
+      </c>
+      <c r="DE2" s="2">
+        <v>-3.6888353908021</v>
+      </c>
+      <c r="DF2" s="2">
+        <v>-3.65598747509498</v>
+      </c>
+      <c r="DG2" s="2">
+        <v>-3.67691178279026</v>
+      </c>
+      <c r="DH2" s="2">
+        <v>-3.67985619401762</v>
+      </c>
+      <c r="DI2" s="2">
+        <v>-3.64573223825795</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>-3.6434380085316</v>
+      </c>
+      <c r="DK2" s="2">
+        <v>-3.64008885342995</v>
+      </c>
+      <c r="DL2" s="2">
+        <v>-3.63215455651883</v>
+      </c>
+      <c r="DM2" s="2">
+        <v>-3.61727972695732</v>
+      </c>
+      <c r="DN2" s="2">
+        <v>-3.59985934790035</v>
+      </c>
+      <c r="DO2" s="2">
+        <v>-3.58484717989279</v>
+      </c>
+      <c r="DP2" s="2">
+        <v>-3.55011449527021</v>
+      </c>
+      <c r="DQ2" s="2">
+        <v>-3.57157343660802</v>
+      </c>
+      <c r="DR2" s="2">
+        <v>-3.54310380900574</v>
+      </c>
+      <c r="DS2" s="2">
+        <v>-3.52837594653875</v>
+      </c>
+      <c r="DT2" s="2">
+        <v>-3.52574204271838</v>
+      </c>
+      <c r="DU2" s="2">
+        <v>-3.50950857764011</v>
+      </c>
+      <c r="DV2" s="2">
+        <v>-3.49211993466972</v>
+      </c>
+      <c r="DW2" s="2">
+        <v>-3.47758371272803</v>
+      </c>
+      <c r="DX2" s="2">
+        <v>-3.48055330427259</v>
+      </c>
+      <c r="DY2" s="2">
+        <v>-3.46052813179439</v>
+      </c>
+      <c r="DZ2" s="2">
+        <v>-3.47139395847971</v>
+      </c>
+      <c r="EA2" s="2">
+        <v>-3.44657677399985</v>
+      </c>
+      <c r="EB2" s="2">
+        <v>-3.44618794738859</v>
+      </c>
+      <c r="EC2" s="2">
+        <v>-3.42070515336709</v>
+      </c>
+      <c r="ED2" s="2">
+        <v>-3.44808861863842</v>
+      </c>
+      <c r="EE2" s="2">
+        <v>-3.43051574620185</v>
+      </c>
+      <c r="EF2" s="2">
+        <v>-3.44400493171307</v>
+      </c>
+      <c r="EG2" s="2">
+        <v>-3.43400744015703</v>
+      </c>
+      <c r="EH2" s="2">
+        <v>-3.4458846031572</v>
+      </c>
+      <c r="EI2" s="2">
+        <v>-3.4507591384647</v>
+      </c>
+      <c r="EJ2" s="2">
+        <v>-3.47554829894179</v>
+      </c>
+      <c r="EK2" s="2">
+        <v>-3.47208443090749</v>
+      </c>
+      <c r="EL2" s="2">
+        <v>-3.48054240384736</v>
+      </c>
+      <c r="EM2" s="2">
+        <v>-3.51850681343002</v>
+      </c>
+      <c r="EN2" s="2">
+        <v>-3.513613097331</v>
+      </c>
+      <c r="EO2" s="2">
+        <v>-3.5454096873673</v>
+      </c>
+      <c r="EP2" s="2">
+        <v>-3.56004901225018</v>
+      </c>
+      <c r="EQ2" s="2">
+        <v>-3.56573348077286</v>
+      </c>
+      <c r="ER2" s="2">
+        <v>-3.58758027414671</v>
+      </c>
+      <c r="ES2" s="2">
+        <v>-3.62362510033658</v>
+      </c>
+      <c r="ET2" s="2">
+        <v>-3.63236799466731</v>
+      </c>
+      <c r="EU2" s="2">
+        <v>-3.66069145339198</v>
+      </c>
+      <c r="EV2" s="2">
+        <v>-3.70507764711254</v>
+      </c>
+      <c r="EW2" s="2">
+        <v>-3.7080834618607</v>
+      </c>
+      <c r="EX2" s="2">
+        <v>-3.73022994341158</v>
+      </c>
+      <c r="EY2" s="2">
+        <v>-3.74546636404837</v>
+      </c>
+      <c r="EZ2" s="2">
+        <v>-3.78253696721853</v>
+      </c>
+      <c r="FA2" s="2">
+        <v>-3.79832971849651</v>
+      </c>
+      <c r="FB2" s="2">
+        <v>-3.84955648361936</v>
+      </c>
+      <c r="FC2" s="2">
+        <v>-3.86478193599484</v>
+      </c>
+      <c r="FD2" s="2">
+        <v>-3.87949015303602</v>
+      </c>
+      <c r="FE2" s="2">
+        <v>-3.89402311797776</v>
+      </c>
+      <c r="FF2" s="2">
+        <v>-3.91177433899939</v>
+      </c>
+      <c r="FG2" s="2">
+        <v>-3.93163929779425</v>
+      </c>
+      <c r="FH2" s="2">
+        <v>-3.966100697201</v>
+      </c>
+      <c r="FI2" s="2">
+        <v>-3.97933977459716</v>
+      </c>
+      <c r="FJ2" s="2">
+        <v>-3.97895566771576</v>
+      </c>
+      <c r="FK2" s="2">
+        <v>-3.9926902669132</v>
+      </c>
+      <c r="FL2" s="2">
+        <v>-4.02926731798852</v>
+      </c>
+      <c r="FM2" s="2">
+        <v>-4.02510064797763</v>
+      </c>
+      <c r="FN2" s="2">
+        <v>-4.02667688984711</v>
+      </c>
+      <c r="FO2" s="2">
+        <v>-4.04916886216959</v>
+      </c>
+      <c r="FP2" s="2">
+        <v>-4.05071222364327</v>
+      </c>
+      <c r="FQ2" s="2">
+        <v>-4.05057245494135</v>
+      </c>
+      <c r="FR2" s="2">
+        <v>-4.09618236854109</v>
+      </c>
+      <c r="FS2" s="2">
+        <v>-4.12281467246039</v>
+      </c>
+      <c r="FT2" s="2">
+        <v>-4.10628097337096</v>
+      </c>
+      <c r="FU2" s="2">
+        <v>-4.09277702753187</v>
+      </c>
+      <c r="FV2" s="2">
+        <v>-4.10107572083751</v>
+      </c>
+      <c r="FW2" s="2">
+        <v>-4.11473010136616</v>
+      </c>
+      <c r="FX2" s="2">
+        <v>-4.11033716706791</v>
+      </c>
+      <c r="FY2" s="2">
+        <v>-4.11975914524586</v>
+      </c>
+      <c r="FZ2" s="2">
+        <v>-4.12249238210989</v>
+      </c>
+      <c r="GA2" s="2">
+        <v>-4.09681575909616</v>
+      </c>
+      <c r="GB2" s="2">
+        <v>-4.11910805960153</v>
+      </c>
+      <c r="GC2" s="2">
+        <v>-4.11971188221634</v>
+      </c>
+      <c r="GD2" s="2">
+        <v>-4.10852562794961</v>
+      </c>
+      <c r="GE2" s="2">
+        <v>-4.11171771919725</v>
+      </c>
+      <c r="GF2" s="2">
+        <v>-4.09666725433328</v>
+      </c>
+      <c r="GG2" s="2">
+        <v>-4.08960953952502</v>
+      </c>
+      <c r="GH2" s="2">
+        <v>-4.08554792897563</v>
+      </c>
+      <c r="GI2" s="2">
+        <v>-4.08745645857219</v>
+      </c>
+      <c r="GJ2" s="2">
+        <v>-4.06528369133691</v>
+      </c>
+      <c r="GK2" s="2">
+        <v>-4.04288469768151</v>
+      </c>
+      <c r="GL2" s="2">
+        <v>-4.04002649405853</v>
+      </c>
+      <c r="GM2" s="2">
+        <v>-4.04030004367683</v>
+      </c>
+      <c r="GN2" s="2">
+        <v>-4.03803090740592</v>
+      </c>
+      <c r="GO2" s="2">
+        <v>-4.0261260960372</v>
+      </c>
+      <c r="GP2" s="2">
+        <v>-4.0204490693888</v>
+      </c>
+      <c r="GQ2" s="2">
+        <v>-3.98421518635233</v>
+      </c>
+      <c r="GR2" s="2">
+        <v>-3.9788618669762</v>
+      </c>
+      <c r="GS2" s="2">
+        <v>-3.96990354571345</v>
+      </c>
+      <c r="GT2" s="2">
+        <v>-3.95571670809875</v>
+      </c>
+      <c r="GU2" s="2">
+        <v>-3.93401793911255</v>
+      </c>
+      <c r="GV2" s="2">
+        <v>-3.9267086598783</v>
+      </c>
+      <c r="GW2" s="2">
+        <v>-3.89013827128258</v>
+      </c>
+      <c r="GX2" s="2">
+        <v>-3.89194131185861</v>
+      </c>
+      <c r="GY2" s="2">
+        <v>-3.88184073182182</v>
+      </c>
+      <c r="GZ2" s="2">
+        <v>-3.87473382009757</v>
+      </c>
+      <c r="HA2" s="2">
+        <v>-3.83978380269576</v>
+      </c>
+      <c r="HB2" s="2">
+        <v>-3.81090457071822</v>
+      </c>
+      <c r="HC2" s="2">
+        <v>-3.81124373644543</v>
+      </c>
+      <c r="HD2" s="2">
+        <v>-3.78482524742978</v>
+      </c>
+      <c r="HE2" s="2">
+        <v>-3.7904282658284</v>
+      </c>
+      <c r="HF2" s="2">
+        <v>-3.74579390834398</v>
+      </c>
+      <c r="HG2" s="2">
+        <v>-3.75374930148094</v>
+      </c>
+      <c r="HH2" s="2">
+        <v>-3.71785957879497</v>
+      </c>
+      <c r="HI2" s="2">
+        <v>-3.6769731358839</v>
+      </c>
+      <c r="HJ2" s="2">
+        <v>-3.68217674861402</v>
+      </c>
+      <c r="HK2" s="2">
+        <v>-3.6751059240266</v>
+      </c>
+      <c r="HL2" s="2">
+        <v>-3.63852067370755</v>
+      </c>
+      <c r="HM2" s="2">
+        <v>-3.63372434379807</v>
+      </c>
+      <c r="HN2" s="2">
+        <v>-3.60818068778342</v>
+      </c>
+      <c r="HO2" s="2">
+        <v>-3.59908673075878</v>
+      </c>
+      <c r="HP2" s="2">
+        <v>-3.60056651674986</v>
+      </c>
+      <c r="HQ2" s="2">
+        <v>-3.58319029893456</v>
+      </c>
+      <c r="HR2" s="2">
+        <v>-3.55484014320581</v>
+      </c>
+      <c r="HS2" s="2">
+        <v>-3.54224330636736</v>
+      </c>
+      <c r="HT2" s="2">
+        <v>-3.52514928601472</v>
+      </c>
+      <c r="HU2" s="2">
+        <v>-3.51553152696514</v>
+      </c>
+      <c r="HV2" s="2">
+        <v>-3.49354104950538</v>
+      </c>
+      <c r="HW2" s="2">
+        <v>-3.49732978955886</v>
+      </c>
+      <c r="HX2" s="2">
+        <v>-3.48460164066232</v>
+      </c>
+      <c r="HY2" s="2">
+        <v>-3.44130802951577</v>
+      </c>
+      <c r="HZ2" s="2">
+        <v>-3.46048308782944</v>
+      </c>
+      <c r="IA2" s="2">
+        <v>-3.44093977439636</v>
+      </c>
+      <c r="IB2" s="2">
+        <v>-3.43551061580954</v>
+      </c>
+      <c r="IC2" s="2">
+        <v>-3.4244334309183</v>
+      </c>
+      <c r="ID2" s="2">
+        <v>-3.40755609434664</v>
+      </c>
+      <c r="IE2" s="2">
+        <v>-3.40565769091849</v>
+      </c>
+      <c r="IF2" s="2">
+        <v>-3.38568762003756</v>
+      </c>
+      <c r="IG2" s="2">
+        <v>-3.39848587021576</v>
+      </c>
+      <c r="IH2" s="2">
+        <v>-3.38679856385316</v>
+      </c>
+      <c r="II2" s="2">
+        <v>-3.35366200048022</v>
+      </c>
+      <c r="IJ2" s="2">
+        <v>-3.37673134392561</v>
+      </c>
+      <c r="IK2" s="2">
+        <v>-3.3472899547188</v>
+      </c>
+      <c r="IL2" s="2">
+        <v>-3.34813632990107</v>
+      </c>
+      <c r="IM2" s="2">
+        <v>-3.33327147362365</v>
+      </c>
+      <c r="IN2" s="2">
+        <v>-3.35096977302642</v>
+      </c>
+      <c r="IO2" s="2">
+        <v>-3.33792987120261</v>
+      </c>
+      <c r="IP2" s="2">
+        <v>-3.34660352593188</v>
+      </c>
+      <c r="IQ2" s="2">
+        <v>-3.34617090889818</v>
+      </c>
+      <c r="IR2" s="2">
+        <v>-3.32414352554511</v>
+      </c>
+      <c r="IS2" s="2">
+        <v>-3.3212923127552</v>
+      </c>
+      <c r="IT2" s="2">
+        <v>-3.32013899967195</v>
+      </c>
+      <c r="IU2" s="2">
+        <v>-3.31134921916893</v>
+      </c>
+      <c r="IV2" s="2">
+        <v>-3.31323780634972</v>
+      </c>
+      <c r="IW2" s="2">
+        <v>-3.31385353765066</v>
+      </c>
+      <c r="IX2" s="2">
+        <v>-3.30057899703972</v>
+      </c>
+      <c r="IY2" s="2">
+        <v>-3.31175695178271</v>
+      </c>
+      <c r="IZ2" s="2">
+        <v>-3.32388100146849</v>
+      </c>
+      <c r="JA2" s="2">
+        <v>-3.3033321844251</v>
+      </c>
+      <c r="JB2" s="2">
+        <v>-3.30058698484369</v>
+      </c>
+      <c r="JC2" s="2">
+        <v>-3.32061973050987</v>
+      </c>
+      <c r="JD2" s="2">
+        <v>-3.29168669773462</v>
+      </c>
+      <c r="JE2" s="2">
+        <v>-3.28535231936228</v>
+      </c>
+      <c r="JF2" s="2">
+        <v>-3.30939649061745</v>
+      </c>
+      <c r="JG2" s="2">
+        <v>-3.27701118331755</v>
+      </c>
+      <c r="JH2" s="2">
+        <v>-3.31279030804383</v>
+      </c>
+      <c r="JI2" s="2">
+        <v>-3.29671751702402</v>
+      </c>
+      <c r="JJ2" s="2">
+        <v>-3.28495817327789</v>
+      </c>
+      <c r="JK2" s="2">
+        <v>-3.27062269082248</v>
+      </c>
+      <c r="JL2" s="2">
+        <v>-3.29058365710616</v>
+      </c>
+      <c r="JM2" s="2">
+        <v>-3.30787272816853</v>
+      </c>
+      <c r="JN2" s="2">
+        <v>-3.29449466835667</v>
+      </c>
+      <c r="JO2" s="2">
+        <v>-3.292686734709</v>
+      </c>
+      <c r="JP2" s="2">
+        <v>-3.28541465258914</v>
+      </c>
+      <c r="JQ2" s="2">
+        <v>-3.30615363987417</v>
+      </c>
+      <c r="JR2" s="2">
+        <v>-3.29190749688431</v>
+      </c>
+      <c r="JS2" s="2">
+        <v>-3.29148756895509</v>
+      </c>
+      <c r="JT2" s="2">
+        <v>-3.31727867333852</v>
+      </c>
+      <c r="JU2" s="2">
+        <v>-3.30324964348041</v>
+      </c>
+      <c r="JV2" s="2">
+        <v>-3.3226947045617</v>
+      </c>
+      <c r="JW2" s="2">
+        <v>-3.3026825272391</v>
+      </c>
+      <c r="JX2" s="2">
+        <v>-3.3168369137193</v>
+      </c>
+      <c r="JY2" s="2">
+        <v>-3.30816960923171</v>
+      </c>
+      <c r="JZ2" s="2">
+        <v>-3.31923305387627</v>
+      </c>
+      <c r="KA2" s="2">
+        <v>-3.34576344935657</v>
+      </c>
+      <c r="KB2" s="2">
+        <v>-3.32611341504716</v>
+      </c>
+      <c r="KC2" s="2">
+        <v>-3.3298045416186</v>
+      </c>
+      <c r="KD2" s="2">
+        <v>-3.35068047809574</v>
+      </c>
+      <c r="KE2" s="2">
+        <v>-3.31887319799559</v>
+      </c>
+      <c r="KF2" s="2">
+        <v>-3.34924640538351</v>
+      </c>
+      <c r="KG2" s="2">
+        <v>-3.319994719616</v>
+      </c>
+      <c r="KH2" s="2">
+        <v>-3.35078476434714</v>
+      </c>
+      <c r="KI2" s="2">
+        <v>-3.33283173254703</v>
+      </c>
+      <c r="KJ2" s="2">
+        <v>-3.34185682073182</v>
+      </c>
+      <c r="KK2" s="2">
+        <v>-3.35498936858554</v>
+      </c>
+      <c r="KL2" s="2">
+        <v>-3.3395383650937</v>
+      </c>
+      <c r="KM2" s="2">
+        <v>-3.35156167071692</v>
+      </c>
+      <c r="KN2" s="2">
+        <v>-3.33480815529551</v>
+      </c>
+      <c r="KO2" s="2">
+        <v>-3.34433140897661</v>
+      </c>
+      <c r="KP2" s="2">
+        <v>-3.38840371427868</v>
+      </c>
+      <c r="KQ2" s="2">
+        <v>-3.36489801359989</v>
+      </c>
+      <c r="KR2" s="2">
+        <v>-3.35503735290996</v>
+      </c>
+      <c r="KS2" s="2">
+        <v>-3.35373971406043</v>
+      </c>
+      <c r="KT2" s="2">
+        <v>-3.36018279952117</v>
+      </c>
+      <c r="KU2" s="2">
+        <v>-3.35588800933988</v>
+      </c>
+      <c r="KV2" s="2">
+        <v>-3.36935149431397</v>
+      </c>
+      <c r="KW2" s="2">
+        <v>-3.36109398198923</v>
+      </c>
+      <c r="KX2" s="2">
+        <v>-3.34051296085779</v>
+      </c>
+      <c r="KY2" s="2">
+        <v>-3.37374081656309</v>
+      </c>
+      <c r="KZ2" s="2">
+        <v>-3.37291660601742</v>
+      </c>
+      <c r="LA2" s="2">
+        <v>-3.38305042450284</v>
+      </c>
+      <c r="LB2" s="2">
+        <v>-3.37800006762767</v>
+      </c>
+      <c r="LC2" s="2">
+        <v>-3.35932298266999</v>
+      </c>
+      <c r="LD2" s="2">
+        <v>-3.37848577707876</v>
+      </c>
+      <c r="LE2" s="2">
+        <v>-3.39658823274623</v>
+      </c>
+      <c r="LF2" s="2">
+        <v>-3.3619345414603</v>
+      </c>
+      <c r="LG2" s="2">
+        <v>-3.39095285024556</v>
+      </c>
+      <c r="LH2" s="2">
+        <v>-3.37894394660717</v>
+      </c>
+      <c r="LI2" s="2">
+        <v>-3.3993029230783</v>
+      </c>
+      <c r="LJ2" s="2">
+        <v>-3.39402060811142</v>
+      </c>
+      <c r="LK2" s="2">
+        <v>-3.4058653507717</v>
+      </c>
+      <c r="LL2" s="2">
+        <v>-3.40324772361645</v>
+      </c>
+      <c r="LM2" s="2">
+        <v>-3.39127401366822</v>
+      </c>
+      <c r="LN2" s="2">
+        <v>-3.40447126361709</v>
+      </c>
+      <c r="LO2" s="2">
+        <v>-3.39969241383467</v>
+      </c>
+      <c r="LP2" s="2">
+        <v>-3.39885950773039</v>
+      </c>
+      <c r="LQ2" s="2">
+        <v>-3.40781554946694</v>
+      </c>
+      <c r="LR2" s="2">
+        <v>-3.40028613947395</v>
+      </c>
+      <c r="LS2" s="2">
+        <v>-3.40754303238583</v>
+      </c>
+      <c r="LT2" s="2">
+        <v>-3.43018303363347</v>
+      </c>
+      <c r="LU2" s="2">
+        <v>-3.43322017508788</v>
+      </c>
+      <c r="LV2" s="2">
+        <v>-3.41845392776002</v>
+      </c>
+      <c r="LW2" s="2">
+        <v>-3.43131139979231</v>
+      </c>
+      <c r="LX2" s="2">
+        <v>-3.44930883444392</v>
+      </c>
+      <c r="LY2" s="2">
+        <v>-3.45118054817245</v>
+      </c>
+      <c r="LZ2" s="2">
+        <v>-3.41360881362499</v>
+      </c>
+      <c r="MA2" s="2">
+        <v>-3.43714235960057</v>
+      </c>
+      <c r="MB2" s="2">
+        <v>-3.4637317231179</v>
+      </c>
+      <c r="MC2" s="2">
+        <v>-3.4661915768248</v>
+      </c>
+      <c r="MD2" s="2">
+        <v>-3.45711995995197</v>
+      </c>
+      <c r="ME2" s="2">
+        <v>-3.45908446697785</v>
+      </c>
+      <c r="MF2" s="2">
+        <v>-3.4819866944416</v>
+      </c>
+      <c r="MG2" s="2">
+        <v>-3.49342285974374</v>
+      </c>
+      <c r="MH2" s="2">
+        <v>-3.46473097434349</v>
+      </c>
+      <c r="MI2" s="2">
+        <v>-3.47746466457939</v>
+      </c>
+      <c r="MJ2" s="2">
+        <v>-3.46941258537943</v>
+      </c>
+      <c r="MK2" s="2">
+        <v>-3.48150218574551</v>
+      </c>
+      <c r="ML2" s="2">
+        <v>-3.48318417133562</v>
+      </c>
+      <c r="MM2" s="2">
+        <v>-3.47330423911825</v>
+      </c>
+      <c r="MN2" s="2">
+        <v>-3.48517210622134</v>
+      </c>
+      <c r="MO2" s="2">
+        <v>-3.49260767130605</v>
+      </c>
+      <c r="MP2" s="2">
+        <v>-3.50950328929804</v>
+      </c>
+      <c r="MQ2" s="2">
+        <v>-3.50398108474199</v>
+      </c>
+      <c r="MR2" s="2">
+        <v>-3.48364282765236</v>
+      </c>
+      <c r="MS2" s="2">
+        <v>-3.48750273363697</v>
+      </c>
+      <c r="MT2" s="2">
+        <v>-3.5071037733859</v>
+      </c>
+      <c r="MU2" s="2">
+        <v>-3.50796127268587</v>
+      </c>
+      <c r="MV2" s="2">
+        <v>-3.5239865147923</v>
+      </c>
+      <c r="MW2" s="2">
+        <v>-3.53062396120506</v>
+      </c>
+      <c r="MX2" s="2">
+        <v>-3.51596111826715</v>
+      </c>
+      <c r="MY2" s="2">
+        <v>-3.51405452921171</v>
+      </c>
+      <c r="MZ2" s="2">
+        <v>-3.54490394981816</v>
+      </c>
+      <c r="NA2" s="2">
+        <v>-3.52867401607485</v>
+      </c>
+      <c r="NB2" s="2">
+        <v>-3.52627172858374</v>
+      </c>
+      <c r="NC2" s="2">
+        <v>-3.51937973407421</v>
+      </c>
+      <c r="ND2" s="2">
+        <v>-3.52738209086039</v>
+      </c>
+      <c r="NE2" s="2">
+        <v>-3.54668002818043</v>
+      </c>
+      <c r="NF2" s="2">
+        <v>-3.53212771444081</v>
+      </c>
+      <c r="NG2" s="2">
+        <v>-3.56084920623076</v>
+      </c>
+      <c r="NH2" s="2">
+        <v>-3.54253473640524</v>
+      </c>
+      <c r="NI2" s="2">
+        <v>-3.55484510965088</v>
+      </c>
+      <c r="NJ2" s="2">
+        <v>-3.55010548393704</v>
+      </c>
+      <c r="NK2" s="2">
+        <v>-3.53338989050229</v>
+      </c>
+      <c r="NL2" s="2">
+        <v>-3.54718637758602</v>
+      </c>
+      <c r="NM2" s="2">
+        <v>-3.52558093048829</v>
+      </c>
+      <c r="NN2" s="2">
+        <v>-3.5452068096846</v>
+      </c>
+      <c r="NO2" s="2">
+        <v>-3.5063388737675</v>
+      </c>
+      <c r="NP2" s="2">
+        <v>-3.51563003466442</v>
+      </c>
+      <c r="NQ2" s="2">
+        <v>-3.54305911498403</v>
+      </c>
+      <c r="NR2" s="2">
+        <v>-3.54171661745515</v>
+      </c>
+      <c r="NS2" s="2">
+        <v>-3.54996852743359</v>
+      </c>
+      <c r="NT2" s="2">
+        <v>-3.54002132801963</v>
+      </c>
+      <c r="NU2" s="2">
+        <v>-3.52936715586819</v>
+      </c>
+      <c r="NV2" s="2">
+        <v>-3.54034657425674</v>
+      </c>
+      <c r="NW2" s="2">
+        <v>-3.50536991800352</v>
+      </c>
+      <c r="NX2" s="2">
+        <v>-3.52268253764414</v>
+      </c>
+      <c r="NY2" s="2">
+        <v>-3.49951714296195</v>
+      </c>
+      <c r="NZ2" s="2">
+        <v>-3.52091926927041</v>
+      </c>
+      <c r="OA2" s="2">
+        <v>-3.51750709133367</v>
+      </c>
+      <c r="OB2" s="2">
+        <v>-3.50663270061881</v>
+      </c>
+      <c r="OC2" s="2">
+        <v>-3.49015752271296</v>
+      </c>
+      <c r="OD2" s="2">
+        <v>-3.48614098796371</v>
+      </c>
+      <c r="OE2" s="2">
+        <v>-3.50866337030789</v>
+      </c>
+      <c r="OF2" s="2">
+        <v>-3.48692109713665</v>
+      </c>
+      <c r="OG2" s="2">
+        <v>-3.4860221309797</v>
+      </c>
+      <c r="OH2" s="2">
+        <v>-3.4889674794375</v>
+      </c>
+      <c r="OI2" s="2">
+        <v>-3.45506399289311</v>
+      </c>
+      <c r="OJ2" s="2">
+        <v>-3.44155123787243</v>
+      </c>
+      <c r="OK2" s="2">
+        <v>-3.44195949063282</v>
+      </c>
+      <c r="OL2" s="2">
+        <v>-3.43622431180867</v>
+      </c>
+      <c r="OM2" s="2">
+        <v>-3.43160731669043</v>
+      </c>
+      <c r="ON2" s="2">
+        <v>-3.41090432257526</v>
+      </c>
+      <c r="OO2" s="2">
+        <v>-3.41380701488186</v>
+      </c>
+      <c r="OP2" s="2">
+        <v>-3.39125920487225</v>
+      </c>
+      <c r="OQ2" s="2">
+        <v>-3.39325213295319</v>
+      </c>
+      <c r="OR2" s="2">
+        <v>-3.37535348204816</v>
+      </c>
+      <c r="OS2" s="2">
+        <v>-3.3934959853129</v>
+      </c>
+      <c r="OT2" s="2">
+        <v>-3.33095311193953</v>
+      </c>
+      <c r="OU2" s="2">
+        <v>-3.35078798495191</v>
+      </c>
+      <c r="OV2" s="2">
+        <v>-3.31135887846178</v>
+      </c>
+      <c r="OW2" s="2">
+        <v>-3.30867853384687</v>
+      </c>
+      <c r="OX2" s="2">
+        <v>-3.30571522084164</v>
+      </c>
+      <c r="OY2" s="2">
+        <v>-3.31451380949796</v>
+      </c>
+      <c r="OZ2" s="2">
+        <v>-3.26790736952627</v>
+      </c>
+      <c r="PA2" s="2">
+        <v>-3.27967005668442</v>
+      </c>
+      <c r="PB2" s="2">
+        <v>-3.2701215484499</v>
+      </c>
+      <c r="PC2" s="2">
+        <v>-3.25394628677294</v>
+      </c>
+      <c r="PD2" s="2">
+        <v>-3.22822899900977</v>
+      </c>
+      <c r="PE2" s="2">
+        <v>-3.20214490195689</v>
+      </c>
+      <c r="PF2" s="2">
+        <v>-3.20249699083275</v>
+      </c>
+      <c r="PG2" s="2">
+        <v>-3.19524640056518</v>
+      </c>
+      <c r="PH2" s="2">
+        <v>-3.1705757728521</v>
+      </c>
+      <c r="PI2" s="2">
+        <v>-3.16368664269508</v>
+      </c>
+      <c r="PJ2" s="2">
+        <v>-3.17972626133775</v>
+      </c>
+      <c r="PK2" s="2">
+        <v>-3.15106143189825</v>
+      </c>
+      <c r="PL2" s="2">
+        <v>-3.12173996671891</v>
+      </c>
+      <c r="PM2" s="2">
+        <v>-3.12640961313599</v>
+      </c>
+      <c r="PN2" s="2">
+        <v>-3.13898706650415</v>
+      </c>
+      <c r="PO2" s="2">
+        <v>-3.08633489436815</v>
+      </c>
+      <c r="PP2" s="2">
+        <v>-3.09567781338101</v>
+      </c>
+      <c r="PQ2" s="2">
+        <v>-3.07806879377878</v>
+      </c>
+      <c r="PR2" s="2">
+        <v>-3.09371160823428</v>
+      </c>
+      <c r="PS2" s="2">
+        <v>-3.08074250668362</v>
+      </c>
+      <c r="PT2" s="2">
+        <v>-3.04635347409509</v>
+      </c>
+      <c r="PU2" s="2">
+        <v>-3.04131406397164</v>
+      </c>
+      <c r="PV2" s="2">
+        <v>-3.012373665086</v>
+      </c>
+      <c r="PW2" s="2">
+        <v>-3.02150032044918</v>
+      </c>
+      <c r="PX2" s="2">
+        <v>-3.02116531212559</v>
+      </c>
+      <c r="PY2" s="2">
+        <v>-2.99498762152482</v>
+      </c>
+      <c r="PZ2" s="2">
+        <v>-2.99226306294601</v>
+      </c>
+      <c r="QA2" s="2">
+        <v>-3.00780033425992</v>
+      </c>
+      <c r="QB2" s="2">
+        <v>-2.9893493930076</v>
+      </c>
+      <c r="QC2" s="2">
+        <v>-2.95969220820165</v>
+      </c>
+      <c r="QD2" s="2">
+        <v>-2.92509571794483</v>
+      </c>
+      <c r="QE2" s="2">
+        <v>-2.95727989968445</v>
+      </c>
+      <c r="QF2" s="2">
+        <v>-2.94483547808623</v>
+      </c>
+      <c r="QG2" s="2">
+        <v>-2.96331034021758</v>
+      </c>
+      <c r="QH2" s="2">
+        <v>-2.95963043162227</v>
+      </c>
+      <c r="QI2" s="2">
+        <v>-2.93846433411266</v>
+      </c>
+      <c r="QJ2" s="2">
+        <v>-2.94141130286956</v>
+      </c>
+      <c r="QK2" s="2">
+        <v>-2.9310034196411</v>
+      </c>
+      <c r="QL2" s="2">
+        <v>-2.93478231059595</v>
+      </c>
+      <c r="QM2" s="2">
+        <v>-2.90203833302696</v>
+      </c>
+      <c r="QN2" s="2">
+        <v>-2.92876258145058</v>
+      </c>
+      <c r="QO2" s="2">
+        <v>-2.91110874865996</v>
+      </c>
+      <c r="QP2" s="2">
+        <v>-2.91013483274522</v>
+      </c>
+      <c r="QQ2" s="2">
+        <v>-2.90431778539834</v>
+      </c>
+      <c r="QR2" s="2">
+        <v>-2.92974280380275</v>
+      </c>
+      <c r="QS2" s="2">
+        <v>-2.92022085690205</v>
+      </c>
+      <c r="QT2" s="2">
+        <v>-2.90246215883005</v>
+      </c>
+      <c r="QU2" s="2">
+        <v>-2.94605681340324</v>
+      </c>
+      <c r="QV2" s="2">
+        <v>-2.93984751939212</v>
+      </c>
+      <c r="QW2" s="2">
+        <v>-2.94146258037734</v>
+      </c>
+      <c r="QX2" s="2">
+        <v>-2.95504785618538</v>
+      </c>
+      <c r="QY2" s="2">
+        <v>-2.96683563734006</v>
+      </c>
+      <c r="QZ2" s="2">
+        <v>-2.95625370820222</v>
+      </c>
+      <c r="RA2" s="2">
+        <v>-2.97826644510028</v>
+      </c>
+      <c r="RB2" s="2">
+        <v>-2.97430996462783</v>
+      </c>
+      <c r="RC2" s="2">
+        <v>-2.99995238173764</v>
+      </c>
+      <c r="RD2" s="2">
+        <v>-3.00145569952477</v>
+      </c>
+      <c r="RE2" s="2">
+        <v>-3.01869792939124</v>
+      </c>
+      <c r="RF2" s="2">
+        <v>-3.02447873607195</v>
+      </c>
+      <c r="RG2" s="2">
+        <v>-3.04382582782309</v>
+      </c>
+      <c r="RH2" s="2">
+        <v>-3.0372605452805</v>
+      </c>
+      <c r="RI2" s="2">
+        <v>-3.04922976551425</v>
+      </c>
+      <c r="RJ2" s="2">
+        <v>-3.06464298681094</v>
+      </c>
+      <c r="RK2" s="2">
+        <v>-3.08547957275863</v>
+      </c>
+      <c r="RL2" s="2">
+        <v>-3.10329687918674</v>
+      </c>
+      <c r="RM2" s="2">
+        <v>-3.11089319369926</v>
+      </c>
+      <c r="RN2" s="2">
+        <v>-3.11875964511367</v>
+      </c>
+      <c r="RO2" s="2">
+        <v>-3.1360684648488</v>
+      </c>
+      <c r="RP2" s="2">
+        <v>-3.13198414305546</v>
+      </c>
+      <c r="RQ2" s="2">
+        <v>-3.15580182021396</v>
+      </c>
+      <c r="RR2" s="2">
+        <v>-3.18929085056678</v>
+      </c>
+      <c r="RS2" s="2">
+        <v>-3.1961620252069</v>
+      </c>
+      <c r="RT2" s="2">
+        <v>-3.17975734380163</v>
+      </c>
+      <c r="RU2" s="2">
+        <v>-3.20957779683982</v>
+      </c>
+      <c r="RV2" s="2">
+        <v>-3.19960856017277</v>
+      </c>
+      <c r="RW2" s="2">
+        <v>-3.21916799750478</v>
+      </c>
+      <c r="RX2" s="2">
+        <v>-3.24904247840675</v>
+      </c>
+      <c r="RY2" s="2">
+        <v>-3.24116349413758</v>
+      </c>
+      <c r="RZ2" s="2">
+        <v>-3.21181321296612</v>
+      </c>
+      <c r="SA2" s="2">
+        <v>-3.21240543754437</v>
+      </c>
+      <c r="SB2" s="2">
+        <v>-3.23350315305668</v>
+      </c>
+      <c r="SC2" s="2">
+        <v>-3.21655102622688</v>
+      </c>
+      <c r="SD2" s="2">
+        <v>-3.21127582848032</v>
+      </c>
+      <c r="SE2" s="2">
+        <v>-3.19404244697032</v>
+      </c>
+      <c r="SF2" s="2">
+        <v>-3.19504436322</v>
+      </c>
+      <c r="SG2" s="2">
+        <v>-3.18147450917679</v>
+      </c>
+      <c r="SH2" s="2">
+        <v>-3.20530764389569</v>
+      </c>
+      <c r="SI2" s="2">
+        <v>-3.17376272901536</v>
+      </c>
+      <c r="SJ2" s="2">
+        <v>-3.12011977724428</v>
+      </c>
+      <c r="SK2" s="2">
+        <v>-3.1232975802104</v>
+      </c>
+      <c r="SL2" s="2">
+        <v>-3.12773757529726</v>
+      </c>
+      <c r="SM2" s="2">
+        <v>-3.15246735458542</v>
+      </c>
+      <c r="SN2" s="2">
+        <v>-3.14372130944638</v>
+      </c>
+      <c r="SO2" s="2">
+        <v>-3.12320002536714</v>
+      </c>
+      <c r="SP2" s="2">
+        <v>-3.08792932617079</v>
+      </c>
+      <c r="SQ2" s="2">
+        <v>-3.09444025690712</v>
+      </c>
+      <c r="SR2" s="2">
+        <v>-3.08042788987017</v>
+      </c>
+      <c r="SS2" s="2">
+        <v>-3.07005531964573</v>
+      </c>
+      <c r="ST2" s="2">
+        <v>-3.0207710134679</v>
+      </c>
+      <c r="SU2" s="2">
+        <v>-3.01533331732473</v>
+      </c>
+      <c r="SV2" s="2">
+        <v>-2.99778071191168</v>
+      </c>
+      <c r="SW2" s="2">
+        <v>-2.9583225079732</v>
+      </c>
+      <c r="SX2" s="2">
+        <v>-2.92536503560594</v>
+      </c>
+      <c r="SY2" s="2">
+        <v>-2.9087234510281</v>
+      </c>
+      <c r="SZ2" s="2">
+        <v>-2.91653397888417</v>
+      </c>
+      <c r="TA2" s="2">
+        <v>-2.88641473085933</v>
+      </c>
+      <c r="TB2" s="2">
+        <v>-2.86712826414126</v>
+      </c>
+      <c r="TC2" s="2">
+        <v>-2.8405964858508</v>
+      </c>
+      <c r="TD2" s="2">
+        <v>-2.8275804011711</v>
+      </c>
+      <c r="TE2" s="2">
+        <v>-2.79794011405248</v>
+      </c>
+      <c r="TF2" s="2">
+        <v>-2.78028867653979</v>
+      </c>
+      <c r="TG2" s="2">
+        <v>-2.75607296150521</v>
+      </c>
+      <c r="TH2" s="2">
+        <v>-2.75007198730114</v>
+      </c>
+      <c r="TI2" s="2">
+        <v>-2.74289604256344</v>
+      </c>
+      <c r="TJ2" s="2">
+        <v>-2.68561248181547</v>
+      </c>
+      <c r="TK2" s="2">
+        <v>-2.69339037437287</v>
+      </c>
+      <c r="TL2" s="2">
+        <v>-2.66415185956974</v>
+      </c>
+      <c r="TM2" s="2">
+        <v>-2.66548405533523</v>
+      </c>
+      <c r="TN2" s="2">
+        <v>-2.63272982095713</v>
+      </c>
+      <c r="TO2" s="2">
+        <v>-2.63072878347397</v>
+      </c>
+      <c r="TP2" s="2">
+        <v>-2.60304626765724</v>
+      </c>
+      <c r="TQ2" s="2">
+        <v>-2.59288737172046</v>
+      </c>
+      <c r="TR2" s="2">
+        <v>-2.56318557932255</v>
+      </c>
+      <c r="TS2" s="2">
+        <v>-2.55457259531447</v>
+      </c>
+      <c r="TT2" s="2">
+        <v>-2.54334065840344</v>
+      </c>
+      <c r="TU2" s="2">
+        <v>-2.52291145298014</v>
+      </c>
+      <c r="TV2" s="2">
+        <v>-2.54682441556478</v>
+      </c>
+      <c r="TW2" s="2">
+        <v>-2.5057389317546</v>
+      </c>
+      <c r="TX2" s="2">
+        <v>-2.49952216113953</v>
+      </c>
+      <c r="TY2" s="2">
+        <v>-2.47437799657713</v>
+      </c>
+      <c r="TZ2" s="2">
+        <v>-2.47843278108562</v>
+      </c>
+      <c r="UA2" s="2">
+        <v>-2.45360541070807</v>
+      </c>
+      <c r="UB2" s="2">
+        <v>-2.4570548744016</v>
+      </c>
+      <c r="UC2" s="2">
+        <v>-2.44424357351216</v>
+      </c>
+      <c r="UD2" s="2">
+        <v>-2.43455033197455</v>
+      </c>
+      <c r="UE2" s="2">
+        <v>-2.43691228549731</v>
+      </c>
+      <c r="UF2" s="2">
+        <v>-2.40162491157952</v>
+      </c>
+      <c r="UG2" s="2">
+        <v>-2.41886089469924</v>
+      </c>
+      <c r="UH2" s="2">
+        <v>-2.42209162783962</v>
+      </c>
+      <c r="UI2" s="2">
+        <v>-2.38987680537414</v>
+      </c>
+      <c r="UJ2" s="2">
+        <v>-2.37186654588642</v>
+      </c>
+      <c r="UK2" s="2">
+        <v>-2.37428082804228</v>
+      </c>
+      <c r="UL2" s="2">
+        <v>-2.37782654054848</v>
+      </c>
+      <c r="UM2" s="2">
+        <v>-2.35911356694828</v>
+      </c>
+      <c r="UN2" s="2">
+        <v>-2.36364706409832</v>
+      </c>
+      <c r="UO2" s="2">
+        <v>-2.34745839285162</v>
+      </c>
+      <c r="UP2" s="2">
+        <v>-2.35876460044154</v>
+      </c>
+      <c r="UQ2" s="2">
+        <v>-2.34693000696788</v>
+      </c>
+      <c r="UR2" s="2">
+        <v>-2.35888493831823</v>
+      </c>
+      <c r="US2" s="2">
+        <v>-2.33820169163818</v>
+      </c>
+      <c r="UT2" s="2">
+        <v>-2.3486006485607</v>
+      </c>
+      <c r="UU2" s="2">
+        <v>-2.33544895872513</v>
+      </c>
+      <c r="UV2" s="2">
+        <v>-2.32885991060976</v>
+      </c>
+      <c r="UW2" s="2">
+        <v>-2.33216130822735</v>
+      </c>
+      <c r="UX2" s="2">
+        <v>-2.33052853397309</v>
+      </c>
+      <c r="UY2" s="2">
+        <v>-2.30868544463158</v>
+      </c>
+      <c r="UZ2" s="2">
+        <v>-2.32060550248092</v>
+      </c>
+      <c r="VA2" s="2">
+        <v>-2.3074816555002</v>
+      </c>
+      <c r="VB2" s="2">
+        <v>-2.34358477200304</v>
+      </c>
+      <c r="VC2" s="2">
+        <v>-2.3283090775832</v>
+      </c>
+      <c r="VD2" s="2">
+        <v>-2.30917850502506</v>
+      </c>
+      <c r="VE2" s="2">
+        <v>-2.32210394585621</v>
+      </c>
+      <c r="VF2" s="2">
+        <v>-2.33801701193964</v>
+      </c>
+      <c r="VG2" s="2">
+        <v>-2.33376530386072</v>
+      </c>
+      <c r="VH2" s="2">
+        <v>-2.33912326793899</v>
+      </c>
+      <c r="VI2" s="2">
+        <v>-2.34085730761447</v>
+      </c>
+      <c r="VJ2" s="2">
+        <v>-2.32698201218116</v>
+      </c>
+      <c r="VK2" s="2">
+        <v>-2.34878933896204</v>
+      </c>
+      <c r="VL2" s="2">
+        <v>-2.34737489238528</v>
+      </c>
+      <c r="VM2" s="2">
+        <v>-2.32939188720915</v>
+      </c>
+      <c r="VN2" s="2">
+        <v>-2.34285434098982</v>
+      </c>
+      <c r="VO2" s="2">
+        <v>-2.36547998753325</v>
+      </c>
+      <c r="VP2" s="2">
+        <v>-2.37065989194232</v>
+      </c>
+      <c r="VQ2" s="2">
+        <v>-2.35832971330324</v>
+      </c>
+      <c r="VR2" s="2">
+        <v>-2.38323210197117</v>
+      </c>
+      <c r="VS2" s="2">
+        <v>-2.38218486297908</v>
+      </c>
+      <c r="VT2" s="2">
+        <v>-2.37457359293119</v>
+      </c>
+      <c r="VU2" s="2">
+        <v>-2.39348125055675</v>
+      </c>
+      <c r="VV2" s="2">
+        <v>-2.40956812139675</v>
+      </c>
+      <c r="VW2" s="2">
+        <v>-2.40390393229422</v>
+      </c>
+      <c r="VX2" s="2">
+        <v>-2.40920604175428</v>
+      </c>
+      <c r="VY2" s="2">
+        <v>-2.43526745050988</v>
+      </c>
+      <c r="VZ2" s="2">
+        <v>-2.43636806091658</v>
+      </c>
+      <c r="WA2" s="2">
+        <v>-2.46035499612694</v>
+      </c>
+      <c r="WB2" s="2">
+        <v>-2.44020199267598</v>
+      </c>
+      <c r="WC2" s="2">
+        <v>-2.48535893741364</v>
+      </c>
+      <c r="WD2" s="2">
+        <v>-2.49301849088584</v>
+      </c>
+      <c r="WE2" s="2">
+        <v>-2.50958739433272</v>
+      </c>
+      <c r="WF2" s="2">
+        <v>-2.50673750962507</v>
+      </c>
+      <c r="WG2" s="2">
+        <v>-2.51089342674738</v>
+      </c>
+      <c r="WH2" s="2">
+        <v>-2.5510254412904</v>
+      </c>
+      <c r="WI2" s="2">
+        <v>-2.56554359114759</v>
+      </c>
+      <c r="WJ2" s="2">
+        <v>-2.55276471664402</v>
+      </c>
+      <c r="WK2" s="2">
+        <v>-2.56648059179322</v>
+      </c>
+      <c r="WL2" s="2">
+        <v>-2.60181802829687</v>
+      </c>
+      <c r="WM2" s="2">
+        <v>-2.59543819311615</v>
+      </c>
+      <c r="WN2" s="2">
+        <v>-2.62601008528739</v>
+      </c>
+      <c r="WO2" s="2">
+        <v>-2.63070514736514</v>
+      </c>
+      <c r="WP2" s="2">
+        <v>-2.641702553697</v>
+      </c>
+      <c r="WQ2" s="2">
+        <v>-2.66816407278447</v>
+      </c>
+      <c r="WR2" s="2">
+        <v>-2.6878828483512</v>
+      </c>
+      <c r="WS2" s="2">
+        <v>-2.70617384535035</v>
+      </c>
+      <c r="WT2" s="2">
+        <v>-2.7074764423011</v>
+      </c>
+      <c r="WU2" s="2">
+        <v>-2.71960197743597</v>
+      </c>
+      <c r="WV2" s="2">
+        <v>-2.74549029328515</v>
+      </c>
+      <c r="WW2" s="2">
+        <v>-2.76754956571785</v>
+      </c>
+      <c r="WX2" s="2">
+        <v>-2.7760220200683</v>
+      </c>
+      <c r="WY2" s="2">
+        <v>-2.79141915661528</v>
+      </c>
+      <c r="WZ2" s="2">
+        <v>-2.80552021489827</v>
+      </c>
+      <c r="XA2" s="2">
+        <v>-2.83192566307229</v>
+      </c>
+      <c r="XB2" s="2">
+        <v>-2.84118952029801</v>
+      </c>
+      <c r="XC2" s="2">
+        <v>-2.85722135104703</v>
+      </c>
+      <c r="XD2" s="2">
+        <v>-2.85649390356891</v>
+      </c>
+      <c r="XE2" s="2">
+        <v>-2.87816453540033</v>
+      </c>
+      <c r="XF2" s="2">
+        <v>-2.89284500337002</v>
+      </c>
+      <c r="XG2" s="2">
+        <v>-2.88647920036928</v>
+      </c>
+      <c r="XH2" s="2">
+        <v>-2.90317168372807</v>
+      </c>
+      <c r="XI2" s="2">
+        <v>-2.94827923167568</v>
+      </c>
+      <c r="XJ2" s="2">
+        <v>-2.92562288653789</v>
+      </c>
+      <c r="XK2" s="2">
+        <v>-2.94572017445925</v>
+      </c>
+      <c r="XL2" s="2">
+        <v>-2.94215085110799</v>
+      </c>
+      <c r="XM2" s="2">
+        <v>-2.95797955077329</v>
+      </c>
+      <c r="XN2" s="2">
+        <v>-2.95346369294662</v>
+      </c>
+      <c r="XO2" s="2">
+        <v>-2.98459706861275</v>
+      </c>
+      <c r="XP2" s="2">
+        <v>-2.99284994525284</v>
+      </c>
+      <c r="XQ2" s="2">
+        <v>-2.99059205892564</v>
+      </c>
+      <c r="XR2" s="2">
+        <v>-2.96951090488727</v>
+      </c>
+      <c r="XS2" s="2">
+        <v>-2.97047569870022</v>
+      </c>
+      <c r="XT2" s="2">
+        <v>-2.97202890901368</v>
+      </c>
+      <c r="XU2" s="2">
+        <v>-2.98508595475154</v>
+      </c>
+      <c r="XV2" s="2">
+        <v>-2.99629476252342</v>
+      </c>
+      <c r="XW2" s="2">
+        <v>-2.98919115075458</v>
+      </c>
+      <c r="XX2" s="2">
+        <v>-2.9753597795929</v>
+      </c>
+      <c r="XY2" s="2">
+        <v>-3.00110865404411</v>
+      </c>
+      <c r="XZ2" s="2">
+        <v>-2.97498012480491</v>
+      </c>
+      <c r="YA2" s="2">
+        <v>-2.97254864127899</v>
+      </c>
+      <c r="YB2" s="2">
+        <v>-2.97100332119199</v>
+      </c>
+      <c r="YC2" s="2">
+        <v>-2.96476992894018</v>
+      </c>
+      <c r="YD2" s="2">
+        <v>-2.96168197824783</v>
+      </c>
+      <c r="YE2" s="2">
+        <v>-2.96600474541121</v>
+      </c>
+      <c r="YF2" s="2">
+        <v>-2.93781575217854</v>
+      </c>
+      <c r="YG2" s="2">
+        <v>-2.91603552958279</v>
+      </c>
+      <c r="YH2" s="2">
+        <v>-2.93207163291036</v>
+      </c>
+      <c r="YI2" s="2">
+        <v>-2.91585322901315</v>
+      </c>
+      <c r="YJ2" s="2">
+        <v>-2.93657749550618</v>
+      </c>
+      <c r="YK2" s="2">
+        <v>-2.89759996016107</v>
+      </c>
+      <c r="YL2" s="2">
+        <v>-2.89669738599556</v>
+      </c>
+      <c r="YM2" s="2">
+        <v>-2.88501382940154</v>
+      </c>
+      <c r="YN2" s="2">
+        <v>-2.9008209829507</v>
+      </c>
+      <c r="YO2" s="2">
+        <v>-2.88033631116953</v>
+      </c>
+      <c r="YP2" s="2">
+        <v>-2.8595818703965</v>
+      </c>
+      <c r="YQ2" s="2">
+        <v>-2.85154832066062</v>
+      </c>
+      <c r="YR2" s="2">
+        <v>-2.85781019355234</v>
+      </c>
+      <c r="YS2" s="2">
+        <v>-2.82567126016921</v>
+      </c>
+      <c r="YT2" s="2">
+        <v>-2.83056030988312</v>
+      </c>
+      <c r="YU2" s="2">
+        <v>-2.84021327129778</v>
+      </c>
+      <c r="YV2" s="2">
+        <v>-2.83086417565255</v>
+      </c>
+      <c r="YW2" s="2">
+        <v>-2.83217169198811</v>
+      </c>
+      <c r="YX2" s="2">
+        <v>-2.78627205365787</v>
+      </c>
+      <c r="YY2" s="2">
+        <v>-2.80861198307342</v>
+      </c>
+      <c r="YZ2" s="2">
+        <v>-2.80642314833955</v>
+      </c>
+      <c r="ZA2" s="2">
+        <v>-2.80040183012425</v>
+      </c>
+      <c r="ZB2" s="2">
+        <v>-2.81107950092871</v>
+      </c>
+      <c r="ZC2" s="2">
+        <v>-2.788944471198</v>
+      </c>
+      <c r="ZD2" s="2">
+        <v>-2.78353165630297</v>
+      </c>
+      <c r="ZE2" s="2">
+        <v>-2.75883429252768</v>
+      </c>
+      <c r="ZF2" s="2">
+        <v>-2.77109872193717</v>
+      </c>
+      <c r="ZG2" s="2">
+        <v>-2.7706922458026</v>
+      </c>
+      <c r="ZH2" s="2">
+        <v>-2.75558954716308</v>
+      </c>
+      <c r="ZI2" s="2">
+        <v>-2.73286344710347</v>
+      </c>
+      <c r="ZJ2" s="2">
+        <v>-2.73002127359048</v>
+      </c>
+      <c r="ZK2" s="2">
+        <v>-2.76421854750772</v>
+      </c>
+      <c r="ZL2" s="2">
+        <v>-2.73325406949366</v>
+      </c>
+      <c r="ZM2" s="2">
+        <v>-2.72169358260262</v>
+      </c>
+      <c r="ZN2" s="2">
+        <v>-2.72044129086537</v>
+      </c>
+      <c r="ZO2" s="2">
+        <v>-2.72857039110278</v>
+      </c>
+      <c r="ZP2" s="2">
+        <v>-2.70382967243687</v>
+      </c>
+      <c r="ZQ2" s="2">
+        <v>-2.7227412688627</v>
+      </c>
+      <c r="ZR2" s="2">
+        <v>-2.6897659940575</v>
+      </c>
+      <c r="ZS2" s="2">
+        <v>-2.68626612054832</v>
+      </c>
+      <c r="ZT2" s="2">
+        <v>-2.69442307600384</v>
+      </c>
+      <c r="ZU2" s="2">
+        <v>-2.68297684893128</v>
+      </c>
+      <c r="ZV2" s="2">
+        <v>-2.71572937480656</v>
+      </c>
+      <c r="ZW2" s="2">
+        <v>-2.6914323732738</v>
+      </c>
+      <c r="ZX2" s="2">
+        <v>-2.68741723760545</v>
+      </c>
+      <c r="ZY2" s="2">
+        <v>-2.67714137930768</v>
+      </c>
+      <c r="ZZ2" s="2">
+        <v>-2.66989959935623</v>
+      </c>
+      <c r="AAA2" s="2">
+        <v>-2.66047628466365</v>
+      </c>
+      <c r="AAB2" s="2">
+        <v>-2.65404359258702</v>
+      </c>
+      <c r="AAC2" s="2">
+        <v>-2.65851896023501</v>
+      </c>
+      <c r="AAD2" s="2">
+        <v>-2.67898007507217</v>
+      </c>
+      <c r="AAE2" s="2">
+        <v>-2.64513055549358</v>
+      </c>
+      <c r="AAF2" s="2">
+        <v>-2.65126122249184</v>
+      </c>
+      <c r="AAG2" s="2">
+        <v>-2.65147183683343</v>
+      </c>
+      <c r="AAH2" s="2">
+        <v>-2.63728099302873</v>
+      </c>
+      <c r="AAI2" s="2">
+        <v>-2.62490339340337</v>
+      </c>
+      <c r="AAJ2" s="2">
+        <v>-2.59778243993595</v>
+      </c>
+      <c r="AAK2" s="2">
+        <v>-2.62279491236269</v>
+      </c>
+      <c r="AAL2" s="2">
+        <v>-2.65290518840335</v>
+      </c>
+      <c r="AAM2" s="2">
+        <v>-2.62826069246893</v>
+      </c>
+      <c r="AAN2" s="2">
+        <v>-2.59651264725074</v>
+      </c>
+      <c r="AAO2" s="2">
+        <v>-2.60120576191723</v>
+      </c>
+      <c r="AAP2" s="2">
+        <v>-2.62420630283651</v>
+      </c>
+      <c r="AAQ2" s="2">
+        <v>-2.61817294304483</v>
+      </c>
+      <c r="AAR2" s="2">
+        <v>-2.59359821533178</v>
+      </c>
+      <c r="AAS2" s="2">
+        <v>-2.58457865034548</v>
+      </c>
+      <c r="AAT2" s="2">
+        <v>-2.60312738369643</v>
+      </c>
+      <c r="AAU2" s="2">
+        <v>-2.57328702074015</v>
+      </c>
+      <c r="AAV2" s="2">
+        <v>-2.5894956383996</v>
+      </c>
+      <c r="AAW2" s="2">
+        <v>-2.57521654160084</v>
+      </c>
+      <c r="AAX2" s="2">
+        <v>-2.56369662966417</v>
+      </c>
+      <c r="AAY2" s="2">
+        <v>-2.5820828883133</v>
+      </c>
+      <c r="AAZ2" s="2">
+        <v>-2.57460429973111</v>
+      </c>
+      <c r="ABA2" s="2">
+        <v>-2.57280553051338</v>
+      </c>
+      <c r="ABB2" s="2">
+        <v>-2.56612527229783</v>
+      </c>
+      <c r="ABC2" s="2">
+        <v>-2.54316339158006</v>
+      </c>
+      <c r="ABD2" s="2">
+        <v>-2.54878208566347</v>
+      </c>
+      <c r="ABE2" s="2">
+        <v>-2.55576210629716</v>
+      </c>
+      <c r="ABF2" s="2">
+        <v>-2.5413974122397</v>
+      </c>
+      <c r="ABG2" s="2">
+        <v>-2.51083431507273</v>
+      </c>
+      <c r="ABH2" s="2">
+        <v>-2.51893839611161</v>
+      </c>
+      <c r="ABI2" s="2">
+        <v>-2.52365709866252</v>
+      </c>
+      <c r="ABJ2" s="2">
+        <v>-2.50218490583692</v>
+      </c>
+      <c r="ABK2" s="2">
+        <v>-2.51458978454256</v>
+      </c>
+      <c r="ABL2" s="2">
+        <v>-2.52354253836745</v>
+      </c>
+      <c r="ABM2" s="2">
+        <v>-2.48421912817936</v>
+      </c>
+      <c r="ABN2" s="2">
+        <v>-2.50438483085958</v>
+      </c>
+      <c r="ABO2" s="2">
+        <v>-2.4959443393711</v>
+      </c>
+      <c r="ABP2" s="2">
+        <v>-2.51246680777085</v>
+      </c>
+      <c r="ABQ2" s="2">
+        <v>-2.4896769748002</v>
+      </c>
+      <c r="ABR2" s="2">
+        <v>-2.48543285609535</v>
+      </c>
+      <c r="ABS2" s="2">
+        <v>-2.46570776299275</v>
+      </c>
+      <c r="ABT2" s="2">
+        <v>-2.47417435093276</v>
+      </c>
+      <c r="ABU2" s="2">
+        <v>-2.46320916385151</v>
+      </c>
+      <c r="ABV2" s="2">
+        <v>-2.45913120013035</v>
+      </c>
+      <c r="ABW2" s="2">
+        <v>-2.47648125970648</v>
+      </c>
+      <c r="ABX2" s="2">
+        <v>-2.48675460910354</v>
+      </c>
+      <c r="ABY2" s="2">
+        <v>-2.46416700565595</v>
+      </c>
+      <c r="ABZ2" s="2">
+        <v>-2.47060465017603</v>
+      </c>
+      <c r="ACA2" s="2">
+        <v>-2.4169047466006</v>
+      </c>
+      <c r="ACB2" s="2">
+        <v>-2.43691331838367</v>
+      </c>
+      <c r="ACC2" s="2">
+        <v>-2.42676579641387</v>
+      </c>
+      <c r="ACD2" s="2">
+        <v>-2.4269011497738</v>
+      </c>
+      <c r="ACE2" s="2">
+        <v>-2.4468145128854</v>
+      </c>
+      <c r="ACF2" s="2">
+        <v>-2.42774752541306</v>
+      </c>
+      <c r="ACG2" s="2">
+        <v>-2.43389978972705</v>
+      </c>
+      <c r="ACH2" s="2">
+        <v>-2.43584824673394</v>
+      </c>
+      <c r="ACI2" s="2">
+        <v>-2.41836688549195</v>
+      </c>
+      <c r="ACJ2" s="2">
+        <v>-2.40307788115546</v>
+      </c>
+      <c r="ACK2" s="2">
+        <v>-2.43141699936951</v>
+      </c>
+      <c r="ACL2" s="2">
+        <v>-2.43497202993879</v>
+      </c>
+      <c r="ACM2" s="2">
+        <v>-2.41870808832182</v>
+      </c>
+      <c r="ACN2" s="2">
+        <v>-2.39924886250721</v>
+      </c>
+      <c r="ACO2" s="2">
+        <v>-2.43095908040763</v>
+      </c>
+      <c r="ACP2" s="2">
+        <v>-2.40557663373138</v>
+      </c>
+      <c r="ACQ2" s="2">
+        <v>-2.40105577858968</v>
+      </c>
+      <c r="ACR2" s="2">
+        <v>-2.42216253508578</v>
+      </c>
+      <c r="ACS2" s="2">
+        <v>-2.44116050771936</v>
+      </c>
+      <c r="ACT2" s="2">
+        <v>-2.38975689520973</v>
+      </c>
+      <c r="ACU2" s="2">
+        <v>-2.42921016659351</v>
+      </c>
+      <c r="ACV2" s="2">
+        <v>-2.4176894256048</v>
+      </c>
+      <c r="ACW2" s="2">
+        <v>-2.4262308831173</v>
+      </c>
+      <c r="ACX2" s="2">
+        <v>-2.42990009120631</v>
+      </c>
+      <c r="ACY2" s="2">
+        <v>-2.44823521479247</v>
+      </c>
+      <c r="ACZ2" s="2">
+        <v>-2.41449809915848</v>
+      </c>
+      <c r="ADA2" s="2">
+        <v>-2.40558188858128</v>
+      </c>
+      <c r="ADB2" s="2">
+        <v>-2.38500991136704</v>
+      </c>
+      <c r="ADC2" s="2">
+        <v>-2.41355507332284</v>
+      </c>
+      <c r="ADD2" s="2">
+        <v>-2.41935592317688</v>
+      </c>
+      <c r="ADE2" s="2">
+        <v>-2.43435809992225</v>
+      </c>
+      <c r="ADF2" s="2">
+        <v>-2.44249885744835</v>
+      </c>
+      <c r="ADG2" s="2">
+        <v>-2.46287114033359</v>
+      </c>
+      <c r="ADH2" s="2">
+        <v>-2.42307172310624</v>
+      </c>
+      <c r="ADI2" s="2">
+        <v>-2.44738853595108</v>
+      </c>
+      <c r="ADJ2" s="2">
+        <v>-2.46836874382473</v>
+      </c>
+      <c r="ADK2" s="2">
+        <v>-2.45431297267866</v>
+      </c>
+      <c r="ADL2" s="2">
+        <v>-2.44787192345397</v>
+      </c>
+      <c r="ADM2" s="2">
+        <v>-2.47052102900533</v>
+      </c>
+      <c r="ADN2" s="2">
+        <v>-2.43906352300556</v>
+      </c>
+      <c r="ADO2" s="2">
+        <v>-2.43404204356447</v>
+      </c>
+      <c r="ADP2" s="2">
+        <v>-2.44916832575883</v>
+      </c>
+      <c r="ADQ2" s="2">
+        <v>-2.48804819761111</v>
+      </c>
+      <c r="ADR2" s="2">
+        <v>-2.46448886875785</v>
+      </c>
+      <c r="ADS2" s="2">
+        <v>-2.46117668990623</v>
+      </c>
+      <c r="ADT2" s="2">
+        <v>-2.46038890239194</v>
+      </c>
+      <c r="ADU2" s="2">
+        <v>-2.46796316993403</v>
+      </c>
+      <c r="ADV2" s="2">
+        <v>-2.46286399291656</v>
+      </c>
+      <c r="ADW2" s="2">
+        <v>-2.45992831956943</v>
+      </c>
+      <c r="ADX2" s="2">
+        <v>-2.44939141374628</v>
+      </c>
+      <c r="ADY2" s="2">
+        <v>-2.47662414700118</v>
+      </c>
+      <c r="ADZ2" s="2">
+        <v>-2.44222408654902</v>
+      </c>
+      <c r="AEA2" s="2">
+        <v>-2.44868415501909</v>
+      </c>
+      <c r="AEB2" s="2">
+        <v>-2.46336998335555</v>
+      </c>
+      <c r="AEC2" s="2">
+        <v>-2.45413338686611</v>
+      </c>
+      <c r="AED2" s="2">
+        <v>-2.45355714611224</v>
+      </c>
+      <c r="AEE2" s="2">
+        <v>-2.44563438689893</v>
+      </c>
+      <c r="AEF2" s="2">
+        <v>-2.44490350257928</v>
+      </c>
+      <c r="AEG2" s="2">
+        <v>-2.43433404765456</v>
+      </c>
+      <c r="AEH2" s="2">
+        <v>-2.42301669201201</v>
+      </c>
+      <c r="AEI2" s="2">
+        <v>-2.42957013251243</v>
+      </c>
+      <c r="AEJ2" s="2">
+        <v>-2.41095067879484</v>
+      </c>
+      <c r="AEK2" s="2">
+        <v>-2.41638939764135</v>
+      </c>
+      <c r="AEL2" s="2">
+        <v>-2.42315375183301</v>
+      </c>
+      <c r="AEM2" s="2">
+        <v>-2.38396019384469</v>
+      </c>
+      <c r="AEN2" s="2">
+        <v>-2.41695414414903</v>
+      </c>
+      <c r="AEO2" s="2">
+        <v>-2.41627719601658</v>
+      </c>
+      <c r="AEP2" s="2">
+        <v>-2.38620274263059</v>
+      </c>
+      <c r="AEQ2" s="2">
+        <v>-2.40461683978921</v>
+      </c>
+      <c r="AER2" s="2">
+        <v>-2.37611912417844</v>
+      </c>
+      <c r="AES2" s="2">
+        <v>-2.35915007442013</v>
+      </c>
+      <c r="AET2" s="2">
+        <v>-2.35763538365028</v>
+      </c>
+      <c r="AEU2" s="2">
+        <v>-2.36185923761381</v>
+      </c>
+      <c r="AEV2" s="2">
+        <v>-2.34719838000808</v>
+      </c>
+      <c r="AEW2" s="2">
+        <v>-2.35159342892788</v>
+      </c>
+      <c r="AEX2" s="2">
+        <v>-2.344558901</v>
+      </c>
+      <c r="AEY2" s="2">
+        <v>-2.32806016194962</v>
+      </c>
+      <c r="AEZ2" s="2">
+        <v>-2.33139834168464</v>
+      </c>
+      <c r="AFA2" s="2">
+        <v>-2.31798440057043</v>
+      </c>
+      <c r="AFB2" s="2">
+        <v>-2.30078456684179</v>
+      </c>
+      <c r="AFC2" s="2">
+        <v>-2.28133866482516</v>
+      </c>
+      <c r="AFD2" s="2">
+        <v>-2.29673207951048</v>
+      </c>
+      <c r="AFE2" s="2">
+        <v>-2.28561423859903</v>
+      </c>
+      <c r="AFF2" s="2">
+        <v>-2.27055103049499</v>
+      </c>
+      <c r="AFG2" s="2">
+        <v>-2.28224532700977</v>
+      </c>
+      <c r="AFH2" s="2">
+        <v>-2.26092480789377</v>
+      </c>
+      <c r="AFI2" s="2">
+        <v>-2.26689983345497</v>
+      </c>
+      <c r="AFJ2" s="2">
+        <v>-2.25675140162156</v>
+      </c>
+      <c r="AFK2" s="2">
+        <v>-2.23775105943993</v>
+      </c>
+      <c r="AFL2" s="2">
+        <v>-2.25244210542185</v>
+      </c>
+      <c r="AFM2" s="2">
+        <v>-2.22086906947295</v>
+      </c>
+      <c r="AFN2" s="2">
+        <v>-2.23838064792481</v>
+      </c>
+      <c r="AFO2" s="2">
+        <v>-2.23190911072998</v>
+      </c>
+      <c r="AFP2" s="2">
+        <v>-2.23731245820851</v>
+      </c>
+      <c r="AFQ2" s="2">
+        <v>-2.21108597260073</v>
+      </c>
+      <c r="AFR2" s="2">
+        <v>-2.20894704071522</v>
+      </c>
+      <c r="AFS2" s="2">
+        <v>-2.18807868805748</v>
+      </c>
+      <c r="AFT2" s="2">
+        <v>-2.19827055669427</v>
+      </c>
+      <c r="AFU2" s="2">
+        <v>-2.18439163843095</v>
+      </c>
+      <c r="AFV2" s="2">
+        <v>-2.1781655137194</v>
+      </c>
+      <c r="AFW2" s="2">
+        <v>-2.20800081857832</v>
+      </c>
+      <c r="AFX2" s="2">
+        <v>-2.16603077493494</v>
+      </c>
+      <c r="AFY2" s="2">
+        <v>-2.15537211568005</v>
+      </c>
+      <c r="AFZ2" s="2">
+        <v>-2.15867016857111</v>
+      </c>
+      <c r="AGA2" s="2">
+        <v>-2.19042458346264</v>
+      </c>
+      <c r="AGB2" s="2">
+        <v>-2.15170492677974</v>
+      </c>
+      <c r="AGC2" s="2">
+        <v>-2.1461063407264</v>
+      </c>
+      <c r="AGD2" s="2">
+        <v>-2.14386805753778</v>
+      </c>
+      <c r="AGE2" s="2">
+        <v>-2.1328018935005</v>
+      </c>
+      <c r="AGF2" s="2">
+        <v>-2.1336147490899</v>
+      </c>
+      <c r="AGG2" s="2">
+        <v>-2.1269210992222</v>
+      </c>
+      <c r="AGH2" s="2">
+        <v>-2.12655156966322</v>
+      </c>
+      <c r="AGI2" s="2">
+        <v>-2.13650268343933</v>
+      </c>
+      <c r="AGJ2" s="2">
+        <v>-2.12676608619716</v>
+      </c>
+      <c r="AGK2" s="2">
+        <v>-2.11911526927129</v>
+      </c>
+      <c r="AGL2" s="2">
+        <v>-2.09460157800261</v>
+      </c>
+      <c r="AGM2" s="2">
+        <v>-2.12692923353831</v>
+      </c>
+      <c r="AGN2" s="2">
+        <v>-2.10066359067368</v>
+      </c>
+      <c r="AGO2" s="2">
+        <v>-2.08657561263164</v>
+      </c>
+      <c r="AGP2" s="2">
+        <v>-2.08254847669496</v>
+      </c>
+      <c r="AGQ2" s="2">
+        <v>-2.07356519468977</v>
+      </c>
+      <c r="AGR2" s="2">
+        <v>-2.09543633904957</v>
+      </c>
+      <c r="AGS2" s="2">
+        <v>-2.08134676775382</v>
+      </c>
+      <c r="AGT2" s="2">
+        <v>-2.07840399590095</v>
+      </c>
+      <c r="AGU2" s="2">
+        <v>-2.09039643446474</v>
+      </c>
+      <c r="AGV2" s="2">
+        <v>-2.07268962716672</v>
+      </c>
+      <c r="AGW2" s="2">
+        <v>-2.1049288516018</v>
+      </c>
+      <c r="AGX2" s="2">
+        <v>-2.064011419826</v>
+      </c>
+      <c r="AGY2" s="2">
+        <v>-2.08075607483521</v>
+      </c>
+      <c r="AGZ2" s="2">
+        <v>-2.07478724325345</v>
+      </c>
+      <c r="AHA2" s="2">
+        <v>-2.05846059093607</v>
+      </c>
+      <c r="AHB2" s="2">
+        <v>-2.08806856101719</v>
+      </c>
+      <c r="AHC2" s="2">
+        <v>-2.0551856479534</v>
+      </c>
+      <c r="AHD2" s="2">
+        <v>-2.07539206541494</v>
+      </c>
+      <c r="AHE2" s="2">
+        <v>-2.09019770311855</v>
+      </c>
+      <c r="AHF2" s="2">
+        <v>-2.06828832531454</v>
+      </c>
+      <c r="AHG2" s="2">
+        <v>-2.05438248372919</v>
+      </c>
+      <c r="AHH2" s="2">
+        <v>-2.08769466620348</v>
+      </c>
+      <c r="AHI2" s="2">
+        <v>-2.10713605819827</v>
+      </c>
+      <c r="AHJ2" s="2">
+        <v>-2.07454815197751</v>
+      </c>
+      <c r="AHK2" s="2">
+        <v>-2.09308568139278</v>
+      </c>
+      <c r="AHL2" s="2">
+        <v>-2.07774868138617</v>
+      </c>
+      <c r="AHM2" s="2">
+        <v>-2.07732981985368</v>
+      </c>
+      <c r="AHN2" s="2">
+        <v>-2.06974516643484</v>
+      </c>
+      <c r="AHO2" s="2">
+        <v>-2.083328029577</v>
+      </c>
+      <c r="AHP2" s="2">
+        <v>-2.09388588290424</v>
+      </c>
+      <c r="AHQ2" s="2">
+        <v>-2.09351257747808</v>
+      </c>
+      <c r="AHR2" s="2">
+        <v>-2.09115351620739</v>
+      </c>
+      <c r="AHS2" s="2">
+        <v>-2.09623369660496</v>
+      </c>
+      <c r="AHT2" s="2">
+        <v>-2.10887292634336</v>
+      </c>
+      <c r="AHU2" s="2">
+        <v>-2.09727807719934</v>
+      </c>
+      <c r="AHV2" s="2">
+        <v>-2.12689497093104</v>
+      </c>
+      <c r="AHW2" s="2">
+        <v>-2.1089792877739</v>
+      </c>
+      <c r="AHX2" s="2">
+        <v>-2.09878474999684</v>
+      </c>
+      <c r="AHY2" s="2">
+        <v>-2.11618891338203</v>
+      </c>
+      <c r="AHZ2" s="2">
+        <v>-2.11861313830286</v>
+      </c>
+      <c r="AIA2" s="2">
+        <v>-2.13071971447612</v>
+      </c>
+      <c r="AIB2" s="2">
+        <v>-2.13829747024662</v>
+      </c>
+      <c r="AIC2" s="2">
+        <v>-2.14682271965856</v>
+      </c>
+      <c r="AID2" s="2">
+        <v>-2.12971593144489</v>
+      </c>
+      <c r="AIE2" s="2">
+        <v>-2.14450774811732</v>
+      </c>
+      <c r="AIF2" s="2">
+        <v>-2.1672441715915</v>
+      </c>
+      <c r="AIG2" s="2">
+        <v>-2.16208616967142</v>
+      </c>
+      <c r="AIH2" s="2">
+        <v>-2.16676825057762</v>
+      </c>
+      <c r="AII2" s="2">
+        <v>-2.15980185492638</v>
+      </c>
+      <c r="AIJ2" s="2">
+        <v>-2.18415148360192</v>
+      </c>
+      <c r="AIK2" s="2">
+        <v>-2.17488826956375</v>
+      </c>
+      <c r="AIL2" s="2">
+        <v>-2.17627993074871</v>
+      </c>
+      <c r="AIM2" s="2">
+        <v>-2.18144015641098</v>
+      </c>
+      <c r="AIN2" s="2">
+        <v>-2.19681894990088</v>
+      </c>
+      <c r="AIO2" s="2">
+        <v>-2.1916293932957</v>
+      </c>
+      <c r="AIP2" s="2">
+        <v>-2.20040361679048</v>
+      </c>
+      <c r="AIQ2" s="2">
+        <v>-2.20711898623147</v>
+      </c>
+      <c r="AIR2" s="2">
+        <v>-2.19019524728917</v>
+      </c>
+      <c r="AIS2" s="2">
+        <v>-2.22297809073075</v>
+      </c>
+      <c r="AIT2" s="2">
+        <v>-2.2494129944165</v>
+      </c>
+      <c r="AIU2" s="2">
+        <v>-2.2266278345935</v>
+      </c>
+      <c r="AIV2" s="2">
+        <v>-2.26993899582543</v>
+      </c>
+      <c r="AIW2" s="2">
+        <v>-2.2449017354723</v>
+      </c>
+      <c r="AIX2" s="2">
+        <v>-2.26333798509304</v>
+      </c>
+      <c r="AIY2" s="2">
+        <v>-2.25537409510693</v>
+      </c>
+      <c r="AIZ2" s="2">
+        <v>-2.28661806999115</v>
+      </c>
+      <c r="AJA2" s="2">
+        <v>-2.25844444687747</v>
+      </c>
+      <c r="AJB2" s="2">
+        <v>-2.2763225793022</v>
+      </c>
+      <c r="AJC2" s="2">
+        <v>-2.27938879781406</v>
+      </c>
+      <c r="AJD2" s="2">
+        <v>-2.26749930868532</v>
+      </c>
+      <c r="AJE2" s="2">
+        <v>-2.29990100205229</v>
+      </c>
+      <c r="AJF2" s="2">
+        <v>-2.27393622929319</v>
+      </c>
+      <c r="AJG2" s="2">
+        <v>-2.29952371802184</v>
+      </c>
+      <c r="AJH2" s="2">
+        <v>-2.3127426349559</v>
+      </c>
+      <c r="AJI2" s="2">
+        <v>-2.31220751411867</v>
+      </c>
+      <c r="AJJ2" s="2">
+        <v>-2.30337536140262</v>
+      </c>
+      <c r="AJK2" s="2">
+        <v>-2.31893129055586</v>
+      </c>
+      <c r="AJL2" s="2">
+        <v>-2.30561594806316</v>
+      </c>
+      <c r="AJM2" s="2">
+        <v>-2.32019103954569</v>
+      </c>
+      <c r="AJN2" s="2">
+        <v>-2.32548637389994</v>
+      </c>
+      <c r="AJO2" s="2">
+        <v>-2.30171151182937</v>
+      </c>
+      <c r="AJP2" s="2">
+        <v>-2.32777910895064</v>
+      </c>
+      <c r="AJQ2" s="2">
+        <v>-2.32067083664071</v>
+      </c>
+      <c r="AJR2" s="2">
+        <v>-2.32597745811471</v>
+      </c>
+      <c r="AJS2" s="2">
+        <v>-2.32143018324077</v>
+      </c>
+      <c r="AJT2" s="2">
+        <v>-2.32185911449373</v>
+      </c>
+      <c r="AJU2" s="2">
+        <v>-2.31132445426294</v>
+      </c>
+      <c r="AJV2" s="2">
+        <v>-2.33590607627474</v>
+      </c>
+      <c r="AJW2" s="2">
+        <v>-2.32590319562059</v>
+      </c>
+      <c r="AJX2" s="2">
+        <v>-2.31675588604169</v>
+      </c>
+      <c r="AJY2" s="2">
+        <v>-2.34113295683895</v>
+      </c>
+      <c r="AJZ2" s="2">
+        <v>-2.31674190288653</v>
+      </c>
+      <c r="AKA2" s="2">
+        <v>-2.35896843199512</v>
+      </c>
+      <c r="AKB2" s="2">
+        <v>-2.32479985298902</v>
+      </c>
+      <c r="AKC2" s="2">
+        <v>-2.33408149064376</v>
+      </c>
+      <c r="AKD2" s="2">
+        <v>-2.34023127212855</v>
+      </c>
+      <c r="AKE2" s="2">
+        <v>-2.33208294371364</v>
+      </c>
+      <c r="AKF2" s="2">
+        <v>-2.31371709689031</v>
+      </c>
+      <c r="AKG2" s="2">
+        <v>-2.31887177183883</v>
+      </c>
+      <c r="AKH2" s="2">
+        <v>-2.3128578345224</v>
+      </c>
+      <c r="AKI2" s="2">
+        <v>-2.31234246788867</v>
+      </c>
+      <c r="AKJ2" s="2">
+        <v>-2.30887209582635</v>
+      </c>
+      <c r="AKK2" s="2">
+        <v>-2.31782540386119</v>
+      </c>
+      <c r="AKL2" s="2">
+        <v>-2.31583045986065</v>
+      </c>
+      <c r="AKM2" s="2">
+        <v>-2.32364364447786</v>
+      </c>
+      <c r="AKN2" s="2">
+        <v>-2.29688254247239</v>
+      </c>
+      <c r="AKO2" s="2">
+        <v>-2.28750504611488</v>
+      </c>
+      <c r="AKP2" s="2">
+        <v>-2.25975194987226</v>
+      </c>
+      <c r="AKQ2" s="2">
+        <v>-2.28856732877566</v>
+      </c>
+      <c r="AKR2" s="2">
+        <v>-2.28682505913512</v>
+      </c>
+      <c r="AKS2" s="2">
+        <v>-2.28170296630263</v>
+      </c>
+      <c r="AKT2" s="2">
+        <v>-2.28518700957076</v>
+      </c>
+      <c r="AKU2" s="2">
+        <v>-2.2548318803147</v>
+      </c>
+      <c r="AKV2" s="2">
+        <v>-2.25342209440869</v>
+      </c>
+      <c r="AKW2" s="2">
+        <v>-2.24476941969338</v>
+      </c>
+      <c r="AKX2" s="2">
+        <v>-2.25019704150896</v>
+      </c>
+      <c r="AKY2" s="2">
+        <v>-2.23884153968526</v>
+      </c>
+      <c r="AKZ2" s="2">
+        <v>-2.24134255356109</v>
+      </c>
+      <c r="ALA2" s="2">
+        <v>-2.23080210265188</v>
+      </c>
+      <c r="ALB2" s="2">
+        <v>-2.22091205668091</v>
+      </c>
+      <c r="ALC2" s="2">
+        <v>-2.22239349209664</v>
+      </c>
+      <c r="ALD2" s="2">
+        <v>-2.21408587059206</v>
+      </c>
+      <c r="ALE2" s="2">
+        <v>-2.23155337131998</v>
+      </c>
+      <c r="ALF2" s="2">
+        <v>-2.20775877581524</v>
+      </c>
+      <c r="ALG2" s="2">
+        <v>-2.20349639769697</v>
+      </c>
+      <c r="ALH2" s="2">
+        <v>-2.21049124743999</v>
+      </c>
+      <c r="ALI2" s="2">
+        <v>-2.18979819465527</v>
+      </c>
+      <c r="ALJ2" s="2">
+        <v>-2.18914829459029</v>
+      </c>
+      <c r="ALK2" s="2">
+        <v>-2.19285599810149</v>
+      </c>
+      <c r="ALL2" s="2">
+        <v>-2.16409348753499</v>
+      </c>
+      <c r="ALM2" s="2">
+        <v>-2.17998058040402</v>
       </c>
     </row>
   </sheetData>

--- a/python/Pi1.xlsx
+++ b/python/Pi1.xlsx
@@ -3367,3007 +3367,3007 @@
     </row>
     <row r="2" spans="1:1001">
       <c r="A2" s="2">
-        <v>-4.25870610400166</v>
+        <v>0.141728814591557</v>
       </c>
       <c r="B2" s="2">
-        <v>-8.8473822294978</v>
+        <v>0.0160683290005421</v>
       </c>
       <c r="C2" s="2">
-        <v>-16.395252817155</v>
+        <v>0.0116561174622427</v>
       </c>
       <c r="D2" s="2">
-        <v>-10.5871534797569</v>
+        <v>0.0170167020441656</v>
       </c>
       <c r="E2" s="2">
-        <v>-6.12618235117053</v>
+        <v>0.0077108111803891</v>
       </c>
       <c r="F2" s="2">
-        <v>-4.24789120311057</v>
+        <v>0.0134994534177761</v>
       </c>
       <c r="G2" s="2">
-        <v>-3.46616827371524</v>
+        <v>0.0221778212638237</v>
       </c>
       <c r="H2" s="2">
-        <v>-3.30170745463589</v>
+        <v>0.00689228415003244</v>
       </c>
       <c r="I2" s="2">
-        <v>-3.49344185626174</v>
+        <v>-0.0230887623814887</v>
       </c>
       <c r="J2" s="2">
-        <v>-3.95976690110791</v>
+        <v>-0.00200572670404867</v>
       </c>
       <c r="K2" s="2">
-        <v>-4.62048849035393</v>
+        <v>0.00109115487456376</v>
       </c>
       <c r="L2" s="2">
-        <v>-5.37153516396848</v>
+        <v>0.0213156666384206</v>
       </c>
       <c r="M2" s="2">
-        <v>-5.96476274827937</v>
+        <v>0.0155952167876424</v>
       </c>
       <c r="N2" s="2">
-        <v>-6.23322238281038</v>
+        <v>0.00170935527574397</v>
       </c>
       <c r="O2" s="2">
-        <v>-6.12249031752937</v>
+        <v>-0.00555649407842424</v>
       </c>
       <c r="P2" s="2">
-        <v>-5.78712179191541</v>
+        <v>0.008031928016898201</v>
       </c>
       <c r="Q2" s="2">
-        <v>-5.38698340173945</v>
+        <v>-0.0161147533942256</v>
       </c>
       <c r="R2" s="2">
-        <v>-5.10045392355772</v>
+        <v>-0.00131752289812532</v>
       </c>
       <c r="S2" s="2">
-        <v>-4.96372047924638</v>
+        <v>-0.0057789379136223</v>
       </c>
       <c r="T2" s="2">
-        <v>-4.96714715193974</v>
+        <v>-0.0319706905130096</v>
       </c>
       <c r="U2" s="2">
-        <v>-5.13170247737787</v>
+        <v>-0.0179223179252377</v>
       </c>
       <c r="V2" s="2">
-        <v>-5.40375998508566</v>
+        <v>-0.0210412151024487</v>
       </c>
       <c r="W2" s="2">
-        <v>-5.73966674100461</v>
+        <v>-0.0356857961217959</v>
       </c>
       <c r="X2" s="2">
-        <v>-6.09795435996189</v>
+        <v>-0.0209998145327669</v>
       </c>
       <c r="Y2" s="2">
-        <v>-6.46949234163979</v>
+        <v>-0.0347879212459522</v>
       </c>
       <c r="Z2" s="2">
-        <v>-6.80913366248306</v>
+        <v>-0.0387832108391032</v>
       </c>
       <c r="AA2" s="2">
-        <v>-7.11911864099664</v>
+        <v>-0.052229642373483</v>
       </c>
       <c r="AB2" s="2">
-        <v>-7.36267913322451</v>
+        <v>-0.0439406863585446</v>
       </c>
       <c r="AC2" s="2">
-        <v>-7.61794951587845</v>
+        <v>-0.0539283547688233</v>
       </c>
       <c r="AD2" s="2">
-        <v>-7.88054947896403</v>
+        <v>-0.0627913181400156</v>
       </c>
       <c r="AE2" s="2">
-        <v>-8.184405180041599</v>
+        <v>-0.0729262173773898</v>
       </c>
       <c r="AF2" s="2">
-        <v>-8.5989675638652</v>
+        <v>-0.0874896685202675</v>
       </c>
       <c r="AG2" s="2">
-        <v>-9.10371561462234</v>
+        <v>-0.0664474045917945</v>
       </c>
       <c r="AH2" s="2">
-        <v>-9.6343732027794</v>
+        <v>-0.101607852817772</v>
       </c>
       <c r="AI2" s="2">
-        <v>-10.1980892527988</v>
+        <v>-0.103275337201832</v>
       </c>
       <c r="AJ2" s="2">
-        <v>-10.6782288758437</v>
+        <v>-0.111513790060102</v>
       </c>
       <c r="AK2" s="2">
-        <v>-11.0047013855494</v>
+        <v>-0.115963045724901</v>
       </c>
       <c r="AL2" s="2">
-        <v>-11.0876435504258</v>
+        <v>-0.122952073625088</v>
       </c>
       <c r="AM2" s="2">
-        <v>-10.9126831781421</v>
+        <v>-0.133519427779704</v>
       </c>
       <c r="AN2" s="2">
-        <v>-10.4402181954766</v>
+        <v>-0.133171398903177</v>
       </c>
       <c r="AO2" s="2">
-        <v>-9.80514142199767</v>
+        <v>-0.145274461477917</v>
       </c>
       <c r="AP2" s="2">
-        <v>-9.158156009827399</v>
+        <v>-0.14921712204015</v>
       </c>
       <c r="AQ2" s="2">
-        <v>-8.527009923883909</v>
+        <v>-0.160282323361201</v>
       </c>
       <c r="AR2" s="2">
-        <v>-7.97658970817508</v>
+        <v>-0.164524565389188</v>
       </c>
       <c r="AS2" s="2">
-        <v>-7.40267933534968</v>
+        <v>-0.179659048183215</v>
       </c>
       <c r="AT2" s="2">
-        <v>-6.96586252587868</v>
+        <v>-0.188621617891541</v>
       </c>
       <c r="AU2" s="2">
-        <v>-6.5761171867894</v>
+        <v>-0.186756324124676</v>
       </c>
       <c r="AV2" s="2">
-        <v>-6.24382749794265</v>
+        <v>-0.206713955140478</v>
       </c>
       <c r="AW2" s="2">
-        <v>-5.94232084627845</v>
+        <v>-0.196847576429227</v>
       </c>
       <c r="AX2" s="2">
-        <v>-5.71676675996279</v>
+        <v>-0.214170524510462</v>
       </c>
       <c r="AY2" s="2">
-        <v>-5.45428491284103</v>
+        <v>-0.225358957803083</v>
       </c>
       <c r="AZ2" s="2">
-        <v>-5.28027110240697</v>
+        <v>-0.227314803127286</v>
       </c>
       <c r="BA2" s="2">
-        <v>-5.11540246559768</v>
+        <v>-0.229108871210465</v>
       </c>
       <c r="BB2" s="2">
-        <v>-4.99050652243977</v>
+        <v>-0.223426665883468</v>
       </c>
       <c r="BC2" s="2">
-        <v>-4.8666842270909</v>
+        <v>-0.238001721483826</v>
       </c>
       <c r="BD2" s="2">
-        <v>-4.76639624193944</v>
+        <v>-0.237837768632844</v>
       </c>
       <c r="BE2" s="2">
-        <v>-4.69701959993628</v>
+        <v>-0.251813561095256</v>
       </c>
       <c r="BF2" s="2">
-        <v>-4.61594598585503</v>
+        <v>-0.252029443733332</v>
       </c>
       <c r="BG2" s="2">
-        <v>-4.55741342782595</v>
+        <v>-0.254225181139848</v>
       </c>
       <c r="BH2" s="2">
-        <v>-4.50237276668128</v>
+        <v>-0.269172967361044</v>
       </c>
       <c r="BI2" s="2">
-        <v>-4.44354286022357</v>
+        <v>-0.254619932003283</v>
       </c>
       <c r="BJ2" s="2">
-        <v>-4.40858992619292</v>
+        <v>-0.267630554461468</v>
       </c>
       <c r="BK2" s="2">
-        <v>-4.39433516478802</v>
+        <v>-0.278283917556887</v>
       </c>
       <c r="BL2" s="2">
-        <v>-4.38295323851086</v>
+        <v>-0.266390845682922</v>
       </c>
       <c r="BM2" s="2">
-        <v>-4.34448625808658</v>
+        <v>-0.286598164646878</v>
       </c>
       <c r="BN2" s="2">
-        <v>-4.33213851428607</v>
+        <v>-0.280725135002552</v>
       </c>
       <c r="BO2" s="2">
-        <v>-4.31631677638561</v>
+        <v>-0.277702780193588</v>
       </c>
       <c r="BP2" s="2">
-        <v>-4.31252677291097</v>
+        <v>-0.27317886141596</v>
       </c>
       <c r="BQ2" s="2">
-        <v>-4.28212645516272</v>
+        <v>-0.285093268069237</v>
       </c>
       <c r="BR2" s="2">
-        <v>-4.28050183145749</v>
+        <v>-0.291718879996978</v>
       </c>
       <c r="BS2" s="2">
-        <v>-4.24802956117635</v>
+        <v>-0.282643026917096</v>
       </c>
       <c r="BT2" s="2">
-        <v>-4.23351186456823</v>
+        <v>-0.288909060106947</v>
       </c>
       <c r="BU2" s="2">
-        <v>-4.22058073313148</v>
+        <v>-0.302097863572616</v>
       </c>
       <c r="BV2" s="2">
-        <v>-4.18272755845617</v>
+        <v>-0.303983715127424</v>
       </c>
       <c r="BW2" s="2">
-        <v>-4.1681564334974</v>
+        <v>-0.303560017892105</v>
       </c>
       <c r="BX2" s="2">
-        <v>-4.16424834489392</v>
+        <v>-0.300550217860597</v>
       </c>
       <c r="BY2" s="2">
-        <v>-4.14731139646799</v>
+        <v>-0.293891112291946</v>
       </c>
       <c r="BZ2" s="2">
-        <v>-4.12069648396176</v>
+        <v>-0.280752597164727</v>
       </c>
       <c r="CA2" s="2">
-        <v>-4.11389795717066</v>
+        <v>-0.283009422486546</v>
       </c>
       <c r="CB2" s="2">
-        <v>-4.07762235781439</v>
+        <v>-0.287989817431254</v>
       </c>
       <c r="CC2" s="2">
-        <v>-4.06638500407079</v>
+        <v>-0.282618060808265</v>
       </c>
       <c r="CD2" s="2">
-        <v>-4.03993700416949</v>
+        <v>-0.282635819768075</v>
       </c>
       <c r="CE2" s="2">
-        <v>-3.99582373087572</v>
+        <v>-0.288345248549367</v>
       </c>
       <c r="CF2" s="2">
-        <v>-3.98211662176919</v>
+        <v>-0.282126310914928</v>
       </c>
       <c r="CG2" s="2">
-        <v>-3.95319173853375</v>
+        <v>-0.275387424714506</v>
       </c>
       <c r="CH2" s="2">
-        <v>-3.93656075486465</v>
+        <v>-0.273552187275724</v>
       </c>
       <c r="CI2" s="2">
-        <v>-3.94397645429043</v>
+        <v>-0.291389447919893</v>
       </c>
       <c r="CJ2" s="2">
-        <v>-3.92621518338678</v>
+        <v>-0.271545372567279</v>
       </c>
       <c r="CK2" s="2">
-        <v>-3.89113164016483</v>
+        <v>-0.270531683919966</v>
       </c>
       <c r="CL2" s="2">
-        <v>-3.88322697130087</v>
+        <v>-0.271476406618579</v>
       </c>
       <c r="CM2" s="2">
-        <v>-3.86415603468542</v>
+        <v>-0.278572849419308</v>
       </c>
       <c r="CN2" s="2">
-        <v>-3.84058279924052</v>
+        <v>-0.26891718342879</v>
       </c>
       <c r="CO2" s="2">
-        <v>-3.83196255127461</v>
+        <v>-0.269168195668631</v>
       </c>
       <c r="CP2" s="2">
-        <v>-3.79093701013892</v>
+        <v>-0.24806820709147</v>
       </c>
       <c r="CQ2" s="2">
-        <v>-3.7830098861617</v>
+        <v>-0.261272619869908</v>
       </c>
       <c r="CR2" s="2">
-        <v>-3.77924753146796</v>
+        <v>-0.231966091293082</v>
       </c>
       <c r="CS2" s="2">
-        <v>-3.73931601198476</v>
+        <v>-0.258218171117684</v>
       </c>
       <c r="CT2" s="2">
-        <v>-3.74312203503678</v>
+        <v>-0.230158950555502</v>
       </c>
       <c r="CU2" s="2">
-        <v>-3.74854531555901</v>
+        <v>-0.23766670310742</v>
       </c>
       <c r="CV2" s="2">
-        <v>-3.73041346281714</v>
+        <v>-0.240644095696664</v>
       </c>
       <c r="CW2" s="2">
-        <v>-3.71326422406376</v>
+        <v>-0.225687154360715</v>
       </c>
       <c r="CX2" s="2">
-        <v>-3.7154797225429</v>
+        <v>-0.244897744502101</v>
       </c>
       <c r="CY2" s="2">
-        <v>-3.72642514499427</v>
+        <v>-0.225291250980939</v>
       </c>
       <c r="CZ2" s="2">
-        <v>-3.69544833403387</v>
+        <v>-0.211852634432448</v>
       </c>
       <c r="DA2" s="2">
-        <v>-3.71657300970748</v>
+        <v>-0.225308660694094</v>
       </c>
       <c r="DB2" s="2">
-        <v>-3.71044495662843</v>
+        <v>-0.225263303213833</v>
       </c>
       <c r="DC2" s="2">
-        <v>-3.70142506076099</v>
+        <v>-0.203838869412209</v>
       </c>
       <c r="DD2" s="2">
-        <v>-3.69946417861959</v>
+        <v>-0.216553014909694</v>
       </c>
       <c r="DE2" s="2">
-        <v>-3.6888353908021</v>
+        <v>-0.203935454180212</v>
       </c>
       <c r="DF2" s="2">
-        <v>-3.65598747509498</v>
+        <v>-0.215050881062101</v>
       </c>
       <c r="DG2" s="2">
-        <v>-3.67691178279026</v>
+        <v>-0.211945631527306</v>
       </c>
       <c r="DH2" s="2">
-        <v>-3.67985619401762</v>
+        <v>-0.211742280905564</v>
       </c>
       <c r="DI2" s="2">
-        <v>-3.64573223825795</v>
+        <v>-0.196182508363094</v>
       </c>
       <c r="DJ2" s="2">
-        <v>-3.6434380085316</v>
+        <v>-0.214319754427408</v>
       </c>
       <c r="DK2" s="2">
-        <v>-3.64008885342995</v>
+        <v>-0.217036648143596</v>
       </c>
       <c r="DL2" s="2">
-        <v>-3.63215455651883</v>
+        <v>-0.216097996150956</v>
       </c>
       <c r="DM2" s="2">
-        <v>-3.61727972695732</v>
+        <v>-0.214094703373403</v>
       </c>
       <c r="DN2" s="2">
-        <v>-3.59985934790035</v>
+        <v>-0.218763047814332</v>
       </c>
       <c r="DO2" s="2">
-        <v>-3.58484717989279</v>
+        <v>-0.219434704960105</v>
       </c>
       <c r="DP2" s="2">
-        <v>-3.55011449527021</v>
+        <v>-0.214312778150913</v>
       </c>
       <c r="DQ2" s="2">
-        <v>-3.57157343660802</v>
+        <v>-0.203868371629639</v>
       </c>
       <c r="DR2" s="2">
-        <v>-3.54310380900574</v>
+        <v>-0.206766085768268</v>
       </c>
       <c r="DS2" s="2">
-        <v>-3.52837594653875</v>
+        <v>-0.207991997815393</v>
       </c>
       <c r="DT2" s="2">
-        <v>-3.52574204271838</v>
+        <v>-0.213833184438599</v>
       </c>
       <c r="DU2" s="2">
-        <v>-3.50950857764011</v>
+        <v>-0.215833860292085</v>
       </c>
       <c r="DV2" s="2">
-        <v>-3.49211993466972</v>
+        <v>-0.216728710313212</v>
       </c>
       <c r="DW2" s="2">
-        <v>-3.47758371272803</v>
+        <v>-0.219817738708155</v>
       </c>
       <c r="DX2" s="2">
-        <v>-3.48055330427259</v>
+        <v>-0.220034710677377</v>
       </c>
       <c r="DY2" s="2">
-        <v>-3.46052813179439</v>
+        <v>-0.237954935191959</v>
       </c>
       <c r="DZ2" s="2">
-        <v>-3.47139395847971</v>
+        <v>-0.233294030320261</v>
       </c>
       <c r="EA2" s="2">
-        <v>-3.44657677399985</v>
+        <v>-0.251545478358807</v>
       </c>
       <c r="EB2" s="2">
-        <v>-3.44618794738859</v>
+        <v>-0.238592244891972</v>
       </c>
       <c r="EC2" s="2">
-        <v>-3.42070515336709</v>
+        <v>-0.249347625085294</v>
       </c>
       <c r="ED2" s="2">
-        <v>-3.44808861863842</v>
+        <v>-0.24561341139397</v>
       </c>
       <c r="EE2" s="2">
-        <v>-3.43051574620185</v>
+        <v>-0.254116539099463</v>
       </c>
       <c r="EF2" s="2">
-        <v>-3.44400493171307</v>
+        <v>-0.262624406597442</v>
       </c>
       <c r="EG2" s="2">
-        <v>-3.43400744015703</v>
+        <v>-0.263828558234206</v>
       </c>
       <c r="EH2" s="2">
-        <v>-3.4458846031572</v>
+        <v>-0.278930181588108</v>
       </c>
       <c r="EI2" s="2">
-        <v>-3.4507591384647</v>
+        <v>-0.26765200903507</v>
       </c>
       <c r="EJ2" s="2">
-        <v>-3.47554829894179</v>
+        <v>-0.281477007722581</v>
       </c>
       <c r="EK2" s="2">
-        <v>-3.47208443090749</v>
+        <v>-0.288454201201604</v>
       </c>
       <c r="EL2" s="2">
-        <v>-3.48054240384736</v>
+        <v>-0.301560481675796</v>
       </c>
       <c r="EM2" s="2">
-        <v>-3.51850681343002</v>
+        <v>-0.299577546712782</v>
       </c>
       <c r="EN2" s="2">
-        <v>-3.513613097331</v>
+        <v>-0.301759678865701</v>
       </c>
       <c r="EO2" s="2">
-        <v>-3.5454096873673</v>
+        <v>-0.300794167816189</v>
       </c>
       <c r="EP2" s="2">
-        <v>-3.56004901225018</v>
+        <v>-0.318252464703673</v>
       </c>
       <c r="EQ2" s="2">
-        <v>-3.56573348077286</v>
+        <v>-0.321722347946482</v>
       </c>
       <c r="ER2" s="2">
-        <v>-3.58758027414671</v>
+        <v>-0.322083843403327</v>
       </c>
       <c r="ES2" s="2">
-        <v>-3.62362510033658</v>
+        <v>-0.336635218110045</v>
       </c>
       <c r="ET2" s="2">
-        <v>-3.63236799466731</v>
+        <v>-0.326201814593125</v>
       </c>
       <c r="EU2" s="2">
-        <v>-3.66069145339198</v>
+        <v>-0.343986974529405</v>
       </c>
       <c r="EV2" s="2">
-        <v>-3.70507764711254</v>
+        <v>-0.351301548901702</v>
       </c>
       <c r="EW2" s="2">
-        <v>-3.7080834618607</v>
+        <v>-0.365401221174298</v>
       </c>
       <c r="EX2" s="2">
-        <v>-3.73022994341158</v>
+        <v>-0.371251855787674</v>
       </c>
       <c r="EY2" s="2">
-        <v>-3.74546636404837</v>
+        <v>-0.368091526124046</v>
       </c>
       <c r="EZ2" s="2">
-        <v>-3.78253696721853</v>
+        <v>-0.374869800023571</v>
       </c>
       <c r="FA2" s="2">
-        <v>-3.79832971849651</v>
+        <v>-0.385536022980302</v>
       </c>
       <c r="FB2" s="2">
-        <v>-3.84955648361936</v>
+        <v>-0.384229283356109</v>
       </c>
       <c r="FC2" s="2">
-        <v>-3.86478193599484</v>
+        <v>-0.395458040261341</v>
       </c>
       <c r="FD2" s="2">
-        <v>-3.87949015303602</v>
+        <v>-0.405509532730774</v>
       </c>
       <c r="FE2" s="2">
-        <v>-3.89402311797776</v>
+        <v>-0.41065236399587</v>
       </c>
       <c r="FF2" s="2">
-        <v>-3.91177433899939</v>
+        <v>-0.413895632726352</v>
       </c>
       <c r="FG2" s="2">
-        <v>-3.93163929779425</v>
+        <v>-0.412681991762824</v>
       </c>
       <c r="FH2" s="2">
-        <v>-3.966100697201</v>
+        <v>-0.422402630673576</v>
       </c>
       <c r="FI2" s="2">
-        <v>-3.97933977459716</v>
+        <v>-0.423880373947905</v>
       </c>
       <c r="FJ2" s="2">
-        <v>-3.97895566771576</v>
+        <v>-0.434104022573572</v>
       </c>
       <c r="FK2" s="2">
-        <v>-3.9926902669132</v>
+        <v>-0.433193602502621</v>
       </c>
       <c r="FL2" s="2">
-        <v>-4.02926731798852</v>
+        <v>-0.431414387292204</v>
       </c>
       <c r="FM2" s="2">
-        <v>-4.02510064797763</v>
+        <v>-0.443675809035383</v>
       </c>
       <c r="FN2" s="2">
-        <v>-4.02667688984711</v>
+        <v>-0.448185534775255</v>
       </c>
       <c r="FO2" s="2">
-        <v>-4.04916886216959</v>
+        <v>-0.453006816055489</v>
       </c>
       <c r="FP2" s="2">
-        <v>-4.05071222364327</v>
+        <v>-0.450400994802786</v>
       </c>
       <c r="FQ2" s="2">
-        <v>-4.05057245494135</v>
+        <v>-0.441100786348386</v>
       </c>
       <c r="FR2" s="2">
-        <v>-4.09618236854109</v>
+        <v>-0.438696160998213</v>
       </c>
       <c r="FS2" s="2">
-        <v>-4.12281467246039</v>
+        <v>-0.463001291562934</v>
       </c>
       <c r="FT2" s="2">
-        <v>-4.10628097337096</v>
+        <v>-0.470929772970273</v>
       </c>
       <c r="FU2" s="2">
-        <v>-4.09277702753187</v>
+        <v>-0.462058261744517</v>
       </c>
       <c r="FV2" s="2">
-        <v>-4.10107572083751</v>
+        <v>-0.46799387115594</v>
       </c>
       <c r="FW2" s="2">
-        <v>-4.11473010136616</v>
+        <v>-0.462579668497295</v>
       </c>
       <c r="FX2" s="2">
-        <v>-4.11033716706791</v>
+        <v>-0.466603735842134</v>
       </c>
       <c r="FY2" s="2">
-        <v>-4.11975914524586</v>
+        <v>-0.462978244081341</v>
       </c>
       <c r="FZ2" s="2">
-        <v>-4.12249238210989</v>
+        <v>-0.470062373137731</v>
       </c>
       <c r="GA2" s="2">
-        <v>-4.09681575909616</v>
+        <v>-0.470361660877382</v>
       </c>
       <c r="GB2" s="2">
-        <v>-4.11910805960153</v>
+        <v>-0.454563378102336</v>
       </c>
       <c r="GC2" s="2">
-        <v>-4.11971188221634</v>
+        <v>-0.465994304837032</v>
       </c>
       <c r="GD2" s="2">
-        <v>-4.10852562794961</v>
+        <v>-0.458776781209399</v>
       </c>
       <c r="GE2" s="2">
-        <v>-4.11171771919725</v>
+        <v>-0.474941250047116</v>
       </c>
       <c r="GF2" s="2">
-        <v>-4.09666725433328</v>
+        <v>-0.461496474324508</v>
       </c>
       <c r="GG2" s="2">
-        <v>-4.08960953952502</v>
+        <v>-0.450180332139688</v>
       </c>
       <c r="GH2" s="2">
-        <v>-4.08554792897563</v>
+        <v>-0.465990678545033</v>
       </c>
       <c r="GI2" s="2">
-        <v>-4.08745645857219</v>
+        <v>-0.448995322433359</v>
       </c>
       <c r="GJ2" s="2">
-        <v>-4.06528369133691</v>
+        <v>-0.449613495245574</v>
       </c>
       <c r="GK2" s="2">
-        <v>-4.04288469768151</v>
+        <v>-0.454696694203628</v>
       </c>
       <c r="GL2" s="2">
-        <v>-4.04002649405853</v>
+        <v>-0.45096769829801</v>
       </c>
       <c r="GM2" s="2">
-        <v>-4.04030004367683</v>
+        <v>-0.43804085323837</v>
       </c>
       <c r="GN2" s="2">
-        <v>-4.03803090740592</v>
+        <v>-0.440679186840296</v>
       </c>
       <c r="GO2" s="2">
-        <v>-4.0261260960372</v>
+        <v>-0.43882276705988</v>
       </c>
       <c r="GP2" s="2">
-        <v>-4.0204490693888</v>
+        <v>-0.427422575525893</v>
       </c>
       <c r="GQ2" s="2">
-        <v>-3.98421518635233</v>
+        <v>-0.429985548074766</v>
       </c>
       <c r="GR2" s="2">
-        <v>-3.9788618669762</v>
+        <v>-0.419368760482922</v>
       </c>
       <c r="GS2" s="2">
-        <v>-3.96990354571345</v>
+        <v>-0.431332915346021</v>
       </c>
       <c r="GT2" s="2">
-        <v>-3.95571670809875</v>
+        <v>-0.413748867927381</v>
       </c>
       <c r="GU2" s="2">
-        <v>-3.93401793911255</v>
+        <v>-0.419954017063531</v>
       </c>
       <c r="GV2" s="2">
-        <v>-3.9267086598783</v>
+        <v>-0.422007632312208</v>
       </c>
       <c r="GW2" s="2">
-        <v>-3.89013827128258</v>
+        <v>-0.4057131048844</v>
       </c>
       <c r="GX2" s="2">
-        <v>-3.89194131185861</v>
+        <v>-0.40142226221737</v>
       </c>
       <c r="GY2" s="2">
-        <v>-3.88184073182182</v>
+        <v>-0.395783285256262</v>
       </c>
       <c r="GZ2" s="2">
-        <v>-3.87473382009757</v>
+        <v>-0.405383190117789</v>
       </c>
       <c r="HA2" s="2">
-        <v>-3.83978380269576</v>
+        <v>-0.410669694179187</v>
       </c>
       <c r="HB2" s="2">
-        <v>-3.81090457071822</v>
+        <v>-0.376754290398719</v>
       </c>
       <c r="HC2" s="2">
-        <v>-3.81124373644543</v>
+        <v>-0.384072333721798</v>
       </c>
       <c r="HD2" s="2">
-        <v>-3.78482524742978</v>
+        <v>-0.381856210299065</v>
       </c>
       <c r="HE2" s="2">
-        <v>-3.7904282658284</v>
+        <v>-0.385229734655728</v>
       </c>
       <c r="HF2" s="2">
-        <v>-3.74579390834398</v>
+        <v>-0.389232034851714</v>
       </c>
       <c r="HG2" s="2">
-        <v>-3.75374930148094</v>
+        <v>-0.380392266836218</v>
       </c>
       <c r="HH2" s="2">
-        <v>-3.71785957879497</v>
+        <v>-0.368609131888402</v>
       </c>
       <c r="HI2" s="2">
-        <v>-3.6769731358839</v>
+        <v>-0.371717395280342</v>
       </c>
       <c r="HJ2" s="2">
-        <v>-3.68217674861402</v>
+        <v>-0.378317012334429</v>
       </c>
       <c r="HK2" s="2">
-        <v>-3.6751059240266</v>
+        <v>-0.362573478036109</v>
       </c>
       <c r="HL2" s="2">
-        <v>-3.63852067370755</v>
+        <v>-0.371679664273132</v>
       </c>
       <c r="HM2" s="2">
-        <v>-3.63372434379807</v>
+        <v>-0.364446916766346</v>
       </c>
       <c r="HN2" s="2">
-        <v>-3.60818068778342</v>
+        <v>-0.36159819257511</v>
       </c>
       <c r="HO2" s="2">
-        <v>-3.59908673075878</v>
+        <v>-0.355228582731769</v>
       </c>
       <c r="HP2" s="2">
-        <v>-3.60056651674986</v>
+        <v>-0.367857135360071</v>
       </c>
       <c r="HQ2" s="2">
-        <v>-3.58319029893456</v>
+        <v>-0.371403786363866</v>
       </c>
       <c r="HR2" s="2">
-        <v>-3.55484014320581</v>
+        <v>-0.366723000800515</v>
       </c>
       <c r="HS2" s="2">
-        <v>-3.54224330636736</v>
+        <v>-0.352903459550367</v>
       </c>
       <c r="HT2" s="2">
-        <v>-3.52514928601472</v>
+        <v>-0.356864737900642</v>
       </c>
       <c r="HU2" s="2">
-        <v>-3.51553152696514</v>
+        <v>-0.340006434646379</v>
       </c>
       <c r="HV2" s="2">
-        <v>-3.49354104950538</v>
+        <v>-0.356926216707686</v>
       </c>
       <c r="HW2" s="2">
-        <v>-3.49732978955886</v>
+        <v>-0.357973579703871</v>
       </c>
       <c r="HX2" s="2">
-        <v>-3.48460164066232</v>
+        <v>-0.363770850812376</v>
       </c>
       <c r="HY2" s="2">
-        <v>-3.44130802951577</v>
+        <v>-0.359843093802805</v>
       </c>
       <c r="HZ2" s="2">
-        <v>-3.46048308782944</v>
+        <v>-0.354116663097792</v>
       </c>
       <c r="IA2" s="2">
-        <v>-3.44093977439636</v>
+        <v>-0.344535244549556</v>
       </c>
       <c r="IB2" s="2">
-        <v>-3.43551061580954</v>
+        <v>-0.369673316635987</v>
       </c>
       <c r="IC2" s="2">
-        <v>-3.4244334309183</v>
+        <v>-0.354650687557867</v>
       </c>
       <c r="ID2" s="2">
-        <v>-3.40755609434664</v>
+        <v>-0.374803949255831</v>
       </c>
       <c r="IE2" s="2">
-        <v>-3.40565769091849</v>
+        <v>-0.361286428568857</v>
       </c>
       <c r="IF2" s="2">
-        <v>-3.38568762003756</v>
+        <v>-0.383560065777484</v>
       </c>
       <c r="IG2" s="2">
-        <v>-3.39848587021576</v>
+        <v>-0.370720673898792</v>
       </c>
       <c r="IH2" s="2">
-        <v>-3.38679856385316</v>
+        <v>-0.367440986663199</v>
       </c>
       <c r="II2" s="2">
-        <v>-3.35366200048022</v>
+        <v>-0.387564189217021</v>
       </c>
       <c r="IJ2" s="2">
-        <v>-3.37673134392561</v>
+        <v>-0.390201898852733</v>
       </c>
       <c r="IK2" s="2">
-        <v>-3.3472899547188</v>
+        <v>-0.393262977978431</v>
       </c>
       <c r="IL2" s="2">
-        <v>-3.34813632990107</v>
+        <v>-0.398264075173333</v>
       </c>
       <c r="IM2" s="2">
-        <v>-3.33327147362365</v>
+        <v>-0.403290959038155</v>
       </c>
       <c r="IN2" s="2">
-        <v>-3.35096977302642</v>
+        <v>-0.415751991363504</v>
       </c>
       <c r="IO2" s="2">
-        <v>-3.33792987120261</v>
+        <v>-0.409979440698649</v>
       </c>
       <c r="IP2" s="2">
-        <v>-3.34660352593188</v>
+        <v>-0.418385007997318</v>
       </c>
       <c r="IQ2" s="2">
-        <v>-3.34617090889818</v>
+        <v>-0.418972935227681</v>
       </c>
       <c r="IR2" s="2">
-        <v>-3.32414352554511</v>
+        <v>-0.429160155810981</v>
       </c>
       <c r="IS2" s="2">
-        <v>-3.3212923127552</v>
+        <v>-0.44328377830339</v>
       </c>
       <c r="IT2" s="2">
-        <v>-3.32013899967195</v>
+        <v>-0.444636787693768</v>
       </c>
       <c r="IU2" s="2">
-        <v>-3.31134921916893</v>
+        <v>-0.454816011196812</v>
       </c>
       <c r="IV2" s="2">
-        <v>-3.31323780634972</v>
+        <v>-0.465704480345036</v>
       </c>
       <c r="IW2" s="2">
-        <v>-3.31385353765066</v>
+        <v>-0.461887800836675</v>
       </c>
       <c r="IX2" s="2">
-        <v>-3.30057899703972</v>
+        <v>-0.465597493439785</v>
       </c>
       <c r="IY2" s="2">
-        <v>-3.31175695178271</v>
+        <v>-0.476867818785924</v>
       </c>
       <c r="IZ2" s="2">
-        <v>-3.32388100146849</v>
+        <v>-0.477163209223757</v>
       </c>
       <c r="JA2" s="2">
-        <v>-3.3033321844251</v>
+        <v>-0.494250735230913</v>
       </c>
       <c r="JB2" s="2">
-        <v>-3.30058698484369</v>
+        <v>-0.498149331619668</v>
       </c>
       <c r="JC2" s="2">
-        <v>-3.32061973050987</v>
+        <v>-0.490970616083819</v>
       </c>
       <c r="JD2" s="2">
-        <v>-3.29168669773462</v>
+        <v>-0.517242848675235</v>
       </c>
       <c r="JE2" s="2">
-        <v>-3.28535231936228</v>
+        <v>-0.519426213536575</v>
       </c>
       <c r="JF2" s="2">
-        <v>-3.30939649061745</v>
+        <v>-0.5320715546675751</v>
       </c>
       <c r="JG2" s="2">
-        <v>-3.27701118331755</v>
+        <v>-0.528932956497164</v>
       </c>
       <c r="JH2" s="2">
-        <v>-3.31279030804383</v>
+        <v>-0.552747317203211</v>
       </c>
       <c r="JI2" s="2">
-        <v>-3.29671751702402</v>
+        <v>-0.561958843796079</v>
       </c>
       <c r="JJ2" s="2">
-        <v>-3.28495817327789</v>
+        <v>-0.561872430938562</v>
       </c>
       <c r="JK2" s="2">
-        <v>-3.27062269082248</v>
+        <v>-0.543605857506586</v>
       </c>
       <c r="JL2" s="2">
-        <v>-3.29058365710616</v>
+        <v>-0.575786266348653</v>
       </c>
       <c r="JM2" s="2">
-        <v>-3.30787272816853</v>
+        <v>-0.576508617002675</v>
       </c>
       <c r="JN2" s="2">
-        <v>-3.29449466835667</v>
+        <v>-0.579729814208874</v>
       </c>
       <c r="JO2" s="2">
-        <v>-3.292686734709</v>
+        <v>-0.596425613651091</v>
       </c>
       <c r="JP2" s="2">
-        <v>-3.28541465258914</v>
+        <v>-0.59311580423385</v>
       </c>
       <c r="JQ2" s="2">
-        <v>-3.30615363987417</v>
+        <v>-0.594535011529189</v>
       </c>
       <c r="JR2" s="2">
-        <v>-3.29190749688431</v>
+        <v>-0.611821572253989</v>
       </c>
       <c r="JS2" s="2">
-        <v>-3.29148756895509</v>
+        <v>-0.606250352567164</v>
       </c>
       <c r="JT2" s="2">
-        <v>-3.31727867333852</v>
+        <v>-0.615441426839353</v>
       </c>
       <c r="JU2" s="2">
-        <v>-3.30324964348041</v>
+        <v>-0.610779631794528</v>
       </c>
       <c r="JV2" s="2">
-        <v>-3.3226947045617</v>
+        <v>-0.62687918614539</v>
       </c>
       <c r="JW2" s="2">
-        <v>-3.3026825272391</v>
+        <v>-0.62584679703594</v>
       </c>
       <c r="JX2" s="2">
-        <v>-3.3168369137193</v>
+        <v>-0.626835415396457</v>
       </c>
       <c r="JY2" s="2">
-        <v>-3.30816960923171</v>
+        <v>-0.61946940317976</v>
       </c>
       <c r="JZ2" s="2">
-        <v>-3.31923305387627</v>
+        <v>-0.623758629701577</v>
       </c>
       <c r="KA2" s="2">
-        <v>-3.34576344935657</v>
+        <v>-0.62675750261319</v>
       </c>
       <c r="KB2" s="2">
-        <v>-3.32611341504716</v>
+        <v>-0.621624761073704</v>
       </c>
       <c r="KC2" s="2">
-        <v>-3.3298045416186</v>
+        <v>-0.6297126636289661</v>
       </c>
       <c r="KD2" s="2">
-        <v>-3.35068047809574</v>
+        <v>-0.63191578939756</v>
       </c>
       <c r="KE2" s="2">
-        <v>-3.31887319799559</v>
+        <v>-0.634061134880868</v>
       </c>
       <c r="KF2" s="2">
-        <v>-3.34924640538351</v>
+        <v>-0.629619336412</v>
       </c>
       <c r="KG2" s="2">
-        <v>-3.319994719616</v>
+        <v>-0.645681524136331</v>
       </c>
       <c r="KH2" s="2">
-        <v>-3.35078476434714</v>
+        <v>-0.642389155501331</v>
       </c>
       <c r="KI2" s="2">
-        <v>-3.33283173254703</v>
+        <v>-0.627299314440664</v>
       </c>
       <c r="KJ2" s="2">
-        <v>-3.34185682073182</v>
+        <v>-0.619770244352323</v>
       </c>
       <c r="KK2" s="2">
-        <v>-3.35498936858554</v>
+        <v>-0.63222400735565</v>
       </c>
       <c r="KL2" s="2">
-        <v>-3.3395383650937</v>
+        <v>-0.644797935115716</v>
       </c>
       <c r="KM2" s="2">
-        <v>-3.35156167071692</v>
+        <v>-0.62219406627038</v>
       </c>
       <c r="KN2" s="2">
-        <v>-3.33480815529551</v>
+        <v>-0.6302287899482319</v>
       </c>
       <c r="KO2" s="2">
-        <v>-3.34433140897661</v>
+        <v>-0.622113731085688</v>
       </c>
       <c r="KP2" s="2">
-        <v>-3.38840371427868</v>
+        <v>-0.613578551698185</v>
       </c>
       <c r="KQ2" s="2">
-        <v>-3.36489801359989</v>
+        <v>-0.617996327820877</v>
       </c>
       <c r="KR2" s="2">
-        <v>-3.35503735290996</v>
+        <v>-0.619346958938632</v>
       </c>
       <c r="KS2" s="2">
-        <v>-3.35373971406043</v>
+        <v>-0.615345354109859</v>
       </c>
       <c r="KT2" s="2">
-        <v>-3.36018279952117</v>
+        <v>-0.620470612345372</v>
       </c>
       <c r="KU2" s="2">
-        <v>-3.35588800933988</v>
+        <v>-0.60576930294234</v>
       </c>
       <c r="KV2" s="2">
-        <v>-3.36935149431397</v>
+        <v>-0.618750845714556</v>
       </c>
       <c r="KW2" s="2">
-        <v>-3.36109398198923</v>
+        <v>-0.603158997196054</v>
       </c>
       <c r="KX2" s="2">
-        <v>-3.34051296085779</v>
+        <v>-0.608487942801347</v>
       </c>
       <c r="KY2" s="2">
-        <v>-3.37374081656309</v>
+        <v>-0.600474165980922</v>
       </c>
       <c r="KZ2" s="2">
-        <v>-3.37291660601742</v>
+        <v>-0.58521085814826</v>
       </c>
       <c r="LA2" s="2">
-        <v>-3.38305042450284</v>
+        <v>-0.5829975605179329</v>
       </c>
       <c r="LB2" s="2">
-        <v>-3.37800006762767</v>
+        <v>-0.57212130271779</v>
       </c>
       <c r="LC2" s="2">
-        <v>-3.35932298266999</v>
+        <v>-0.579307096443076</v>
       </c>
       <c r="LD2" s="2">
-        <v>-3.37848577707876</v>
+        <v>-0.576781271348032</v>
       </c>
       <c r="LE2" s="2">
-        <v>-3.39658823274623</v>
+        <v>-0.564144977779051</v>
       </c>
       <c r="LF2" s="2">
-        <v>-3.3619345414603</v>
+        <v>-0.563601774013177</v>
       </c>
       <c r="LG2" s="2">
-        <v>-3.39095285024556</v>
+        <v>-0.553952870589957</v>
       </c>
       <c r="LH2" s="2">
-        <v>-3.37894394660717</v>
+        <v>-0.56080643813383</v>
       </c>
       <c r="LI2" s="2">
-        <v>-3.3993029230783</v>
+        <v>-0.560037652302865</v>
       </c>
       <c r="LJ2" s="2">
-        <v>-3.39402060811142</v>
+        <v>-0.560025298503912</v>
       </c>
       <c r="LK2" s="2">
-        <v>-3.4058653507717</v>
+        <v>-0.558715191515313</v>
       </c>
       <c r="LL2" s="2">
-        <v>-3.40324772361645</v>
+        <v>-0.547178770538528</v>
       </c>
       <c r="LM2" s="2">
-        <v>-3.39127401366822</v>
+        <v>-0.528782970992112</v>
       </c>
       <c r="LN2" s="2">
-        <v>-3.40447126361709</v>
+        <v>-0.532425167936996</v>
       </c>
       <c r="LO2" s="2">
-        <v>-3.39969241383467</v>
+        <v>-0.551392546122316</v>
       </c>
       <c r="LP2" s="2">
-        <v>-3.39885950773039</v>
+        <v>-0.516187845968399</v>
       </c>
       <c r="LQ2" s="2">
-        <v>-3.40781554946694</v>
+        <v>-0.526666025726844</v>
       </c>
       <c r="LR2" s="2">
-        <v>-3.40028613947395</v>
+        <v>-0.534089867861289</v>
       </c>
       <c r="LS2" s="2">
-        <v>-3.40754303238583</v>
+        <v>-0.5219565904782481</v>
       </c>
       <c r="LT2" s="2">
-        <v>-3.43018303363347</v>
+        <v>-0.511805465576239</v>
       </c>
       <c r="LU2" s="2">
-        <v>-3.43322017508788</v>
+        <v>-0.519549000556099</v>
       </c>
       <c r="LV2" s="2">
-        <v>-3.41845392776002</v>
+        <v>-0.524766973086975</v>
       </c>
       <c r="LW2" s="2">
-        <v>-3.43131139979231</v>
+        <v>-0.516250553189265</v>
       </c>
       <c r="LX2" s="2">
-        <v>-3.44930883444392</v>
+        <v>-0.505633894045279</v>
       </c>
       <c r="LY2" s="2">
-        <v>-3.45118054817245</v>
+        <v>-0.520412902665946</v>
       </c>
       <c r="LZ2" s="2">
-        <v>-3.41360881362499</v>
+        <v>-0.496728291702439</v>
       </c>
       <c r="MA2" s="2">
-        <v>-3.43714235960057</v>
+        <v>-0.507767312553547</v>
       </c>
       <c r="MB2" s="2">
-        <v>-3.4637317231179</v>
+        <v>-0.505706272520388</v>
       </c>
       <c r="MC2" s="2">
-        <v>-3.4661915768248</v>
+        <v>-0.499955898389919</v>
       </c>
       <c r="MD2" s="2">
-        <v>-3.45711995995197</v>
+        <v>-0.505177698786613</v>
       </c>
       <c r="ME2" s="2">
-        <v>-3.45908446697785</v>
+        <v>-0.512351776478299</v>
       </c>
       <c r="MF2" s="2">
-        <v>-3.4819866944416</v>
+        <v>-0.50383154563121</v>
       </c>
       <c r="MG2" s="2">
-        <v>-3.49342285974374</v>
+        <v>-0.500397932171094</v>
       </c>
       <c r="MH2" s="2">
-        <v>-3.46473097434349</v>
+        <v>-0.501381850120855</v>
       </c>
       <c r="MI2" s="2">
-        <v>-3.47746466457939</v>
+        <v>-0.51413927781238</v>
       </c>
       <c r="MJ2" s="2">
-        <v>-3.46941258537943</v>
+        <v>-0.511057927764393</v>
       </c>
       <c r="MK2" s="2">
-        <v>-3.48150218574551</v>
+        <v>-0.504996287235661</v>
       </c>
       <c r="ML2" s="2">
-        <v>-3.48318417133562</v>
+        <v>-0.523572736271366</v>
       </c>
       <c r="MM2" s="2">
-        <v>-3.47330423911825</v>
+        <v>-0.510755495977348</v>
       </c>
       <c r="MN2" s="2">
-        <v>-3.48517210622134</v>
+        <v>-0.5140619476360599</v>
       </c>
       <c r="MO2" s="2">
-        <v>-3.49260767130605</v>
+        <v>-0.51221965644529</v>
       </c>
       <c r="MP2" s="2">
-        <v>-3.50950328929804</v>
+        <v>-0.525050732906882</v>
       </c>
       <c r="MQ2" s="2">
-        <v>-3.50398108474199</v>
+        <v>-0.527320765548299</v>
       </c>
       <c r="MR2" s="2">
-        <v>-3.48364282765236</v>
+        <v>-0.536877334949085</v>
       </c>
       <c r="MS2" s="2">
-        <v>-3.48750273363697</v>
+        <v>-0.551650839379774</v>
       </c>
       <c r="MT2" s="2">
-        <v>-3.5071037733859</v>
+        <v>-0.537599516595979</v>
       </c>
       <c r="MU2" s="2">
-        <v>-3.50796127268587</v>
+        <v>-0.5473405266600599</v>
       </c>
       <c r="MV2" s="2">
-        <v>-3.5239865147923</v>
+        <v>-0.548963143902682</v>
       </c>
       <c r="MW2" s="2">
-        <v>-3.53062396120506</v>
+        <v>-0.553686665861896</v>
       </c>
       <c r="MX2" s="2">
-        <v>-3.51596111826715</v>
+        <v>-0.570296740239372</v>
       </c>
       <c r="MY2" s="2">
-        <v>-3.51405452921171</v>
+        <v>-0.567101823488691</v>
       </c>
       <c r="MZ2" s="2">
-        <v>-3.54490394981816</v>
+        <v>-0.577185869691066</v>
       </c>
       <c r="NA2" s="2">
-        <v>-3.52867401607485</v>
+        <v>-0.567980827724305</v>
       </c>
       <c r="NB2" s="2">
-        <v>-3.52627172858374</v>
+        <v>-0.584927271035026</v>
       </c>
       <c r="NC2" s="2">
-        <v>-3.51937973407421</v>
+        <v>-0.590275326390548</v>
       </c>
       <c r="ND2" s="2">
-        <v>-3.52738209086039</v>
+        <v>-0.596748784500151</v>
       </c>
       <c r="NE2" s="2">
-        <v>-3.54668002818043</v>
+        <v>-0.602318304614178</v>
       </c>
       <c r="NF2" s="2">
-        <v>-3.53212771444081</v>
+        <v>-0.612571068938393</v>
       </c>
       <c r="NG2" s="2">
-        <v>-3.56084920623076</v>
+        <v>-0.628918764716296</v>
       </c>
       <c r="NH2" s="2">
-        <v>-3.54253473640524</v>
+        <v>-0.623435432689548</v>
       </c>
       <c r="NI2" s="2">
-        <v>-3.55484510965088</v>
+        <v>-0.623244988193743</v>
       </c>
       <c r="NJ2" s="2">
-        <v>-3.55010548393704</v>
+        <v>-0.645922459726033</v>
       </c>
       <c r="NK2" s="2">
-        <v>-3.53338989050229</v>
+        <v>-0.6453344946249659</v>
       </c>
       <c r="NL2" s="2">
-        <v>-3.54718637758602</v>
+        <v>-0.661614020373639</v>
       </c>
       <c r="NM2" s="2">
-        <v>-3.52558093048829</v>
+        <v>-0.666070168643395</v>
       </c>
       <c r="NN2" s="2">
-        <v>-3.5452068096846</v>
+        <v>-0.662881542804363</v>
       </c>
       <c r="NO2" s="2">
-        <v>-3.5063388737675</v>
+        <v>-0.674328932189671</v>
       </c>
       <c r="NP2" s="2">
-        <v>-3.51563003466442</v>
+        <v>-0.676609834578679</v>
       </c>
       <c r="NQ2" s="2">
-        <v>-3.54305911498403</v>
+        <v>-0.6889581663387619</v>
       </c>
       <c r="NR2" s="2">
-        <v>-3.54171661745515</v>
+        <v>-0.683183220842686</v>
       </c>
       <c r="NS2" s="2">
-        <v>-3.54996852743359</v>
+        <v>-0.701314215899087</v>
       </c>
       <c r="NT2" s="2">
-        <v>-3.54002132801963</v>
+        <v>-0.705467634019978</v>
       </c>
       <c r="NU2" s="2">
-        <v>-3.52936715586819</v>
+        <v>-0.708602765177926</v>
       </c>
       <c r="NV2" s="2">
-        <v>-3.54034657425674</v>
+        <v>-0.718163332957004</v>
       </c>
       <c r="NW2" s="2">
-        <v>-3.50536991800352</v>
+        <v>-0.726147437807336</v>
       </c>
       <c r="NX2" s="2">
-        <v>-3.52268253764414</v>
+        <v>-0.728959343470834</v>
       </c>
       <c r="NY2" s="2">
-        <v>-3.49951714296195</v>
+        <v>-0.730961962679113</v>
       </c>
       <c r="NZ2" s="2">
-        <v>-3.52091926927041</v>
+        <v>-0.742135310299272</v>
       </c>
       <c r="OA2" s="2">
-        <v>-3.51750709133367</v>
+        <v>-0.742393215180099</v>
       </c>
       <c r="OB2" s="2">
-        <v>-3.50663270061881</v>
+        <v>-0.726709162206406</v>
       </c>
       <c r="OC2" s="2">
-        <v>-3.49015752271296</v>
+        <v>-0.742722778683763</v>
       </c>
       <c r="OD2" s="2">
-        <v>-3.48614098796371</v>
+        <v>-0.747208304937819</v>
       </c>
       <c r="OE2" s="2">
-        <v>-3.50866337030789</v>
+        <v>-0.748072946834802</v>
       </c>
       <c r="OF2" s="2">
-        <v>-3.48692109713665</v>
+        <v>-0.760630859634163</v>
       </c>
       <c r="OG2" s="2">
-        <v>-3.4860221309797</v>
+        <v>-0.7566725613134681</v>
       </c>
       <c r="OH2" s="2">
-        <v>-3.4889674794375</v>
+        <v>-0.766566730969748</v>
       </c>
       <c r="OI2" s="2">
-        <v>-3.45506399289311</v>
+        <v>-0.777027713216777</v>
       </c>
       <c r="OJ2" s="2">
-        <v>-3.44155123787243</v>
+        <v>-0.771130920910262</v>
       </c>
       <c r="OK2" s="2">
-        <v>-3.44195949063282</v>
+        <v>-0.783403216960102</v>
       </c>
       <c r="OL2" s="2">
-        <v>-3.43622431180867</v>
+        <v>-0.759219886031499</v>
       </c>
       <c r="OM2" s="2">
-        <v>-3.43160731669043</v>
+        <v>-0.77426310221872</v>
       </c>
       <c r="ON2" s="2">
-        <v>-3.41090432257526</v>
+        <v>-0.76875261040287</v>
       </c>
       <c r="OO2" s="2">
-        <v>-3.41380701488186</v>
+        <v>-0.766585766343588</v>
       </c>
       <c r="OP2" s="2">
-        <v>-3.39125920487225</v>
+        <v>-0.775842311492135</v>
       </c>
       <c r="OQ2" s="2">
-        <v>-3.39325213295319</v>
+        <v>-0.783045866391691</v>
       </c>
       <c r="OR2" s="2">
-        <v>-3.37535348204816</v>
+        <v>-0.770015126193745</v>
       </c>
       <c r="OS2" s="2">
-        <v>-3.3934959853129</v>
+        <v>-0.762803155684989</v>
       </c>
       <c r="OT2" s="2">
-        <v>-3.33095311193953</v>
+        <v>-0.775117919384032</v>
       </c>
       <c r="OU2" s="2">
-        <v>-3.35078798495191</v>
+        <v>-0.783574545876802</v>
       </c>
       <c r="OV2" s="2">
-        <v>-3.31135887846178</v>
+        <v>-0.757429721832002</v>
       </c>
       <c r="OW2" s="2">
-        <v>-3.30867853384687</v>
+        <v>-0.775091938844474</v>
       </c>
       <c r="OX2" s="2">
-        <v>-3.30571522084164</v>
+        <v>-0.7686298439831269</v>
       </c>
       <c r="OY2" s="2">
-        <v>-3.31451380949796</v>
+        <v>-0.765228781119361</v>
       </c>
       <c r="OZ2" s="2">
-        <v>-3.26790736952627</v>
+        <v>-0.762287828532077</v>
       </c>
       <c r="PA2" s="2">
-        <v>-3.27967005668442</v>
+        <v>-0.7494645915266041</v>
       </c>
       <c r="PB2" s="2">
-        <v>-3.2701215484499</v>
+        <v>-0.764631775173969</v>
       </c>
       <c r="PC2" s="2">
-        <v>-3.25394628677294</v>
+        <v>-0.75668417968852</v>
       </c>
       <c r="PD2" s="2">
-        <v>-3.22822899900977</v>
+        <v>-0.75064382669339</v>
       </c>
       <c r="PE2" s="2">
-        <v>-3.20214490195689</v>
+        <v>-0.731427185053116</v>
       </c>
       <c r="PF2" s="2">
-        <v>-3.20249699083275</v>
+        <v>-0.735674846928798</v>
       </c>
       <c r="PG2" s="2">
-        <v>-3.19524640056518</v>
+        <v>-0.7381979673654711</v>
       </c>
       <c r="PH2" s="2">
-        <v>-3.1705757728521</v>
+        <v>-0.737124130851319</v>
       </c>
       <c r="PI2" s="2">
-        <v>-3.16368664269508</v>
+        <v>-0.708447788500767</v>
       </c>
       <c r="PJ2" s="2">
-        <v>-3.17972626133775</v>
+        <v>-0.729937018334421</v>
       </c>
       <c r="PK2" s="2">
-        <v>-3.15106143189825</v>
+        <v>-0.710526373754617</v>
       </c>
       <c r="PL2" s="2">
-        <v>-3.12173996671891</v>
+        <v>-0.69450477725716</v>
       </c>
       <c r="PM2" s="2">
-        <v>-3.12640961313599</v>
+        <v>-0.726667722146799</v>
       </c>
       <c r="PN2" s="2">
-        <v>-3.13898706650415</v>
+        <v>-0.7071268741583669</v>
       </c>
       <c r="PO2" s="2">
-        <v>-3.08633489436815</v>
+        <v>-0.699727697125571</v>
       </c>
       <c r="PP2" s="2">
-        <v>-3.09567781338101</v>
+        <v>-0.696811172605585</v>
       </c>
       <c r="PQ2" s="2">
-        <v>-3.07806879377878</v>
+        <v>-0.697205341505768</v>
       </c>
       <c r="PR2" s="2">
-        <v>-3.09371160823428</v>
+        <v>-0.6900465187546559</v>
       </c>
       <c r="PS2" s="2">
-        <v>-3.08074250668362</v>
+        <v>-0.688319749232601</v>
       </c>
       <c r="PT2" s="2">
-        <v>-3.04635347409509</v>
+        <v>-0.683854482540483</v>
       </c>
       <c r="PU2" s="2">
-        <v>-3.04131406397164</v>
+        <v>-0.6929490155672891</v>
       </c>
       <c r="PV2" s="2">
-        <v>-3.012373665086</v>
+        <v>-0.672875029210511</v>
       </c>
       <c r="PW2" s="2">
-        <v>-3.02150032044918</v>
+        <v>-0.671308485265122</v>
       </c>
       <c r="PX2" s="2">
-        <v>-3.02116531212559</v>
+        <v>-0.676290118639356</v>
       </c>
       <c r="PY2" s="2">
-        <v>-2.99498762152482</v>
+        <v>-0.675422215857349</v>
       </c>
       <c r="PZ2" s="2">
-        <v>-2.99226306294601</v>
+        <v>-0.666653867845639</v>
       </c>
       <c r="QA2" s="2">
-        <v>-3.00780033425992</v>
+        <v>-0.664959103794166</v>
       </c>
       <c r="QB2" s="2">
-        <v>-2.9893493930076</v>
+        <v>-0.671997707645563</v>
       </c>
       <c r="QC2" s="2">
-        <v>-2.95969220820165</v>
+        <v>-0.653712939977997</v>
       </c>
       <c r="QD2" s="2">
-        <v>-2.92509571794483</v>
+        <v>-0.663598895381372</v>
       </c>
       <c r="QE2" s="2">
-        <v>-2.95727989968445</v>
+        <v>-0.662549296383653</v>
       </c>
       <c r="QF2" s="2">
-        <v>-2.94483547808623</v>
+        <v>-0.663423532599452</v>
       </c>
       <c r="QG2" s="2">
-        <v>-2.96331034021758</v>
+        <v>-0.663657275108727</v>
       </c>
       <c r="QH2" s="2">
-        <v>-2.95963043162227</v>
+        <v>-0.65833765833494</v>
       </c>
       <c r="QI2" s="2">
-        <v>-2.93846433411266</v>
+        <v>-0.651844005413363</v>
       </c>
       <c r="QJ2" s="2">
-        <v>-2.94141130286956</v>
+        <v>-0.640930926948472</v>
       </c>
       <c r="QK2" s="2">
-        <v>-2.9310034196411</v>
+        <v>-0.647024522890441</v>
       </c>
       <c r="QL2" s="2">
-        <v>-2.93478231059595</v>
+        <v>-0.652077165498651</v>
       </c>
       <c r="QM2" s="2">
-        <v>-2.90203833302696</v>
+        <v>-0.646070236491658</v>
       </c>
       <c r="QN2" s="2">
-        <v>-2.92876258145058</v>
+        <v>-0.640754007993772</v>
       </c>
       <c r="QO2" s="2">
-        <v>-2.91110874865996</v>
+        <v>-0.66567454961643</v>
       </c>
       <c r="QP2" s="2">
-        <v>-2.91013483274522</v>
+        <v>-0.644742962508061</v>
       </c>
       <c r="QQ2" s="2">
-        <v>-2.90431778539834</v>
+        <v>-0.658280355420493</v>
       </c>
       <c r="QR2" s="2">
-        <v>-2.92974280380275</v>
+        <v>-0.655868181506238</v>
       </c>
       <c r="QS2" s="2">
-        <v>-2.92022085690205</v>
+        <v>-0.6334544663449611</v>
       </c>
       <c r="QT2" s="2">
-        <v>-2.90246215883005</v>
+        <v>-0.659268138578284</v>
       </c>
       <c r="QU2" s="2">
-        <v>-2.94605681340324</v>
+        <v>-0.649623140741423</v>
       </c>
       <c r="QV2" s="2">
-        <v>-2.93984751939212</v>
+        <v>-0.673741536415158</v>
       </c>
       <c r="QW2" s="2">
-        <v>-2.94146258037734</v>
+        <v>-0.652160782614373</v>
       </c>
       <c r="QX2" s="2">
-        <v>-2.95504785618538</v>
+        <v>-0.655513815961084</v>
       </c>
       <c r="QY2" s="2">
-        <v>-2.96683563734006</v>
+        <v>-0.664987963523398</v>
       </c>
       <c r="QZ2" s="2">
-        <v>-2.95625370820222</v>
+        <v>-0.6652369046139061</v>
       </c>
       <c r="RA2" s="2">
-        <v>-2.97826644510028</v>
+        <v>-0.676012970554335</v>
       </c>
       <c r="RB2" s="2">
-        <v>-2.97430996462783</v>
+        <v>-0.678792562189626</v>
       </c>
       <c r="RC2" s="2">
-        <v>-2.99995238173764</v>
+        <v>-0.68486466030194</v>
       </c>
       <c r="RD2" s="2">
-        <v>-3.00145569952477</v>
+        <v>-0.682160161081068</v>
       </c>
       <c r="RE2" s="2">
-        <v>-3.01869792939124</v>
+        <v>-0.696753145473899</v>
       </c>
       <c r="RF2" s="2">
-        <v>-3.02447873607195</v>
+        <v>-0.691655716963203</v>
       </c>
       <c r="RG2" s="2">
-        <v>-3.04382582782309</v>
+        <v>-0.690022731530039</v>
       </c>
       <c r="RH2" s="2">
-        <v>-3.0372605452805</v>
+        <v>-0.693330996720936</v>
       </c>
       <c r="RI2" s="2">
-        <v>-3.04922976551425</v>
+        <v>-0.699328371335209</v>
       </c>
       <c r="RJ2" s="2">
-        <v>-3.06464298681094</v>
+        <v>-0.711735055114564</v>
       </c>
       <c r="RK2" s="2">
-        <v>-3.08547957275863</v>
+        <v>-0.709468726695383</v>
       </c>
       <c r="RL2" s="2">
-        <v>-3.10329687918674</v>
+        <v>-0.736805886812551</v>
       </c>
       <c r="RM2" s="2">
-        <v>-3.11089319369926</v>
+        <v>-0.729682101459102</v>
       </c>
       <c r="RN2" s="2">
-        <v>-3.11875964511367</v>
+        <v>-0.73662789608426</v>
       </c>
       <c r="RO2" s="2">
-        <v>-3.1360684648488</v>
+        <v>-0.728768990321283</v>
       </c>
       <c r="RP2" s="2">
-        <v>-3.13198414305546</v>
+        <v>-0.7386799144826171</v>
       </c>
       <c r="RQ2" s="2">
-        <v>-3.15580182021396</v>
+        <v>-0.7478152976938089</v>
       </c>
       <c r="RR2" s="2">
-        <v>-3.18929085056678</v>
+        <v>-0.750894284808222</v>
       </c>
       <c r="RS2" s="2">
-        <v>-3.1961620252069</v>
+        <v>-0.757768049879329</v>
       </c>
       <c r="RT2" s="2">
-        <v>-3.17975734380163</v>
+        <v>-0.763914648813773</v>
       </c>
       <c r="RU2" s="2">
-        <v>-3.20957779683982</v>
+        <v>-0.770794370871662</v>
       </c>
       <c r="RV2" s="2">
-        <v>-3.19960856017277</v>
+        <v>-0.782850622570608</v>
       </c>
       <c r="RW2" s="2">
-        <v>-3.21916799750478</v>
+        <v>-0.759676994323613</v>
       </c>
       <c r="RX2" s="2">
-        <v>-3.24904247840675</v>
+        <v>-0.7685232647668671</v>
       </c>
       <c r="RY2" s="2">
-        <v>-3.24116349413758</v>
+        <v>-0.780314676925321</v>
       </c>
       <c r="RZ2" s="2">
-        <v>-3.21181321296612</v>
+        <v>-0.78342698020893</v>
       </c>
       <c r="SA2" s="2">
-        <v>-3.21240543754437</v>
+        <v>-0.798318314815497</v>
       </c>
       <c r="SB2" s="2">
-        <v>-3.23350315305668</v>
+        <v>-0.795905063309601</v>
       </c>
       <c r="SC2" s="2">
-        <v>-3.21655102622688</v>
+        <v>-0.793654826285512</v>
       </c>
       <c r="SD2" s="2">
-        <v>-3.21127582848032</v>
+        <v>-0.814961207248004</v>
       </c>
       <c r="SE2" s="2">
-        <v>-3.19404244697032</v>
+        <v>-0.823586476155568</v>
       </c>
       <c r="SF2" s="2">
-        <v>-3.19504436322</v>
+        <v>-0.822540106772402</v>
       </c>
       <c r="SG2" s="2">
-        <v>-3.18147450917679</v>
+        <v>-0.828026240496717</v>
       </c>
       <c r="SH2" s="2">
-        <v>-3.20530764389569</v>
+        <v>-0.833438750791068</v>
       </c>
       <c r="SI2" s="2">
-        <v>-3.17376272901536</v>
+        <v>-0.825328293274307</v>
       </c>
       <c r="SJ2" s="2">
-        <v>-3.12011977724428</v>
+        <v>-0.842373524633428</v>
       </c>
       <c r="SK2" s="2">
-        <v>-3.1232975802104</v>
+        <v>-0.838979648747657</v>
       </c>
       <c r="SL2" s="2">
-        <v>-3.12773757529726</v>
+        <v>-0.837488035936173</v>
       </c>
       <c r="SM2" s="2">
-        <v>-3.15246735458542</v>
+        <v>-0.8393170305819549</v>
       </c>
       <c r="SN2" s="2">
-        <v>-3.14372130944638</v>
+        <v>-0.843969970888175</v>
       </c>
       <c r="SO2" s="2">
-        <v>-3.12320002536714</v>
+        <v>-0.844997672749254</v>
       </c>
       <c r="SP2" s="2">
-        <v>-3.08792932617079</v>
+        <v>-0.838980549653526</v>
       </c>
       <c r="SQ2" s="2">
-        <v>-3.09444025690712</v>
+        <v>-0.848640747531739</v>
       </c>
       <c r="SR2" s="2">
-        <v>-3.08042788987017</v>
+        <v>-0.837247037497146</v>
       </c>
       <c r="SS2" s="2">
-        <v>-3.07005531964573</v>
+        <v>-0.849864801002464</v>
       </c>
       <c r="ST2" s="2">
-        <v>-3.0207710134679</v>
+        <v>-0.8494013732767151</v>
       </c>
       <c r="SU2" s="2">
-        <v>-3.01533331732473</v>
+        <v>-0.831445668424774</v>
       </c>
       <c r="SV2" s="2">
-        <v>-2.99778071191168</v>
+        <v>-0.843218643144247</v>
       </c>
       <c r="SW2" s="2">
-        <v>-2.9583225079732</v>
+        <v>-0.852322216744809</v>
       </c>
       <c r="SX2" s="2">
-        <v>-2.92536503560594</v>
+        <v>-0.850735888395849</v>
       </c>
       <c r="SY2" s="2">
-        <v>-2.9087234510281</v>
+        <v>-0.85060605174745</v>
       </c>
       <c r="SZ2" s="2">
-        <v>-2.91653397888417</v>
+        <v>-0.839291831732818</v>
       </c>
       <c r="TA2" s="2">
-        <v>-2.88641473085933</v>
+        <v>-0.852630085020517</v>
       </c>
       <c r="TB2" s="2">
-        <v>-2.86712826414126</v>
+        <v>-0.848370349032457</v>
       </c>
       <c r="TC2" s="2">
-        <v>-2.8405964858508</v>
+        <v>-0.828804374336953</v>
       </c>
       <c r="TD2" s="2">
-        <v>-2.8275804011711</v>
+        <v>-0.83850148399513</v>
       </c>
       <c r="TE2" s="2">
-        <v>-2.79794011405248</v>
+        <v>-0.8346578846271691</v>
       </c>
       <c r="TF2" s="2">
-        <v>-2.78028867653979</v>
+        <v>-0.845932385654005</v>
       </c>
       <c r="TG2" s="2">
-        <v>-2.75607296150521</v>
+        <v>-0.836389338127006</v>
       </c>
       <c r="TH2" s="2">
-        <v>-2.75007198730114</v>
+        <v>-0.838917411330769</v>
       </c>
       <c r="TI2" s="2">
-        <v>-2.74289604256344</v>
+        <v>-0.839763645524138</v>
       </c>
       <c r="TJ2" s="2">
-        <v>-2.68561248181547</v>
+        <v>-0.834798137447343</v>
       </c>
       <c r="TK2" s="2">
-        <v>-2.69339037437287</v>
+        <v>-0.836433376039078</v>
       </c>
       <c r="TL2" s="2">
-        <v>-2.66415185956974</v>
+        <v>-0.833180109122685</v>
       </c>
       <c r="TM2" s="2">
-        <v>-2.66548405533523</v>
+        <v>-0.83057896502191</v>
       </c>
       <c r="TN2" s="2">
-        <v>-2.63272982095713</v>
+        <v>-0.818575947347963</v>
       </c>
       <c r="TO2" s="2">
-        <v>-2.63072878347397</v>
+        <v>-0.805621085759483</v>
       </c>
       <c r="TP2" s="2">
-        <v>-2.60304626765724</v>
+        <v>-0.812595621262346</v>
       </c>
       <c r="TQ2" s="2">
-        <v>-2.59288737172046</v>
+        <v>-0.823233970906972</v>
       </c>
       <c r="TR2" s="2">
-        <v>-2.56318557932255</v>
+        <v>-0.80647774811878</v>
       </c>
       <c r="TS2" s="2">
-        <v>-2.55457259531447</v>
+        <v>-0.815135484270116</v>
       </c>
       <c r="TT2" s="2">
-        <v>-2.54334065840344</v>
+        <v>-0.821768762368192</v>
       </c>
       <c r="TU2" s="2">
-        <v>-2.52291145298014</v>
+        <v>-0.795004019808476</v>
       </c>
       <c r="TV2" s="2">
-        <v>-2.54682441556478</v>
+        <v>-0.79886533225102</v>
       </c>
       <c r="TW2" s="2">
-        <v>-2.5057389317546</v>
+        <v>-0.8121779988583639</v>
       </c>
       <c r="TX2" s="2">
-        <v>-2.49952216113953</v>
+        <v>-0.812308745592747</v>
       </c>
       <c r="TY2" s="2">
-        <v>-2.47437799657713</v>
+        <v>-0.800078311836055</v>
       </c>
       <c r="TZ2" s="2">
-        <v>-2.47843278108562</v>
+        <v>-0.798030971329178</v>
       </c>
       <c r="UA2" s="2">
-        <v>-2.45360541070807</v>
+        <v>-0.808956604568954</v>
       </c>
       <c r="UB2" s="2">
-        <v>-2.4570548744016</v>
+        <v>-0.789433421297984</v>
       </c>
       <c r="UC2" s="2">
-        <v>-2.44424357351216</v>
+        <v>-0.792533215885834</v>
       </c>
       <c r="UD2" s="2">
-        <v>-2.43455033197455</v>
+        <v>-0.795171834624177</v>
       </c>
       <c r="UE2" s="2">
-        <v>-2.43691228549731</v>
+        <v>-0.781193034725854</v>
       </c>
       <c r="UF2" s="2">
-        <v>-2.40162491157952</v>
+        <v>-0.7823359794072819</v>
       </c>
       <c r="UG2" s="2">
-        <v>-2.41886089469924</v>
+        <v>-0.78265169017381</v>
       </c>
       <c r="UH2" s="2">
-        <v>-2.42209162783962</v>
+        <v>-0.774835200514062</v>
       </c>
       <c r="UI2" s="2">
-        <v>-2.38987680537414</v>
+        <v>-0.780175086649194</v>
       </c>
       <c r="UJ2" s="2">
-        <v>-2.37186654588642</v>
+        <v>-0.776180573592391</v>
       </c>
       <c r="UK2" s="2">
-        <v>-2.37428082804228</v>
+        <v>-0.7771468186242489</v>
       </c>
       <c r="UL2" s="2">
-        <v>-2.37782654054848</v>
+        <v>-0.777218946974541</v>
       </c>
       <c r="UM2" s="2">
-        <v>-2.35911356694828</v>
+        <v>-0.767290242536763</v>
       </c>
       <c r="UN2" s="2">
-        <v>-2.36364706409832</v>
+        <v>-0.778340397522327</v>
       </c>
       <c r="UO2" s="2">
-        <v>-2.34745839285162</v>
+        <v>-0.775232332604341</v>
       </c>
       <c r="UP2" s="2">
-        <v>-2.35876460044154</v>
+        <v>-0.763847309194767</v>
       </c>
       <c r="UQ2" s="2">
-        <v>-2.34693000696788</v>
+        <v>-0.77054493932764</v>
       </c>
       <c r="UR2" s="2">
-        <v>-2.35888493831823</v>
+        <v>-0.770407859417199</v>
       </c>
       <c r="US2" s="2">
-        <v>-2.33820169163818</v>
+        <v>-0.767446815779074</v>
       </c>
       <c r="UT2" s="2">
-        <v>-2.3486006485607</v>
+        <v>-0.769342103882705</v>
       </c>
       <c r="UU2" s="2">
-        <v>-2.33544895872513</v>
+        <v>-0.765191834215955</v>
       </c>
       <c r="UV2" s="2">
-        <v>-2.32885991060976</v>
+        <v>-0.768788003783864</v>
       </c>
       <c r="UW2" s="2">
-        <v>-2.33216130822735</v>
+        <v>-0.7770450584791579</v>
       </c>
       <c r="UX2" s="2">
-        <v>-2.33052853397309</v>
+        <v>-0.772738896336968</v>
       </c>
       <c r="UY2" s="2">
-        <v>-2.30868544463158</v>
+        <v>-0.78421852077416</v>
       </c>
       <c r="UZ2" s="2">
-        <v>-2.32060550248092</v>
+        <v>-0.768078234387191</v>
       </c>
       <c r="VA2" s="2">
-        <v>-2.3074816555002</v>
+        <v>-0.774780568547795</v>
       </c>
       <c r="VB2" s="2">
-        <v>-2.34358477200304</v>
+        <v>-0.782501017055537</v>
       </c>
       <c r="VC2" s="2">
-        <v>-2.3283090775832</v>
+        <v>-0.78454121331908</v>
       </c>
       <c r="VD2" s="2">
-        <v>-2.30917850502506</v>
+        <v>-0.7723366057896019</v>
       </c>
       <c r="VE2" s="2">
-        <v>-2.32210394585621</v>
+        <v>-0.7788004550222</v>
       </c>
       <c r="VF2" s="2">
-        <v>-2.33801701193964</v>
+        <v>-0.784994343272527</v>
       </c>
       <c r="VG2" s="2">
-        <v>-2.33376530386072</v>
+        <v>-0.783650727613345</v>
       </c>
       <c r="VH2" s="2">
-        <v>-2.33912326793899</v>
+        <v>-0.785613821097791</v>
       </c>
       <c r="VI2" s="2">
-        <v>-2.34085730761447</v>
+        <v>-0.783680954708235</v>
       </c>
       <c r="VJ2" s="2">
-        <v>-2.32698201218116</v>
+        <v>-0.790504832939235</v>
       </c>
       <c r="VK2" s="2">
-        <v>-2.34878933896204</v>
+        <v>-0.779660538845653</v>
       </c>
       <c r="VL2" s="2">
-        <v>-2.34737489238528</v>
+        <v>-0.801162864135433</v>
       </c>
       <c r="VM2" s="2">
-        <v>-2.32939188720915</v>
+        <v>-0.794248396291378</v>
       </c>
       <c r="VN2" s="2">
-        <v>-2.34285434098982</v>
+        <v>-0.791104314938945</v>
       </c>
       <c r="VO2" s="2">
-        <v>-2.36547998753325</v>
+        <v>-0.792566851254897</v>
       </c>
       <c r="VP2" s="2">
-        <v>-2.37065989194232</v>
+        <v>-0.789209532968198</v>
       </c>
       <c r="VQ2" s="2">
-        <v>-2.35832971330324</v>
+        <v>-0.804057610058738</v>
       </c>
       <c r="VR2" s="2">
-        <v>-2.38323210197117</v>
+        <v>-0.82358998940898</v>
       </c>
       <c r="VS2" s="2">
-        <v>-2.38218486297908</v>
+        <v>-0.813774799076034</v>
       </c>
       <c r="VT2" s="2">
-        <v>-2.37457359293119</v>
+        <v>-0.806617901505074</v>
       </c>
       <c r="VU2" s="2">
-        <v>-2.39348125055675</v>
+        <v>-0.798762636545161</v>
       </c>
       <c r="VV2" s="2">
-        <v>-2.40956812139675</v>
+        <v>-0.80645200894498</v>
       </c>
       <c r="VW2" s="2">
-        <v>-2.40390393229422</v>
+        <v>-0.821942764912468</v>
       </c>
       <c r="VX2" s="2">
-        <v>-2.40920604175428</v>
+        <v>-0.829200906451817</v>
       </c>
       <c r="VY2" s="2">
-        <v>-2.43526745050988</v>
+        <v>-0.818908778806314</v>
       </c>
       <c r="VZ2" s="2">
-        <v>-2.43636806091658</v>
+        <v>-0.828141050990554</v>
       </c>
       <c r="WA2" s="2">
-        <v>-2.46035499612694</v>
+        <v>-0.824526269306224</v>
       </c>
       <c r="WB2" s="2">
-        <v>-2.44020199267598</v>
+        <v>-0.8342735978229689</v>
       </c>
       <c r="WC2" s="2">
-        <v>-2.48535893741364</v>
+        <v>-0.837994833595828</v>
       </c>
       <c r="WD2" s="2">
-        <v>-2.49301849088584</v>
+        <v>-0.847758758629276</v>
       </c>
       <c r="WE2" s="2">
-        <v>-2.50958739433272</v>
+        <v>-0.838684192002728</v>
       </c>
       <c r="WF2" s="2">
-        <v>-2.50673750962507</v>
+        <v>-0.845407663524758</v>
       </c>
       <c r="WG2" s="2">
-        <v>-2.51089342674738</v>
+        <v>-0.84845885914617</v>
       </c>
       <c r="WH2" s="2">
-        <v>-2.5510254412904</v>
+        <v>-0.841555150976575</v>
       </c>
       <c r="WI2" s="2">
-        <v>-2.56554359114759</v>
+        <v>-0.8378001292478801</v>
       </c>
       <c r="WJ2" s="2">
-        <v>-2.55276471664402</v>
+        <v>-0.858786159642312</v>
       </c>
       <c r="WK2" s="2">
-        <v>-2.56648059179322</v>
+        <v>-0.859853700629916</v>
       </c>
       <c r="WL2" s="2">
-        <v>-2.60181802829687</v>
+        <v>-0.857453333644186</v>
       </c>
       <c r="WM2" s="2">
-        <v>-2.59543819311615</v>
+        <v>-0.86290047143136</v>
       </c>
       <c r="WN2" s="2">
-        <v>-2.62601008528739</v>
+        <v>-0.855895622184262</v>
       </c>
       <c r="WO2" s="2">
-        <v>-2.63070514736514</v>
+        <v>-0.852505826458925</v>
       </c>
       <c r="WP2" s="2">
-        <v>-2.641702553697</v>
+        <v>-0.838410945186525</v>
       </c>
       <c r="WQ2" s="2">
-        <v>-2.66816407278447</v>
+        <v>-0.874186129506327</v>
       </c>
       <c r="WR2" s="2">
-        <v>-2.6878828483512</v>
+        <v>-0.863339669149366</v>
       </c>
       <c r="WS2" s="2">
-        <v>-2.70617384535035</v>
+        <v>-0.8525357343821</v>
       </c>
       <c r="WT2" s="2">
-        <v>-2.7074764423011</v>
+        <v>-0.861608192339758</v>
       </c>
       <c r="WU2" s="2">
-        <v>-2.71960197743597</v>
+        <v>-0.859333642870908</v>
       </c>
       <c r="WV2" s="2">
-        <v>-2.74549029328515</v>
+        <v>-0.867999218137446</v>
       </c>
       <c r="WW2" s="2">
-        <v>-2.76754956571785</v>
+        <v>-0.865306343265028</v>
       </c>
       <c r="WX2" s="2">
-        <v>-2.7760220200683</v>
+        <v>-0.879539779413918</v>
       </c>
       <c r="WY2" s="2">
-        <v>-2.79141915661528</v>
+        <v>-0.872577152720497</v>
       </c>
       <c r="WZ2" s="2">
-        <v>-2.80552021489827</v>
+        <v>-0.866993675324101</v>
       </c>
       <c r="XA2" s="2">
-        <v>-2.83192566307229</v>
+        <v>-0.8765894020205089</v>
       </c>
       <c r="XB2" s="2">
-        <v>-2.84118952029801</v>
+        <v>-0.859368346557964</v>
       </c>
       <c r="XC2" s="2">
-        <v>-2.85722135104703</v>
+        <v>-0.862976773294316</v>
       </c>
       <c r="XD2" s="2">
-        <v>-2.85649390356891</v>
+        <v>-0.868140627449408</v>
       </c>
       <c r="XE2" s="2">
-        <v>-2.87816453540033</v>
+        <v>-0.8632490632127</v>
       </c>
       <c r="XF2" s="2">
-        <v>-2.89284500337002</v>
+        <v>-0.881777252368418</v>
       </c>
       <c r="XG2" s="2">
-        <v>-2.88647920036928</v>
+        <v>-0.86673578483146</v>
       </c>
       <c r="XH2" s="2">
-        <v>-2.90317168372807</v>
+        <v>-0.866757135461184</v>
       </c>
       <c r="XI2" s="2">
-        <v>-2.94827923167568</v>
+        <v>-0.871978383686995</v>
       </c>
       <c r="XJ2" s="2">
-        <v>-2.92562288653789</v>
+        <v>-0.864563626858139</v>
       </c>
       <c r="XK2" s="2">
-        <v>-2.94572017445925</v>
+        <v>-0.868831473207656</v>
       </c>
       <c r="XL2" s="2">
-        <v>-2.94215085110799</v>
+        <v>-0.875795624192198</v>
       </c>
       <c r="XM2" s="2">
-        <v>-2.95797955077329</v>
+        <v>-0.85880723299981</v>
       </c>
       <c r="XN2" s="2">
-        <v>-2.95346369294662</v>
+        <v>-0.876584589570498</v>
       </c>
       <c r="XO2" s="2">
-        <v>-2.98459706861275</v>
+        <v>-0.8714260001829141</v>
       </c>
       <c r="XP2" s="2">
-        <v>-2.99284994525284</v>
+        <v>-0.865557235784897</v>
       </c>
       <c r="XQ2" s="2">
-        <v>-2.99059205892564</v>
+        <v>-0.87240014312643</v>
       </c>
       <c r="XR2" s="2">
-        <v>-2.96951090488727</v>
+        <v>-0.8555363837676579</v>
       </c>
       <c r="XS2" s="2">
-        <v>-2.97047569870022</v>
+        <v>-0.856346134682443</v>
       </c>
       <c r="XT2" s="2">
-        <v>-2.97202890901368</v>
+        <v>-0.858103252446245</v>
       </c>
       <c r="XU2" s="2">
-        <v>-2.98508595475154</v>
+        <v>-0.877471667533712</v>
       </c>
       <c r="XV2" s="2">
-        <v>-2.99629476252342</v>
+        <v>-0.8703930415412779</v>
       </c>
       <c r="XW2" s="2">
-        <v>-2.98919115075458</v>
+        <v>-0.869368383823891</v>
       </c>
       <c r="XX2" s="2">
-        <v>-2.9753597795929</v>
+        <v>-0.874303678233299</v>
       </c>
       <c r="XY2" s="2">
-        <v>-3.00110865404411</v>
+        <v>-0.865682634923676</v>
       </c>
       <c r="XZ2" s="2">
-        <v>-2.97498012480491</v>
+        <v>-0.861746813140832</v>
       </c>
       <c r="YA2" s="2">
-        <v>-2.97254864127899</v>
+        <v>-0.8762874436578419</v>
       </c>
       <c r="YB2" s="2">
-        <v>-2.97100332119199</v>
+        <v>-0.866692382761956</v>
       </c>
       <c r="YC2" s="2">
-        <v>-2.96476992894018</v>
+        <v>-0.863016588596787</v>
       </c>
       <c r="YD2" s="2">
-        <v>-2.96168197824783</v>
+        <v>-0.862463775988793</v>
       </c>
       <c r="YE2" s="2">
-        <v>-2.96600474541121</v>
+        <v>-0.866485018979527</v>
       </c>
       <c r="YF2" s="2">
-        <v>-2.93781575217854</v>
+        <v>-0.867299068128465</v>
       </c>
       <c r="YG2" s="2">
-        <v>-2.91603552958279</v>
+        <v>-0.861990883646875</v>
       </c>
       <c r="YH2" s="2">
-        <v>-2.93207163291036</v>
+        <v>-0.860793378571442</v>
       </c>
       <c r="YI2" s="2">
-        <v>-2.91585322901315</v>
+        <v>-0.852919140442468</v>
       </c>
       <c r="YJ2" s="2">
-        <v>-2.93657749550618</v>
+        <v>-0.851071752633296</v>
       </c>
       <c r="YK2" s="2">
-        <v>-2.89759996016107</v>
+        <v>-0.854834933894026</v>
       </c>
       <c r="YL2" s="2">
-        <v>-2.89669738599556</v>
+        <v>-0.857768362037809</v>
       </c>
       <c r="YM2" s="2">
-        <v>-2.88501382940154</v>
+        <v>-0.8713406495991221</v>
       </c>
       <c r="YN2" s="2">
-        <v>-2.9008209829507</v>
+        <v>-0.859808421835854</v>
       </c>
       <c r="YO2" s="2">
-        <v>-2.88033631116953</v>
+        <v>-0.867884602450235</v>
       </c>
       <c r="YP2" s="2">
-        <v>-2.8595818703965</v>
+        <v>-0.870552521889661</v>
       </c>
       <c r="YQ2" s="2">
-        <v>-2.85154832066062</v>
+        <v>-0.87063494684378</v>
       </c>
       <c r="YR2" s="2">
-        <v>-2.85781019355234</v>
+        <v>-0.875312720211706</v>
       </c>
       <c r="YS2" s="2">
-        <v>-2.82567126016921</v>
+        <v>-0.874932031722188</v>
       </c>
       <c r="YT2" s="2">
-        <v>-2.83056030988312</v>
+        <v>-0.884107672371754</v>
       </c>
       <c r="YU2" s="2">
-        <v>-2.84021327129778</v>
+        <v>-0.866197758287537</v>
       </c>
       <c r="YV2" s="2">
-        <v>-2.83086417565255</v>
+        <v>-0.86835697109423</v>
       </c>
       <c r="YW2" s="2">
-        <v>-2.83217169198811</v>
+        <v>-0.8737419526565799</v>
       </c>
       <c r="YX2" s="2">
-        <v>-2.78627205365787</v>
+        <v>-0.878657993468649</v>
       </c>
       <c r="YY2" s="2">
-        <v>-2.80861198307342</v>
+        <v>-0.883909319234803</v>
       </c>
       <c r="YZ2" s="2">
-        <v>-2.80642314833955</v>
+        <v>-0.887144858828576</v>
       </c>
       <c r="ZA2" s="2">
-        <v>-2.80040183012425</v>
+        <v>-0.880399700905709</v>
       </c>
       <c r="ZB2" s="2">
-        <v>-2.81107950092871</v>
+        <v>-0.878587241269525</v>
       </c>
       <c r="ZC2" s="2">
-        <v>-2.788944471198</v>
+        <v>-0.873728260318354</v>
       </c>
       <c r="ZD2" s="2">
-        <v>-2.78353165630297</v>
+        <v>-0.894393233431329</v>
       </c>
       <c r="ZE2" s="2">
-        <v>-2.75883429252768</v>
+        <v>-0.884465137491101</v>
       </c>
       <c r="ZF2" s="2">
-        <v>-2.77109872193717</v>
+        <v>-0.900118272022008</v>
       </c>
       <c r="ZG2" s="2">
-        <v>-2.7706922458026</v>
+        <v>-0.892134386057562</v>
       </c>
       <c r="ZH2" s="2">
-        <v>-2.75558954716308</v>
+        <v>-0.891947275728037</v>
       </c>
       <c r="ZI2" s="2">
-        <v>-2.73286344710347</v>
+        <v>-0.900124355268444</v>
       </c>
       <c r="ZJ2" s="2">
-        <v>-2.73002127359048</v>
+        <v>-0.888347326181953</v>
       </c>
       <c r="ZK2" s="2">
-        <v>-2.76421854750772</v>
+        <v>-0.892203649322252</v>
       </c>
       <c r="ZL2" s="2">
-        <v>-2.73325406949366</v>
+        <v>-0.908162990445105</v>
       </c>
       <c r="ZM2" s="2">
-        <v>-2.72169358260262</v>
+        <v>-0.90019129670913</v>
       </c>
       <c r="ZN2" s="2">
-        <v>-2.72044129086537</v>
+        <v>-0.916279420433287</v>
       </c>
       <c r="ZO2" s="2">
-        <v>-2.72857039110278</v>
+        <v>-0.910637591760603</v>
       </c>
       <c r="ZP2" s="2">
-        <v>-2.70382967243687</v>
+        <v>-0.896842324149852</v>
       </c>
       <c r="ZQ2" s="2">
-        <v>-2.7227412688627</v>
+        <v>-0.9134979766883</v>
       </c>
       <c r="ZR2" s="2">
-        <v>-2.6897659940575</v>
+        <v>-0.92197130826291</v>
       </c>
       <c r="ZS2" s="2">
-        <v>-2.68626612054832</v>
+        <v>-0.922745917945106</v>
       </c>
       <c r="ZT2" s="2">
-        <v>-2.69442307600384</v>
+        <v>-0.905513293050403</v>
       </c>
       <c r="ZU2" s="2">
-        <v>-2.68297684893128</v>
+        <v>-0.927319095393017</v>
       </c>
       <c r="ZV2" s="2">
-        <v>-2.71572937480656</v>
+        <v>-0.915365194236858</v>
       </c>
       <c r="ZW2" s="2">
-        <v>-2.6914323732738</v>
+        <v>-0.912116910033522</v>
       </c>
       <c r="ZX2" s="2">
-        <v>-2.68741723760545</v>
+        <v>-0.921078260736316</v>
       </c>
       <c r="ZY2" s="2">
-        <v>-2.67714137930768</v>
+        <v>-0.9360055505813361</v>
       </c>
       <c r="ZZ2" s="2">
-        <v>-2.66989959935623</v>
+        <v>-0.913856879110888</v>
       </c>
       <c r="AAA2" s="2">
-        <v>-2.66047628466365</v>
+        <v>-0.916567404391386</v>
       </c>
       <c r="AAB2" s="2">
-        <v>-2.65404359258702</v>
+        <v>-0.936075114050214</v>
       </c>
       <c r="AAC2" s="2">
-        <v>-2.65851896023501</v>
+        <v>-0.9184214033995181</v>
       </c>
       <c r="AAD2" s="2">
-        <v>-2.67898007507217</v>
+        <v>-0.920916431608664</v>
       </c>
       <c r="AAE2" s="2">
-        <v>-2.64513055549358</v>
+        <v>-0.927131047332992</v>
       </c>
       <c r="AAF2" s="2">
-        <v>-2.65126122249184</v>
+        <v>-0.935444728023263</v>
       </c>
       <c r="AAG2" s="2">
-        <v>-2.65147183683343</v>
+        <v>-0.925367860511997</v>
       </c>
       <c r="AAH2" s="2">
-        <v>-2.63728099302873</v>
+        <v>-0.934974530060676</v>
       </c>
       <c r="AAI2" s="2">
-        <v>-2.62490339340337</v>
+        <v>-0.936560875318173</v>
       </c>
       <c r="AAJ2" s="2">
-        <v>-2.59778243993595</v>
+        <v>-0.93553163226239</v>
       </c>
       <c r="AAK2" s="2">
-        <v>-2.62279491236269</v>
+        <v>-0.935133827749823</v>
       </c>
       <c r="AAL2" s="2">
-        <v>-2.65290518840335</v>
+        <v>-0.935995218930788</v>
       </c>
       <c r="AAM2" s="2">
-        <v>-2.62826069246893</v>
+        <v>-0.933517969714436</v>
       </c>
       <c r="AAN2" s="2">
-        <v>-2.59651264725074</v>
+        <v>-0.923638280813165</v>
       </c>
       <c r="AAO2" s="2">
-        <v>-2.60120576191723</v>
+        <v>-0.941438955207352</v>
       </c>
       <c r="AAP2" s="2">
-        <v>-2.62420630283651</v>
+        <v>-0.938345170100106</v>
       </c>
       <c r="AAQ2" s="2">
-        <v>-2.61817294304483</v>
+        <v>-0.939361707589744</v>
       </c>
       <c r="AAR2" s="2">
-        <v>-2.59359821533178</v>
+        <v>-0.931081300773213</v>
       </c>
       <c r="AAS2" s="2">
-        <v>-2.58457865034548</v>
+        <v>-0.935326839147401</v>
       </c>
       <c r="AAT2" s="2">
-        <v>-2.60312738369643</v>
+        <v>-0.912676393530601</v>
       </c>
       <c r="AAU2" s="2">
-        <v>-2.57328702074015</v>
+        <v>-0.9227411339921801</v>
       </c>
       <c r="AAV2" s="2">
-        <v>-2.5894956383996</v>
+        <v>-0.925774578856927</v>
       </c>
       <c r="AAW2" s="2">
-        <v>-2.57521654160084</v>
+        <v>-0.931119466029414</v>
       </c>
       <c r="AAX2" s="2">
-        <v>-2.56369662966417</v>
+        <v>-0.924216019333346</v>
       </c>
       <c r="AAY2" s="2">
-        <v>-2.5820828883133</v>
+        <v>-0.937493224155183</v>
       </c>
       <c r="AAZ2" s="2">
-        <v>-2.57460429973111</v>
+        <v>-0.9234087395469101</v>
       </c>
       <c r="ABA2" s="2">
-        <v>-2.57280553051338</v>
+        <v>-0.9175145486873491</v>
       </c>
       <c r="ABB2" s="2">
-        <v>-2.56612527229783</v>
+        <v>-0.906043369802948</v>
       </c>
       <c r="ABC2" s="2">
-        <v>-2.54316339158006</v>
+        <v>-0.924769084462383</v>
       </c>
       <c r="ABD2" s="2">
-        <v>-2.54878208566347</v>
+        <v>-0.914539032568559</v>
       </c>
       <c r="ABE2" s="2">
-        <v>-2.55576210629716</v>
+        <v>-0.914541600273427</v>
       </c>
       <c r="ABF2" s="2">
-        <v>-2.5413974122397</v>
+        <v>-0.931481893824742</v>
       </c>
       <c r="ABG2" s="2">
-        <v>-2.51083431507273</v>
+        <v>-0.9199874653893</v>
       </c>
       <c r="ABH2" s="2">
-        <v>-2.51893839611161</v>
+        <v>-0.926486135147304</v>
       </c>
       <c r="ABI2" s="2">
-        <v>-2.52365709866252</v>
+        <v>-0.914158589148459</v>
       </c>
       <c r="ABJ2" s="2">
-        <v>-2.50218490583692</v>
+        <v>-0.904282392393874</v>
       </c>
       <c r="ABK2" s="2">
-        <v>-2.51458978454256</v>
+        <v>-0.9201531013253</v>
       </c>
       <c r="ABL2" s="2">
-        <v>-2.52354253836745</v>
+        <v>-0.917801599244863</v>
       </c>
       <c r="ABM2" s="2">
-        <v>-2.48421912817936</v>
+        <v>-0.910644610027271</v>
       </c>
       <c r="ABN2" s="2">
-        <v>-2.50438483085958</v>
+        <v>-0.916686461917936</v>
       </c>
       <c r="ABO2" s="2">
-        <v>-2.4959443393711</v>
+        <v>-0.9087078762165089</v>
       </c>
       <c r="ABP2" s="2">
-        <v>-2.51246680777085</v>
+        <v>-0.891245500202451</v>
       </c>
       <c r="ABQ2" s="2">
-        <v>-2.4896769748002</v>
+        <v>-0.901826624644128</v>
       </c>
       <c r="ABR2" s="2">
-        <v>-2.48543285609535</v>
+        <v>-0.908108761693495</v>
       </c>
       <c r="ABS2" s="2">
-        <v>-2.46570776299275</v>
+        <v>-0.914545658866139</v>
       </c>
       <c r="ABT2" s="2">
-        <v>-2.47417435093276</v>
+        <v>-0.903562603942586</v>
       </c>
       <c r="ABU2" s="2">
-        <v>-2.46320916385151</v>
+        <v>-0.894948435182134</v>
       </c>
       <c r="ABV2" s="2">
-        <v>-2.45913120013035</v>
+        <v>-0.905168528592152</v>
       </c>
       <c r="ABW2" s="2">
-        <v>-2.47648125970648</v>
+        <v>-0.9024904002377701</v>
       </c>
       <c r="ABX2" s="2">
-        <v>-2.48675460910354</v>
+        <v>-0.8973153615914981</v>
       </c>
       <c r="ABY2" s="2">
-        <v>-2.46416700565595</v>
+        <v>-0.903958467384907</v>
       </c>
       <c r="ABZ2" s="2">
-        <v>-2.47060465017603</v>
+        <v>-0.898040017822514</v>
       </c>
       <c r="ACA2" s="2">
-        <v>-2.4169047466006</v>
+        <v>-0.912918281500914</v>
       </c>
       <c r="ACB2" s="2">
-        <v>-2.43691331838367</v>
+        <v>-0.900741570626066</v>
       </c>
       <c r="ACC2" s="2">
-        <v>-2.42676579641387</v>
+        <v>-0.904127708369759</v>
       </c>
       <c r="ACD2" s="2">
-        <v>-2.4269011497738</v>
+        <v>-0.906830476377654</v>
       </c>
       <c r="ACE2" s="2">
-        <v>-2.4468145128854</v>
+        <v>-0.9180824007884411</v>
       </c>
       <c r="ACF2" s="2">
-        <v>-2.42774752541306</v>
+        <v>-0.913335327084654</v>
       </c>
       <c r="ACG2" s="2">
-        <v>-2.43389978972705</v>
+        <v>-0.906549734952835</v>
       </c>
       <c r="ACH2" s="2">
-        <v>-2.43584824673394</v>
+        <v>-0.904413226754574</v>
       </c>
       <c r="ACI2" s="2">
-        <v>-2.41836688549195</v>
+        <v>-0.910746410572121</v>
       </c>
       <c r="ACJ2" s="2">
-        <v>-2.40307788115546</v>
+        <v>-0.919346564702842</v>
       </c>
       <c r="ACK2" s="2">
-        <v>-2.43141699936951</v>
+        <v>-0.9215861635010431</v>
       </c>
       <c r="ACL2" s="2">
-        <v>-2.43497202993879</v>
+        <v>-0.930214962456742</v>
       </c>
       <c r="ACM2" s="2">
-        <v>-2.41870808832182</v>
+        <v>-0.931048225284654</v>
       </c>
       <c r="ACN2" s="2">
-        <v>-2.39924886250721</v>
+        <v>-0.9188084549086299</v>
       </c>
       <c r="ACO2" s="2">
-        <v>-2.43095908040763</v>
+        <v>-0.930053493684074</v>
       </c>
       <c r="ACP2" s="2">
-        <v>-2.40557663373138</v>
+        <v>-0.92930432258019</v>
       </c>
       <c r="ACQ2" s="2">
-        <v>-2.40105577858968</v>
+        <v>-0.945883642805428</v>
       </c>
       <c r="ACR2" s="2">
-        <v>-2.42216253508578</v>
+        <v>-0.936766379516639</v>
       </c>
       <c r="ACS2" s="2">
-        <v>-2.44116050771936</v>
+        <v>-0.940672687270338</v>
       </c>
       <c r="ACT2" s="2">
-        <v>-2.38975689520973</v>
+        <v>-0.950562762197442</v>
       </c>
       <c r="ACU2" s="2">
-        <v>-2.42921016659351</v>
+        <v>-0.942182222985428</v>
       </c>
       <c r="ACV2" s="2">
-        <v>-2.4176894256048</v>
+        <v>-0.97107557161768</v>
       </c>
       <c r="ACW2" s="2">
-        <v>-2.4262308831173</v>
+        <v>-0.955642914145348</v>
       </c>
       <c r="ACX2" s="2">
-        <v>-2.42990009120631</v>
+        <v>-0.96294558775918</v>
       </c>
       <c r="ACY2" s="2">
-        <v>-2.44823521479247</v>
+        <v>-0.973507322035674</v>
       </c>
       <c r="ACZ2" s="2">
-        <v>-2.41449809915848</v>
+        <v>-0.974243547656041</v>
       </c>
       <c r="ADA2" s="2">
-        <v>-2.40558188858128</v>
+        <v>-0.98440792914278</v>
       </c>
       <c r="ADB2" s="2">
-        <v>-2.38500991136704</v>
+        <v>-0.984326353967693</v>
       </c>
       <c r="ADC2" s="2">
-        <v>-2.41355507332284</v>
+        <v>-0.995376209293281</v>
       </c>
       <c r="ADD2" s="2">
-        <v>-2.41935592317688</v>
+        <v>-0.982792015037503</v>
       </c>
       <c r="ADE2" s="2">
-        <v>-2.43435809992225</v>
+        <v>-1.00039009888599</v>
       </c>
       <c r="ADF2" s="2">
-        <v>-2.44249885744835</v>
+        <v>-1.01074714059979</v>
       </c>
       <c r="ADG2" s="2">
-        <v>-2.46287114033359</v>
+        <v>-1.01121618889442</v>
       </c>
       <c r="ADH2" s="2">
-        <v>-2.42307172310624</v>
+        <v>-1.02726358426151</v>
       </c>
       <c r="ADI2" s="2">
-        <v>-2.44738853595108</v>
+        <v>-1.01523059180035</v>
       </c>
       <c r="ADJ2" s="2">
-        <v>-2.46836874382473</v>
+        <v>-1.03865200875911</v>
       </c>
       <c r="ADK2" s="2">
-        <v>-2.45431297267866</v>
+        <v>-1.02933709378243</v>
       </c>
       <c r="ADL2" s="2">
-        <v>-2.44787192345397</v>
+        <v>-1.03455631566894</v>
       </c>
       <c r="ADM2" s="2">
-        <v>-2.47052102900533</v>
+        <v>-1.02758521412831</v>
       </c>
       <c r="ADN2" s="2">
-        <v>-2.43906352300556</v>
+        <v>-1.0520972900464</v>
       </c>
       <c r="ADO2" s="2">
-        <v>-2.43404204356447</v>
+        <v>-1.04546322727098</v>
       </c>
       <c r="ADP2" s="2">
-        <v>-2.44916832575883</v>
+        <v>-1.04872225006955</v>
       </c>
       <c r="ADQ2" s="2">
-        <v>-2.48804819761111</v>
+        <v>-1.03875980374401</v>
       </c>
       <c r="ADR2" s="2">
-        <v>-2.46448886875785</v>
+        <v>-1.05694014708285</v>
       </c>
       <c r="ADS2" s="2">
-        <v>-2.46117668990623</v>
+        <v>-1.07378520568907</v>
       </c>
       <c r="ADT2" s="2">
-        <v>-2.46038890239194</v>
+        <v>-1.08618346970608</v>
       </c>
       <c r="ADU2" s="2">
-        <v>-2.46796316993403</v>
+        <v>-1.08046855292163</v>
       </c>
       <c r="ADV2" s="2">
-        <v>-2.46286399291656</v>
+        <v>-1.07970079667556</v>
       </c>
       <c r="ADW2" s="2">
-        <v>-2.45992831956943</v>
+        <v>-1.09424444669889</v>
       </c>
       <c r="ADX2" s="2">
-        <v>-2.44939141374628</v>
+        <v>-1.09852319084456</v>
       </c>
       <c r="ADY2" s="2">
-        <v>-2.47662414700118</v>
+        <v>-1.10267345944273</v>
       </c>
       <c r="ADZ2" s="2">
-        <v>-2.44222408654902</v>
+        <v>-1.09242016077043</v>
       </c>
       <c r="AEA2" s="2">
-        <v>-2.44868415501909</v>
+        <v>-1.09641313458643</v>
       </c>
       <c r="AEB2" s="2">
-        <v>-2.46336998335555</v>
+        <v>-1.09946592937492</v>
       </c>
       <c r="AEC2" s="2">
-        <v>-2.45413338686611</v>
+        <v>-1.10711059744279</v>
       </c>
       <c r="AED2" s="2">
-        <v>-2.45355714611224</v>
+        <v>-1.08804092169528</v>
       </c>
       <c r="AEE2" s="2">
-        <v>-2.44563438689893</v>
+        <v>-1.11037537625003</v>
       </c>
       <c r="AEF2" s="2">
-        <v>-2.44490350257928</v>
+        <v>-1.10696793670258</v>
       </c>
       <c r="AEG2" s="2">
-        <v>-2.43433404765456</v>
+        <v>-1.12084098507964</v>
       </c>
       <c r="AEH2" s="2">
-        <v>-2.42301669201201</v>
+        <v>-1.10960232595631</v>
       </c>
       <c r="AEI2" s="2">
-        <v>-2.42957013251243</v>
+        <v>-1.10736552914277</v>
       </c>
       <c r="AEJ2" s="2">
-        <v>-2.41095067879484</v>
+        <v>-1.12695371864038</v>
       </c>
       <c r="AEK2" s="2">
-        <v>-2.41638939764135</v>
+        <v>-1.11437323372304</v>
       </c>
       <c r="AEL2" s="2">
-        <v>-2.42315375183301</v>
+        <v>-1.12367874973899</v>
       </c>
       <c r="AEM2" s="2">
-        <v>-2.38396019384469</v>
+        <v>-1.12158440795791</v>
       </c>
       <c r="AEN2" s="2">
-        <v>-2.41695414414903</v>
+        <v>-1.1111053476923</v>
       </c>
       <c r="AEO2" s="2">
-        <v>-2.41627719601658</v>
+        <v>-1.11742575981127</v>
       </c>
       <c r="AEP2" s="2">
-        <v>-2.38620274263059</v>
+        <v>-1.10415565989828</v>
       </c>
       <c r="AEQ2" s="2">
-        <v>-2.40461683978921</v>
+        <v>-1.11188880739456</v>
       </c>
       <c r="AER2" s="2">
-        <v>-2.37611912417844</v>
+        <v>-1.11047102889544</v>
       </c>
       <c r="AES2" s="2">
-        <v>-2.35915007442013</v>
+        <v>-1.10459559924295</v>
       </c>
       <c r="AET2" s="2">
-        <v>-2.35763538365028</v>
+        <v>-1.11123312728882</v>
       </c>
       <c r="AEU2" s="2">
-        <v>-2.36185923761381</v>
+        <v>-1.11306443966687</v>
       </c>
       <c r="AEV2" s="2">
-        <v>-2.34719838000808</v>
+        <v>-1.11261318727596</v>
       </c>
       <c r="AEW2" s="2">
-        <v>-2.35159342892788</v>
+        <v>-1.11296399482935</v>
       </c>
       <c r="AEX2" s="2">
-        <v>-2.344558901</v>
+        <v>-1.09887939272689</v>
       </c>
       <c r="AEY2" s="2">
-        <v>-2.32806016194962</v>
+        <v>-1.08792283549259</v>
       </c>
       <c r="AEZ2" s="2">
-        <v>-2.33139834168464</v>
+        <v>-1.10289792042558</v>
       </c>
       <c r="AFA2" s="2">
-        <v>-2.31798440057043</v>
+        <v>-1.08288063016876</v>
       </c>
       <c r="AFB2" s="2">
-        <v>-2.30078456684179</v>
+        <v>-1.08441936560228</v>
       </c>
       <c r="AFC2" s="2">
-        <v>-2.28133866482516</v>
+        <v>-1.10172801436489</v>
       </c>
       <c r="AFD2" s="2">
-        <v>-2.29673207951048</v>
+        <v>-1.07226903454933</v>
       </c>
       <c r="AFE2" s="2">
-        <v>-2.28561423859903</v>
+        <v>-1.08894053601478</v>
       </c>
       <c r="AFF2" s="2">
-        <v>-2.27055103049499</v>
+        <v>-1.06418911260039</v>
       </c>
       <c r="AFG2" s="2">
-        <v>-2.28224532700977</v>
+        <v>-1.06518657119044</v>
       </c>
       <c r="AFH2" s="2">
-        <v>-2.26092480789377</v>
+        <v>-1.0679545182496</v>
       </c>
       <c r="AFI2" s="2">
-        <v>-2.26689983345497</v>
+        <v>-1.07555548437478</v>
       </c>
       <c r="AFJ2" s="2">
-        <v>-2.25675140162156</v>
+        <v>-1.03938602810834</v>
       </c>
       <c r="AFK2" s="2">
-        <v>-2.23775105943993</v>
+        <v>-1.06210384799948</v>
       </c>
       <c r="AFL2" s="2">
-        <v>-2.25244210542185</v>
+        <v>-1.0488347811279</v>
       </c>
       <c r="AFM2" s="2">
-        <v>-2.22086906947295</v>
+        <v>-1.03932521185374</v>
       </c>
       <c r="AFN2" s="2">
-        <v>-2.23838064792481</v>
+        <v>-1.04353351589111</v>
       </c>
       <c r="AFO2" s="2">
-        <v>-2.23190911072998</v>
+        <v>-1.03630935655244</v>
       </c>
       <c r="AFP2" s="2">
-        <v>-2.23731245820851</v>
+        <v>-1.04343257941723</v>
       </c>
       <c r="AFQ2" s="2">
-        <v>-2.21108597260073</v>
+        <v>-1.0352950457812</v>
       </c>
       <c r="AFR2" s="2">
-        <v>-2.20894704071522</v>
+        <v>-1.03570721208569</v>
       </c>
       <c r="AFS2" s="2">
-        <v>-2.18807868805748</v>
+        <v>-1.03145723228592</v>
       </c>
       <c r="AFT2" s="2">
-        <v>-2.19827055669427</v>
+        <v>-1.02160514992538</v>
       </c>
       <c r="AFU2" s="2">
-        <v>-2.18439163843095</v>
+        <v>-1.00653857576489</v>
       </c>
       <c r="AFV2" s="2">
-        <v>-2.1781655137194</v>
+        <v>-1.01414985804058</v>
       </c>
       <c r="AFW2" s="2">
-        <v>-2.20800081857832</v>
+        <v>-1.0159517404665</v>
       </c>
       <c r="AFX2" s="2">
-        <v>-2.16603077493494</v>
+        <v>-1.00344997885722</v>
       </c>
       <c r="AFY2" s="2">
-        <v>-2.15537211568005</v>
+        <v>-1.0095227573113</v>
       </c>
       <c r="AFZ2" s="2">
-        <v>-2.15867016857111</v>
+        <v>-1.00860851270821</v>
       </c>
       <c r="AGA2" s="2">
-        <v>-2.19042458346264</v>
+        <v>-1.01199479866734</v>
       </c>
       <c r="AGB2" s="2">
-        <v>-2.15170492677974</v>
+        <v>-0.9905549538141321</v>
       </c>
       <c r="AGC2" s="2">
-        <v>-2.1461063407264</v>
+        <v>-1.0026063845949</v>
       </c>
       <c r="AGD2" s="2">
-        <v>-2.14386805753778</v>
+        <v>-0.998526807207334</v>
       </c>
       <c r="AGE2" s="2">
-        <v>-2.1328018935005</v>
+        <v>-1.00199490563874</v>
       </c>
       <c r="AGF2" s="2">
-        <v>-2.1336147490899</v>
+        <v>-0.991645977004267</v>
       </c>
       <c r="AGG2" s="2">
-        <v>-2.1269210992222</v>
+        <v>-1.00654974669221</v>
       </c>
       <c r="AGH2" s="2">
-        <v>-2.12655156966322</v>
+        <v>-1.00015895233484</v>
       </c>
       <c r="AGI2" s="2">
-        <v>-2.13650268343933</v>
+        <v>-0.9911656047926291</v>
       </c>
       <c r="AGJ2" s="2">
-        <v>-2.12676608619716</v>
+        <v>-1.00076545939255</v>
       </c>
       <c r="AGK2" s="2">
-        <v>-2.11911526927129</v>
+        <v>-1.00496344038669</v>
       </c>
       <c r="AGL2" s="2">
-        <v>-2.09460157800261</v>
+        <v>-1.01454301832674</v>
       </c>
       <c r="AGM2" s="2">
-        <v>-2.12692923353831</v>
+        <v>-1.0114849645216</v>
       </c>
       <c r="AGN2" s="2">
-        <v>-2.10066359067368</v>
+        <v>-1.00436055543313</v>
       </c>
       <c r="AGO2" s="2">
-        <v>-2.08657561263164</v>
+        <v>-1.01770314490339</v>
       </c>
       <c r="AGP2" s="2">
-        <v>-2.08254847669496</v>
+        <v>-1.00919409756608</v>
       </c>
       <c r="AGQ2" s="2">
-        <v>-2.07356519468977</v>
+        <v>-1.02173868707014</v>
       </c>
       <c r="AGR2" s="2">
-        <v>-2.09543633904957</v>
+        <v>-1.00366462520902</v>
       </c>
       <c r="AGS2" s="2">
-        <v>-2.08134676775382</v>
+        <v>-1.0152053521853</v>
       </c>
       <c r="AGT2" s="2">
-        <v>-2.07840399590095</v>
+        <v>-1.03334482523351</v>
       </c>
       <c r="AGU2" s="2">
-        <v>-2.09039643446474</v>
+        <v>-1.04005911047699</v>
       </c>
       <c r="AGV2" s="2">
-        <v>-2.07268962716672</v>
+        <v>-1.02860491690831</v>
       </c>
       <c r="AGW2" s="2">
-        <v>-2.1049288516018</v>
+        <v>-1.0497201604671</v>
       </c>
       <c r="AGX2" s="2">
-        <v>-2.064011419826</v>
+        <v>-1.05195603382686</v>
       </c>
       <c r="AGY2" s="2">
-        <v>-2.08075607483521</v>
+        <v>-1.057131399239</v>
       </c>
       <c r="AGZ2" s="2">
-        <v>-2.07478724325345</v>
+        <v>-1.07673919478739</v>
       </c>
       <c r="AHA2" s="2">
-        <v>-2.05846059093607</v>
+        <v>-1.07301003425725</v>
       </c>
       <c r="AHB2" s="2">
-        <v>-2.08806856101719</v>
+        <v>-1.08261220116832</v>
       </c>
       <c r="AHC2" s="2">
-        <v>-2.0551856479534</v>
+        <v>-1.09463800187646</v>
       </c>
       <c r="AHD2" s="2">
-        <v>-2.07539206541494</v>
+        <v>-1.10258721121938</v>
       </c>
       <c r="AHE2" s="2">
-        <v>-2.09019770311855</v>
+        <v>-1.10826091950414</v>
       </c>
       <c r="AHF2" s="2">
-        <v>-2.06828832531454</v>
+        <v>-1.1178752984881</v>
       </c>
       <c r="AHG2" s="2">
-        <v>-2.05438248372919</v>
+        <v>-1.12066865323406</v>
       </c>
       <c r="AHH2" s="2">
-        <v>-2.08769466620348</v>
+        <v>-1.13423518896967</v>
       </c>
       <c r="AHI2" s="2">
-        <v>-2.10713605819827</v>
+        <v>-1.12793730899781</v>
       </c>
       <c r="AHJ2" s="2">
-        <v>-2.07454815197751</v>
+        <v>-1.14393978504096</v>
       </c>
       <c r="AHK2" s="2">
-        <v>-2.09308568139278</v>
+        <v>-1.1496551582042</v>
       </c>
       <c r="AHL2" s="2">
-        <v>-2.07774868138617</v>
+        <v>-1.15894396190539</v>
       </c>
       <c r="AHM2" s="2">
-        <v>-2.07732981985368</v>
+        <v>-1.17125290151768</v>
       </c>
       <c r="AHN2" s="2">
-        <v>-2.06974516643484</v>
+        <v>-1.18522859495061</v>
       </c>
       <c r="AHO2" s="2">
-        <v>-2.083328029577</v>
+        <v>-1.19667843319794</v>
       </c>
       <c r="AHP2" s="2">
-        <v>-2.09388588290424</v>
+        <v>-1.2043053023838</v>
       </c>
       <c r="AHQ2" s="2">
-        <v>-2.09351257747808</v>
+        <v>-1.20690567699199</v>
       </c>
       <c r="AHR2" s="2">
-        <v>-2.09115351620739</v>
+        <v>-1.25047485611062</v>
       </c>
       <c r="AHS2" s="2">
-        <v>-2.09623369660496</v>
+        <v>-1.24978777819817</v>
       </c>
       <c r="AHT2" s="2">
-        <v>-2.10887292634336</v>
+        <v>-1.25059721522642</v>
       </c>
       <c r="AHU2" s="2">
-        <v>-2.09727807719934</v>
+        <v>-1.26735560463989</v>
       </c>
       <c r="AHV2" s="2">
-        <v>-2.12689497093104</v>
+        <v>-1.25322506876167</v>
       </c>
       <c r="AHW2" s="2">
-        <v>-2.1089792877739</v>
+        <v>-1.27969026261311</v>
       </c>
       <c r="AHX2" s="2">
-        <v>-2.09878474999684</v>
+        <v>-1.28602179560859</v>
       </c>
       <c r="AHY2" s="2">
-        <v>-2.11618891338203</v>
+        <v>-1.29211439175064</v>
       </c>
       <c r="AHZ2" s="2">
-        <v>-2.11861313830286</v>
+        <v>-1.29508791991656</v>
       </c>
       <c r="AIA2" s="2">
-        <v>-2.13071971447612</v>
+        <v>-1.31321507626982</v>
       </c>
       <c r="AIB2" s="2">
-        <v>-2.13829747024662</v>
+        <v>-1.31524635378462</v>
       </c>
       <c r="AIC2" s="2">
-        <v>-2.14682271965856</v>
+        <v>-1.3323374737574</v>
       </c>
       <c r="AID2" s="2">
-        <v>-2.12971593144489</v>
+        <v>-1.33169802639066</v>
       </c>
       <c r="AIE2" s="2">
-        <v>-2.14450774811732</v>
+        <v>-1.34646057961079</v>
       </c>
       <c r="AIF2" s="2">
-        <v>-2.1672441715915</v>
+        <v>-1.33351978153748</v>
       </c>
       <c r="AIG2" s="2">
-        <v>-2.16208616967142</v>
+        <v>-1.34736279826483</v>
       </c>
       <c r="AIH2" s="2">
-        <v>-2.16676825057762</v>
+        <v>-1.35882474394308</v>
       </c>
       <c r="AII2" s="2">
-        <v>-2.15980185492638</v>
+        <v>-1.35369899083271</v>
       </c>
       <c r="AIJ2" s="2">
-        <v>-2.18415148360192</v>
+        <v>-1.37583759352384</v>
       </c>
       <c r="AIK2" s="2">
-        <v>-2.17488826956375</v>
+        <v>-1.38253106888217</v>
       </c>
       <c r="AIL2" s="2">
-        <v>-2.17627993074871</v>
+        <v>-1.3764113253187</v>
       </c>
       <c r="AIM2" s="2">
-        <v>-2.18144015641098</v>
+        <v>-1.38103452114048</v>
       </c>
       <c r="AIN2" s="2">
-        <v>-2.19681894990088</v>
+        <v>-1.37960161315427</v>
       </c>
       <c r="AIO2" s="2">
-        <v>-2.1916293932957</v>
+        <v>-1.39232694642401</v>
       </c>
       <c r="AIP2" s="2">
-        <v>-2.20040361679048</v>
+        <v>-1.38191561765517</v>
       </c>
       <c r="AIQ2" s="2">
-        <v>-2.20711898623147</v>
+        <v>-1.38794047817001</v>
       </c>
       <c r="AIR2" s="2">
-        <v>-2.19019524728917</v>
+        <v>-1.39236784479829</v>
       </c>
       <c r="AIS2" s="2">
-        <v>-2.22297809073075</v>
+        <v>-1.40761124136127</v>
       </c>
       <c r="AIT2" s="2">
-        <v>-2.2494129944165</v>
+        <v>-1.39740866537483</v>
       </c>
       <c r="AIU2" s="2">
-        <v>-2.2266278345935</v>
+        <v>-1.3891796499024</v>
       </c>
       <c r="AIV2" s="2">
-        <v>-2.26993899582543</v>
+        <v>-1.38537317763432</v>
       </c>
       <c r="AIW2" s="2">
-        <v>-2.2449017354723</v>
+        <v>-1.3894790083984</v>
       </c>
       <c r="AIX2" s="2">
-        <v>-2.26333798509304</v>
+        <v>-1.39755914242144</v>
       </c>
       <c r="AIY2" s="2">
-        <v>-2.25537409510693</v>
+        <v>-1.39187505159516</v>
       </c>
       <c r="AIZ2" s="2">
-        <v>-2.28661806999115</v>
+        <v>-1.39374456137532</v>
       </c>
       <c r="AJA2" s="2">
-        <v>-2.25844444687747</v>
+        <v>-1.36941553054881</v>
       </c>
       <c r="AJB2" s="2">
-        <v>-2.2763225793022</v>
+        <v>-1.38481254029122</v>
       </c>
       <c r="AJC2" s="2">
-        <v>-2.27938879781406</v>
+        <v>-1.38023814958712</v>
       </c>
       <c r="AJD2" s="2">
-        <v>-2.26749930868532</v>
+        <v>-1.37629345710595</v>
       </c>
       <c r="AJE2" s="2">
-        <v>-2.29990100205229</v>
+        <v>-1.35759606782817</v>
       </c>
       <c r="AJF2" s="2">
-        <v>-2.27393622929319</v>
+        <v>-1.35010849134456</v>
       </c>
       <c r="AJG2" s="2">
-        <v>-2.29952371802184</v>
+        <v>-1.35149156961961</v>
       </c>
       <c r="AJH2" s="2">
-        <v>-2.3127426349559</v>
+        <v>-1.35924097751318</v>
       </c>
       <c r="AJI2" s="2">
-        <v>-2.31220751411867</v>
+        <v>-1.3552092194911</v>
       </c>
       <c r="AJJ2" s="2">
-        <v>-2.30337536140262</v>
+        <v>-1.34298958427548</v>
       </c>
       <c r="AJK2" s="2">
-        <v>-2.31893129055586</v>
+        <v>-1.33244685591241</v>
       </c>
       <c r="AJL2" s="2">
-        <v>-2.30561594806316</v>
+        <v>-1.32148470649028</v>
       </c>
       <c r="AJM2" s="2">
-        <v>-2.32019103954569</v>
+        <v>-1.31160534779028</v>
       </c>
       <c r="AJN2" s="2">
-        <v>-2.32548637389994</v>
+        <v>-1.30528679561335</v>
       </c>
       <c r="AJO2" s="2">
-        <v>-2.30171151182937</v>
+        <v>-1.30663867148745</v>
       </c>
       <c r="AJP2" s="2">
-        <v>-2.32777910895064</v>
+        <v>-1.29039193682294</v>
       </c>
       <c r="AJQ2" s="2">
-        <v>-2.32067083664071</v>
+        <v>-1.28344521075629</v>
       </c>
       <c r="AJR2" s="2">
-        <v>-2.32597745811471</v>
+        <v>-1.27940714573113</v>
       </c>
       <c r="AJS2" s="2">
-        <v>-2.32143018324077</v>
+        <v>-1.28996820762411</v>
       </c>
       <c r="AJT2" s="2">
-        <v>-2.32185911449373</v>
+        <v>-1.27310459817744</v>
       </c>
       <c r="AJU2" s="2">
-        <v>-2.31132445426294</v>
+        <v>-1.27647254454974</v>
       </c>
       <c r="AJV2" s="2">
-        <v>-2.33590607627474</v>
+        <v>-1.2516111028567</v>
       </c>
       <c r="AJW2" s="2">
-        <v>-2.32590319562059</v>
+        <v>-1.26060971769568</v>
       </c>
       <c r="AJX2" s="2">
-        <v>-2.31675588604169</v>
+        <v>-1.23836154224007</v>
       </c>
       <c r="AJY2" s="2">
-        <v>-2.34113295683895</v>
+        <v>-1.2479951422613</v>
       </c>
       <c r="AJZ2" s="2">
-        <v>-2.31674190288653</v>
+        <v>-1.22791128498812</v>
       </c>
       <c r="AKA2" s="2">
-        <v>-2.35896843199512</v>
+        <v>-1.24070818784252</v>
       </c>
       <c r="AKB2" s="2">
-        <v>-2.32479985298902</v>
+        <v>-1.22320228606415</v>
       </c>
       <c r="AKC2" s="2">
-        <v>-2.33408149064376</v>
+        <v>-1.22191382951932</v>
       </c>
       <c r="AKD2" s="2">
-        <v>-2.34023127212855</v>
+        <v>-1.20768323501981</v>
       </c>
       <c r="AKE2" s="2">
-        <v>-2.33208294371364</v>
+        <v>-1.2050596610574</v>
       </c>
       <c r="AKF2" s="2">
-        <v>-2.31371709689031</v>
+        <v>-1.18958918562762</v>
       </c>
       <c r="AKG2" s="2">
-        <v>-2.31887177183883</v>
+        <v>-1.2065994995713</v>
       </c>
       <c r="AKH2" s="2">
-        <v>-2.3128578345224</v>
+        <v>-1.202990180047</v>
       </c>
       <c r="AKI2" s="2">
-        <v>-2.31234246788867</v>
+        <v>-1.18934170344387</v>
       </c>
       <c r="AKJ2" s="2">
-        <v>-2.30887209582635</v>
+        <v>-1.19547329328225</v>
       </c>
       <c r="AKK2" s="2">
-        <v>-2.31782540386119</v>
+        <v>-1.1814278204794</v>
       </c>
       <c r="AKL2" s="2">
-        <v>-2.31583045986065</v>
+        <v>-1.18868990951308</v>
       </c>
       <c r="AKM2" s="2">
-        <v>-2.32364364447786</v>
+        <v>-1.17770306465494</v>
       </c>
       <c r="AKN2" s="2">
-        <v>-2.29688254247239</v>
+        <v>-1.18603886181037</v>
       </c>
       <c r="AKO2" s="2">
-        <v>-2.28750504611488</v>
+        <v>-1.19154307948054</v>
       </c>
       <c r="AKP2" s="2">
-        <v>-2.25975194987226</v>
+        <v>-1.17767401862211</v>
       </c>
       <c r="AKQ2" s="2">
-        <v>-2.28856732877566</v>
+        <v>-1.18281392348322</v>
       </c>
       <c r="AKR2" s="2">
-        <v>-2.28682505913512</v>
+        <v>-1.17592134217016</v>
       </c>
       <c r="AKS2" s="2">
-        <v>-2.28170296630263</v>
+        <v>-1.18057110058436</v>
       </c>
       <c r="AKT2" s="2">
-        <v>-2.28518700957076</v>
+        <v>-1.18815604697061</v>
       </c>
       <c r="AKU2" s="2">
-        <v>-2.2548318803147</v>
+        <v>-1.17885724431765</v>
       </c>
       <c r="AKV2" s="2">
-        <v>-2.25342209440869</v>
+        <v>-1.17864460832197</v>
       </c>
       <c r="AKW2" s="2">
-        <v>-2.24476941969338</v>
+        <v>-1.18194979119406</v>
       </c>
       <c r="AKX2" s="2">
-        <v>-2.25019704150896</v>
+        <v>-1.17728257996348</v>
       </c>
       <c r="AKY2" s="2">
-        <v>-2.23884153968526</v>
+        <v>-1.19927863589245</v>
       </c>
       <c r="AKZ2" s="2">
-        <v>-2.24134255356109</v>
+        <v>-1.20800429485678</v>
       </c>
       <c r="ALA2" s="2">
-        <v>-2.23080210265188</v>
+        <v>-1.19585020628086</v>
       </c>
       <c r="ALB2" s="2">
-        <v>-2.22091205668091</v>
+        <v>-1.20414218416044</v>
       </c>
       <c r="ALC2" s="2">
-        <v>-2.22239349209664</v>
+        <v>-1.22129179996468</v>
       </c>
       <c r="ALD2" s="2">
-        <v>-2.21408587059206</v>
+        <v>-1.22865303422108</v>
       </c>
       <c r="ALE2" s="2">
-        <v>-2.23155337131998</v>
+        <v>-1.23803047887724</v>
       </c>
       <c r="ALF2" s="2">
-        <v>-2.20775877581524</v>
+        <v>-1.25371745393842</v>
       </c>
       <c r="ALG2" s="2">
-        <v>-2.20349639769697</v>
+        <v>-1.25082812041758</v>
       </c>
       <c r="ALH2" s="2">
-        <v>-2.21049124743999</v>
+        <v>-1.27454481306515</v>
       </c>
       <c r="ALI2" s="2">
-        <v>-2.18979819465527</v>
+        <v>-1.28725666055776</v>
       </c>
       <c r="ALJ2" s="2">
-        <v>-2.18914829459029</v>
+        <v>-1.29247661976857</v>
       </c>
       <c r="ALK2" s="2">
-        <v>-2.19285599810149</v>
+        <v>-1.29152322222514</v>
       </c>
       <c r="ALL2" s="2">
-        <v>-2.16409348753499</v>
+        <v>-1.30788873074423</v>
       </c>
       <c r="ALM2" s="2">
-        <v>-2.17998058040402</v>
+        <v>-1.32919478054878</v>
       </c>
     </row>
   </sheetData>

--- a/python/Pi1.xlsx
+++ b/python/Pi1.xlsx
@@ -3367,3007 +3367,3007 @@
     </row>
     <row r="2" spans="1:1001">
       <c r="A2" s="2">
-        <v>0.141728814591557</v>
+        <v>-16.381069818558</v>
       </c>
       <c r="B2" s="2">
-        <v>0.0160683290005421</v>
+        <v>-4.59608636870492</v>
       </c>
       <c r="C2" s="2">
-        <v>0.0116561174622427</v>
+        <v>-2.57244949097709</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0170167020441656</v>
+        <v>-2.78043849985307</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0077108111803891</v>
+        <v>6.85504575547423</v>
       </c>
       <c r="F2" s="2">
-        <v>0.0134994534177761</v>
+        <v>0.388468323253279</v>
       </c>
       <c r="G2" s="2">
-        <v>0.0221778212638237</v>
+        <v>7.74177106823504</v>
       </c>
       <c r="H2" s="2">
-        <v>0.00689228415003244</v>
+        <v>-3.05734561193878</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.0230887623814887</v>
+        <v>-4.96120194605937</v>
       </c>
       <c r="J2" s="2">
-        <v>-0.00200572670404867</v>
+        <v>-6.67035347349027</v>
       </c>
       <c r="K2" s="2">
-        <v>0.00109115487456376</v>
+        <v>-11.3055715534159</v>
       </c>
       <c r="L2" s="2">
-        <v>0.0213156666384206</v>
+        <v>5.71172789417847</v>
       </c>
       <c r="M2" s="2">
-        <v>0.0155952167876424</v>
+        <v>-8.12147072953668</v>
       </c>
       <c r="N2" s="2">
-        <v>0.00170935527574397</v>
+        <v>-12.6986904229145</v>
       </c>
       <c r="O2" s="2">
-        <v>-0.00555649407842424</v>
+        <v>-6.67292713815164</v>
       </c>
       <c r="P2" s="2">
-        <v>0.008031928016898201</v>
+        <v>-1.41860314249289</v>
       </c>
       <c r="Q2" s="2">
-        <v>-0.0161147533942256</v>
+        <v>0.79089989359118</v>
       </c>
       <c r="R2" s="2">
-        <v>-0.00131752289812532</v>
+        <v>-4.5288664500609</v>
       </c>
       <c r="S2" s="2">
-        <v>-0.0057789379136223</v>
+        <v>0.614421433167146</v>
       </c>
       <c r="T2" s="2">
-        <v>-0.0319706905130096</v>
+        <v>-7.19492600513717</v>
       </c>
       <c r="U2" s="2">
-        <v>-0.0179223179252377</v>
+        <v>10.7314885655817</v>
       </c>
       <c r="V2" s="2">
-        <v>-0.0210412151024487</v>
+        <v>-1.74504426857827</v>
       </c>
       <c r="W2" s="2">
-        <v>-0.0356857961217959</v>
+        <v>-8.741778707834341</v>
       </c>
       <c r="X2" s="2">
-        <v>-0.0209998145327669</v>
+        <v>-21.6895654470027</v>
       </c>
       <c r="Y2" s="2">
-        <v>-0.0347879212459522</v>
+        <v>3.92697373880082</v>
       </c>
       <c r="Z2" s="2">
-        <v>-0.0387832108391032</v>
+        <v>-6.0661952058634</v>
       </c>
       <c r="AA2" s="2">
-        <v>-0.052229642373483</v>
+        <v>2.86374909744652</v>
       </c>
       <c r="AB2" s="2">
-        <v>-0.0439406863585446</v>
+        <v>-4.39082562742954</v>
       </c>
       <c r="AC2" s="2">
-        <v>-0.0539283547688233</v>
+        <v>-7.59010980606812</v>
       </c>
       <c r="AD2" s="2">
-        <v>-0.0627913181400156</v>
+        <v>-5.75706330429557</v>
       </c>
       <c r="AE2" s="2">
-        <v>-0.0729262173773898</v>
+        <v>3.60729898326693</v>
       </c>
       <c r="AF2" s="2">
-        <v>-0.0874896685202675</v>
+        <v>-1.15884729265723</v>
       </c>
       <c r="AG2" s="2">
-        <v>-0.0664474045917945</v>
+        <v>-16.5825329311688</v>
       </c>
       <c r="AH2" s="2">
-        <v>-0.101607852817772</v>
+        <v>-5.6700339358346</v>
       </c>
       <c r="AI2" s="2">
-        <v>-0.103275337201832</v>
+        <v>1.92492132351092</v>
       </c>
       <c r="AJ2" s="2">
-        <v>-0.111513790060102</v>
+        <v>-2.96862449120409</v>
       </c>
       <c r="AK2" s="2">
-        <v>-0.115963045724901</v>
+        <v>2.55634851569449</v>
       </c>
       <c r="AL2" s="2">
-        <v>-0.122952073625088</v>
+        <v>-0.831757915590195</v>
       </c>
       <c r="AM2" s="2">
-        <v>-0.133519427779704</v>
+        <v>-10.3559123745071</v>
       </c>
       <c r="AN2" s="2">
-        <v>-0.133171398903177</v>
+        <v>0.754756623712759</v>
       </c>
       <c r="AO2" s="2">
-        <v>-0.145274461477917</v>
+        <v>12.962248948031</v>
       </c>
       <c r="AP2" s="2">
-        <v>-0.14921712204015</v>
+        <v>-17.2736430965304</v>
       </c>
       <c r="AQ2" s="2">
-        <v>-0.160282323361201</v>
+        <v>1.08328933571982</v>
       </c>
       <c r="AR2" s="2">
-        <v>-0.164524565389188</v>
+        <v>9.07524130820115</v>
       </c>
       <c r="AS2" s="2">
-        <v>-0.179659048183215</v>
+        <v>-4.00659378632294</v>
       </c>
       <c r="AT2" s="2">
-        <v>-0.188621617891541</v>
+        <v>-13.7090555675208</v>
       </c>
       <c r="AU2" s="2">
-        <v>-0.186756324124676</v>
+        <v>-5.73250820245899</v>
       </c>
       <c r="AV2" s="2">
-        <v>-0.206713955140478</v>
+        <v>-2.69681548593346</v>
       </c>
       <c r="AW2" s="2">
-        <v>-0.196847576429227</v>
+        <v>-4.36131482097937</v>
       </c>
       <c r="AX2" s="2">
-        <v>-0.214170524510462</v>
+        <v>-12.3544381034819</v>
       </c>
       <c r="AY2" s="2">
-        <v>-0.225358957803083</v>
+        <v>-0.341065539954201</v>
       </c>
       <c r="AZ2" s="2">
-        <v>-0.227314803127286</v>
+        <v>-5.88979201634021</v>
       </c>
       <c r="BA2" s="2">
-        <v>-0.229108871210465</v>
+        <v>-7.80629981103519</v>
       </c>
       <c r="BB2" s="2">
-        <v>-0.223426665883468</v>
+        <v>8.449114112419389</v>
       </c>
       <c r="BC2" s="2">
-        <v>-0.238001721483826</v>
+        <v>-4.82042165820116</v>
       </c>
       <c r="BD2" s="2">
-        <v>-0.237837768632844</v>
+        <v>-4.50071735196854</v>
       </c>
       <c r="BE2" s="2">
-        <v>-0.251813561095256</v>
+        <v>-0.797900568516026</v>
       </c>
       <c r="BF2" s="2">
-        <v>-0.252029443733332</v>
+        <v>-5.77350410848864</v>
       </c>
       <c r="BG2" s="2">
-        <v>-0.254225181139848</v>
+        <v>-2.84151230515258</v>
       </c>
       <c r="BH2" s="2">
-        <v>-0.269172967361044</v>
+        <v>-13.3722416241108</v>
       </c>
       <c r="BI2" s="2">
-        <v>-0.254619932003283</v>
+        <v>-6.254809955589</v>
       </c>
       <c r="BJ2" s="2">
-        <v>-0.267630554461468</v>
+        <v>24.5312804079707</v>
       </c>
       <c r="BK2" s="2">
-        <v>-0.278283917556887</v>
+        <v>-4.69517514770525</v>
       </c>
       <c r="BL2" s="2">
-        <v>-0.266390845682922</v>
+        <v>0.581788886278141</v>
       </c>
       <c r="BM2" s="2">
-        <v>-0.286598164646878</v>
+        <v>5.02357671053876</v>
       </c>
       <c r="BN2" s="2">
-        <v>-0.280725135002552</v>
+        <v>-0.97276834688353</v>
       </c>
       <c r="BO2" s="2">
-        <v>-0.277702780193588</v>
+        <v>5.05497969149197</v>
       </c>
       <c r="BP2" s="2">
-        <v>-0.27317886141596</v>
+        <v>-22.5311657440554</v>
       </c>
       <c r="BQ2" s="2">
-        <v>-0.285093268069237</v>
+        <v>-8.557675014282481</v>
       </c>
       <c r="BR2" s="2">
-        <v>-0.291718879996978</v>
+        <v>-3.51872423418914</v>
       </c>
       <c r="BS2" s="2">
-        <v>-0.282643026917096</v>
+        <v>-5.1392905456083</v>
       </c>
       <c r="BT2" s="2">
-        <v>-0.288909060106947</v>
+        <v>10.8949826636845</v>
       </c>
       <c r="BU2" s="2">
-        <v>-0.302097863572616</v>
+        <v>-13.5899251719406</v>
       </c>
       <c r="BV2" s="2">
-        <v>-0.303983715127424</v>
+        <v>4.75284893554845</v>
       </c>
       <c r="BW2" s="2">
-        <v>-0.303560017892105</v>
+        <v>-4.12945387724116</v>
       </c>
       <c r="BX2" s="2">
-        <v>-0.300550217860597</v>
+        <v>-11.1192221718996</v>
       </c>
       <c r="BY2" s="2">
-        <v>-0.293891112291946</v>
+        <v>-4.89577654390519</v>
       </c>
       <c r="BZ2" s="2">
-        <v>-0.280752597164727</v>
+        <v>-7.26048743587302</v>
       </c>
       <c r="CA2" s="2">
-        <v>-0.283009422486546</v>
+        <v>-2.64638561356346</v>
       </c>
       <c r="CB2" s="2">
-        <v>-0.287989817431254</v>
+        <v>-2.90426646903917</v>
       </c>
       <c r="CC2" s="2">
-        <v>-0.282618060808265</v>
+        <v>4.36902647028184</v>
       </c>
       <c r="CD2" s="2">
-        <v>-0.282635819768075</v>
+        <v>-3.70199142729618</v>
       </c>
       <c r="CE2" s="2">
-        <v>-0.288345248549367</v>
+        <v>-5.19077635516556</v>
       </c>
       <c r="CF2" s="2">
-        <v>-0.282126310914928</v>
+        <v>-1.07005917472975</v>
       </c>
       <c r="CG2" s="2">
-        <v>-0.275387424714506</v>
+        <v>-14.3032375738591</v>
       </c>
       <c r="CH2" s="2">
-        <v>-0.273552187275724</v>
+        <v>-2.01844605457211</v>
       </c>
       <c r="CI2" s="2">
-        <v>-0.291389447919893</v>
+        <v>14.7013086839923</v>
       </c>
       <c r="CJ2" s="2">
-        <v>-0.271545372567279</v>
+        <v>1.93260330615777</v>
       </c>
       <c r="CK2" s="2">
-        <v>-0.270531683919966</v>
+        <v>-10.5093829643728</v>
       </c>
       <c r="CL2" s="2">
-        <v>-0.271476406618579</v>
+        <v>-1.55643498343312</v>
       </c>
       <c r="CM2" s="2">
-        <v>-0.278572849419308</v>
+        <v>-10.3867210603989</v>
       </c>
       <c r="CN2" s="2">
-        <v>-0.26891718342879</v>
+        <v>-0.558292327944974</v>
       </c>
       <c r="CO2" s="2">
-        <v>-0.269168195668631</v>
+        <v>-11.119724360949</v>
       </c>
       <c r="CP2" s="2">
-        <v>-0.24806820709147</v>
+        <v>-4.46100470041082</v>
       </c>
       <c r="CQ2" s="2">
-        <v>-0.261272619869908</v>
+        <v>5.46531822670968</v>
       </c>
       <c r="CR2" s="2">
-        <v>-0.231966091293082</v>
+        <v>-0.9130764755492859</v>
       </c>
       <c r="CS2" s="2">
-        <v>-0.258218171117684</v>
+        <v>7.38295227059072</v>
       </c>
       <c r="CT2" s="2">
-        <v>-0.230158950555502</v>
+        <v>-5.65900259697167</v>
       </c>
       <c r="CU2" s="2">
-        <v>-0.23766670310742</v>
+        <v>1.70433426144253</v>
       </c>
       <c r="CV2" s="2">
-        <v>-0.240644095696664</v>
+        <v>-5.18229382505592</v>
       </c>
       <c r="CW2" s="2">
-        <v>-0.225687154360715</v>
+        <v>0.81416501594641</v>
       </c>
       <c r="CX2" s="2">
-        <v>-0.244897744502101</v>
+        <v>-13.1442197964377</v>
       </c>
       <c r="CY2" s="2">
-        <v>-0.225291250980939</v>
+        <v>11.8310470961852</v>
       </c>
       <c r="CZ2" s="2">
-        <v>-0.211852634432448</v>
+        <v>0.996670629812091</v>
       </c>
       <c r="DA2" s="2">
-        <v>-0.225308660694094</v>
+        <v>-1.644723891653</v>
       </c>
       <c r="DB2" s="2">
-        <v>-0.225263303213833</v>
+        <v>-8.85816761651725</v>
       </c>
       <c r="DC2" s="2">
-        <v>-0.203838869412209</v>
+        <v>0.370748788690958</v>
       </c>
       <c r="DD2" s="2">
-        <v>-0.216553014909694</v>
+        <v>-4.85159344091995</v>
       </c>
       <c r="DE2" s="2">
-        <v>-0.203935454180212</v>
+        <v>-4.90081924444463</v>
       </c>
       <c r="DF2" s="2">
-        <v>-0.215050881062101</v>
+        <v>-14.865346300293</v>
       </c>
       <c r="DG2" s="2">
-        <v>-0.211945631527306</v>
+        <v>10.5917116704964</v>
       </c>
       <c r="DH2" s="2">
-        <v>-0.211742280905564</v>
+        <v>-2.18043563743654</v>
       </c>
       <c r="DI2" s="2">
-        <v>-0.196182508363094</v>
+        <v>2.87893399689543</v>
       </c>
       <c r="DJ2" s="2">
-        <v>-0.214319754427408</v>
+        <v>-7.34460176432412</v>
       </c>
       <c r="DK2" s="2">
-        <v>-0.217036648143596</v>
+        <v>-8.963610676550401</v>
       </c>
       <c r="DL2" s="2">
-        <v>-0.216097996150956</v>
+        <v>-0.258775944135208</v>
       </c>
       <c r="DM2" s="2">
-        <v>-0.214094703373403</v>
+        <v>-6.72052120270885</v>
       </c>
       <c r="DN2" s="2">
-        <v>-0.218763047814332</v>
+        <v>5.69700410827599</v>
       </c>
       <c r="DO2" s="2">
-        <v>-0.219434704960105</v>
+        <v>-40.1879874306948</v>
       </c>
       <c r="DP2" s="2">
-        <v>-0.214312778150913</v>
+        <v>-6.37986911172262</v>
       </c>
       <c r="DQ2" s="2">
-        <v>-0.203868371629639</v>
+        <v>-21.4597579116166</v>
       </c>
       <c r="DR2" s="2">
-        <v>-0.206766085768268</v>
+        <v>-4.08043360571532</v>
       </c>
       <c r="DS2" s="2">
-        <v>-0.207991997815393</v>
+        <v>3.09495333118766</v>
       </c>
       <c r="DT2" s="2">
-        <v>-0.213833184438599</v>
+        <v>-10.7992640377788</v>
       </c>
       <c r="DU2" s="2">
-        <v>-0.215833860292085</v>
+        <v>-15.99155017384</v>
       </c>
       <c r="DV2" s="2">
-        <v>-0.216728710313212</v>
+        <v>0.380064598870542</v>
       </c>
       <c r="DW2" s="2">
-        <v>-0.219817738708155</v>
+        <v>-12.8515047431303</v>
       </c>
       <c r="DX2" s="2">
-        <v>-0.220034710677377</v>
+        <v>-18.6090773246294</v>
       </c>
       <c r="DY2" s="2">
-        <v>-0.237954935191959</v>
+        <v>4.80724349807374</v>
       </c>
       <c r="DZ2" s="2">
-        <v>-0.233294030320261</v>
+        <v>2.73404045240769</v>
       </c>
       <c r="EA2" s="2">
-        <v>-0.251545478358807</v>
+        <v>-8.685049575685101</v>
       </c>
       <c r="EB2" s="2">
-        <v>-0.238592244891972</v>
+        <v>-1.46569200058166</v>
       </c>
       <c r="EC2" s="2">
-        <v>-0.249347625085294</v>
+        <v>-1.74782220556037</v>
       </c>
       <c r="ED2" s="2">
-        <v>-0.24561341139397</v>
+        <v>-4.4955011268685</v>
       </c>
       <c r="EE2" s="2">
-        <v>-0.254116539099463</v>
+        <v>-0.0451345865176179</v>
       </c>
       <c r="EF2" s="2">
-        <v>-0.262624406597442</v>
+        <v>-20.4811489853577</v>
       </c>
       <c r="EG2" s="2">
-        <v>-0.263828558234206</v>
+        <v>-1.40068241583995</v>
       </c>
       <c r="EH2" s="2">
-        <v>-0.278930181588108</v>
+        <v>-4.44330796704314</v>
       </c>
       <c r="EI2" s="2">
-        <v>-0.26765200903507</v>
+        <v>-3.74725835713675</v>
       </c>
       <c r="EJ2" s="2">
-        <v>-0.281477007722581</v>
+        <v>-0.40873613920293</v>
       </c>
       <c r="EK2" s="2">
-        <v>-0.288454201201604</v>
+        <v>13.0938400942474</v>
       </c>
       <c r="EL2" s="2">
-        <v>-0.301560481675796</v>
+        <v>-18.0224898762415</v>
       </c>
       <c r="EM2" s="2">
-        <v>-0.299577546712782</v>
+        <v>-9.03135640942955</v>
       </c>
       <c r="EN2" s="2">
-        <v>-0.301759678865701</v>
+        <v>-7.0190686976261</v>
       </c>
       <c r="EO2" s="2">
-        <v>-0.300794167816189</v>
+        <v>-0.669174835404476</v>
       </c>
       <c r="EP2" s="2">
-        <v>-0.318252464703673</v>
+        <v>0.379147102426819</v>
       </c>
       <c r="EQ2" s="2">
-        <v>-0.321722347946482</v>
+        <v>8.62905564767782</v>
       </c>
       <c r="ER2" s="2">
-        <v>-0.322083843403327</v>
+        <v>5.11053677414406</v>
       </c>
       <c r="ES2" s="2">
-        <v>-0.336635218110045</v>
+        <v>-22.651720622763</v>
       </c>
       <c r="ET2" s="2">
-        <v>-0.326201814593125</v>
+        <v>-7.28487167828289</v>
       </c>
       <c r="EU2" s="2">
-        <v>-0.343986974529405</v>
+        <v>-4.381732464252</v>
       </c>
       <c r="EV2" s="2">
-        <v>-0.351301548901702</v>
+        <v>0.27863695954563</v>
       </c>
       <c r="EW2" s="2">
-        <v>-0.365401221174298</v>
+        <v>2.50239362412325</v>
       </c>
       <c r="EX2" s="2">
-        <v>-0.371251855787674</v>
+        <v>-11.6640708192466</v>
       </c>
       <c r="EY2" s="2">
-        <v>-0.368091526124046</v>
+        <v>3.03840180556123</v>
       </c>
       <c r="EZ2" s="2">
-        <v>-0.374869800023571</v>
+        <v>-8.113080475820629</v>
       </c>
       <c r="FA2" s="2">
-        <v>-0.385536022980302</v>
+        <v>-26.8854765674616</v>
       </c>
       <c r="FB2" s="2">
-        <v>-0.384229283356109</v>
+        <v>-7.8365550730429</v>
       </c>
       <c r="FC2" s="2">
-        <v>-0.395458040261341</v>
+        <v>14.6404867020611</v>
       </c>
       <c r="FD2" s="2">
-        <v>-0.405509532730774</v>
+        <v>-9.544288763834359</v>
       </c>
       <c r="FE2" s="2">
-        <v>-0.41065236399587</v>
+        <v>0.274989672939212</v>
       </c>
       <c r="FF2" s="2">
-        <v>-0.413895632726352</v>
+        <v>-0.807687698795744</v>
       </c>
       <c r="FG2" s="2">
-        <v>-0.412681991762824</v>
+        <v>-2.55215221796557</v>
       </c>
       <c r="FH2" s="2">
-        <v>-0.422402630673576</v>
+        <v>-17.6163428636616</v>
       </c>
       <c r="FI2" s="2">
-        <v>-0.423880373947905</v>
+        <v>2.45692432862821</v>
       </c>
       <c r="FJ2" s="2">
-        <v>-0.434104022573572</v>
+        <v>-14.0260220694152</v>
       </c>
       <c r="FK2" s="2">
-        <v>-0.433193602502621</v>
+        <v>-0.331116656544015</v>
       </c>
       <c r="FL2" s="2">
-        <v>-0.431414387292204</v>
+        <v>-27.7085177632368</v>
       </c>
       <c r="FM2" s="2">
-        <v>-0.443675809035383</v>
+        <v>-23.6656068393697</v>
       </c>
       <c r="FN2" s="2">
-        <v>-0.448185534775255</v>
+        <v>-10.8856565277227</v>
       </c>
       <c r="FO2" s="2">
-        <v>-0.453006816055489</v>
+        <v>-21.2026751561155</v>
       </c>
       <c r="FP2" s="2">
-        <v>-0.450400994802786</v>
+        <v>-12.3139137270847</v>
       </c>
       <c r="FQ2" s="2">
-        <v>-0.441100786348386</v>
+        <v>-4.97369674178516</v>
       </c>
       <c r="FR2" s="2">
-        <v>-0.438696160998213</v>
+        <v>-22.5883672705141</v>
       </c>
       <c r="FS2" s="2">
-        <v>-0.463001291562934</v>
+        <v>-2.53955561064464</v>
       </c>
       <c r="FT2" s="2">
-        <v>-0.470929772970273</v>
+        <v>-3.08143577271774</v>
       </c>
       <c r="FU2" s="2">
-        <v>-0.462058261744517</v>
+        <v>2.80230726549141</v>
       </c>
       <c r="FV2" s="2">
-        <v>-0.46799387115594</v>
+        <v>4.36836225246019</v>
       </c>
       <c r="FW2" s="2">
-        <v>-0.462579668497295</v>
+        <v>-17.6720332191069</v>
       </c>
       <c r="FX2" s="2">
-        <v>-0.466603735842134</v>
+        <v>-5.76557528285828</v>
       </c>
       <c r="FY2" s="2">
-        <v>-0.462978244081341</v>
+        <v>-15.1524510263111</v>
       </c>
       <c r="FZ2" s="2">
-        <v>-0.470062373137731</v>
+        <v>-38.4581619589924</v>
       </c>
       <c r="GA2" s="2">
-        <v>-0.470361660877382</v>
+        <v>-9.04587552772465</v>
       </c>
       <c r="GB2" s="2">
-        <v>-0.454563378102336</v>
+        <v>-8.038343022671089</v>
       </c>
       <c r="GC2" s="2">
-        <v>-0.465994304837032</v>
+        <v>-0.788135131777478</v>
       </c>
       <c r="GD2" s="2">
-        <v>-0.458776781209399</v>
+        <v>-0.665671198110555</v>
       </c>
       <c r="GE2" s="2">
-        <v>-0.474941250047116</v>
+        <v>1.40802003972706</v>
       </c>
       <c r="GF2" s="2">
-        <v>-0.461496474324508</v>
+        <v>-2.07644554916551</v>
       </c>
       <c r="GG2" s="2">
-        <v>-0.450180332139688</v>
+        <v>-10.5595709569493</v>
       </c>
       <c r="GH2" s="2">
-        <v>-0.465990678545033</v>
+        <v>0.0798542871402373</v>
       </c>
       <c r="GI2" s="2">
-        <v>-0.448995322433359</v>
+        <v>-24.1262335297833</v>
       </c>
       <c r="GJ2" s="2">
-        <v>-0.449613495245574</v>
+        <v>-8.72765594409657</v>
       </c>
       <c r="GK2" s="2">
-        <v>-0.454696694203628</v>
+        <v>-9.51140780510946</v>
       </c>
       <c r="GL2" s="2">
-        <v>-0.45096769829801</v>
+        <v>-2.11147192048999</v>
       </c>
       <c r="GM2" s="2">
-        <v>-0.43804085323837</v>
+        <v>-14.9795539710333</v>
       </c>
       <c r="GN2" s="2">
-        <v>-0.440679186840296</v>
+        <v>-9.75902082186453</v>
       </c>
       <c r="GO2" s="2">
-        <v>-0.43882276705988</v>
+        <v>-7.76733795399982</v>
       </c>
       <c r="GP2" s="2">
-        <v>-0.427422575525893</v>
+        <v>-7.46288014668418</v>
       </c>
       <c r="GQ2" s="2">
-        <v>-0.429985548074766</v>
+        <v>-9.277400732483651</v>
       </c>
       <c r="GR2" s="2">
-        <v>-0.419368760482922</v>
+        <v>-39.9551096789073</v>
       </c>
       <c r="GS2" s="2">
-        <v>-0.431332915346021</v>
+        <v>-12.0050019738263</v>
       </c>
       <c r="GT2" s="2">
-        <v>-0.413748867927381</v>
+        <v>-10.4946609145815</v>
       </c>
       <c r="GU2" s="2">
-        <v>-0.419954017063531</v>
+        <v>-0.116653116845046</v>
       </c>
       <c r="GV2" s="2">
-        <v>-0.422007632312208</v>
+        <v>-4.58493433280207</v>
       </c>
       <c r="GW2" s="2">
-        <v>-0.4057131048844</v>
+        <v>0.173657766793567</v>
       </c>
       <c r="GX2" s="2">
-        <v>-0.40142226221737</v>
+        <v>-0.0574920732284628</v>
       </c>
       <c r="GY2" s="2">
-        <v>-0.395783285256262</v>
+        <v>16.4879282650883</v>
       </c>
       <c r="GZ2" s="2">
-        <v>-0.405383190117789</v>
+        <v>-9.5486619147912</v>
       </c>
       <c r="HA2" s="2">
-        <v>-0.410669694179187</v>
+        <v>-8.390406176498949</v>
       </c>
       <c r="HB2" s="2">
-        <v>-0.376754290398719</v>
+        <v>-2.31857802610489</v>
       </c>
       <c r="HC2" s="2">
-        <v>-0.384072333721798</v>
+        <v>-15.9676402004409</v>
       </c>
       <c r="HD2" s="2">
-        <v>-0.381856210299065</v>
+        <v>5.81707621675245</v>
       </c>
       <c r="HE2" s="2">
-        <v>-0.385229734655728</v>
+        <v>-1.18262181585529</v>
       </c>
       <c r="HF2" s="2">
-        <v>-0.389232034851714</v>
+        <v>5.14499743286453</v>
       </c>
       <c r="HG2" s="2">
-        <v>-0.380392266836218</v>
+        <v>6.77718294973029</v>
       </c>
       <c r="HH2" s="2">
-        <v>-0.368609131888402</v>
+        <v>-16.247608834965</v>
       </c>
       <c r="HI2" s="2">
-        <v>-0.371717395280342</v>
+        <v>-15.9218880637836</v>
       </c>
       <c r="HJ2" s="2">
-        <v>-0.378317012334429</v>
+        <v>-2.01365464420391</v>
       </c>
       <c r="HK2" s="2">
-        <v>-0.362573478036109</v>
+        <v>-1.32930471770123</v>
       </c>
       <c r="HL2" s="2">
-        <v>-0.371679664273132</v>
+        <v>0.663844722208305</v>
       </c>
       <c r="HM2" s="2">
-        <v>-0.364446916766346</v>
+        <v>-23.5645241420559</v>
       </c>
       <c r="HN2" s="2">
-        <v>-0.36159819257511</v>
+        <v>-12.8102942639597</v>
       </c>
       <c r="HO2" s="2">
-        <v>-0.355228582731769</v>
+        <v>1.90681668117818</v>
       </c>
       <c r="HP2" s="2">
-        <v>-0.367857135360071</v>
+        <v>0.424970120303213</v>
       </c>
       <c r="HQ2" s="2">
-        <v>-0.371403786363866</v>
+        <v>-3.69987139272793</v>
       </c>
       <c r="HR2" s="2">
-        <v>-0.366723000800515</v>
+        <v>-3.66688665929119</v>
       </c>
       <c r="HS2" s="2">
-        <v>-0.352903459550367</v>
+        <v>2.41226441336553</v>
       </c>
       <c r="HT2" s="2">
-        <v>-0.356864737900642</v>
+        <v>-4.06751644930725</v>
       </c>
       <c r="HU2" s="2">
-        <v>-0.340006434646379</v>
+        <v>5.86292826118242</v>
       </c>
       <c r="HV2" s="2">
-        <v>-0.356926216707686</v>
+        <v>-17.5846770169734</v>
       </c>
       <c r="HW2" s="2">
-        <v>-0.357973579703871</v>
+        <v>1.19711584701064</v>
       </c>
       <c r="HX2" s="2">
-        <v>-0.363770850812376</v>
+        <v>-2.05263890180768</v>
       </c>
       <c r="HY2" s="2">
-        <v>-0.359843093802805</v>
+        <v>2.12368544105703</v>
       </c>
       <c r="HZ2" s="2">
-        <v>-0.354116663097792</v>
+        <v>-3.92817462386161</v>
       </c>
       <c r="IA2" s="2">
-        <v>-0.344535244549556</v>
+        <v>2.66359778201527</v>
       </c>
       <c r="IB2" s="2">
-        <v>-0.369673316635987</v>
+        <v>-4.12541156533197</v>
       </c>
       <c r="IC2" s="2">
-        <v>-0.354650687557867</v>
+        <v>5.19897932076134</v>
       </c>
       <c r="ID2" s="2">
-        <v>-0.374803949255831</v>
+        <v>5.23030598849088</v>
       </c>
       <c r="IE2" s="2">
-        <v>-0.361286428568857</v>
+        <v>-4.59682644603153</v>
       </c>
       <c r="IF2" s="2">
-        <v>-0.383560065777484</v>
+        <v>0.428270416999238</v>
       </c>
       <c r="IG2" s="2">
-        <v>-0.370720673898792</v>
+        <v>-2.39892281970624</v>
       </c>
       <c r="IH2" s="2">
-        <v>-0.367440986663199</v>
+        <v>-0.638849655443174</v>
       </c>
       <c r="II2" s="2">
-        <v>-0.387564189217021</v>
+        <v>2.22327390930534</v>
       </c>
       <c r="IJ2" s="2">
-        <v>-0.390201898852733</v>
+        <v>-2.7655589769615</v>
       </c>
       <c r="IK2" s="2">
-        <v>-0.393262977978431</v>
+        <v>-0.0439618766626498</v>
       </c>
       <c r="IL2" s="2">
-        <v>-0.398264075173333</v>
+        <v>-3.18079652813473</v>
       </c>
       <c r="IM2" s="2">
-        <v>-0.403290959038155</v>
+        <v>-6.15693168960197</v>
       </c>
       <c r="IN2" s="2">
-        <v>-0.415751991363504</v>
+        <v>-8.76645489958953</v>
       </c>
       <c r="IO2" s="2">
-        <v>-0.409979440698649</v>
+        <v>-16.1336607565795</v>
       </c>
       <c r="IP2" s="2">
-        <v>-0.418385007997318</v>
+        <v>19.7796113726917</v>
       </c>
       <c r="IQ2" s="2">
-        <v>-0.418972935227681</v>
+        <v>2.93513957761321</v>
       </c>
       <c r="IR2" s="2">
-        <v>-0.429160155810981</v>
+        <v>-6.26090557429801</v>
       </c>
       <c r="IS2" s="2">
-        <v>-0.44328377830339</v>
+        <v>-22.1741031791492</v>
       </c>
       <c r="IT2" s="2">
-        <v>-0.444636787693768</v>
+        <v>0.149883053406205</v>
       </c>
       <c r="IU2" s="2">
-        <v>-0.454816011196812</v>
+        <v>-1.43404346871437</v>
       </c>
       <c r="IV2" s="2">
-        <v>-0.465704480345036</v>
+        <v>-6.55519490680693</v>
       </c>
       <c r="IW2" s="2">
-        <v>-0.461887800836675</v>
+        <v>-3.8359811936899</v>
       </c>
       <c r="IX2" s="2">
-        <v>-0.465597493439785</v>
+        <v>-12.6998298571739</v>
       </c>
       <c r="IY2" s="2">
-        <v>-0.476867818785924</v>
+        <v>-27.7367690919731</v>
       </c>
       <c r="IZ2" s="2">
-        <v>-0.477163209223757</v>
+        <v>-3.1585742503108</v>
       </c>
       <c r="JA2" s="2">
-        <v>-0.494250735230913</v>
+        <v>-8.05225854007162</v>
       </c>
       <c r="JB2" s="2">
-        <v>-0.498149331619668</v>
+        <v>-37.1177830296949</v>
       </c>
       <c r="JC2" s="2">
-        <v>-0.490970616083819</v>
+        <v>-3.6946475142837</v>
       </c>
       <c r="JD2" s="2">
-        <v>-0.517242848675235</v>
+        <v>0.533364265055476</v>
       </c>
       <c r="JE2" s="2">
-        <v>-0.519426213536575</v>
+        <v>-1.74414532339898</v>
       </c>
       <c r="JF2" s="2">
-        <v>-0.5320715546675751</v>
+        <v>-12.6795825210969</v>
       </c>
       <c r="JG2" s="2">
-        <v>-0.528932956497164</v>
+        <v>-3.13946057783109</v>
       </c>
       <c r="JH2" s="2">
-        <v>-0.552747317203211</v>
+        <v>-7.69482432809237</v>
       </c>
       <c r="JI2" s="2">
-        <v>-0.561958843796079</v>
+        <v>-0.548075841602814</v>
       </c>
       <c r="JJ2" s="2">
-        <v>-0.561872430938562</v>
+        <v>2.47882641645548</v>
       </c>
       <c r="JK2" s="2">
-        <v>-0.543605857506586</v>
+        <v>2.07507226043658</v>
       </c>
       <c r="JL2" s="2">
-        <v>-0.575786266348653</v>
+        <v>0.8856230295065149</v>
       </c>
       <c r="JM2" s="2">
-        <v>-0.576508617002675</v>
+        <v>3.93645329394041</v>
       </c>
       <c r="JN2" s="2">
-        <v>-0.579729814208874</v>
+        <v>-1.29767159936925</v>
       </c>
       <c r="JO2" s="2">
-        <v>-0.596425613651091</v>
+        <v>8.22027759866746</v>
       </c>
       <c r="JP2" s="2">
-        <v>-0.59311580423385</v>
+        <v>-9.82958820461034</v>
       </c>
       <c r="JQ2" s="2">
-        <v>-0.594535011529189</v>
+        <v>-38.2032215242422</v>
       </c>
       <c r="JR2" s="2">
-        <v>-0.611821572253989</v>
+        <v>3.1149909218703</v>
       </c>
       <c r="JS2" s="2">
-        <v>-0.606250352567164</v>
+        <v>-13.9283820338968</v>
       </c>
       <c r="JT2" s="2">
-        <v>-0.615441426839353</v>
+        <v>-14.3148365891808</v>
       </c>
       <c r="JU2" s="2">
-        <v>-0.610779631794528</v>
+        <v>-0.958596292623167</v>
       </c>
       <c r="JV2" s="2">
-        <v>-0.62687918614539</v>
+        <v>-5.90644187114932</v>
       </c>
       <c r="JW2" s="2">
-        <v>-0.62584679703594</v>
+        <v>0.249837341054645</v>
       </c>
       <c r="JX2" s="2">
-        <v>-0.626835415396457</v>
+        <v>6.57839217220014</v>
       </c>
       <c r="JY2" s="2">
-        <v>-0.61946940317976</v>
+        <v>-7.24714393166426</v>
       </c>
       <c r="JZ2" s="2">
-        <v>-0.623758629701577</v>
+        <v>0.0653048939224827</v>
       </c>
       <c r="KA2" s="2">
-        <v>-0.62675750261319</v>
+        <v>-4.86709420290852</v>
       </c>
       <c r="KB2" s="2">
-        <v>-0.621624761073704</v>
+        <v>-0.941012172647695</v>
       </c>
       <c r="KC2" s="2">
-        <v>-0.6297126636289661</v>
+        <v>3.642908200507</v>
       </c>
       <c r="KD2" s="2">
-        <v>-0.63191578939756</v>
+        <v>-6.97678014989128</v>
       </c>
       <c r="KE2" s="2">
-        <v>-0.634061134880868</v>
+        <v>1.74177274733022</v>
       </c>
       <c r="KF2" s="2">
-        <v>-0.629619336412</v>
+        <v>-2.02587996573317</v>
       </c>
       <c r="KG2" s="2">
-        <v>-0.645681524136331</v>
+        <v>-23.3392922159843</v>
       </c>
       <c r="KH2" s="2">
-        <v>-0.642389155501331</v>
+        <v>12.7581963894886</v>
       </c>
       <c r="KI2" s="2">
-        <v>-0.627299314440664</v>
+        <v>-0.210625987430552</v>
       </c>
       <c r="KJ2" s="2">
-        <v>-0.619770244352323</v>
+        <v>-5.79898203798771</v>
       </c>
       <c r="KK2" s="2">
-        <v>-0.63222400735565</v>
+        <v>-1.6228601967111</v>
       </c>
       <c r="KL2" s="2">
-        <v>-0.644797935115716</v>
+        <v>1.34828788082903</v>
       </c>
       <c r="KM2" s="2">
-        <v>-0.62219406627038</v>
+        <v>-0.586968311905769</v>
       </c>
       <c r="KN2" s="2">
-        <v>-0.6302287899482319</v>
+        <v>9.84223641360138</v>
       </c>
       <c r="KO2" s="2">
-        <v>-0.622113731085688</v>
+        <v>-13.0024853695365</v>
       </c>
       <c r="KP2" s="2">
-        <v>-0.613578551698185</v>
+        <v>1.2519896473365</v>
       </c>
       <c r="KQ2" s="2">
-        <v>-0.617996327820877</v>
+        <v>-25.6846524233331</v>
       </c>
       <c r="KR2" s="2">
-        <v>-0.619346958938632</v>
+        <v>-17.650925880431</v>
       </c>
       <c r="KS2" s="2">
-        <v>-0.615345354109859</v>
+        <v>-6.73451447667973</v>
       </c>
       <c r="KT2" s="2">
-        <v>-0.620470612345372</v>
+        <v>0.8067587312858771</v>
       </c>
       <c r="KU2" s="2">
-        <v>-0.60576930294234</v>
+        <v>-15.3318607820802</v>
       </c>
       <c r="KV2" s="2">
-        <v>-0.618750845714556</v>
+        <v>-4.91001158579724</v>
       </c>
       <c r="KW2" s="2">
-        <v>-0.603158997196054</v>
+        <v>-4.51941596944684</v>
       </c>
       <c r="KX2" s="2">
-        <v>-0.608487942801347</v>
+        <v>-10.1687979302394</v>
       </c>
       <c r="KY2" s="2">
-        <v>-0.600474165980922</v>
+        <v>-5.5551810333737</v>
       </c>
       <c r="KZ2" s="2">
-        <v>-0.58521085814826</v>
+        <v>-4.00631843258401</v>
       </c>
       <c r="LA2" s="2">
-        <v>-0.5829975605179329</v>
+        <v>-11.1117395468251</v>
       </c>
       <c r="LB2" s="2">
-        <v>-0.57212130271779</v>
+        <v>-6.20878813784416</v>
       </c>
       <c r="LC2" s="2">
-        <v>-0.579307096443076</v>
+        <v>-4.86371388613103</v>
       </c>
       <c r="LD2" s="2">
-        <v>-0.576781271348032</v>
+        <v>-6.08908292123968</v>
       </c>
       <c r="LE2" s="2">
-        <v>-0.564144977779051</v>
+        <v>2.2400963345303</v>
       </c>
       <c r="LF2" s="2">
-        <v>-0.563601774013177</v>
+        <v>-4.86667197007399</v>
       </c>
       <c r="LG2" s="2">
-        <v>-0.553952870589957</v>
+        <v>-3.38553654018353</v>
       </c>
       <c r="LH2" s="2">
-        <v>-0.56080643813383</v>
+        <v>-3.96062981571392</v>
       </c>
       <c r="LI2" s="2">
-        <v>-0.560037652302865</v>
+        <v>-5.39464873246849</v>
       </c>
       <c r="LJ2" s="2">
-        <v>-0.560025298503912</v>
+        <v>-0.499632682468287</v>
       </c>
       <c r="LK2" s="2">
-        <v>-0.558715191515313</v>
+        <v>-11.1348532507853</v>
       </c>
       <c r="LL2" s="2">
-        <v>-0.547178770538528</v>
+        <v>6.43047130876812</v>
       </c>
       <c r="LM2" s="2">
-        <v>-0.528782970992112</v>
+        <v>-10.1051538084674</v>
       </c>
       <c r="LN2" s="2">
-        <v>-0.532425167936996</v>
+        <v>-5.66859507524056</v>
       </c>
       <c r="LO2" s="2">
-        <v>-0.551392546122316</v>
+        <v>-4.00251614016611</v>
       </c>
       <c r="LP2" s="2">
-        <v>-0.516187845968399</v>
+        <v>-2.12225851745095</v>
       </c>
       <c r="LQ2" s="2">
-        <v>-0.526666025726844</v>
+        <v>-5.90017756353363</v>
       </c>
       <c r="LR2" s="2">
-        <v>-0.534089867861289</v>
+        <v>-8.073527641535289</v>
       </c>
       <c r="LS2" s="2">
-        <v>-0.5219565904782481</v>
+        <v>1.30271052480744</v>
       </c>
       <c r="LT2" s="2">
-        <v>-0.511805465576239</v>
+        <v>6.47713493058373</v>
       </c>
       <c r="LU2" s="2">
-        <v>-0.519549000556099</v>
+        <v>-4.67755966517118</v>
       </c>
       <c r="LV2" s="2">
-        <v>-0.524766973086975</v>
+        <v>-9.234886410918611</v>
       </c>
       <c r="LW2" s="2">
-        <v>-0.516250553189265</v>
+        <v>-14.0302632181124</v>
       </c>
       <c r="LX2" s="2">
-        <v>-0.505633894045279</v>
+        <v>-8.50664839888117</v>
       </c>
       <c r="LY2" s="2">
-        <v>-0.520412902665946</v>
+        <v>-5.97929753766241</v>
       </c>
       <c r="LZ2" s="2">
-        <v>-0.496728291702439</v>
+        <v>-9.070553406493421</v>
       </c>
       <c r="MA2" s="2">
-        <v>-0.507767312553547</v>
+        <v>0.674604937098491</v>
       </c>
       <c r="MB2" s="2">
-        <v>-0.505706272520388</v>
+        <v>-1.84654465408231</v>
       </c>
       <c r="MC2" s="2">
-        <v>-0.499955898389919</v>
+        <v>-8.702175628183189</v>
       </c>
       <c r="MD2" s="2">
-        <v>-0.505177698786613</v>
+        <v>0.173596231171781</v>
       </c>
       <c r="ME2" s="2">
-        <v>-0.512351776478299</v>
+        <v>-11.1940121101793</v>
       </c>
       <c r="MF2" s="2">
-        <v>-0.50383154563121</v>
+        <v>-5.48297538520908</v>
       </c>
       <c r="MG2" s="2">
-        <v>-0.500397932171094</v>
+        <v>-27.2133121311483</v>
       </c>
       <c r="MH2" s="2">
-        <v>-0.501381850120855</v>
+        <v>3.24444190485914</v>
       </c>
       <c r="MI2" s="2">
-        <v>-0.51413927781238</v>
+        <v>-23.3275948283719</v>
       </c>
       <c r="MJ2" s="2">
-        <v>-0.511057927764393</v>
+        <v>2.1800507113811</v>
       </c>
       <c r="MK2" s="2">
-        <v>-0.504996287235661</v>
+        <v>-6.62218683747287</v>
       </c>
       <c r="ML2" s="2">
-        <v>-0.523572736271366</v>
+        <v>-3.75807749310584</v>
       </c>
       <c r="MM2" s="2">
-        <v>-0.510755495977348</v>
+        <v>-5.275886496036</v>
       </c>
       <c r="MN2" s="2">
-        <v>-0.5140619476360599</v>
+        <v>9.394076252253219</v>
       </c>
       <c r="MO2" s="2">
-        <v>-0.51221965644529</v>
+        <v>-10.8797403194033</v>
       </c>
       <c r="MP2" s="2">
-        <v>-0.525050732906882</v>
+        <v>-9.510443725695261</v>
       </c>
       <c r="MQ2" s="2">
-        <v>-0.527320765548299</v>
+        <v>-11.2695769525031</v>
       </c>
       <c r="MR2" s="2">
-        <v>-0.536877334949085</v>
+        <v>-4.76707462171904</v>
       </c>
       <c r="MS2" s="2">
-        <v>-0.551650839379774</v>
+        <v>-20.0847731201677</v>
       </c>
       <c r="MT2" s="2">
-        <v>-0.537599516595979</v>
+        <v>-20.1780000917725</v>
       </c>
       <c r="MU2" s="2">
-        <v>-0.5473405266600599</v>
+        <v>-9.844703517319591</v>
       </c>
       <c r="MV2" s="2">
-        <v>-0.548963143902682</v>
+        <v>-1.36589848298504</v>
       </c>
       <c r="MW2" s="2">
-        <v>-0.553686665861896</v>
+        <v>-9.279661659429729</v>
       </c>
       <c r="MX2" s="2">
-        <v>-0.570296740239372</v>
+        <v>-8.97890537264316</v>
       </c>
       <c r="MY2" s="2">
-        <v>-0.567101823488691</v>
+        <v>-4.27466701243871</v>
       </c>
       <c r="MZ2" s="2">
-        <v>-0.577185869691066</v>
+        <v>-0.430639338329396</v>
       </c>
       <c r="NA2" s="2">
-        <v>-0.567980827724305</v>
+        <v>7.78415951072889</v>
       </c>
       <c r="NB2" s="2">
-        <v>-0.584927271035026</v>
+        <v>-9.148782286345099</v>
       </c>
       <c r="NC2" s="2">
-        <v>-0.590275326390548</v>
+        <v>-10.2363025543775</v>
       </c>
       <c r="ND2" s="2">
-        <v>-0.596748784500151</v>
+        <v>-6.00910036549129</v>
       </c>
       <c r="NE2" s="2">
-        <v>-0.602318304614178</v>
+        <v>2.97425530112594</v>
       </c>
       <c r="NF2" s="2">
-        <v>-0.612571068938393</v>
+        <v>-8.23767437584188</v>
       </c>
       <c r="NG2" s="2">
-        <v>-0.628918764716296</v>
+        <v>-10.0121917735664</v>
       </c>
       <c r="NH2" s="2">
-        <v>-0.623435432689548</v>
+        <v>-6.86058467784002</v>
       </c>
       <c r="NI2" s="2">
-        <v>-0.623244988193743</v>
+        <v>-4.47079216190136</v>
       </c>
       <c r="NJ2" s="2">
-        <v>-0.645922459726033</v>
+        <v>-3.90899973536163</v>
       </c>
       <c r="NK2" s="2">
-        <v>-0.6453344946249659</v>
+        <v>-1.50098344524574</v>
       </c>
       <c r="NL2" s="2">
-        <v>-0.661614020373639</v>
+        <v>-0.5365338905488281</v>
       </c>
       <c r="NM2" s="2">
-        <v>-0.666070168643395</v>
+        <v>-6.17094373969622</v>
       </c>
       <c r="NN2" s="2">
-        <v>-0.662881542804363</v>
+        <v>-14.0828824713821</v>
       </c>
       <c r="NO2" s="2">
-        <v>-0.674328932189671</v>
+        <v>-1.05161596954491</v>
       </c>
       <c r="NP2" s="2">
-        <v>-0.676609834578679</v>
+        <v>-4.60851390777972</v>
       </c>
       <c r="NQ2" s="2">
-        <v>-0.6889581663387619</v>
+        <v>3.69910941010074</v>
       </c>
       <c r="NR2" s="2">
-        <v>-0.683183220842686</v>
+        <v>-4.92034589156281</v>
       </c>
       <c r="NS2" s="2">
-        <v>-0.701314215899087</v>
+        <v>-3.5460701073818</v>
       </c>
       <c r="NT2" s="2">
-        <v>-0.705467634019978</v>
+        <v>-16.7171871890496</v>
       </c>
       <c r="NU2" s="2">
-        <v>-0.708602765177926</v>
+        <v>-15.9079494565925</v>
       </c>
       <c r="NV2" s="2">
-        <v>-0.718163332957004</v>
+        <v>-11.6014727180733</v>
       </c>
       <c r="NW2" s="2">
-        <v>-0.726147437807336</v>
+        <v>-8.342872945774999</v>
       </c>
       <c r="NX2" s="2">
-        <v>-0.728959343470834</v>
+        <v>-2.79103716137918</v>
       </c>
       <c r="NY2" s="2">
-        <v>-0.730961962679113</v>
+        <v>1.32830369203822</v>
       </c>
       <c r="NZ2" s="2">
-        <v>-0.742135310299272</v>
+        <v>-0.430694176952272</v>
       </c>
       <c r="OA2" s="2">
-        <v>-0.742393215180099</v>
+        <v>-10.996699709935</v>
       </c>
       <c r="OB2" s="2">
-        <v>-0.726709162206406</v>
+        <v>-24.5406287186575</v>
       </c>
       <c r="OC2" s="2">
-        <v>-0.742722778683763</v>
+        <v>5.55394929951893</v>
       </c>
       <c r="OD2" s="2">
-        <v>-0.747208304937819</v>
+        <v>3.44504502790033</v>
       </c>
       <c r="OE2" s="2">
-        <v>-0.748072946834802</v>
+        <v>-12.0791205841462</v>
       </c>
       <c r="OF2" s="2">
-        <v>-0.760630859634163</v>
+        <v>1.99430841803706</v>
       </c>
       <c r="OG2" s="2">
-        <v>-0.7566725613134681</v>
+        <v>-7.36723757166131</v>
       </c>
       <c r="OH2" s="2">
-        <v>-0.766566730969748</v>
+        <v>-29.8059969282436</v>
       </c>
       <c r="OI2" s="2">
-        <v>-0.777027713216777</v>
+        <v>-0.209904547499049</v>
       </c>
       <c r="OJ2" s="2">
-        <v>-0.771130920910262</v>
+        <v>-2.30326659154437</v>
       </c>
       <c r="OK2" s="2">
-        <v>-0.783403216960102</v>
+        <v>-7.90627602853827</v>
       </c>
       <c r="OL2" s="2">
-        <v>-0.759219886031499</v>
+        <v>4.04666765305939</v>
       </c>
       <c r="OM2" s="2">
-        <v>-0.77426310221872</v>
+        <v>-33.9797574795389</v>
       </c>
       <c r="ON2" s="2">
-        <v>-0.76875261040287</v>
+        <v>-1.91806912782366</v>
       </c>
       <c r="OO2" s="2">
-        <v>-0.766585766343588</v>
+        <v>-4.46649770383547</v>
       </c>
       <c r="OP2" s="2">
-        <v>-0.775842311492135</v>
+        <v>-10.322621565163</v>
       </c>
       <c r="OQ2" s="2">
-        <v>-0.783045866391691</v>
+        <v>5.05962385691804</v>
       </c>
       <c r="OR2" s="2">
-        <v>-0.770015126193745</v>
+        <v>-6.19296724848602</v>
       </c>
       <c r="OS2" s="2">
-        <v>-0.762803155684989</v>
+        <v>-4.12038214769783</v>
       </c>
       <c r="OT2" s="2">
-        <v>-0.775117919384032</v>
+        <v>-7.33093552189433</v>
       </c>
       <c r="OU2" s="2">
-        <v>-0.783574545876802</v>
+        <v>-7.57124128602175</v>
       </c>
       <c r="OV2" s="2">
-        <v>-0.757429721832002</v>
+        <v>-3.5361747561283</v>
       </c>
       <c r="OW2" s="2">
-        <v>-0.775091938844474</v>
+        <v>0.314885456650463</v>
       </c>
       <c r="OX2" s="2">
-        <v>-0.7686298439831269</v>
+        <v>-16.4751189848854</v>
       </c>
       <c r="OY2" s="2">
-        <v>-0.765228781119361</v>
+        <v>-26.5944670161039</v>
       </c>
       <c r="OZ2" s="2">
-        <v>-0.762287828532077</v>
+        <v>-1.13888626386273</v>
       </c>
       <c r="PA2" s="2">
-        <v>-0.7494645915266041</v>
+        <v>-25.7905948503539</v>
       </c>
       <c r="PB2" s="2">
-        <v>-0.764631775173969</v>
+        <v>4.08844372013806</v>
       </c>
       <c r="PC2" s="2">
-        <v>-0.75668417968852</v>
+        <v>-16.8221066844235</v>
       </c>
       <c r="PD2" s="2">
-        <v>-0.75064382669339</v>
+        <v>-9.894985397544991</v>
       </c>
       <c r="PE2" s="2">
-        <v>-0.731427185053116</v>
+        <v>7.43936526529787</v>
       </c>
       <c r="PF2" s="2">
-        <v>-0.735674846928798</v>
+        <v>-10.4243510358102</v>
       </c>
       <c r="PG2" s="2">
-        <v>-0.7381979673654711</v>
+        <v>3.61446343452555</v>
       </c>
       <c r="PH2" s="2">
-        <v>-0.737124130851319</v>
+        <v>-0.5800752709825731</v>
       </c>
       <c r="PI2" s="2">
-        <v>-0.708447788500767</v>
+        <v>3.49514212989253</v>
       </c>
       <c r="PJ2" s="2">
-        <v>-0.729937018334421</v>
+        <v>2.11777790442292</v>
       </c>
       <c r="PK2" s="2">
-        <v>-0.710526373754617</v>
+        <v>-0.376244152447782</v>
       </c>
       <c r="PL2" s="2">
-        <v>-0.69450477725716</v>
+        <v>0.926511602148842</v>
       </c>
       <c r="PM2" s="2">
-        <v>-0.726667722146799</v>
+        <v>-15.9698508190888</v>
       </c>
       <c r="PN2" s="2">
-        <v>-0.7071268741583669</v>
+        <v>3.47832951789173</v>
       </c>
       <c r="PO2" s="2">
-        <v>-0.699727697125571</v>
+        <v>-9.350962819451111</v>
       </c>
       <c r="PP2" s="2">
-        <v>-0.696811172605585</v>
+        <v>-4.51288656565667</v>
       </c>
       <c r="PQ2" s="2">
-        <v>-0.697205341505768</v>
+        <v>-5.57140113869806</v>
       </c>
       <c r="PR2" s="2">
-        <v>-0.6900465187546559</v>
+        <v>0.066636606385253</v>
       </c>
       <c r="PS2" s="2">
-        <v>-0.688319749232601</v>
+        <v>-7.29450168461033</v>
       </c>
       <c r="PT2" s="2">
-        <v>-0.683854482540483</v>
+        <v>-9.870037137620329</v>
       </c>
       <c r="PU2" s="2">
-        <v>-0.6929490155672891</v>
+        <v>-18.5541229860197</v>
       </c>
       <c r="PV2" s="2">
-        <v>-0.672875029210511</v>
+        <v>1.08193474054591</v>
       </c>
       <c r="PW2" s="2">
-        <v>-0.671308485265122</v>
+        <v>-10.0054393719894</v>
       </c>
       <c r="PX2" s="2">
-        <v>-0.676290118639356</v>
+        <v>1.33681263335468</v>
       </c>
       <c r="PY2" s="2">
-        <v>-0.675422215857349</v>
+        <v>1.06167571098239</v>
       </c>
       <c r="PZ2" s="2">
-        <v>-0.666653867845639</v>
+        <v>1.6714778029248</v>
       </c>
       <c r="QA2" s="2">
-        <v>-0.664959103794166</v>
+        <v>-3.30448816720132</v>
       </c>
       <c r="QB2" s="2">
-        <v>-0.671997707645563</v>
+        <v>-10.9053050376456</v>
       </c>
       <c r="QC2" s="2">
-        <v>-0.653712939977997</v>
+        <v>7.62549169234746</v>
       </c>
       <c r="QD2" s="2">
-        <v>-0.663598895381372</v>
+        <v>4.48879709565924</v>
       </c>
       <c r="QE2" s="2">
-        <v>-0.662549296383653</v>
+        <v>-2.13852167158799</v>
       </c>
       <c r="QF2" s="2">
-        <v>-0.663423532599452</v>
+        <v>0.781219759254918</v>
       </c>
       <c r="QG2" s="2">
-        <v>-0.663657275108727</v>
+        <v>3.09531631204536</v>
       </c>
       <c r="QH2" s="2">
-        <v>-0.65833765833494</v>
+        <v>-0.22700258354934</v>
       </c>
       <c r="QI2" s="2">
-        <v>-0.651844005413363</v>
+        <v>0.990959666101324</v>
       </c>
       <c r="QJ2" s="2">
-        <v>-0.640930926948472</v>
+        <v>-1.56640637508288</v>
       </c>
       <c r="QK2" s="2">
-        <v>-0.647024522890441</v>
+        <v>-0.07254259656693959</v>
       </c>
       <c r="QL2" s="2">
-        <v>-0.652077165498651</v>
+        <v>-6.2875400826897</v>
       </c>
       <c r="QM2" s="2">
-        <v>-0.646070236491658</v>
+        <v>6.11272876425412</v>
       </c>
       <c r="QN2" s="2">
-        <v>-0.640754007993772</v>
+        <v>-17.3852269070636</v>
       </c>
       <c r="QO2" s="2">
-        <v>-0.66567454961643</v>
+        <v>-15.4620464013728</v>
       </c>
       <c r="QP2" s="2">
-        <v>-0.644742962508061</v>
+        <v>6.37783987996152</v>
       </c>
       <c r="QQ2" s="2">
-        <v>-0.658280355420493</v>
+        <v>0.331381389491812</v>
       </c>
       <c r="QR2" s="2">
-        <v>-0.655868181506238</v>
+        <v>7.14832624029309</v>
       </c>
       <c r="QS2" s="2">
-        <v>-0.6334544663449611</v>
+        <v>-22.3474984497326</v>
       </c>
       <c r="QT2" s="2">
-        <v>-0.659268138578284</v>
+        <v>10.0504782409409</v>
       </c>
       <c r="QU2" s="2">
-        <v>-0.649623140741423</v>
+        <v>-0.173058700678751</v>
       </c>
       <c r="QV2" s="2">
-        <v>-0.673741536415158</v>
+        <v>-3.15820788909299</v>
       </c>
       <c r="QW2" s="2">
-        <v>-0.652160782614373</v>
+        <v>-0.607737336338108</v>
       </c>
       <c r="QX2" s="2">
-        <v>-0.655513815961084</v>
+        <v>0.0419342369047337</v>
       </c>
       <c r="QY2" s="2">
-        <v>-0.664987963523398</v>
+        <v>-0.983831548842638</v>
       </c>
       <c r="QZ2" s="2">
-        <v>-0.6652369046139061</v>
+        <v>-4.77464012768538</v>
       </c>
       <c r="RA2" s="2">
-        <v>-0.676012970554335</v>
+        <v>-5.1511705680814</v>
       </c>
       <c r="RB2" s="2">
-        <v>-0.678792562189626</v>
+        <v>11.0804439231946</v>
       </c>
       <c r="RC2" s="2">
-        <v>-0.68486466030194</v>
+        <v>-8.363907289811999</v>
       </c>
       <c r="RD2" s="2">
-        <v>-0.682160161081068</v>
+        <v>-0.302823054667418</v>
       </c>
       <c r="RE2" s="2">
-        <v>-0.696753145473899</v>
+        <v>-10.1921835639689</v>
       </c>
       <c r="RF2" s="2">
-        <v>-0.691655716963203</v>
+        <v>7.89137907257942</v>
       </c>
       <c r="RG2" s="2">
-        <v>-0.690022731530039</v>
+        <v>-3.14331618527936</v>
       </c>
       <c r="RH2" s="2">
-        <v>-0.693330996720936</v>
+        <v>0.793302170249911</v>
       </c>
       <c r="RI2" s="2">
-        <v>-0.699328371335209</v>
+        <v>-6.23042665343682</v>
       </c>
       <c r="RJ2" s="2">
-        <v>-0.711735055114564</v>
+        <v>3.98035916620824</v>
       </c>
       <c r="RK2" s="2">
-        <v>-0.709468726695383</v>
+        <v>-4.36855664707993</v>
       </c>
       <c r="RL2" s="2">
-        <v>-0.736805886812551</v>
+        <v>-2.68221203667945</v>
       </c>
       <c r="RM2" s="2">
-        <v>-0.729682101459102</v>
+        <v>-15.0794067901158</v>
       </c>
       <c r="RN2" s="2">
-        <v>-0.73662789608426</v>
+        <v>-1.21642451494324</v>
       </c>
       <c r="RO2" s="2">
-        <v>-0.728768990321283</v>
+        <v>1.21700937556525</v>
       </c>
       <c r="RP2" s="2">
-        <v>-0.7386799144826171</v>
+        <v>-7.29367170470668</v>
       </c>
       <c r="RQ2" s="2">
-        <v>-0.7478152976938089</v>
+        <v>-6.27653502859933</v>
       </c>
       <c r="RR2" s="2">
-        <v>-0.750894284808222</v>
+        <v>0.404255358284756</v>
       </c>
       <c r="RS2" s="2">
-        <v>-0.757768049879329</v>
+        <v>-10.0656400163449</v>
       </c>
       <c r="RT2" s="2">
-        <v>-0.763914648813773</v>
+        <v>-14.90545345327</v>
       </c>
       <c r="RU2" s="2">
-        <v>-0.770794370871662</v>
+        <v>-0.903931281074949</v>
       </c>
       <c r="RV2" s="2">
-        <v>-0.782850622570608</v>
+        <v>-17.2377095422461</v>
       </c>
       <c r="RW2" s="2">
-        <v>-0.759676994323613</v>
+        <v>10.0529047664493</v>
       </c>
       <c r="RX2" s="2">
-        <v>-0.7685232647668671</v>
+        <v>-2.22845973132444</v>
       </c>
       <c r="RY2" s="2">
-        <v>-0.780314676925321</v>
+        <v>-12.664923920649</v>
       </c>
       <c r="RZ2" s="2">
-        <v>-0.78342698020893</v>
+        <v>-6.60586650536229</v>
       </c>
       <c r="SA2" s="2">
-        <v>-0.798318314815497</v>
+        <v>-22.9083271983893</v>
       </c>
       <c r="SB2" s="2">
-        <v>-0.795905063309601</v>
+        <v>-9.328261125770551</v>
       </c>
       <c r="SC2" s="2">
-        <v>-0.793654826285512</v>
+        <v>-7.49001556854032</v>
       </c>
       <c r="SD2" s="2">
-        <v>-0.814961207248004</v>
+        <v>-15.5527073243617</v>
       </c>
       <c r="SE2" s="2">
-        <v>-0.823586476155568</v>
+        <v>-1.23027832125914</v>
       </c>
       <c r="SF2" s="2">
-        <v>-0.822540106772402</v>
+        <v>-17.5747440169109</v>
       </c>
       <c r="SG2" s="2">
-        <v>-0.828026240496717</v>
+        <v>3.34385037084559</v>
       </c>
       <c r="SH2" s="2">
-        <v>-0.833438750791068</v>
+        <v>4.38821514262714</v>
       </c>
       <c r="SI2" s="2">
-        <v>-0.825328293274307</v>
+        <v>-19.5029366644841</v>
       </c>
       <c r="SJ2" s="2">
-        <v>-0.842373524633428</v>
+        <v>-2.44909157879453</v>
       </c>
       <c r="SK2" s="2">
-        <v>-0.838979648747657</v>
+        <v>-1.77949768219522</v>
       </c>
       <c r="SL2" s="2">
-        <v>-0.837488035936173</v>
+        <v>-6.54547951595379</v>
       </c>
       <c r="SM2" s="2">
-        <v>-0.8393170305819549</v>
+        <v>-27.4815396195297</v>
       </c>
       <c r="SN2" s="2">
-        <v>-0.843969970888175</v>
+        <v>-1.84642034280021</v>
       </c>
       <c r="SO2" s="2">
-        <v>-0.844997672749254</v>
+        <v>4.74853171184275</v>
       </c>
       <c r="SP2" s="2">
-        <v>-0.838980549653526</v>
+        <v>-6.30651337240466</v>
       </c>
       <c r="SQ2" s="2">
-        <v>-0.848640747531739</v>
+        <v>-7.63032202060884</v>
       </c>
       <c r="SR2" s="2">
-        <v>-0.837247037497146</v>
+        <v>-9.62250032526004</v>
       </c>
       <c r="SS2" s="2">
-        <v>-0.849864801002464</v>
+        <v>-9.6272643680466</v>
       </c>
       <c r="ST2" s="2">
-        <v>-0.8494013732767151</v>
+        <v>-9.11329550076092</v>
       </c>
       <c r="SU2" s="2">
-        <v>-0.831445668424774</v>
+        <v>2.56110733356832</v>
       </c>
       <c r="SV2" s="2">
-        <v>-0.843218643144247</v>
+        <v>-14.0766682091008</v>
       </c>
       <c r="SW2" s="2">
-        <v>-0.852322216744809</v>
+        <v>-1.76343548004244</v>
       </c>
       <c r="SX2" s="2">
-        <v>-0.850735888395849</v>
+        <v>-12.9265045424931</v>
       </c>
       <c r="SY2" s="2">
-        <v>-0.85060605174745</v>
+        <v>-11.0563976280611</v>
       </c>
       <c r="SZ2" s="2">
-        <v>-0.839291831732818</v>
+        <v>-6.3288002715995</v>
       </c>
       <c r="TA2" s="2">
-        <v>-0.852630085020517</v>
+        <v>-10.8362610870071</v>
       </c>
       <c r="TB2" s="2">
-        <v>-0.848370349032457</v>
+        <v>-7.63649384935623</v>
       </c>
       <c r="TC2" s="2">
-        <v>-0.828804374336953</v>
+        <v>-25.5618227944439</v>
       </c>
       <c r="TD2" s="2">
-        <v>-0.83850148399513</v>
+        <v>-6.12442174744569</v>
       </c>
       <c r="TE2" s="2">
-        <v>-0.8346578846271691</v>
+        <v>-3.90559281315785</v>
       </c>
       <c r="TF2" s="2">
-        <v>-0.845932385654005</v>
+        <v>-6.96026103297614</v>
       </c>
       <c r="TG2" s="2">
-        <v>-0.836389338127006</v>
+        <v>5.79619222449199</v>
       </c>
       <c r="TH2" s="2">
-        <v>-0.838917411330769</v>
+        <v>-4.92271911887079</v>
       </c>
       <c r="TI2" s="2">
-        <v>-0.839763645524138</v>
+        <v>-14.4391295299347</v>
       </c>
       <c r="TJ2" s="2">
-        <v>-0.834798137447343</v>
+        <v>-14.9620491739662</v>
       </c>
       <c r="TK2" s="2">
-        <v>-0.836433376039078</v>
+        <v>-2.31886484909416</v>
       </c>
       <c r="TL2" s="2">
-        <v>-0.833180109122685</v>
+        <v>5.80764802791792</v>
       </c>
       <c r="TM2" s="2">
-        <v>-0.83057896502191</v>
+        <v>10.4537788494965</v>
       </c>
       <c r="TN2" s="2">
-        <v>-0.818575947347963</v>
+        <v>-14.6009527738091</v>
       </c>
       <c r="TO2" s="2">
-        <v>-0.805621085759483</v>
+        <v>-17.8264877425782</v>
       </c>
       <c r="TP2" s="2">
-        <v>-0.812595621262346</v>
+        <v>-5.93641313728028</v>
       </c>
       <c r="TQ2" s="2">
-        <v>-0.823233970906972</v>
+        <v>-3.57530874430128</v>
       </c>
       <c r="TR2" s="2">
-        <v>-0.80647774811878</v>
+        <v>-11.5950058564381</v>
       </c>
       <c r="TS2" s="2">
-        <v>-0.815135484270116</v>
+        <v>-6.12204686154854</v>
       </c>
       <c r="TT2" s="2">
-        <v>-0.821768762368192</v>
+        <v>-3.28889386810622</v>
       </c>
       <c r="TU2" s="2">
-        <v>-0.795004019808476</v>
+        <v>12.6359894899798</v>
       </c>
       <c r="TV2" s="2">
-        <v>-0.79886533225102</v>
+        <v>-5.69068459599181</v>
       </c>
       <c r="TW2" s="2">
-        <v>-0.8121779988583639</v>
+        <v>-7.89973558974519</v>
       </c>
       <c r="TX2" s="2">
-        <v>-0.812308745592747</v>
+        <v>-7.26019307321255</v>
       </c>
       <c r="TY2" s="2">
-        <v>-0.800078311836055</v>
+        <v>0.620578114250247</v>
       </c>
       <c r="TZ2" s="2">
-        <v>-0.798030971329178</v>
+        <v>-3.05702035215872</v>
       </c>
       <c r="UA2" s="2">
-        <v>-0.808956604568954</v>
+        <v>-3.59462672293133</v>
       </c>
       <c r="UB2" s="2">
-        <v>-0.789433421297984</v>
+        <v>-2.32454691018855</v>
       </c>
       <c r="UC2" s="2">
-        <v>-0.792533215885834</v>
+        <v>-10.9181418162073</v>
       </c>
       <c r="UD2" s="2">
-        <v>-0.795171834624177</v>
+        <v>5.17217078550048</v>
       </c>
       <c r="UE2" s="2">
-        <v>-0.781193034725854</v>
+        <v>-2.24783226204331</v>
       </c>
       <c r="UF2" s="2">
-        <v>-0.7823359794072819</v>
+        <v>7.45412970840285</v>
       </c>
       <c r="UG2" s="2">
-        <v>-0.78265169017381</v>
+        <v>-0.362853540081766</v>
       </c>
       <c r="UH2" s="2">
-        <v>-0.774835200514062</v>
+        <v>-7.88533115056348</v>
       </c>
       <c r="UI2" s="2">
-        <v>-0.780175086649194</v>
+        <v>-2.68471575771639</v>
       </c>
       <c r="UJ2" s="2">
-        <v>-0.776180573592391</v>
+        <v>-16.1261612526395</v>
       </c>
       <c r="UK2" s="2">
-        <v>-0.7771468186242489</v>
+        <v>-1.24092781277026</v>
       </c>
       <c r="UL2" s="2">
-        <v>-0.777218946974541</v>
+        <v>1.18454528202301</v>
       </c>
       <c r="UM2" s="2">
-        <v>-0.767290242536763</v>
+        <v>-3.07344764630355</v>
       </c>
       <c r="UN2" s="2">
-        <v>-0.778340397522327</v>
+        <v>-18.9127719486954</v>
       </c>
       <c r="UO2" s="2">
-        <v>-0.775232332604341</v>
+        <v>-1.17731872553714</v>
       </c>
       <c r="UP2" s="2">
-        <v>-0.763847309194767</v>
+        <v>-18.4570422637416</v>
       </c>
       <c r="UQ2" s="2">
-        <v>-0.77054493932764</v>
+        <v>15.9314100696579</v>
       </c>
       <c r="UR2" s="2">
-        <v>-0.770407859417199</v>
+        <v>-7.16873712040356</v>
       </c>
       <c r="US2" s="2">
-        <v>-0.767446815779074</v>
+        <v>-16.3756454199877</v>
       </c>
       <c r="UT2" s="2">
-        <v>-0.769342103882705</v>
+        <v>-25.3919420227838</v>
       </c>
       <c r="UU2" s="2">
-        <v>-0.765191834215955</v>
+        <v>6.1857177797297</v>
       </c>
       <c r="UV2" s="2">
-        <v>-0.768788003783864</v>
+        <v>6.09604363424397</v>
       </c>
       <c r="UW2" s="2">
-        <v>-0.7770450584791579</v>
+        <v>-4.08374082042811</v>
       </c>
       <c r="UX2" s="2">
-        <v>-0.772738896336968</v>
+        <v>-7.59797834062557</v>
       </c>
       <c r="UY2" s="2">
-        <v>-0.78421852077416</v>
+        <v>-5.61749799829449</v>
       </c>
       <c r="UZ2" s="2">
-        <v>-0.768078234387191</v>
+        <v>-1.47340048057034</v>
       </c>
       <c r="VA2" s="2">
-        <v>-0.774780568547795</v>
+        <v>-3.2902524770763</v>
       </c>
       <c r="VB2" s="2">
-        <v>-0.782501017055537</v>
+        <v>-2.007162863583</v>
       </c>
       <c r="VC2" s="2">
-        <v>-0.78454121331908</v>
+        <v>-10.0126124109184</v>
       </c>
       <c r="VD2" s="2">
-        <v>-0.7723366057896019</v>
+        <v>-0.547769343352517</v>
       </c>
       <c r="VE2" s="2">
-        <v>-0.7788004550222</v>
+        <v>-1.05897866332193</v>
       </c>
       <c r="VF2" s="2">
-        <v>-0.784994343272527</v>
+        <v>-6.15468711264122</v>
       </c>
       <c r="VG2" s="2">
-        <v>-0.783650727613345</v>
+        <v>-9.161296960755401</v>
       </c>
       <c r="VH2" s="2">
-        <v>-0.785613821097791</v>
+        <v>-6.34424332740784</v>
       </c>
       <c r="VI2" s="2">
-        <v>-0.783680954708235</v>
+        <v>-14.8472435886091</v>
       </c>
       <c r="VJ2" s="2">
-        <v>-0.790504832939235</v>
+        <v>-1.58978293667367</v>
       </c>
       <c r="VK2" s="2">
-        <v>-0.779660538845653</v>
+        <v>4.74592973615278</v>
       </c>
       <c r="VL2" s="2">
-        <v>-0.801162864135433</v>
+        <v>-2.91961985324769</v>
       </c>
       <c r="VM2" s="2">
-        <v>-0.794248396291378</v>
+        <v>-0.264201919119407</v>
       </c>
       <c r="VN2" s="2">
-        <v>-0.791104314938945</v>
+        <v>-5.04634614695196</v>
       </c>
       <c r="VO2" s="2">
-        <v>-0.792566851254897</v>
+        <v>-8.135792854059799</v>
       </c>
       <c r="VP2" s="2">
-        <v>-0.789209532968198</v>
+        <v>-5.42309763516707</v>
       </c>
       <c r="VQ2" s="2">
-        <v>-0.804057610058738</v>
+        <v>-0.881637271921764</v>
       </c>
       <c r="VR2" s="2">
-        <v>-0.82358998940898</v>
+        <v>-9.987355536734359</v>
       </c>
       <c r="VS2" s="2">
-        <v>-0.813774799076034</v>
+        <v>-3.12594936741416</v>
       </c>
       <c r="VT2" s="2">
-        <v>-0.806617901505074</v>
+        <v>-20.1980024720187</v>
       </c>
       <c r="VU2" s="2">
-        <v>-0.798762636545161</v>
+        <v>-0.0738972476873961</v>
       </c>
       <c r="VV2" s="2">
-        <v>-0.80645200894498</v>
+        <v>-15.3915899605932</v>
       </c>
       <c r="VW2" s="2">
-        <v>-0.821942764912468</v>
+        <v>-0.898927818733475</v>
       </c>
       <c r="VX2" s="2">
-        <v>-0.829200906451817</v>
+        <v>-4.88606163607079</v>
       </c>
       <c r="VY2" s="2">
-        <v>-0.818908778806314</v>
+        <v>-4.63475943513546</v>
       </c>
       <c r="VZ2" s="2">
-        <v>-0.828141050990554</v>
+        <v>-3.4860005304804</v>
       </c>
       <c r="WA2" s="2">
-        <v>-0.824526269306224</v>
+        <v>-5.39742130736131</v>
       </c>
       <c r="WB2" s="2">
-        <v>-0.8342735978229689</v>
+        <v>1.35848838099598</v>
       </c>
       <c r="WC2" s="2">
-        <v>-0.837994833595828</v>
+        <v>-2.71785577508087</v>
       </c>
       <c r="WD2" s="2">
-        <v>-0.847758758629276</v>
+        <v>-7.74091599330949</v>
       </c>
       <c r="WE2" s="2">
-        <v>-0.838684192002728</v>
+        <v>-9.559846711177491</v>
       </c>
       <c r="WF2" s="2">
-        <v>-0.845407663524758</v>
+        <v>-15.7379721326896</v>
       </c>
       <c r="WG2" s="2">
-        <v>-0.84845885914617</v>
+        <v>-8.20744968913084</v>
       </c>
       <c r="WH2" s="2">
-        <v>-0.841555150976575</v>
+        <v>-6.12856435042205</v>
       </c>
       <c r="WI2" s="2">
-        <v>-0.8378001292478801</v>
+        <v>2.29188302550392</v>
       </c>
       <c r="WJ2" s="2">
-        <v>-0.858786159642312</v>
+        <v>-32.2267019892599</v>
       </c>
       <c r="WK2" s="2">
-        <v>-0.859853700629916</v>
+        <v>-8.181308671143929</v>
       </c>
       <c r="WL2" s="2">
-        <v>-0.857453333644186</v>
+        <v>-2.90735027976091</v>
       </c>
       <c r="WM2" s="2">
-        <v>-0.86290047143136</v>
+        <v>-1.63584762987761</v>
       </c>
       <c r="WN2" s="2">
-        <v>-0.855895622184262</v>
+        <v>0.8250736882754151</v>
       </c>
       <c r="WO2" s="2">
-        <v>-0.852505826458925</v>
+        <v>-0.672037560129394</v>
       </c>
       <c r="WP2" s="2">
-        <v>-0.838410945186525</v>
+        <v>-1.23223342017871</v>
       </c>
       <c r="WQ2" s="2">
-        <v>-0.874186129506327</v>
+        <v>-12.86346356694</v>
       </c>
       <c r="WR2" s="2">
-        <v>-0.863339669149366</v>
+        <v>-3.7713382569899</v>
       </c>
       <c r="WS2" s="2">
-        <v>-0.8525357343821</v>
+        <v>4.94253557100726</v>
       </c>
       <c r="WT2" s="2">
-        <v>-0.861608192339758</v>
+        <v>-1.78356966688495</v>
       </c>
       <c r="WU2" s="2">
-        <v>-0.859333642870908</v>
+        <v>1.69844272287755</v>
       </c>
       <c r="WV2" s="2">
-        <v>-0.867999218137446</v>
+        <v>-3.54858753220595</v>
       </c>
       <c r="WW2" s="2">
-        <v>-0.865306343265028</v>
+        <v>-19.5237302598852</v>
       </c>
       <c r="WX2" s="2">
-        <v>-0.879539779413918</v>
+        <v>0.693675079748582</v>
       </c>
       <c r="WY2" s="2">
-        <v>-0.872577152720497</v>
+        <v>17.6224562493566</v>
       </c>
       <c r="WZ2" s="2">
-        <v>-0.866993675324101</v>
+        <v>-10.3318877080105</v>
       </c>
       <c r="XA2" s="2">
-        <v>-0.8765894020205089</v>
+        <v>6.57981846409936</v>
       </c>
       <c r="XB2" s="2">
-        <v>-0.859368346557964</v>
+        <v>-8.15673190763161</v>
       </c>
       <c r="XC2" s="2">
-        <v>-0.862976773294316</v>
+        <v>-10.5622962935182</v>
       </c>
       <c r="XD2" s="2">
-        <v>-0.868140627449408</v>
+        <v>-1.92064059605949</v>
       </c>
       <c r="XE2" s="2">
-        <v>-0.8632490632127</v>
+        <v>-4.68854680111301</v>
       </c>
       <c r="XF2" s="2">
-        <v>-0.881777252368418</v>
+        <v>-4.13816031105634</v>
       </c>
       <c r="XG2" s="2">
-        <v>-0.86673578483146</v>
+        <v>-7.38523756540351</v>
       </c>
       <c r="XH2" s="2">
-        <v>-0.866757135461184</v>
+        <v>-14.4274283168275</v>
       </c>
       <c r="XI2" s="2">
-        <v>-0.871978383686995</v>
+        <v>-6.19677937176675</v>
       </c>
       <c r="XJ2" s="2">
-        <v>-0.864563626858139</v>
+        <v>0.485215463654346</v>
       </c>
       <c r="XK2" s="2">
-        <v>-0.868831473207656</v>
+        <v>-17.7119498494697</v>
       </c>
       <c r="XL2" s="2">
-        <v>-0.875795624192198</v>
+        <v>8.6609590397806</v>
       </c>
       <c r="XM2" s="2">
-        <v>-0.85880723299981</v>
+        <v>-17.4783094947706</v>
       </c>
       <c r="XN2" s="2">
-        <v>-0.876584589570498</v>
+        <v>8.3335838116666</v>
       </c>
       <c r="XO2" s="2">
-        <v>-0.8714260001829141</v>
+        <v>-7.1537995388031</v>
       </c>
       <c r="XP2" s="2">
-        <v>-0.865557235784897</v>
+        <v>-15.6730935203529</v>
       </c>
       <c r="XQ2" s="2">
-        <v>-0.87240014312643</v>
+        <v>-7.23848154760815</v>
       </c>
       <c r="XR2" s="2">
-        <v>-0.8555363837676579</v>
+        <v>-5.12409610330208</v>
       </c>
       <c r="XS2" s="2">
-        <v>-0.856346134682443</v>
+        <v>1.40760432089511</v>
       </c>
       <c r="XT2" s="2">
-        <v>-0.858103252446245</v>
+        <v>-9.10750750670563</v>
       </c>
       <c r="XU2" s="2">
-        <v>-0.877471667533712</v>
+        <v>-5.60220065389485</v>
       </c>
       <c r="XV2" s="2">
-        <v>-0.8703930415412779</v>
+        <v>-0.134426882330111</v>
       </c>
       <c r="XW2" s="2">
-        <v>-0.869368383823891</v>
+        <v>-4.70204975066582</v>
       </c>
       <c r="XX2" s="2">
-        <v>-0.874303678233299</v>
+        <v>-16.3738307747261</v>
       </c>
       <c r="XY2" s="2">
-        <v>-0.865682634923676</v>
+        <v>1.1269112451962</v>
       </c>
       <c r="XZ2" s="2">
-        <v>-0.861746813140832</v>
+        <v>-6.88089038900394</v>
       </c>
       <c r="YA2" s="2">
-        <v>-0.8762874436578419</v>
+        <v>-12.0273412501319</v>
       </c>
       <c r="YB2" s="2">
-        <v>-0.866692382761956</v>
+        <v>-4.25491019081604</v>
       </c>
       <c r="YC2" s="2">
-        <v>-0.863016588596787</v>
+        <v>3.52811238864242</v>
       </c>
       <c r="YD2" s="2">
-        <v>-0.862463775988793</v>
+        <v>-13.5920124571933</v>
       </c>
       <c r="YE2" s="2">
-        <v>-0.866485018979527</v>
+        <v>-0.00619431774310668</v>
       </c>
       <c r="YF2" s="2">
-        <v>-0.867299068128465</v>
+        <v>-0.652951612024015</v>
       </c>
       <c r="YG2" s="2">
-        <v>-0.861990883646875</v>
+        <v>1.60838216034572</v>
       </c>
       <c r="YH2" s="2">
-        <v>-0.860793378571442</v>
+        <v>1.39295956093275</v>
       </c>
       <c r="YI2" s="2">
-        <v>-0.852919140442468</v>
+        <v>-3.93431179899148</v>
       </c>
       <c r="YJ2" s="2">
-        <v>-0.851071752633296</v>
+        <v>-3.96782826405634</v>
       </c>
       <c r="YK2" s="2">
-        <v>-0.854834933894026</v>
+        <v>-5.83076778417767</v>
       </c>
       <c r="YL2" s="2">
-        <v>-0.857768362037809</v>
+        <v>-16.7032766837027</v>
       </c>
       <c r="YM2" s="2">
-        <v>-0.8713406495991221</v>
+        <v>4.61279429060449</v>
       </c>
       <c r="YN2" s="2">
-        <v>-0.859808421835854</v>
+        <v>-0.337184986075861</v>
       </c>
       <c r="YO2" s="2">
-        <v>-0.867884602450235</v>
+        <v>4.56604017931098</v>
       </c>
       <c r="YP2" s="2">
-        <v>-0.870552521889661</v>
+        <v>-13.3294136585835</v>
       </c>
       <c r="YQ2" s="2">
-        <v>-0.87063494684378</v>
+        <v>-24.4518937433396</v>
       </c>
       <c r="YR2" s="2">
-        <v>-0.875312720211706</v>
+        <v>-0.220402651940686</v>
       </c>
       <c r="YS2" s="2">
-        <v>-0.874932031722188</v>
+        <v>-16.7893665557406</v>
       </c>
       <c r="YT2" s="2">
-        <v>-0.884107672371754</v>
+        <v>-13.9896682085934</v>
       </c>
       <c r="YU2" s="2">
-        <v>-0.866197758287537</v>
+        <v>-5.4696049949392</v>
       </c>
       <c r="YV2" s="2">
-        <v>-0.86835697109423</v>
+        <v>1.47867962355723</v>
       </c>
       <c r="YW2" s="2">
-        <v>-0.8737419526565799</v>
+        <v>0.281842104026125</v>
       </c>
       <c r="YX2" s="2">
-        <v>-0.878657993468649</v>
+        <v>6.4136127062283</v>
       </c>
       <c r="YY2" s="2">
-        <v>-0.883909319234803</v>
+        <v>5.24370315981654</v>
       </c>
       <c r="YZ2" s="2">
-        <v>-0.887144858828576</v>
+        <v>-2.15309600722046</v>
       </c>
       <c r="ZA2" s="2">
-        <v>-0.880399700905709</v>
+        <v>7.49444081302391</v>
       </c>
       <c r="ZB2" s="2">
-        <v>-0.878587241269525</v>
+        <v>-3.12396431611459</v>
       </c>
       <c r="ZC2" s="2">
-        <v>-0.873728260318354</v>
+        <v>-1.9420473922929</v>
       </c>
       <c r="ZD2" s="2">
-        <v>-0.894393233431329</v>
+        <v>-3.0198089566516</v>
       </c>
       <c r="ZE2" s="2">
-        <v>-0.884465137491101</v>
+        <v>-7.35420622996039</v>
       </c>
       <c r="ZF2" s="2">
-        <v>-0.900118272022008</v>
+        <v>-2.21107721175242</v>
       </c>
       <c r="ZG2" s="2">
-        <v>-0.892134386057562</v>
+        <v>-3.91747187293748</v>
       </c>
       <c r="ZH2" s="2">
-        <v>-0.891947275728037</v>
+        <v>1.16329104394739</v>
       </c>
       <c r="ZI2" s="2">
-        <v>-0.900124355268444</v>
+        <v>13.1402012819961</v>
       </c>
       <c r="ZJ2" s="2">
-        <v>-0.888347326181953</v>
+        <v>-5.11543393417365</v>
       </c>
       <c r="ZK2" s="2">
-        <v>-0.892203649322252</v>
+        <v>-0.0980881951889573</v>
       </c>
       <c r="ZL2" s="2">
-        <v>-0.908162990445105</v>
+        <v>-2.87738030990762</v>
       </c>
       <c r="ZM2" s="2">
-        <v>-0.90019129670913</v>
+        <v>-14.1914785167118</v>
       </c>
       <c r="ZN2" s="2">
-        <v>-0.916279420433287</v>
+        <v>-4.35443597297882</v>
       </c>
       <c r="ZO2" s="2">
-        <v>-0.910637591760603</v>
+        <v>0.544194911224903</v>
       </c>
       <c r="ZP2" s="2">
-        <v>-0.896842324149852</v>
+        <v>-0.552504236755868</v>
       </c>
       <c r="ZQ2" s="2">
-        <v>-0.9134979766883</v>
+        <v>-4.81818848770248</v>
       </c>
       <c r="ZR2" s="2">
-        <v>-0.92197130826291</v>
+        <v>1.62792807540286</v>
       </c>
       <c r="ZS2" s="2">
-        <v>-0.922745917945106</v>
+        <v>11.6007046370239</v>
       </c>
       <c r="ZT2" s="2">
-        <v>-0.905513293050403</v>
+        <v>2.74738610575771</v>
       </c>
       <c r="ZU2" s="2">
-        <v>-0.927319095393017</v>
+        <v>1.55624796832106</v>
       </c>
       <c r="ZV2" s="2">
-        <v>-0.915365194236858</v>
+        <v>-6.26388763075796</v>
       </c>
       <c r="ZW2" s="2">
-        <v>-0.912116910033522</v>
+        <v>-9.14147733530627</v>
       </c>
       <c r="ZX2" s="2">
-        <v>-0.921078260736316</v>
+        <v>-5.6174040285542</v>
       </c>
       <c r="ZY2" s="2">
-        <v>-0.9360055505813361</v>
+        <v>-10.132239935752</v>
       </c>
       <c r="ZZ2" s="2">
-        <v>-0.913856879110888</v>
+        <v>4.53500206197723</v>
       </c>
       <c r="AAA2" s="2">
-        <v>-0.916567404391386</v>
+        <v>-9.523740029521781</v>
       </c>
       <c r="AAB2" s="2">
-        <v>-0.936075114050214</v>
+        <v>-12.92873134575</v>
       </c>
       <c r="AAC2" s="2">
-        <v>-0.9184214033995181</v>
+        <v>2.41542512176134</v>
       </c>
       <c r="AAD2" s="2">
-        <v>-0.920916431608664</v>
+        <v>0.688447395324853</v>
       </c>
       <c r="AAE2" s="2">
-        <v>-0.927131047332992</v>
+        <v>-3.03448760095668</v>
       </c>
       <c r="AAF2" s="2">
-        <v>-0.935444728023263</v>
+        <v>-5.08211594130851</v>
       </c>
       <c r="AAG2" s="2">
-        <v>-0.925367860511997</v>
+        <v>-13.9655179331086</v>
       </c>
       <c r="AAH2" s="2">
-        <v>-0.934974530060676</v>
+        <v>0.70547650286047</v>
       </c>
       <c r="AAI2" s="2">
-        <v>-0.936560875318173</v>
+        <v>6.76991505913859</v>
       </c>
       <c r="AAJ2" s="2">
-        <v>-0.93553163226239</v>
+        <v>1.16037878416469</v>
       </c>
       <c r="AAK2" s="2">
-        <v>-0.935133827749823</v>
+        <v>6.31865056315859</v>
       </c>
       <c r="AAL2" s="2">
-        <v>-0.935995218930788</v>
+        <v>4.37099911984327</v>
       </c>
       <c r="AAM2" s="2">
-        <v>-0.933517969714436</v>
+        <v>-0.627738032033651</v>
       </c>
       <c r="AAN2" s="2">
-        <v>-0.923638280813165</v>
+        <v>-0.590712248083625</v>
       </c>
       <c r="AAO2" s="2">
-        <v>-0.941438955207352</v>
+        <v>-2.66137868266216</v>
       </c>
       <c r="AAP2" s="2">
-        <v>-0.938345170100106</v>
+        <v>-22.1806497041473</v>
       </c>
       <c r="AAQ2" s="2">
-        <v>-0.939361707589744</v>
+        <v>-8.82365125322074</v>
       </c>
       <c r="AAR2" s="2">
-        <v>-0.931081300773213</v>
+        <v>-0.08604236126836851</v>
       </c>
       <c r="AAS2" s="2">
-        <v>-0.935326839147401</v>
+        <v>-4.66416095129477</v>
       </c>
       <c r="AAT2" s="2">
-        <v>-0.912676393530601</v>
+        <v>1.38330641153587</v>
       </c>
       <c r="AAU2" s="2">
-        <v>-0.9227411339921801</v>
+        <v>1.86169422437436</v>
       </c>
       <c r="AAV2" s="2">
-        <v>-0.925774578856927</v>
+        <v>-6.91024546516914</v>
       </c>
       <c r="AAW2" s="2">
-        <v>-0.931119466029414</v>
+        <v>-8.387525913328609</v>
       </c>
       <c r="AAX2" s="2">
-        <v>-0.924216019333346</v>
+        <v>-14.9376062244866</v>
       </c>
       <c r="AAY2" s="2">
-        <v>-0.937493224155183</v>
+        <v>-4.26935139060701</v>
       </c>
       <c r="AAZ2" s="2">
-        <v>-0.9234087395469101</v>
+        <v>-6.49566530662077</v>
       </c>
       <c r="ABA2" s="2">
-        <v>-0.9175145486873491</v>
+        <v>-4.7415899291555</v>
       </c>
       <c r="ABB2" s="2">
-        <v>-0.906043369802948</v>
+        <v>-8.11171204845331</v>
       </c>
       <c r="ABC2" s="2">
-        <v>-0.924769084462383</v>
+        <v>-8.588713903404161</v>
       </c>
       <c r="ABD2" s="2">
-        <v>-0.914539032568559</v>
+        <v>-24.2217539261559</v>
       </c>
       <c r="ABE2" s="2">
-        <v>-0.914541600273427</v>
+        <v>-1.71512089940373</v>
       </c>
       <c r="ABF2" s="2">
-        <v>-0.931481893824742</v>
+        <v>0.233798710691965</v>
       </c>
       <c r="ABG2" s="2">
-        <v>-0.9199874653893</v>
+        <v>-19.5689277875111</v>
       </c>
       <c r="ABH2" s="2">
-        <v>-0.926486135147304</v>
+        <v>-11.9628821740634</v>
       </c>
       <c r="ABI2" s="2">
-        <v>-0.914158589148459</v>
+        <v>-10.6718570704452</v>
       </c>
       <c r="ABJ2" s="2">
-        <v>-0.904282392393874</v>
+        <v>-21.1511967914809</v>
       </c>
       <c r="ABK2" s="2">
-        <v>-0.9201531013253</v>
+        <v>-6.86763751396888</v>
       </c>
       <c r="ABL2" s="2">
-        <v>-0.917801599244863</v>
+        <v>-11.6341107406307</v>
       </c>
       <c r="ABM2" s="2">
-        <v>-0.910644610027271</v>
+        <v>3.5948707203053</v>
       </c>
       <c r="ABN2" s="2">
-        <v>-0.916686461917936</v>
+        <v>-12.2217754777625</v>
       </c>
       <c r="ABO2" s="2">
-        <v>-0.9087078762165089</v>
+        <v>-2.08020478661044</v>
       </c>
       <c r="ABP2" s="2">
-        <v>-0.891245500202451</v>
+        <v>1.26743214389423</v>
       </c>
       <c r="ABQ2" s="2">
-        <v>-0.901826624644128</v>
+        <v>-9.059967568656459</v>
       </c>
       <c r="ABR2" s="2">
-        <v>-0.908108761693495</v>
+        <v>-1.24269380406898</v>
       </c>
       <c r="ABS2" s="2">
-        <v>-0.914545658866139</v>
+        <v>-0.310700945921524</v>
       </c>
       <c r="ABT2" s="2">
-        <v>-0.903562603942586</v>
+        <v>3.08446116191245</v>
       </c>
       <c r="ABU2" s="2">
-        <v>-0.894948435182134</v>
+        <v>-8.12835738009238</v>
       </c>
       <c r="ABV2" s="2">
-        <v>-0.905168528592152</v>
+        <v>6.94509590873643</v>
       </c>
       <c r="ABW2" s="2">
-        <v>-0.9024904002377701</v>
+        <v>1.38821163394102</v>
       </c>
       <c r="ABX2" s="2">
-        <v>-0.8973153615914981</v>
+        <v>2.70122921331502</v>
       </c>
       <c r="ABY2" s="2">
-        <v>-0.903958467384907</v>
+        <v>-10.7357510276176</v>
       </c>
       <c r="ABZ2" s="2">
-        <v>-0.898040017822514</v>
+        <v>-17.3616287701886</v>
       </c>
       <c r="ACA2" s="2">
-        <v>-0.912918281500914</v>
+        <v>5.31218141771452</v>
       </c>
       <c r="ACB2" s="2">
-        <v>-0.900741570626066</v>
+        <v>7.30926673915052</v>
       </c>
       <c r="ACC2" s="2">
-        <v>-0.904127708369759</v>
+        <v>8.795474449074129</v>
       </c>
       <c r="ACD2" s="2">
-        <v>-0.906830476377654</v>
+        <v>0.0387594091862378</v>
       </c>
       <c r="ACE2" s="2">
-        <v>-0.9180824007884411</v>
+        <v>3.46470256261762</v>
       </c>
       <c r="ACF2" s="2">
-        <v>-0.913335327084654</v>
+        <v>-6.10787242858887</v>
       </c>
       <c r="ACG2" s="2">
-        <v>-0.906549734952835</v>
+        <v>-4.51122567857977</v>
       </c>
       <c r="ACH2" s="2">
-        <v>-0.904413226754574</v>
+        <v>-8.99391298817887</v>
       </c>
       <c r="ACI2" s="2">
-        <v>-0.910746410572121</v>
+        <v>5.77649338137327</v>
       </c>
       <c r="ACJ2" s="2">
-        <v>-0.919346564702842</v>
+        <v>-4.52476154834802</v>
       </c>
       <c r="ACK2" s="2">
-        <v>-0.9215861635010431</v>
+        <v>-30.4102454582523</v>
       </c>
       <c r="ACL2" s="2">
-        <v>-0.930214962456742</v>
+        <v>-16.7876648710291</v>
       </c>
       <c r="ACM2" s="2">
-        <v>-0.931048225284654</v>
+        <v>-3.67952878346689</v>
       </c>
       <c r="ACN2" s="2">
-        <v>-0.9188084549086299</v>
+        <v>-1.50123321658329</v>
       </c>
       <c r="ACO2" s="2">
-        <v>-0.930053493684074</v>
+        <v>12.3271220005154</v>
       </c>
       <c r="ACP2" s="2">
-        <v>-0.92930432258019</v>
+        <v>-15.900508048755</v>
       </c>
       <c r="ACQ2" s="2">
-        <v>-0.945883642805428</v>
+        <v>-3.13170791539841</v>
       </c>
       <c r="ACR2" s="2">
-        <v>-0.936766379516639</v>
+        <v>-22.3144298475331</v>
       </c>
       <c r="ACS2" s="2">
-        <v>-0.940672687270338</v>
+        <v>-12.0678881227404</v>
       </c>
       <c r="ACT2" s="2">
-        <v>-0.950562762197442</v>
+        <v>-9.78923484160207</v>
       </c>
       <c r="ACU2" s="2">
-        <v>-0.942182222985428</v>
+        <v>-15.6736139160899</v>
       </c>
       <c r="ACV2" s="2">
-        <v>-0.97107557161768</v>
+        <v>-7.60284919714816</v>
       </c>
       <c r="ACW2" s="2">
-        <v>-0.955642914145348</v>
+        <v>11.4815169978678</v>
       </c>
       <c r="ACX2" s="2">
-        <v>-0.96294558775918</v>
+        <v>4.96274865434593</v>
       </c>
       <c r="ACY2" s="2">
-        <v>-0.973507322035674</v>
+        <v>-1.68938229364041</v>
       </c>
       <c r="ACZ2" s="2">
-        <v>-0.974243547656041</v>
+        <v>-5.19699913363853</v>
       </c>
       <c r="ADA2" s="2">
-        <v>-0.98440792914278</v>
+        <v>-8.86353836974607</v>
       </c>
       <c r="ADB2" s="2">
-        <v>-0.984326353967693</v>
+        <v>-18.5374863626517</v>
       </c>
       <c r="ADC2" s="2">
-        <v>-0.995376209293281</v>
+        <v>-5.64579623146413</v>
       </c>
       <c r="ADD2" s="2">
-        <v>-0.982792015037503</v>
+        <v>-1.73201790973244</v>
       </c>
       <c r="ADE2" s="2">
-        <v>-1.00039009888599</v>
+        <v>-9.150364832835811</v>
       </c>
       <c r="ADF2" s="2">
-        <v>-1.01074714059979</v>
+        <v>6.62527066962095</v>
       </c>
       <c r="ADG2" s="2">
-        <v>-1.01121618889442</v>
+        <v>-13.4385262687796</v>
       </c>
       <c r="ADH2" s="2">
-        <v>-1.02726358426151</v>
+        <v>-9.009744159100229</v>
       </c>
       <c r="ADI2" s="2">
-        <v>-1.01523059180035</v>
+        <v>4.29159403188495</v>
       </c>
       <c r="ADJ2" s="2">
-        <v>-1.03865200875911</v>
+        <v>-16.6765983667813</v>
       </c>
       <c r="ADK2" s="2">
-        <v>-1.02933709378243</v>
+        <v>-0.659271247653355</v>
       </c>
       <c r="ADL2" s="2">
-        <v>-1.03455631566894</v>
+        <v>-10.391906498916</v>
       </c>
       <c r="ADM2" s="2">
-        <v>-1.02758521412831</v>
+        <v>-21.4038009222998</v>
       </c>
       <c r="ADN2" s="2">
-        <v>-1.0520972900464</v>
+        <v>-7.06429499845437</v>
       </c>
       <c r="ADO2" s="2">
-        <v>-1.04546322727098</v>
+        <v>-0.150336405560873</v>
       </c>
       <c r="ADP2" s="2">
-        <v>-1.04872225006955</v>
+        <v>-9.37146461239529</v>
       </c>
       <c r="ADQ2" s="2">
-        <v>-1.03875980374401</v>
+        <v>-1.75661424889711</v>
       </c>
       <c r="ADR2" s="2">
-        <v>-1.05694014708285</v>
+        <v>-13.0874398071222</v>
       </c>
       <c r="ADS2" s="2">
-        <v>-1.07378520568907</v>
+        <v>3.59106424867017</v>
       </c>
       <c r="ADT2" s="2">
-        <v>-1.08618346970608</v>
+        <v>-1.0170570668595</v>
       </c>
       <c r="ADU2" s="2">
-        <v>-1.08046855292163</v>
+        <v>-8.1250461457822</v>
       </c>
       <c r="ADV2" s="2">
-        <v>-1.07970079667556</v>
+        <v>-11.9425906044591</v>
       </c>
       <c r="ADW2" s="2">
-        <v>-1.09424444669889</v>
+        <v>-1.86228900988581</v>
       </c>
       <c r="ADX2" s="2">
-        <v>-1.09852319084456</v>
+        <v>-5.58488233820486</v>
       </c>
       <c r="ADY2" s="2">
-        <v>-1.10267345944273</v>
+        <v>0.0292411092792586</v>
       </c>
       <c r="ADZ2" s="2">
-        <v>-1.09242016077043</v>
+        <v>-10.65090551049</v>
       </c>
       <c r="AEA2" s="2">
-        <v>-1.09641313458643</v>
+        <v>-6.82077887083876</v>
       </c>
       <c r="AEB2" s="2">
-        <v>-1.09946592937492</v>
+        <v>-2.38305586281519</v>
       </c>
       <c r="AEC2" s="2">
-        <v>-1.10711059744279</v>
+        <v>-1.91559716965211</v>
       </c>
       <c r="AED2" s="2">
-        <v>-1.08804092169528</v>
+        <v>2.08010645578656</v>
       </c>
       <c r="AEE2" s="2">
-        <v>-1.11037537625003</v>
+        <v>-25.4431579647927</v>
       </c>
       <c r="AEF2" s="2">
-        <v>-1.10696793670258</v>
+        <v>-4.00338836649384</v>
       </c>
       <c r="AEG2" s="2">
-        <v>-1.12084098507964</v>
+        <v>11.939238195147</v>
       </c>
       <c r="AEH2" s="2">
-        <v>-1.10960232595631</v>
+        <v>-0.988733523961003</v>
       </c>
       <c r="AEI2" s="2">
-        <v>-1.10736552914277</v>
+        <v>-20.34093334843</v>
       </c>
       <c r="AEJ2" s="2">
-        <v>-1.12695371864038</v>
+        <v>-16.8261175178205</v>
       </c>
       <c r="AEK2" s="2">
-        <v>-1.11437323372304</v>
+        <v>2.83975343402308</v>
       </c>
       <c r="AEL2" s="2">
-        <v>-1.12367874973899</v>
+        <v>-3.94047770325846</v>
       </c>
       <c r="AEM2" s="2">
-        <v>-1.12158440795791</v>
+        <v>-7.8268944252434</v>
       </c>
       <c r="AEN2" s="2">
-        <v>-1.1111053476923</v>
+        <v>-0.332126608940598</v>
       </c>
       <c r="AEO2" s="2">
-        <v>-1.11742575981127</v>
+        <v>-1.93790352885704</v>
       </c>
       <c r="AEP2" s="2">
-        <v>-1.10415565989828</v>
+        <v>-3.26226083969104</v>
       </c>
       <c r="AEQ2" s="2">
-        <v>-1.11188880739456</v>
+        <v>1.18277628329784</v>
       </c>
       <c r="AER2" s="2">
-        <v>-1.11047102889544</v>
+        <v>4.91474111830787</v>
       </c>
       <c r="AES2" s="2">
-        <v>-1.10459559924295</v>
+        <v>1.4855763553246</v>
       </c>
       <c r="AET2" s="2">
-        <v>-1.11123312728882</v>
+        <v>-13.9428041066423</v>
       </c>
       <c r="AEU2" s="2">
-        <v>-1.11306443966687</v>
+        <v>15.1876455123854</v>
       </c>
       <c r="AEV2" s="2">
-        <v>-1.11261318727596</v>
+        <v>-0.857474850353696</v>
       </c>
       <c r="AEW2" s="2">
-        <v>-1.11296399482935</v>
+        <v>3.86911977465574</v>
       </c>
       <c r="AEX2" s="2">
-        <v>-1.09887939272689</v>
+        <v>-3.61528015736602</v>
       </c>
       <c r="AEY2" s="2">
-        <v>-1.08792283549259</v>
+        <v>-10.6775357665873</v>
       </c>
       <c r="AEZ2" s="2">
-        <v>-1.10289792042558</v>
+        <v>-4.3238953256011</v>
       </c>
       <c r="AFA2" s="2">
-        <v>-1.08288063016876</v>
+        <v>-1.09824148071494</v>
       </c>
       <c r="AFB2" s="2">
-        <v>-1.08441936560228</v>
+        <v>-28.8468144842442</v>
       </c>
       <c r="AFC2" s="2">
-        <v>-1.10172801436489</v>
+        <v>-13.6909057105505</v>
       </c>
       <c r="AFD2" s="2">
-        <v>-1.07226903454933</v>
+        <v>-13.1072454220642</v>
       </c>
       <c r="AFE2" s="2">
-        <v>-1.08894053601478</v>
+        <v>-16.79924060805</v>
       </c>
       <c r="AFF2" s="2">
-        <v>-1.06418911260039</v>
+        <v>2.84526467146783</v>
       </c>
       <c r="AFG2" s="2">
-        <v>-1.06518657119044</v>
+        <v>6.47079985682959</v>
       </c>
       <c r="AFH2" s="2">
-        <v>-1.0679545182496</v>
+        <v>-16.0438143903099</v>
       </c>
       <c r="AFI2" s="2">
-        <v>-1.07555548437478</v>
+        <v>-1.59023247285778</v>
       </c>
       <c r="AFJ2" s="2">
-        <v>-1.03938602810834</v>
+        <v>9.93019177152707</v>
       </c>
       <c r="AFK2" s="2">
-        <v>-1.06210384799948</v>
+        <v>-4.64500483208779</v>
       </c>
       <c r="AFL2" s="2">
-        <v>-1.0488347811279</v>
+        <v>-2.7777185142587</v>
       </c>
       <c r="AFM2" s="2">
-        <v>-1.03932521185374</v>
+        <v>-10.455347614929</v>
       </c>
       <c r="AFN2" s="2">
-        <v>-1.04353351589111</v>
+        <v>-9.09972410238186</v>
       </c>
       <c r="AFO2" s="2">
-        <v>-1.03630935655244</v>
+        <v>-8.20916884577067</v>
       </c>
       <c r="AFP2" s="2">
-        <v>-1.04343257941723</v>
+        <v>-1.10626325073434</v>
       </c>
       <c r="AFQ2" s="2">
-        <v>-1.0352950457812</v>
+        <v>-23.9077019135607</v>
       </c>
       <c r="AFR2" s="2">
-        <v>-1.03570721208569</v>
+        <v>-6.94770156217315</v>
       </c>
       <c r="AFS2" s="2">
-        <v>-1.03145723228592</v>
+        <v>-22.3228001791484</v>
       </c>
       <c r="AFT2" s="2">
-        <v>-1.02160514992538</v>
+        <v>-9.936946675662311</v>
       </c>
       <c r="AFU2" s="2">
-        <v>-1.00653857576489</v>
+        <v>-27.6284528335186</v>
       </c>
       <c r="AFV2" s="2">
-        <v>-1.01414985804058</v>
+        <v>6.2711968400103</v>
       </c>
       <c r="AFW2" s="2">
-        <v>-1.0159517404665</v>
+        <v>-7.17173031986517</v>
       </c>
       <c r="AFX2" s="2">
-        <v>-1.00344997885722</v>
+        <v>-11.9418635299025</v>
       </c>
       <c r="AFY2" s="2">
-        <v>-1.0095227573113</v>
+        <v>-2.2216999707416</v>
       </c>
       <c r="AFZ2" s="2">
-        <v>-1.00860851270821</v>
+        <v>8.15653406002782</v>
       </c>
       <c r="AGA2" s="2">
-        <v>-1.01199479866734</v>
+        <v>-5.97478708230436</v>
       </c>
       <c r="AGB2" s="2">
-        <v>-0.9905549538141321</v>
+        <v>-18.7143526980749</v>
       </c>
       <c r="AGC2" s="2">
-        <v>-1.0026063845949</v>
+        <v>4.97259991602135</v>
       </c>
       <c r="AGD2" s="2">
-        <v>-0.998526807207334</v>
+        <v>-1.21236813889544</v>
       </c>
       <c r="AGE2" s="2">
-        <v>-1.00199490563874</v>
+        <v>1.257753114487</v>
       </c>
       <c r="AGF2" s="2">
-        <v>-0.991645977004267</v>
+        <v>1.53504538013315</v>
       </c>
       <c r="AGG2" s="2">
-        <v>-1.00654974669221</v>
+        <v>-14.8669693727823</v>
       </c>
       <c r="AGH2" s="2">
-        <v>-1.00015895233484</v>
+        <v>0.111519560475743</v>
       </c>
       <c r="AGI2" s="2">
-        <v>-0.9911656047926291</v>
+        <v>0.786955879162435</v>
       </c>
       <c r="AGJ2" s="2">
-        <v>-1.00076545939255</v>
+        <v>-10.132825840336</v>
       </c>
       <c r="AGK2" s="2">
-        <v>-1.00496344038669</v>
+        <v>5.45056763957845</v>
       </c>
       <c r="AGL2" s="2">
-        <v>-1.01454301832674</v>
+        <v>9.425859280781641</v>
       </c>
       <c r="AGM2" s="2">
-        <v>-1.0114849645216</v>
+        <v>2.07420593349632</v>
       </c>
       <c r="AGN2" s="2">
-        <v>-1.00436055543313</v>
+        <v>-2.81682830385017</v>
       </c>
       <c r="AGO2" s="2">
-        <v>-1.01770314490339</v>
+        <v>-3.96238513421488</v>
       </c>
       <c r="AGP2" s="2">
-        <v>-1.00919409756608</v>
+        <v>-7.61214655329559</v>
       </c>
       <c r="AGQ2" s="2">
-        <v>-1.02173868707014</v>
+        <v>-5.58556861361488</v>
       </c>
       <c r="AGR2" s="2">
-        <v>-1.00366462520902</v>
+        <v>4.71152916975683</v>
       </c>
       <c r="AGS2" s="2">
-        <v>-1.0152053521853</v>
+        <v>-10.129263317306</v>
       </c>
       <c r="AGT2" s="2">
-        <v>-1.03334482523351</v>
+        <v>-14.882867467089</v>
       </c>
       <c r="AGU2" s="2">
-        <v>-1.04005911047699</v>
+        <v>0.252015877801197</v>
       </c>
       <c r="AGV2" s="2">
-        <v>-1.02860491690831</v>
+        <v>-16.9546505394019</v>
       </c>
       <c r="AGW2" s="2">
-        <v>-1.0497201604671</v>
+        <v>-2.00204887929725</v>
       </c>
       <c r="AGX2" s="2">
-        <v>-1.05195603382686</v>
+        <v>-15.1349199867251</v>
       </c>
       <c r="AGY2" s="2">
-        <v>-1.057131399239</v>
+        <v>-6.11216680014246</v>
       </c>
       <c r="AGZ2" s="2">
-        <v>-1.07673919478739</v>
+        <v>-4.15320501995841</v>
       </c>
       <c r="AHA2" s="2">
-        <v>-1.07301003425725</v>
+        <v>11.0094241960941</v>
       </c>
       <c r="AHB2" s="2">
-        <v>-1.08261220116832</v>
+        <v>-22.8527655808743</v>
       </c>
       <c r="AHC2" s="2">
-        <v>-1.09463800187646</v>
+        <v>-6.25307017126178</v>
       </c>
       <c r="AHD2" s="2">
-        <v>-1.10258721121938</v>
+        <v>-1.65997631276751</v>
       </c>
       <c r="AHE2" s="2">
-        <v>-1.10826091950414</v>
+        <v>-7.39320545516666</v>
       </c>
       <c r="AHF2" s="2">
-        <v>-1.1178752984881</v>
+        <v>-11.9531271298524</v>
       </c>
       <c r="AHG2" s="2">
-        <v>-1.12066865323406</v>
+        <v>-12.2494288520887</v>
       </c>
       <c r="AHH2" s="2">
-        <v>-1.13423518896967</v>
+        <v>-12.2428864128901</v>
       </c>
       <c r="AHI2" s="2">
-        <v>-1.12793730899781</v>
+        <v>-6.9572423608529</v>
       </c>
       <c r="AHJ2" s="2">
-        <v>-1.14393978504096</v>
+        <v>-4.30826329009739</v>
       </c>
       <c r="AHK2" s="2">
-        <v>-1.1496551582042</v>
+        <v>-3.12200416123937</v>
       </c>
       <c r="AHL2" s="2">
-        <v>-1.15894396190539</v>
+        <v>-17.4490635472805</v>
       </c>
       <c r="AHM2" s="2">
-        <v>-1.17125290151768</v>
+        <v>19.5506735019199</v>
       </c>
       <c r="AHN2" s="2">
-        <v>-1.18522859495061</v>
+        <v>-3.37361287800205</v>
       </c>
       <c r="AHO2" s="2">
-        <v>-1.19667843319794</v>
+        <v>-1.90434829546998</v>
       </c>
       <c r="AHP2" s="2">
-        <v>-1.2043053023838</v>
+        <v>-5.32507420573788</v>
       </c>
       <c r="AHQ2" s="2">
-        <v>-1.20690567699199</v>
+        <v>-0.8067450226942789</v>
       </c>
       <c r="AHR2" s="2">
-        <v>-1.25047485611062</v>
+        <v>8.716621324575369</v>
       </c>
       <c r="AHS2" s="2">
-        <v>-1.24978777819817</v>
+        <v>-4.69202993073791</v>
       </c>
       <c r="AHT2" s="2">
-        <v>-1.25059721522642</v>
+        <v>-19.638886820143</v>
       </c>
       <c r="AHU2" s="2">
-        <v>-1.26735560463989</v>
+        <v>-2.69301338225188</v>
       </c>
       <c r="AHV2" s="2">
-        <v>-1.25322506876167</v>
+        <v>-7.957719606831</v>
       </c>
       <c r="AHW2" s="2">
-        <v>-1.27969026261311</v>
+        <v>-6.50210063931803</v>
       </c>
       <c r="AHX2" s="2">
-        <v>-1.28602179560859</v>
+        <v>-18.7313175458099</v>
       </c>
       <c r="AHY2" s="2">
-        <v>-1.29211439175064</v>
+        <v>6.62532995197651</v>
       </c>
       <c r="AHZ2" s="2">
-        <v>-1.29508791991656</v>
+        <v>-7.28026071703762</v>
       </c>
       <c r="AIA2" s="2">
-        <v>-1.31321507626982</v>
+        <v>-14.8931319819516</v>
       </c>
       <c r="AIB2" s="2">
-        <v>-1.31524635378462</v>
+        <v>0.574051606067616</v>
       </c>
       <c r="AIC2" s="2">
-        <v>-1.3323374737574</v>
+        <v>-8.838441544262571</v>
       </c>
       <c r="AID2" s="2">
-        <v>-1.33169802639066</v>
+        <v>1.67220573113983</v>
       </c>
       <c r="AIE2" s="2">
-        <v>-1.34646057961079</v>
+        <v>-14.9297373788917</v>
       </c>
       <c r="AIF2" s="2">
-        <v>-1.33351978153748</v>
+        <v>-5.94758176419268</v>
       </c>
       <c r="AIG2" s="2">
-        <v>-1.34736279826483</v>
+        <v>-11.181303477468</v>
       </c>
       <c r="AIH2" s="2">
-        <v>-1.35882474394308</v>
+        <v>-9.75134504725972</v>
       </c>
       <c r="AII2" s="2">
-        <v>-1.35369899083271</v>
+        <v>-22.9964044907255</v>
       </c>
       <c r="AIJ2" s="2">
-        <v>-1.37583759352384</v>
+        <v>9.528296813321839</v>
       </c>
       <c r="AIK2" s="2">
-        <v>-1.38253106888217</v>
+        <v>-9.96250530515074</v>
       </c>
       <c r="AIL2" s="2">
-        <v>-1.3764113253187</v>
+        <v>-17.4208663659739</v>
       </c>
       <c r="AIM2" s="2">
-        <v>-1.38103452114048</v>
+        <v>-10.0243928955157</v>
       </c>
       <c r="AIN2" s="2">
-        <v>-1.37960161315427</v>
+        <v>-4.09187916630026</v>
       </c>
       <c r="AIO2" s="2">
-        <v>-1.39232694642401</v>
+        <v>-5.41497926087226</v>
       </c>
       <c r="AIP2" s="2">
-        <v>-1.38191561765517</v>
+        <v>-5.27023012803478</v>
       </c>
       <c r="AIQ2" s="2">
-        <v>-1.38794047817001</v>
+        <v>4.69528471367611</v>
       </c>
       <c r="AIR2" s="2">
-        <v>-1.39236784479829</v>
+        <v>-3.7083770344951</v>
       </c>
       <c r="AIS2" s="2">
-        <v>-1.40761124136127</v>
+        <v>-10.8875021431137</v>
       </c>
       <c r="AIT2" s="2">
-        <v>-1.39740866537483</v>
+        <v>5.14304943016168</v>
       </c>
       <c r="AIU2" s="2">
-        <v>-1.3891796499024</v>
+        <v>-1.47607405591365</v>
       </c>
       <c r="AIV2" s="2">
-        <v>-1.38537317763432</v>
+        <v>0.203598568038174</v>
       </c>
       <c r="AIW2" s="2">
-        <v>-1.3894790083984</v>
+        <v>3.38879029736041</v>
       </c>
       <c r="AIX2" s="2">
-        <v>-1.39755914242144</v>
+        <v>-6.59239011365532</v>
       </c>
       <c r="AIY2" s="2">
-        <v>-1.39187505159516</v>
+        <v>4.45668601877749</v>
       </c>
       <c r="AIZ2" s="2">
-        <v>-1.39374456137532</v>
+        <v>11.3216358709175</v>
       </c>
       <c r="AJA2" s="2">
-        <v>-1.36941553054881</v>
+        <v>-0.502530583249175</v>
       </c>
       <c r="AJB2" s="2">
-        <v>-1.38481254029122</v>
+        <v>-10.1282349729841</v>
       </c>
       <c r="AJC2" s="2">
-        <v>-1.38023814958712</v>
+        <v>-1.40727919435124</v>
       </c>
       <c r="AJD2" s="2">
-        <v>-1.37629345710595</v>
+        <v>-9.971750811098961</v>
       </c>
       <c r="AJE2" s="2">
-        <v>-1.35759606782817</v>
+        <v>-1.0149096741847</v>
       </c>
       <c r="AJF2" s="2">
-        <v>-1.35010849134456</v>
+        <v>5.13781267841716</v>
       </c>
       <c r="AJG2" s="2">
-        <v>-1.35149156961961</v>
+        <v>-24.5477471358757</v>
       </c>
       <c r="AJH2" s="2">
-        <v>-1.35924097751318</v>
+        <v>-2.27539688353226</v>
       </c>
       <c r="AJI2" s="2">
-        <v>-1.3552092194911</v>
+        <v>-7.94703025635357</v>
       </c>
       <c r="AJJ2" s="2">
-        <v>-1.34298958427548</v>
+        <v>-0.331290610999073</v>
       </c>
       <c r="AJK2" s="2">
-        <v>-1.33244685591241</v>
+        <v>-0.550453999098102</v>
       </c>
       <c r="AJL2" s="2">
-        <v>-1.32148470649028</v>
+        <v>2.59750709551475</v>
       </c>
       <c r="AJM2" s="2">
-        <v>-1.31160534779028</v>
+        <v>-4.23278523145691</v>
       </c>
       <c r="AJN2" s="2">
-        <v>-1.30528679561335</v>
+        <v>-0.921747960785317</v>
       </c>
       <c r="AJO2" s="2">
-        <v>-1.30663867148745</v>
+        <v>-8.06064046802887</v>
       </c>
       <c r="AJP2" s="2">
-        <v>-1.29039193682294</v>
+        <v>-0.63802506978314</v>
       </c>
       <c r="AJQ2" s="2">
-        <v>-1.28344521075629</v>
+        <v>2.71602190277295</v>
       </c>
       <c r="AJR2" s="2">
-        <v>-1.27940714573113</v>
+        <v>4.34229663266886</v>
       </c>
       <c r="AJS2" s="2">
-        <v>-1.28996820762411</v>
+        <v>2.17954668433217</v>
       </c>
       <c r="AJT2" s="2">
-        <v>-1.27310459817744</v>
+        <v>-1.3095089477172</v>
       </c>
       <c r="AJU2" s="2">
-        <v>-1.27647254454974</v>
+        <v>-8.103206563294471</v>
       </c>
       <c r="AJV2" s="2">
-        <v>-1.2516111028567</v>
+        <v>-8.21592434479936</v>
       </c>
       <c r="AJW2" s="2">
-        <v>-1.26060971769568</v>
+        <v>-18.7637036344451</v>
       </c>
       <c r="AJX2" s="2">
-        <v>-1.23836154224007</v>
+        <v>1.77158300337202</v>
       </c>
       <c r="AJY2" s="2">
-        <v>-1.2479951422613</v>
+        <v>-0.267817428540892</v>
       </c>
       <c r="AJZ2" s="2">
-        <v>-1.22791128498812</v>
+        <v>-30.4728198742035</v>
       </c>
       <c r="AKA2" s="2">
-        <v>-1.24070818784252</v>
+        <v>-20.4726484866438</v>
       </c>
       <c r="AKB2" s="2">
-        <v>-1.22320228606415</v>
+        <v>7.33955907474033</v>
       </c>
       <c r="AKC2" s="2">
-        <v>-1.22191382951932</v>
+        <v>-3.72209219791766</v>
       </c>
       <c r="AKD2" s="2">
-        <v>-1.20768323501981</v>
+        <v>-2.15490621711784</v>
       </c>
       <c r="AKE2" s="2">
-        <v>-1.2050596610574</v>
+        <v>0.345457186776546</v>
       </c>
       <c r="AKF2" s="2">
-        <v>-1.18958918562762</v>
+        <v>-3.80692882733982</v>
       </c>
       <c r="AKG2" s="2">
-        <v>-1.2065994995713</v>
+        <v>-8.302659540198629</v>
       </c>
       <c r="AKH2" s="2">
-        <v>-1.202990180047</v>
+        <v>-5.26490601064691</v>
       </c>
       <c r="AKI2" s="2">
-        <v>-1.18934170344387</v>
+        <v>3.39253928731059</v>
       </c>
       <c r="AKJ2" s="2">
-        <v>-1.19547329328225</v>
+        <v>-0.304987896138196</v>
       </c>
       <c r="AKK2" s="2">
-        <v>-1.1814278204794</v>
+        <v>6.02405608901732</v>
       </c>
       <c r="AKL2" s="2">
-        <v>-1.18868990951308</v>
+        <v>-2.30120911267394</v>
       </c>
       <c r="AKM2" s="2">
-        <v>-1.17770306465494</v>
+        <v>0.56981399828688</v>
       </c>
       <c r="AKN2" s="2">
-        <v>-1.18603886181037</v>
+        <v>0.453679892604702</v>
       </c>
       <c r="AKO2" s="2">
-        <v>-1.19154307948054</v>
+        <v>-22.378637211713</v>
       </c>
       <c r="AKP2" s="2">
-        <v>-1.17767401862211</v>
+        <v>-2.12408738341683</v>
       </c>
       <c r="AKQ2" s="2">
-        <v>-1.18281392348322</v>
+        <v>-6.93597126834512</v>
       </c>
       <c r="AKR2" s="2">
-        <v>-1.17592134217016</v>
+        <v>1.71421245101405</v>
       </c>
       <c r="AKS2" s="2">
-        <v>-1.18057110058436</v>
+        <v>7.06844543775179</v>
       </c>
       <c r="AKT2" s="2">
-        <v>-1.18815604697061</v>
+        <v>-17.7666904021552</v>
       </c>
       <c r="AKU2" s="2">
-        <v>-1.17885724431765</v>
+        <v>-4.38789467274406</v>
       </c>
       <c r="AKV2" s="2">
-        <v>-1.17864460832197</v>
+        <v>-23.5854650423101</v>
       </c>
       <c r="AKW2" s="2">
-        <v>-1.18194979119406</v>
+        <v>-1.89821547739568</v>
       </c>
       <c r="AKX2" s="2">
-        <v>-1.17728257996348</v>
+        <v>-2.20177734294084</v>
       </c>
       <c r="AKY2" s="2">
-        <v>-1.19927863589245</v>
+        <v>-9.49212585774587</v>
       </c>
       <c r="AKZ2" s="2">
-        <v>-1.20800429485678</v>
+        <v>-8.26733647538998</v>
       </c>
       <c r="ALA2" s="2">
-        <v>-1.19585020628086</v>
+        <v>19.6025722507802</v>
       </c>
       <c r="ALB2" s="2">
-        <v>-1.20414218416044</v>
+        <v>-6.05680023205889</v>
       </c>
       <c r="ALC2" s="2">
-        <v>-1.22129179996468</v>
+        <v>14.3742844813053</v>
       </c>
       <c r="ALD2" s="2">
-        <v>-1.22865303422108</v>
+        <v>8.624761955353369</v>
       </c>
       <c r="ALE2" s="2">
-        <v>-1.23803047887724</v>
+        <v>-2.48296312690907</v>
       </c>
       <c r="ALF2" s="2">
-        <v>-1.25371745393842</v>
+        <v>0.0692152670008998</v>
       </c>
       <c r="ALG2" s="2">
-        <v>-1.25082812041758</v>
+        <v>-5.11750288440198</v>
       </c>
       <c r="ALH2" s="2">
-        <v>-1.27454481306515</v>
+        <v>1.87583165712644</v>
       </c>
       <c r="ALI2" s="2">
-        <v>-1.28725666055776</v>
+        <v>-11.564992533778</v>
       </c>
       <c r="ALJ2" s="2">
-        <v>-1.29247661976857</v>
+        <v>-11.7825280179322</v>
       </c>
       <c r="ALK2" s="2">
-        <v>-1.29152322222514</v>
+        <v>-9.810538896495689</v>
       </c>
       <c r="ALL2" s="2">
-        <v>-1.30788873074423</v>
+        <v>-31.413055482425</v>
       </c>
       <c r="ALM2" s="2">
-        <v>-1.32919478054878</v>
+        <v>-1.37914464532764</v>
       </c>
     </row>
   </sheetData>
